--- a/DailyExpense.xlsx
+++ b/DailyExpense.xlsx
@@ -1375,7 +1375,7 @@
   <dimension ref="B2:W40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2031,9 +2031,11 @@
       </c>
       <c r="C20" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D20" s="3"/>
+        <v>5</v>
+      </c>
+      <c r="D20" s="3">
+        <v>5</v>
+      </c>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
@@ -2553,7 +2555,7 @@
       </c>
       <c r="C38" s="6">
         <f>SUM(C7:C37)</f>
-        <v>6007</v>
+        <v>6012</v>
       </c>
       <c r="D38" s="6"/>
       <c r="E38" s="6"/>

--- a/DailyExpense.xlsx
+++ b/DailyExpense.xlsx
@@ -801,6 +801,207 @@
           </rPr>
           <t xml:space="preserve">
 公司办饭卡押金</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I23" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+柠檬红茶</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> 10
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>关东煮</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> 6
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>奶茶</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> 8
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J23" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+上网</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> 16</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Q23" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+中和</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>柜子</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>预付款</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K24" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+参苓健脾胃颗粒</t>
         </r>
       </text>
     </comment>
@@ -1375,7 +1576,7 @@
   <dimension ref="B2:W40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2031,13 +2232,17 @@
       </c>
       <c r="C20" s="3">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="D20" s="3">
         <v>5</v>
       </c>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
+      <c r="E20" s="3">
+        <v>2</v>
+      </c>
+      <c r="F20" s="3">
+        <v>10</v>
+      </c>
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
@@ -2062,11 +2267,17 @@
       </c>
       <c r="C21" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
+        <v>54</v>
+      </c>
+      <c r="D21" s="3">
+        <v>4</v>
+      </c>
+      <c r="E21" s="3">
+        <v>26</v>
+      </c>
+      <c r="F21" s="3">
+        <v>24</v>
+      </c>
       <c r="G21" s="3"/>
       <c r="H21" s="3"/>
       <c r="I21" s="3"/>
@@ -2091,11 +2302,17 @@
       </c>
       <c r="C22" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
+        <v>32</v>
+      </c>
+      <c r="D22" s="3">
+        <v>4</v>
+      </c>
+      <c r="E22" s="3">
+        <v>8</v>
+      </c>
+      <c r="F22" s="3">
+        <v>20</v>
+      </c>
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
@@ -2120,22 +2337,32 @@
       </c>
       <c r="C23" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6923</v>
       </c>
       <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
+      <c r="E23" s="3">
+        <v>7</v>
+      </c>
+      <c r="F23" s="3">
+        <v>26</v>
+      </c>
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
+      <c r="I23" s="3">
+        <v>24</v>
+      </c>
+      <c r="J23" s="3">
+        <v>16</v>
+      </c>
       <c r="K23" s="3"/>
       <c r="L23" s="3"/>
       <c r="M23" s="3"/>
       <c r="N23" s="3"/>
       <c r="O23" s="3"/>
       <c r="P23" s="3"/>
-      <c r="Q23" s="3"/>
+      <c r="Q23" s="3">
+        <v>6850</v>
+      </c>
       <c r="R23" s="3"/>
       <c r="S23" s="3"/>
       <c r="T23" s="3"/>
@@ -2149,16 +2376,20 @@
       </c>
       <c r="C24" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
+      <c r="E24" s="3">
+        <v>11</v>
+      </c>
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
-      <c r="K24" s="3"/>
+      <c r="K24" s="3">
+        <v>28</v>
+      </c>
       <c r="L24" s="3"/>
       <c r="M24" s="3"/>
       <c r="N24" s="3"/>
@@ -2555,7 +2786,7 @@
       </c>
       <c r="C38" s="6">
         <f>SUM(C7:C37)</f>
-        <v>6012</v>
+        <v>13072</v>
       </c>
       <c r="D38" s="6"/>
       <c r="E38" s="6"/>

--- a/DailyExpense.xlsx
+++ b/DailyExpense.xlsx
@@ -1576,7 +1576,7 @@
   <dimension ref="B2:W40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2376,11 +2376,11 @@
       </c>
       <c r="C24" s="3">
         <f t="shared" si="0"/>
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D24" s="3"/>
       <c r="E24" s="3">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
@@ -2786,7 +2786,7 @@
       </c>
       <c r="C38" s="6">
         <f>SUM(C7:C37)</f>
-        <v>13072</v>
+        <v>13071</v>
       </c>
       <c r="D38" s="6"/>
       <c r="E38" s="6"/>

--- a/DailyExpense.xlsx
+++ b/DailyExpense.xlsx
@@ -1576,7 +1576,7 @@
   <dimension ref="B2:W40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2376,11 +2376,11 @@
       </c>
       <c r="C24" s="3">
         <f t="shared" si="0"/>
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D24" s="3"/>
       <c r="E24" s="3">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
@@ -2786,7 +2786,7 @@
       </c>
       <c r="C38" s="6">
         <f>SUM(C7:C37)</f>
-        <v>13071</v>
+        <v>13072</v>
       </c>
       <c r="D38" s="6"/>
       <c r="E38" s="6"/>

--- a/DailyExpense.xlsx
+++ b/DailyExpense.xlsx
@@ -1002,6 +1002,32 @@
           </rPr>
           <t xml:space="preserve">
 参苓健脾胃颗粒</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I25" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+面包</t>
         </r>
       </text>
     </comment>
@@ -1576,7 +1602,7 @@
   <dimension ref="B2:W40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2376,13 +2402,15 @@
       </c>
       <c r="C24" s="3">
         <f t="shared" si="0"/>
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="D24" s="3"/>
       <c r="E24" s="3">
-        <v>11</v>
-      </c>
-      <c r="F24" s="3"/>
+        <v>10</v>
+      </c>
+      <c r="F24" s="3">
+        <v>13</v>
+      </c>
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
       <c r="I24" s="3"/>
@@ -2409,14 +2437,22 @@
       </c>
       <c r="C25" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
+        <v>40</v>
+      </c>
+      <c r="D25" s="3">
+        <v>4</v>
+      </c>
+      <c r="E25" s="3">
+        <v>17</v>
+      </c>
+      <c r="F25" s="3">
+        <v>13</v>
+      </c>
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
+      <c r="I25" s="3">
+        <v>6</v>
+      </c>
       <c r="J25" s="3"/>
       <c r="K25" s="3"/>
       <c r="L25" s="3"/>
@@ -2786,7 +2822,7 @@
       </c>
       <c r="C38" s="6">
         <f>SUM(C7:C37)</f>
-        <v>13072</v>
+        <v>13124</v>
       </c>
       <c r="D38" s="6"/>
       <c r="E38" s="6"/>

--- a/DailyExpense.xlsx
+++ b/DailyExpense.xlsx
@@ -1028,6 +1028,136 @@
           </rPr>
           <t xml:space="preserve">
 面包</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K26" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+参苓健脾胃颗粒</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M26" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+两条秋裤</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F27" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+和小二一起吃饭</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G27" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+公司用卫生纸</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I28" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+两袋宫廷桃酥</t>
         </r>
       </text>
     </comment>
@@ -1602,7 +1732,7 @@
   <dimension ref="B2:W40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2474,18 +2604,28 @@
       </c>
       <c r="C26" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
+        <v>142</v>
+      </c>
+      <c r="D26" s="3">
+        <v>4</v>
+      </c>
+      <c r="E26" s="3">
+        <v>16</v>
+      </c>
+      <c r="F26" s="3">
+        <v>15</v>
+      </c>
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>
       <c r="I26" s="3"/>
       <c r="J26" s="3"/>
-      <c r="K26" s="3"/>
+      <c r="K26" s="3">
+        <v>29</v>
+      </c>
       <c r="L26" s="3"/>
-      <c r="M26" s="3"/>
+      <c r="M26" s="3">
+        <v>78</v>
+      </c>
       <c r="N26" s="3"/>
       <c r="O26" s="3"/>
       <c r="P26" s="3"/>
@@ -2503,12 +2643,20 @@
       </c>
       <c r="C27" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
+        <v>131</v>
+      </c>
+      <c r="D27" s="3">
+        <v>4</v>
+      </c>
+      <c r="E27" s="3">
+        <v>23</v>
+      </c>
+      <c r="F27" s="3">
+        <v>100</v>
+      </c>
+      <c r="G27" s="3">
+        <v>4</v>
+      </c>
       <c r="H27" s="3"/>
       <c r="I27" s="3"/>
       <c r="J27" s="3"/>
@@ -2532,14 +2680,22 @@
       </c>
       <c r="C28" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
+        <v>44</v>
+      </c>
+      <c r="D28" s="3">
+        <v>4</v>
+      </c>
+      <c r="E28" s="3">
+        <v>10</v>
+      </c>
+      <c r="F28" s="3">
+        <v>10</v>
+      </c>
       <c r="G28" s="3"/>
       <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
+      <c r="I28" s="3">
+        <v>20</v>
+      </c>
       <c r="J28" s="3"/>
       <c r="K28" s="3"/>
       <c r="L28" s="3"/>
@@ -2822,7 +2978,7 @@
       </c>
       <c r="C38" s="6">
         <f>SUM(C7:C37)</f>
-        <v>13124</v>
+        <v>13441</v>
       </c>
       <c r="D38" s="6"/>
       <c r="E38" s="6"/>

--- a/DailyExpense.xlsx
+++ b/DailyExpense.xlsx
@@ -21,6 +21,32 @@
     <author>作者</author>
   </authors>
   <commentList>
+    <comment ref="H4" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+理发</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="J4" authorId="0">
       <text>
         <r>
@@ -229,8 +255,19 @@
         </r>
       </text>
     </comment>
-    <comment ref="P11" authorId="0">
-      <text>
+    <comment ref="Q11" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者</t>
+        </r>
         <r>
           <rPr>
             <b/>
@@ -239,7 +276,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>作者:</t>
+          <t>:</t>
         </r>
         <r>
           <rPr>
@@ -305,7 +342,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q12" authorId="0">
+    <comment ref="R12" authorId="0">
       <text>
         <r>
           <rPr>
@@ -700,7 +737,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q16" authorId="0">
+    <comment ref="R16" authorId="0">
       <text>
         <r>
           <rPr>
@@ -915,7 +952,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q23" authorId="0">
+    <comment ref="R23" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1158,6 +1195,162 @@
           </rPr>
           <t xml:space="preserve">
 两袋宫廷桃酥</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F31" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+和小二吃晚饭</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H31" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+上网</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I31" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+豆奶</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H32" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+理发</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M32" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+三个月的房租加水电</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="R32" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+装修款</t>
         </r>
       </text>
     </comment>
@@ -1166,7 +1359,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
   <si>
     <t>日期</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -1241,6 +1434,10 @@
   </si>
   <si>
     <t>日常消费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>房租</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1729,10 +1926,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:W40"/>
+  <dimension ref="B2:X40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1743,12 +1940,12 @@
     <col min="4" max="6" width="9" style="1"/>
     <col min="7" max="8" width="10.25" style="1" customWidth="1"/>
     <col min="9" max="12" width="12.25" style="1" customWidth="1"/>
-    <col min="13" max="15" width="9" style="1"/>
-    <col min="16" max="16" width="13.875" style="1" customWidth="1"/>
-    <col min="17" max="16384" width="9" style="1"/>
+    <col min="13" max="16" width="9" style="1"/>
+    <col min="17" max="17" width="13.875" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:23">
+    <row r="2" spans="2:24">
       <c r="B2" s="7" t="s">
         <v>0</v>
       </c>
@@ -1777,8 +1974,9 @@
       <c r="U2" s="10"/>
       <c r="V2" s="10"/>
       <c r="W2" s="10"/>
-    </row>
-    <row r="3" spans="2:23">
+      <c r="X2" s="10"/>
+    </row>
+    <row r="3" spans="2:24">
       <c r="B3" s="8"/>
       <c r="C3" s="12"/>
       <c r="D3" s="2" t="s">
@@ -1812,33 +2010,36 @@
         <v>8</v>
       </c>
       <c r="N3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="O3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="O3" s="2" t="s">
+      <c r="P3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="P3" s="2" t="s">
+      <c r="Q3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="Q3" s="2" t="s">
+      <c r="R3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="R3" s="2" t="s">
+      <c r="S3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="S3" s="2"/>
       <c r="T3" s="2"/>
       <c r="U3" s="2"/>
       <c r="V3" s="2"/>
       <c r="W3" s="2"/>
-    </row>
-    <row r="4" spans="2:23">
+      <c r="X3" s="2"/>
+    </row>
+    <row r="4" spans="2:24">
       <c r="B4" s="4">
         <v>42703</v>
       </c>
       <c r="C4" s="3">
-        <f>SUM(D4:CM4)</f>
-        <v>145</v>
+        <f>SUM(D4:CN4)</f>
+        <v>80</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3">
@@ -1846,15 +2047,15 @@
       </c>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
+      <c r="H4" s="3">
+        <v>35</v>
+      </c>
       <c r="I4" s="3"/>
       <c r="J4" s="3">
         <v>30</v>
       </c>
       <c r="K4" s="3"/>
-      <c r="L4" s="3">
-        <v>100</v>
-      </c>
+      <c r="L4" s="3"/>
       <c r="M4" s="3"/>
       <c r="N4" s="3"/>
       <c r="O4" s="3"/>
@@ -1866,13 +2067,14 @@
       <c r="U4" s="3"/>
       <c r="V4" s="3"/>
       <c r="W4" s="3"/>
-    </row>
-    <row r="5" spans="2:23">
+      <c r="X4" s="3"/>
+    </row>
+    <row r="5" spans="2:24">
       <c r="B5" s="4">
         <v>42704</v>
       </c>
       <c r="C5" s="3">
-        <f>SUM(D5:CM5)</f>
+        <f>SUM(D5:CN5)</f>
         <v>52</v>
       </c>
       <c r="D5" s="3"/>
@@ -1901,14 +2103,15 @@
       <c r="U5" s="3"/>
       <c r="V5" s="3"/>
       <c r="W5" s="3"/>
-    </row>
-    <row r="6" spans="2:23">
+      <c r="X5" s="3"/>
+    </row>
+    <row r="6" spans="2:24">
       <c r="B6" s="5" t="s">
         <v>7</v>
       </c>
       <c r="C6" s="6">
         <f>SUM(C4:C5)</f>
-        <v>197</v>
+        <v>132</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
@@ -1930,13 +2133,14 @@
       <c r="U6" s="6"/>
       <c r="V6" s="6"/>
       <c r="W6" s="6"/>
-    </row>
-    <row r="7" spans="2:23">
+      <c r="X6" s="6"/>
+    </row>
+    <row r="7" spans="2:24">
       <c r="B7" s="4">
         <v>42705</v>
       </c>
       <c r="C7" s="3">
-        <f t="shared" ref="C7:C37" si="0">SUM(D7:CM7)</f>
+        <f t="shared" ref="C7:C37" si="0">SUM(D7:CN7)</f>
         <v>475</v>
       </c>
       <c r="D7" s="3"/>
@@ -1967,8 +2171,9 @@
       <c r="U7" s="3"/>
       <c r="V7" s="3"/>
       <c r="W7" s="3"/>
-    </row>
-    <row r="8" spans="2:23">
+      <c r="X7" s="3"/>
+    </row>
+    <row r="8" spans="2:24">
       <c r="B8" s="4">
         <v>42706</v>
       </c>
@@ -1996,8 +2201,9 @@
       <c r="U8" s="3"/>
       <c r="V8" s="3"/>
       <c r="W8" s="3"/>
-    </row>
-    <row r="9" spans="2:23">
+      <c r="X8" s="3"/>
+    </row>
+    <row r="9" spans="2:24">
       <c r="B9" s="4">
         <v>42707</v>
       </c>
@@ -2027,8 +2233,9 @@
       <c r="U9" s="3"/>
       <c r="V9" s="3"/>
       <c r="W9" s="3"/>
-    </row>
-    <row r="10" spans="2:23">
+      <c r="X9" s="3"/>
+    </row>
+    <row r="10" spans="2:24">
       <c r="B10" s="4">
         <v>42708</v>
       </c>
@@ -2056,8 +2263,9 @@
       <c r="U10" s="3"/>
       <c r="V10" s="3"/>
       <c r="W10" s="3"/>
-    </row>
-    <row r="11" spans="2:23">
+      <c r="X10" s="3"/>
+    </row>
+    <row r="11" spans="2:24">
       <c r="B11" s="4">
         <v>42709</v>
       </c>
@@ -2079,24 +2287,25 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-      <c r="N11" s="3">
+      <c r="N11" s="3"/>
+      <c r="O11" s="3">
         <v>2100</v>
       </c>
-      <c r="O11" s="3">
+      <c r="P11" s="3">
         <v>20</v>
       </c>
-      <c r="P11" s="3">
+      <c r="Q11" s="3">
         <v>558</v>
       </c>
-      <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="2:23">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="2:24">
       <c r="B12" s="4">
         <v>42710</v>
       </c>
@@ -2125,17 +2334,18 @@
       <c r="N12" s="3"/>
       <c r="O12" s="3"/>
       <c r="P12" s="3"/>
-      <c r="Q12" s="3">
+      <c r="Q12" s="3"/>
+      <c r="R12" s="3">
         <v>1100</v>
       </c>
-      <c r="R12" s="3"/>
       <c r="S12" s="3"/>
       <c r="T12" s="3"/>
       <c r="U12" s="3"/>
       <c r="V12" s="3"/>
       <c r="W12" s="3"/>
-    </row>
-    <row r="13" spans="2:23">
+      <c r="X12" s="3"/>
+    </row>
+    <row r="13" spans="2:24">
       <c r="B13" s="4">
         <v>42711</v>
       </c>
@@ -2169,8 +2379,9 @@
       <c r="U13" s="3"/>
       <c r="V13" s="3"/>
       <c r="W13" s="3"/>
-    </row>
-    <row r="14" spans="2:23">
+      <c r="X13" s="3"/>
+    </row>
+    <row r="14" spans="2:24">
       <c r="B14" s="4">
         <v>42712</v>
       </c>
@@ -2200,16 +2411,17 @@
       <c r="O14" s="3"/>
       <c r="P14" s="3"/>
       <c r="Q14" s="3"/>
-      <c r="R14" s="3">
+      <c r="R14" s="3"/>
+      <c r="S14" s="3">
         <v>4</v>
       </c>
-      <c r="S14" s="3"/>
       <c r="T14" s="3"/>
       <c r="U14" s="3"/>
       <c r="V14" s="3"/>
       <c r="W14" s="3"/>
-    </row>
-    <row r="15" spans="2:23">
+      <c r="X14" s="3"/>
+    </row>
+    <row r="15" spans="2:24">
       <c r="B15" s="4">
         <v>42713</v>
       </c>
@@ -2241,8 +2453,9 @@
       <c r="U15" s="3"/>
       <c r="V15" s="3"/>
       <c r="W15" s="3"/>
-    </row>
-    <row r="16" spans="2:23">
+      <c r="X15" s="3"/>
+    </row>
+    <row r="16" spans="2:24">
       <c r="B16" s="4">
         <v>42714</v>
       </c>
@@ -2271,17 +2484,18 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-      <c r="Q16" s="3">
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3">
         <v>500</v>
       </c>
-      <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="2:23">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="2:24">
       <c r="B17" s="4">
         <v>42715</v>
       </c>
@@ -2315,8 +2529,9 @@
       <c r="U17" s="3"/>
       <c r="V17" s="3"/>
       <c r="W17" s="3"/>
-    </row>
-    <row r="18" spans="2:23">
+      <c r="X17" s="3"/>
+    </row>
+    <row r="18" spans="2:24">
       <c r="B18" s="4">
         <v>42716</v>
       </c>
@@ -2350,8 +2565,9 @@
       <c r="U18" s="3"/>
       <c r="V18" s="3"/>
       <c r="W18" s="3"/>
-    </row>
-    <row r="19" spans="2:23">
+      <c r="X18" s="3"/>
+    </row>
+    <row r="19" spans="2:24">
       <c r="B19" s="4">
         <v>42717</v>
       </c>
@@ -2381,8 +2597,9 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="2:23">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="2:24">
       <c r="B20" s="4">
         <v>42718</v>
       </c>
@@ -2416,8 +2633,9 @@
       <c r="U20" s="3"/>
       <c r="V20" s="3"/>
       <c r="W20" s="3"/>
-    </row>
-    <row r="21" spans="2:23">
+      <c r="X20" s="3"/>
+    </row>
+    <row r="21" spans="2:24">
       <c r="B21" s="4">
         <v>42719</v>
       </c>
@@ -2451,8 +2669,9 @@
       <c r="U21" s="3"/>
       <c r="V21" s="3"/>
       <c r="W21" s="3"/>
-    </row>
-    <row r="22" spans="2:23">
+      <c r="X21" s="3"/>
+    </row>
+    <row r="22" spans="2:24">
       <c r="B22" s="4">
         <v>42720</v>
       </c>
@@ -2486,8 +2705,9 @@
       <c r="U22" s="3"/>
       <c r="V22" s="3"/>
       <c r="W22" s="3"/>
-    </row>
-    <row r="23" spans="2:23">
+      <c r="X22" s="3"/>
+    </row>
+    <row r="23" spans="2:24">
       <c r="B23" s="4">
         <v>42721</v>
       </c>
@@ -2516,17 +2736,18 @@
       <c r="N23" s="3"/>
       <c r="O23" s="3"/>
       <c r="P23" s="3"/>
-      <c r="Q23" s="3">
+      <c r="Q23" s="3"/>
+      <c r="R23" s="3">
         <v>6850</v>
       </c>
-      <c r="R23" s="3"/>
       <c r="S23" s="3"/>
       <c r="T23" s="3"/>
       <c r="U23" s="3"/>
       <c r="V23" s="3"/>
       <c r="W23" s="3"/>
-    </row>
-    <row r="24" spans="2:23">
+      <c r="X23" s="3"/>
+    </row>
+    <row r="24" spans="2:24">
       <c r="B24" s="4">
         <v>42722</v>
       </c>
@@ -2560,8 +2781,9 @@
       <c r="U24" s="3"/>
       <c r="V24" s="3"/>
       <c r="W24" s="3"/>
-    </row>
-    <row r="25" spans="2:23">
+      <c r="X24" s="3"/>
+    </row>
+    <row r="25" spans="2:24">
       <c r="B25" s="4">
         <v>42723</v>
       </c>
@@ -2597,8 +2819,9 @@
       <c r="U25" s="3"/>
       <c r="V25" s="3"/>
       <c r="W25" s="3"/>
-    </row>
-    <row r="26" spans="2:23">
+      <c r="X25" s="3"/>
+    </row>
+    <row r="26" spans="2:24">
       <c r="B26" s="4">
         <v>42724</v>
       </c>
@@ -2636,8 +2859,9 @@
       <c r="U26" s="3"/>
       <c r="V26" s="3"/>
       <c r="W26" s="3"/>
-    </row>
-    <row r="27" spans="2:23">
+      <c r="X26" s="3"/>
+    </row>
+    <row r="27" spans="2:24">
       <c r="B27" s="4">
         <v>42725</v>
       </c>
@@ -2673,8 +2897,9 @@
       <c r="U27" s="3"/>
       <c r="V27" s="3"/>
       <c r="W27" s="3"/>
-    </row>
-    <row r="28" spans="2:23">
+      <c r="X27" s="3"/>
+    </row>
+    <row r="28" spans="2:24">
       <c r="B28" s="4">
         <v>42726</v>
       </c>
@@ -2710,18 +2935,25 @@
       <c r="U28" s="3"/>
       <c r="V28" s="3"/>
       <c r="W28" s="3"/>
-    </row>
-    <row r="29" spans="2:23">
+      <c r="X28" s="3"/>
+    </row>
+    <row r="29" spans="2:24">
       <c r="B29" s="4">
         <v>42727</v>
       </c>
       <c r="C29" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
+        <v>26</v>
+      </c>
+      <c r="D29" s="3">
+        <v>4</v>
+      </c>
+      <c r="E29" s="3">
+        <v>12</v>
+      </c>
+      <c r="F29" s="3">
+        <v>10</v>
+      </c>
       <c r="G29" s="3"/>
       <c r="H29" s="3"/>
       <c r="I29" s="3"/>
@@ -2739,17 +2971,20 @@
       <c r="U29" s="3"/>
       <c r="V29" s="3"/>
       <c r="W29" s="3"/>
-    </row>
-    <row r="30" spans="2:23">
+      <c r="X29" s="3"/>
+    </row>
+    <row r="30" spans="2:24">
       <c r="B30" s="4">
         <v>42728</v>
       </c>
       <c r="C30" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
+      <c r="E30" s="3">
+        <v>23</v>
+      </c>
       <c r="F30" s="3"/>
       <c r="G30" s="3"/>
       <c r="H30" s="3"/>
@@ -2768,21 +3003,30 @@
       <c r="U30" s="3"/>
       <c r="V30" s="3"/>
       <c r="W30" s="3"/>
-    </row>
-    <row r="31" spans="2:23">
+      <c r="X30" s="3"/>
+    </row>
+    <row r="31" spans="2:24">
       <c r="B31" s="4">
         <v>42729</v>
       </c>
       <c r="C31" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>108</v>
       </c>
       <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
-      <c r="F31" s="3"/>
+      <c r="E31" s="3">
+        <v>6</v>
+      </c>
+      <c r="F31" s="3">
+        <v>85</v>
+      </c>
       <c r="G31" s="3"/>
-      <c r="H31" s="3"/>
-      <c r="I31" s="3"/>
+      <c r="H31" s="3">
+        <v>11</v>
+      </c>
+      <c r="I31" s="3">
+        <v>6</v>
+      </c>
       <c r="J31" s="3"/>
       <c r="K31" s="3"/>
       <c r="L31" s="3"/>
@@ -2797,37 +3041,51 @@
       <c r="U31" s="3"/>
       <c r="V31" s="3"/>
       <c r="W31" s="3"/>
-    </row>
-    <row r="32" spans="2:23">
+      <c r="X31" s="3"/>
+    </row>
+    <row r="32" spans="2:24">
       <c r="B32" s="4">
         <v>42730</v>
       </c>
       <c r="C32" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="3"/>
+        <v>21470</v>
+      </c>
+      <c r="D32" s="3">
+        <v>4</v>
+      </c>
+      <c r="E32" s="3">
+        <v>8</v>
+      </c>
+      <c r="F32" s="3">
+        <v>12</v>
+      </c>
       <c r="G32" s="3"/>
-      <c r="H32" s="3"/>
+      <c r="H32" s="3">
+        <v>35</v>
+      </c>
       <c r="I32" s="3"/>
       <c r="J32" s="3"/>
       <c r="K32" s="3"/>
       <c r="L32" s="3"/>
-      <c r="M32" s="3"/>
+      <c r="M32" s="3">
+        <v>1811</v>
+      </c>
       <c r="N32" s="3"/>
       <c r="O32" s="3"/>
       <c r="P32" s="3"/>
       <c r="Q32" s="3"/>
-      <c r="R32" s="3"/>
+      <c r="R32" s="3">
+        <v>19600</v>
+      </c>
       <c r="S32" s="3"/>
       <c r="T32" s="3"/>
       <c r="U32" s="3"/>
       <c r="V32" s="3"/>
       <c r="W32" s="3"/>
-    </row>
-    <row r="33" spans="2:23">
+      <c r="X32" s="3"/>
+    </row>
+    <row r="33" spans="2:24">
       <c r="B33" s="4">
         <v>42731</v>
       </c>
@@ -2855,8 +3113,9 @@
       <c r="U33" s="3"/>
       <c r="V33" s="3"/>
       <c r="W33" s="3"/>
-    </row>
-    <row r="34" spans="2:23">
+      <c r="X33" s="3"/>
+    </row>
+    <row r="34" spans="2:24">
       <c r="B34" s="4">
         <v>42732</v>
       </c>
@@ -2884,8 +3143,9 @@
       <c r="U34" s="3"/>
       <c r="V34" s="3"/>
       <c r="W34" s="3"/>
-    </row>
-    <row r="35" spans="2:23">
+      <c r="X34" s="3"/>
+    </row>
+    <row r="35" spans="2:24">
       <c r="B35" s="4">
         <v>42733</v>
       </c>
@@ -2913,8 +3173,9 @@
       <c r="U35" s="3"/>
       <c r="V35" s="3"/>
       <c r="W35" s="3"/>
-    </row>
-    <row r="36" spans="2:23">
+      <c r="X35" s="3"/>
+    </row>
+    <row r="36" spans="2:24">
       <c r="B36" s="4">
         <v>42734</v>
       </c>
@@ -2942,8 +3203,9 @@
       <c r="U36" s="3"/>
       <c r="V36" s="3"/>
       <c r="W36" s="3"/>
-    </row>
-    <row r="37" spans="2:23">
+      <c r="X36" s="3"/>
+    </row>
+    <row r="37" spans="2:24">
       <c r="B37" s="4">
         <v>42735</v>
       </c>
@@ -2971,14 +3233,15 @@
       <c r="U37" s="3"/>
       <c r="V37" s="3"/>
       <c r="W37" s="3"/>
-    </row>
-    <row r="38" spans="2:23">
+      <c r="X37" s="3"/>
+    </row>
+    <row r="38" spans="2:24">
       <c r="B38" s="5" t="s">
         <v>7</v>
       </c>
       <c r="C38" s="6">
         <f>SUM(C7:C37)</f>
-        <v>13441</v>
+        <v>35068</v>
       </c>
       <c r="D38" s="6"/>
       <c r="E38" s="6"/>
@@ -3000,13 +3263,14 @@
       <c r="U38" s="6"/>
       <c r="V38" s="6"/>
       <c r="W38" s="6"/>
-    </row>
-    <row r="39" spans="2:23">
+      <c r="X38" s="6"/>
+    </row>
+    <row r="39" spans="2:24">
       <c r="B39" s="4">
         <v>42736</v>
       </c>
       <c r="C39" s="3">
-        <f>SUM(D39:CM39)</f>
+        <f>SUM(D39:CN39)</f>
         <v>0</v>
       </c>
       <c r="D39" s="3"/>
@@ -3029,13 +3293,14 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24">
       <c r="B40" s="4">
         <v>42737</v>
       </c>
       <c r="C40" s="3">
-        <f>SUM(D40:CM40)</f>
+        <f>SUM(D40:CN40)</f>
         <v>0</v>
       </c>
       <c r="D40" s="3"/>
@@ -3058,15 +3323,16 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
+      <c r="X40" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="B2:B3"/>
-    <mergeCell ref="D2:W2"/>
+    <mergeCell ref="D2:X2"/>
     <mergeCell ref="C2:C3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="D4:W5 D39:W40 D7:W37">
+  <conditionalFormatting sqref="D4:X5 D39:X40 D7:X37">
     <cfRule type="containsBlanks" dxfId="0" priority="7">
       <formula>LEN(TRIM(D4))=0</formula>
     </cfRule>

--- a/DailyExpense.xlsx
+++ b/DailyExpense.xlsx
@@ -1351,6 +1351,61 @@
           </rPr>
           <t xml:space="preserve">
 装修款</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G33" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+牙刷</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> 14
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>毛巾</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> 22</t>
         </r>
       </text>
     </comment>
@@ -1929,7 +1984,7 @@
   <dimension ref="B2:X40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3091,12 +3146,20 @@
       </c>
       <c r="C33" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D33" s="3"/>
-      <c r="E33" s="3"/>
-      <c r="F33" s="3"/>
-      <c r="G33" s="3"/>
+        <v>77</v>
+      </c>
+      <c r="D33" s="3">
+        <v>4</v>
+      </c>
+      <c r="E33" s="3">
+        <v>18</v>
+      </c>
+      <c r="F33" s="3">
+        <v>19</v>
+      </c>
+      <c r="G33" s="3">
+        <v>36</v>
+      </c>
       <c r="H33" s="3"/>
       <c r="I33" s="3"/>
       <c r="J33" s="3"/>
@@ -3241,7 +3304,7 @@
       </c>
       <c r="C38" s="6">
         <f>SUM(C7:C37)</f>
-        <v>35068</v>
+        <v>35145</v>
       </c>
       <c r="D38" s="6"/>
       <c r="E38" s="6"/>

--- a/DailyExpense.xlsx
+++ b/DailyExpense.xlsx
@@ -1406,6 +1406,32 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve"> 22</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H34" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+充公交卡</t>
         </r>
       </text>
     </comment>
@@ -1984,7 +2010,7 @@
   <dimension ref="B2:X40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3184,13 +3210,19 @@
       </c>
       <c r="C34" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D34" s="3"/>
-      <c r="E34" s="3"/>
+        <v>99</v>
+      </c>
+      <c r="D34" s="3">
+        <v>3</v>
+      </c>
+      <c r="E34" s="3">
+        <v>6</v>
+      </c>
       <c r="F34" s="3"/>
       <c r="G34" s="3"/>
-      <c r="H34" s="3"/>
+      <c r="H34" s="3">
+        <v>90</v>
+      </c>
       <c r="I34" s="3"/>
       <c r="J34" s="3"/>
       <c r="K34" s="3"/>
@@ -3304,7 +3336,7 @@
       </c>
       <c r="C38" s="6">
         <f>SUM(C7:C37)</f>
-        <v>35145</v>
+        <v>35244</v>
       </c>
       <c r="D38" s="6"/>
       <c r="E38" s="6"/>

--- a/DailyExpense.xlsx
+++ b/DailyExpense.xlsx
@@ -1432,6 +1432,32 @@
           </rPr>
           <t xml:space="preserve">
 充公交卡</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H35" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+打车</t>
         </r>
       </text>
     </comment>
@@ -2010,7 +2036,7 @@
   <dimension ref="B2:X40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+      <selection activeCell="I35" sqref="I35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3246,13 +3272,21 @@
       </c>
       <c r="C35" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
+        <v>58</v>
+      </c>
+      <c r="D35" s="3">
+        <v>3</v>
+      </c>
+      <c r="E35" s="3">
+        <v>16</v>
+      </c>
+      <c r="F35" s="3">
+        <v>19</v>
+      </c>
       <c r="G35" s="3"/>
-      <c r="H35" s="3"/>
+      <c r="H35" s="3">
+        <v>20</v>
+      </c>
       <c r="I35" s="3"/>
       <c r="J35" s="3"/>
       <c r="K35" s="3"/>
@@ -3336,7 +3370,7 @@
       </c>
       <c r="C38" s="6">
         <f>SUM(C7:C37)</f>
-        <v>35244</v>
+        <v>35302</v>
       </c>
       <c r="D38" s="6"/>
       <c r="E38" s="6"/>

--- a/DailyExpense.xlsx
+++ b/DailyExpense.xlsx
@@ -1461,12 +1461,116 @@
         </r>
       </text>
     </comment>
+    <comment ref="G37" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+上网</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G39" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+和小二唱歌</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F40" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+和小二吃饭</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G40" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+上网</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
   <si>
     <t>日期</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -1735,7 +1839,14 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -2033,10 +2144,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:X40"/>
+  <dimension ref="B2:X70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I35" sqref="I35"/>
+      <pane ySplit="3" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3310,11 +3422,17 @@
       </c>
       <c r="C36" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D36" s="3"/>
-      <c r="E36" s="3"/>
-      <c r="F36" s="3"/>
+        <v>39</v>
+      </c>
+      <c r="D36" s="3">
+        <v>3</v>
+      </c>
+      <c r="E36" s="3">
+        <v>20</v>
+      </c>
+      <c r="F36" s="3">
+        <v>16</v>
+      </c>
       <c r="G36" s="3"/>
       <c r="H36" s="3"/>
       <c r="I36" s="3"/>
@@ -3340,12 +3458,14 @@
       </c>
       <c r="C37" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="D37" s="3"/>
       <c r="E37" s="3"/>
       <c r="F37" s="3"/>
-      <c r="G37" s="3"/>
+      <c r="G37" s="3">
+        <v>12</v>
+      </c>
       <c r="H37" s="3"/>
       <c r="I37" s="3"/>
       <c r="J37" s="3"/>
@@ -3370,7 +3490,7 @@
       </c>
       <c r="C38" s="6">
         <f>SUM(C7:C37)</f>
-        <v>35302</v>
+        <v>35353</v>
       </c>
       <c r="D38" s="6"/>
       <c r="E38" s="6"/>
@@ -3400,12 +3520,14 @@
       </c>
       <c r="C39" s="3">
         <f>SUM(D39:CN39)</f>
-        <v>0</v>
+        <v>109</v>
       </c>
       <c r="D39" s="3"/>
       <c r="E39" s="3"/>
       <c r="F39" s="3"/>
-      <c r="G39" s="3"/>
+      <c r="G39" s="3">
+        <v>109</v>
+      </c>
       <c r="H39" s="3"/>
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
@@ -3430,12 +3552,16 @@
       </c>
       <c r="C40" s="3">
         <f>SUM(D40:CN40)</f>
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="D40" s="3"/>
       <c r="E40" s="3"/>
-      <c r="F40" s="3"/>
-      <c r="G40" s="3"/>
+      <c r="F40" s="3">
+        <v>98</v>
+      </c>
+      <c r="G40" s="3">
+        <v>7</v>
+      </c>
       <c r="H40" s="3"/>
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
@@ -3454,6 +3580,906 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
     </row>
+    <row r="41" spans="2:24">
+      <c r="B41" s="4">
+        <v>42738</v>
+      </c>
+      <c r="C41" s="3">
+        <f t="shared" ref="C41:C69" si="1">SUM(D41:CN41)</f>
+        <v>0</v>
+      </c>
+      <c r="D41" s="3"/>
+      <c r="E41" s="3"/>
+      <c r="F41" s="3"/>
+      <c r="G41" s="3"/>
+      <c r="H41" s="3"/>
+      <c r="I41" s="3"/>
+      <c r="J41" s="3"/>
+      <c r="K41" s="3"/>
+      <c r="L41" s="3"/>
+      <c r="M41" s="3"/>
+      <c r="N41" s="3"/>
+      <c r="O41" s="3"/>
+      <c r="P41" s="3"/>
+      <c r="Q41" s="3"/>
+      <c r="R41" s="3"/>
+      <c r="S41" s="3"/>
+      <c r="T41" s="3"/>
+      <c r="U41" s="3"/>
+      <c r="V41" s="3"/>
+      <c r="W41" s="3"/>
+      <c r="X41" s="3"/>
+    </row>
+    <row r="42" spans="2:24">
+      <c r="B42" s="4">
+        <v>42739</v>
+      </c>
+      <c r="C42" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D42" s="3"/>
+      <c r="E42" s="3"/>
+      <c r="F42" s="3"/>
+      <c r="G42" s="3"/>
+      <c r="H42" s="3"/>
+      <c r="I42" s="3"/>
+      <c r="J42" s="3"/>
+      <c r="K42" s="3"/>
+      <c r="L42" s="3"/>
+      <c r="M42" s="3"/>
+      <c r="N42" s="3"/>
+      <c r="O42" s="3"/>
+      <c r="P42" s="3"/>
+      <c r="Q42" s="3"/>
+      <c r="R42" s="3"/>
+      <c r="S42" s="3"/>
+      <c r="T42" s="3"/>
+      <c r="U42" s="3"/>
+      <c r="V42" s="3"/>
+      <c r="W42" s="3"/>
+      <c r="X42" s="3"/>
+    </row>
+    <row r="43" spans="2:24">
+      <c r="B43" s="4">
+        <v>42740</v>
+      </c>
+      <c r="C43" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D43" s="3"/>
+      <c r="E43" s="3"/>
+      <c r="F43" s="3"/>
+      <c r="G43" s="3"/>
+      <c r="H43" s="3"/>
+      <c r="I43" s="3"/>
+      <c r="J43" s="3"/>
+      <c r="K43" s="3"/>
+      <c r="L43" s="3"/>
+      <c r="M43" s="3"/>
+      <c r="N43" s="3"/>
+      <c r="O43" s="3"/>
+      <c r="P43" s="3"/>
+      <c r="Q43" s="3"/>
+      <c r="R43" s="3"/>
+      <c r="S43" s="3"/>
+      <c r="T43" s="3"/>
+      <c r="U43" s="3"/>
+      <c r="V43" s="3"/>
+      <c r="W43" s="3"/>
+      <c r="X43" s="3"/>
+    </row>
+    <row r="44" spans="2:24">
+      <c r="B44" s="4">
+        <v>42741</v>
+      </c>
+      <c r="C44" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D44" s="3"/>
+      <c r="E44" s="3"/>
+      <c r="F44" s="3"/>
+      <c r="G44" s="3"/>
+      <c r="H44" s="3"/>
+      <c r="I44" s="3"/>
+      <c r="J44" s="3"/>
+      <c r="K44" s="3"/>
+      <c r="L44" s="3"/>
+      <c r="M44" s="3"/>
+      <c r="N44" s="3"/>
+      <c r="O44" s="3"/>
+      <c r="P44" s="3"/>
+      <c r="Q44" s="3"/>
+      <c r="R44" s="3"/>
+      <c r="S44" s="3"/>
+      <c r="T44" s="3"/>
+      <c r="U44" s="3"/>
+      <c r="V44" s="3"/>
+      <c r="W44" s="3"/>
+      <c r="X44" s="3"/>
+    </row>
+    <row r="45" spans="2:24">
+      <c r="B45" s="4">
+        <v>42742</v>
+      </c>
+      <c r="C45" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D45" s="3"/>
+      <c r="E45" s="3"/>
+      <c r="F45" s="3"/>
+      <c r="G45" s="3"/>
+      <c r="H45" s="3"/>
+      <c r="I45" s="3"/>
+      <c r="J45" s="3"/>
+      <c r="K45" s="3"/>
+      <c r="L45" s="3"/>
+      <c r="M45" s="3"/>
+      <c r="N45" s="3"/>
+      <c r="O45" s="3"/>
+      <c r="P45" s="3"/>
+      <c r="Q45" s="3"/>
+      <c r="R45" s="3"/>
+      <c r="S45" s="3"/>
+      <c r="T45" s="3"/>
+      <c r="U45" s="3"/>
+      <c r="V45" s="3"/>
+      <c r="W45" s="3"/>
+      <c r="X45" s="3"/>
+    </row>
+    <row r="46" spans="2:24">
+      <c r="B46" s="4">
+        <v>42743</v>
+      </c>
+      <c r="C46" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D46" s="3"/>
+      <c r="E46" s="3"/>
+      <c r="F46" s="3"/>
+      <c r="G46" s="3"/>
+      <c r="H46" s="3"/>
+      <c r="I46" s="3"/>
+      <c r="J46" s="3"/>
+      <c r="K46" s="3"/>
+      <c r="L46" s="3"/>
+      <c r="M46" s="3"/>
+      <c r="N46" s="3"/>
+      <c r="O46" s="3"/>
+      <c r="P46" s="3"/>
+      <c r="Q46" s="3"/>
+      <c r="R46" s="3"/>
+      <c r="S46" s="3"/>
+      <c r="T46" s="3"/>
+      <c r="U46" s="3"/>
+      <c r="V46" s="3"/>
+      <c r="W46" s="3"/>
+      <c r="X46" s="3"/>
+    </row>
+    <row r="47" spans="2:24">
+      <c r="B47" s="4">
+        <v>42744</v>
+      </c>
+      <c r="C47" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D47" s="3"/>
+      <c r="E47" s="3"/>
+      <c r="F47" s="3"/>
+      <c r="G47" s="3"/>
+      <c r="H47" s="3"/>
+      <c r="I47" s="3"/>
+      <c r="J47" s="3"/>
+      <c r="K47" s="3"/>
+      <c r="L47" s="3"/>
+      <c r="M47" s="3"/>
+      <c r="N47" s="3"/>
+      <c r="O47" s="3"/>
+      <c r="P47" s="3"/>
+      <c r="Q47" s="3"/>
+      <c r="R47" s="3"/>
+      <c r="S47" s="3"/>
+      <c r="T47" s="3"/>
+      <c r="U47" s="3"/>
+      <c r="V47" s="3"/>
+      <c r="W47" s="3"/>
+      <c r="X47" s="3"/>
+    </row>
+    <row r="48" spans="2:24">
+      <c r="B48" s="4">
+        <v>42745</v>
+      </c>
+      <c r="C48" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D48" s="3"/>
+      <c r="E48" s="3"/>
+      <c r="F48" s="3"/>
+      <c r="G48" s="3"/>
+      <c r="H48" s="3"/>
+      <c r="I48" s="3"/>
+      <c r="J48" s="3"/>
+      <c r="K48" s="3"/>
+      <c r="L48" s="3"/>
+      <c r="M48" s="3"/>
+      <c r="N48" s="3"/>
+      <c r="O48" s="3"/>
+      <c r="P48" s="3"/>
+      <c r="Q48" s="3"/>
+      <c r="R48" s="3"/>
+      <c r="S48" s="3"/>
+      <c r="T48" s="3"/>
+      <c r="U48" s="3"/>
+      <c r="V48" s="3"/>
+      <c r="W48" s="3"/>
+      <c r="X48" s="3"/>
+    </row>
+    <row r="49" spans="2:24">
+      <c r="B49" s="4">
+        <v>42746</v>
+      </c>
+      <c r="C49" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D49" s="3"/>
+      <c r="E49" s="3"/>
+      <c r="F49" s="3"/>
+      <c r="G49" s="3"/>
+      <c r="H49" s="3"/>
+      <c r="I49" s="3"/>
+      <c r="J49" s="3"/>
+      <c r="K49" s="3"/>
+      <c r="L49" s="3"/>
+      <c r="M49" s="3"/>
+      <c r="N49" s="3"/>
+      <c r="O49" s="3"/>
+      <c r="P49" s="3"/>
+      <c r="Q49" s="3"/>
+      <c r="R49" s="3"/>
+      <c r="S49" s="3"/>
+      <c r="T49" s="3"/>
+      <c r="U49" s="3"/>
+      <c r="V49" s="3"/>
+      <c r="W49" s="3"/>
+      <c r="X49" s="3"/>
+    </row>
+    <row r="50" spans="2:24">
+      <c r="B50" s="4">
+        <v>42747</v>
+      </c>
+      <c r="C50" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D50" s="3"/>
+      <c r="E50" s="3"/>
+      <c r="F50" s="3"/>
+      <c r="G50" s="3"/>
+      <c r="H50" s="3"/>
+      <c r="I50" s="3"/>
+      <c r="J50" s="3"/>
+      <c r="K50" s="3"/>
+      <c r="L50" s="3"/>
+      <c r="M50" s="3"/>
+      <c r="N50" s="3"/>
+      <c r="O50" s="3"/>
+      <c r="P50" s="3"/>
+      <c r="Q50" s="3"/>
+      <c r="R50" s="3"/>
+      <c r="S50" s="3"/>
+      <c r="T50" s="3"/>
+      <c r="U50" s="3"/>
+      <c r="V50" s="3"/>
+      <c r="W50" s="3"/>
+      <c r="X50" s="3"/>
+    </row>
+    <row r="51" spans="2:24">
+      <c r="B51" s="4">
+        <v>42748</v>
+      </c>
+      <c r="C51" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D51" s="3"/>
+      <c r="E51" s="3"/>
+      <c r="F51" s="3"/>
+      <c r="G51" s="3"/>
+      <c r="H51" s="3"/>
+      <c r="I51" s="3"/>
+      <c r="J51" s="3"/>
+      <c r="K51" s="3"/>
+      <c r="L51" s="3"/>
+      <c r="M51" s="3"/>
+      <c r="N51" s="3"/>
+      <c r="O51" s="3"/>
+      <c r="P51" s="3"/>
+      <c r="Q51" s="3"/>
+      <c r="R51" s="3"/>
+      <c r="S51" s="3"/>
+      <c r="T51" s="3"/>
+      <c r="U51" s="3"/>
+      <c r="V51" s="3"/>
+      <c r="W51" s="3"/>
+      <c r="X51" s="3"/>
+    </row>
+    <row r="52" spans="2:24">
+      <c r="B52" s="4">
+        <v>42749</v>
+      </c>
+      <c r="C52" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D52" s="3"/>
+      <c r="E52" s="3"/>
+      <c r="F52" s="3"/>
+      <c r="G52" s="3"/>
+      <c r="H52" s="3"/>
+      <c r="I52" s="3"/>
+      <c r="J52" s="3"/>
+      <c r="K52" s="3"/>
+      <c r="L52" s="3"/>
+      <c r="M52" s="3"/>
+      <c r="N52" s="3"/>
+      <c r="O52" s="3"/>
+      <c r="P52" s="3"/>
+      <c r="Q52" s="3"/>
+      <c r="R52" s="3"/>
+      <c r="S52" s="3"/>
+      <c r="T52" s="3"/>
+      <c r="U52" s="3"/>
+      <c r="V52" s="3"/>
+      <c r="W52" s="3"/>
+      <c r="X52" s="3"/>
+    </row>
+    <row r="53" spans="2:24">
+      <c r="B53" s="4">
+        <v>42750</v>
+      </c>
+      <c r="C53" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D53" s="3"/>
+      <c r="E53" s="3"/>
+      <c r="F53" s="3"/>
+      <c r="G53" s="3"/>
+      <c r="H53" s="3"/>
+      <c r="I53" s="3"/>
+      <c r="J53" s="3"/>
+      <c r="K53" s="3"/>
+      <c r="L53" s="3"/>
+      <c r="M53" s="3"/>
+      <c r="N53" s="3"/>
+      <c r="O53" s="3"/>
+      <c r="P53" s="3"/>
+      <c r="Q53" s="3"/>
+      <c r="R53" s="3"/>
+      <c r="S53" s="3"/>
+      <c r="T53" s="3"/>
+      <c r="U53" s="3"/>
+      <c r="V53" s="3"/>
+      <c r="W53" s="3"/>
+      <c r="X53" s="3"/>
+    </row>
+    <row r="54" spans="2:24">
+      <c r="B54" s="4">
+        <v>42751</v>
+      </c>
+      <c r="C54" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D54" s="3"/>
+      <c r="E54" s="3"/>
+      <c r="F54" s="3"/>
+      <c r="G54" s="3"/>
+      <c r="H54" s="3"/>
+      <c r="I54" s="3"/>
+      <c r="J54" s="3"/>
+      <c r="K54" s="3"/>
+      <c r="L54" s="3"/>
+      <c r="M54" s="3"/>
+      <c r="N54" s="3"/>
+      <c r="O54" s="3"/>
+      <c r="P54" s="3"/>
+      <c r="Q54" s="3"/>
+      <c r="R54" s="3"/>
+      <c r="S54" s="3"/>
+      <c r="T54" s="3"/>
+      <c r="U54" s="3"/>
+      <c r="V54" s="3"/>
+      <c r="W54" s="3"/>
+      <c r="X54" s="3"/>
+    </row>
+    <row r="55" spans="2:24">
+      <c r="B55" s="4">
+        <v>42752</v>
+      </c>
+      <c r="C55" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D55" s="3"/>
+      <c r="E55" s="3"/>
+      <c r="F55" s="3"/>
+      <c r="G55" s="3"/>
+      <c r="H55" s="3"/>
+      <c r="I55" s="3"/>
+      <c r="J55" s="3"/>
+      <c r="K55" s="3"/>
+      <c r="L55" s="3"/>
+      <c r="M55" s="3"/>
+      <c r="N55" s="3"/>
+      <c r="O55" s="3"/>
+      <c r="P55" s="3"/>
+      <c r="Q55" s="3"/>
+      <c r="R55" s="3"/>
+      <c r="S55" s="3"/>
+      <c r="T55" s="3"/>
+      <c r="U55" s="3"/>
+      <c r="V55" s="3"/>
+      <c r="W55" s="3"/>
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="2:24">
+      <c r="B56" s="4">
+        <v>42753</v>
+      </c>
+      <c r="C56" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D56" s="3"/>
+      <c r="E56" s="3"/>
+      <c r="F56" s="3"/>
+      <c r="G56" s="3"/>
+      <c r="H56" s="3"/>
+      <c r="I56" s="3"/>
+      <c r="J56" s="3"/>
+      <c r="K56" s="3"/>
+      <c r="L56" s="3"/>
+      <c r="M56" s="3"/>
+      <c r="N56" s="3"/>
+      <c r="O56" s="3"/>
+      <c r="P56" s="3"/>
+      <c r="Q56" s="3"/>
+      <c r="R56" s="3"/>
+      <c r="S56" s="3"/>
+      <c r="T56" s="3"/>
+      <c r="U56" s="3"/>
+      <c r="V56" s="3"/>
+      <c r="W56" s="3"/>
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="2:24">
+      <c r="B57" s="4">
+        <v>42754</v>
+      </c>
+      <c r="C57" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D57" s="3"/>
+      <c r="E57" s="3"/>
+      <c r="F57" s="3"/>
+      <c r="G57" s="3"/>
+      <c r="H57" s="3"/>
+      <c r="I57" s="3"/>
+      <c r="J57" s="3"/>
+      <c r="K57" s="3"/>
+      <c r="L57" s="3"/>
+      <c r="M57" s="3"/>
+      <c r="N57" s="3"/>
+      <c r="O57" s="3"/>
+      <c r="P57" s="3"/>
+      <c r="Q57" s="3"/>
+      <c r="R57" s="3"/>
+      <c r="S57" s="3"/>
+      <c r="T57" s="3"/>
+      <c r="U57" s="3"/>
+      <c r="V57" s="3"/>
+      <c r="W57" s="3"/>
+      <c r="X57" s="3"/>
+    </row>
+    <row r="58" spans="2:24">
+      <c r="B58" s="4">
+        <v>42755</v>
+      </c>
+      <c r="C58" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D58" s="3"/>
+      <c r="E58" s="3"/>
+      <c r="F58" s="3"/>
+      <c r="G58" s="3"/>
+      <c r="H58" s="3"/>
+      <c r="I58" s="3"/>
+      <c r="J58" s="3"/>
+      <c r="K58" s="3"/>
+      <c r="L58" s="3"/>
+      <c r="M58" s="3"/>
+      <c r="N58" s="3"/>
+      <c r="O58" s="3"/>
+      <c r="P58" s="3"/>
+      <c r="Q58" s="3"/>
+      <c r="R58" s="3"/>
+      <c r="S58" s="3"/>
+      <c r="T58" s="3"/>
+      <c r="U58" s="3"/>
+      <c r="V58" s="3"/>
+      <c r="W58" s="3"/>
+      <c r="X58" s="3"/>
+    </row>
+    <row r="59" spans="2:24">
+      <c r="B59" s="4">
+        <v>42756</v>
+      </c>
+      <c r="C59" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D59" s="3"/>
+      <c r="E59" s="3"/>
+      <c r="F59" s="3"/>
+      <c r="G59" s="3"/>
+      <c r="H59" s="3"/>
+      <c r="I59" s="3"/>
+      <c r="J59" s="3"/>
+      <c r="K59" s="3"/>
+      <c r="L59" s="3"/>
+      <c r="M59" s="3"/>
+      <c r="N59" s="3"/>
+      <c r="O59" s="3"/>
+      <c r="P59" s="3"/>
+      <c r="Q59" s="3"/>
+      <c r="R59" s="3"/>
+      <c r="S59" s="3"/>
+      <c r="T59" s="3"/>
+      <c r="U59" s="3"/>
+      <c r="V59" s="3"/>
+      <c r="W59" s="3"/>
+      <c r="X59" s="3"/>
+    </row>
+    <row r="60" spans="2:24">
+      <c r="B60" s="4">
+        <v>42757</v>
+      </c>
+      <c r="C60" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D60" s="3"/>
+      <c r="E60" s="3"/>
+      <c r="F60" s="3"/>
+      <c r="G60" s="3"/>
+      <c r="H60" s="3"/>
+      <c r="I60" s="3"/>
+      <c r="J60" s="3"/>
+      <c r="K60" s="3"/>
+      <c r="L60" s="3"/>
+      <c r="M60" s="3"/>
+      <c r="N60" s="3"/>
+      <c r="O60" s="3"/>
+      <c r="P60" s="3"/>
+      <c r="Q60" s="3"/>
+      <c r="R60" s="3"/>
+      <c r="S60" s="3"/>
+      <c r="T60" s="3"/>
+      <c r="U60" s="3"/>
+      <c r="V60" s="3"/>
+      <c r="W60" s="3"/>
+      <c r="X60" s="3"/>
+    </row>
+    <row r="61" spans="2:24">
+      <c r="B61" s="4">
+        <v>42758</v>
+      </c>
+      <c r="C61" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D61" s="3"/>
+      <c r="E61" s="3"/>
+      <c r="F61" s="3"/>
+      <c r="G61" s="3"/>
+      <c r="H61" s="3"/>
+      <c r="I61" s="3"/>
+      <c r="J61" s="3"/>
+      <c r="K61" s="3"/>
+      <c r="L61" s="3"/>
+      <c r="M61" s="3"/>
+      <c r="N61" s="3"/>
+      <c r="O61" s="3"/>
+      <c r="P61" s="3"/>
+      <c r="Q61" s="3"/>
+      <c r="R61" s="3"/>
+      <c r="S61" s="3"/>
+      <c r="T61" s="3"/>
+      <c r="U61" s="3"/>
+      <c r="V61" s="3"/>
+      <c r="W61" s="3"/>
+      <c r="X61" s="3"/>
+    </row>
+    <row r="62" spans="2:24">
+      <c r="B62" s="4">
+        <v>42759</v>
+      </c>
+      <c r="C62" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D62" s="3"/>
+      <c r="E62" s="3"/>
+      <c r="F62" s="3"/>
+      <c r="G62" s="3"/>
+      <c r="H62" s="3"/>
+      <c r="I62" s="3"/>
+      <c r="J62" s="3"/>
+      <c r="K62" s="3"/>
+      <c r="L62" s="3"/>
+      <c r="M62" s="3"/>
+      <c r="N62" s="3"/>
+      <c r="O62" s="3"/>
+      <c r="P62" s="3"/>
+      <c r="Q62" s="3"/>
+      <c r="R62" s="3"/>
+      <c r="S62" s="3"/>
+      <c r="T62" s="3"/>
+      <c r="U62" s="3"/>
+      <c r="V62" s="3"/>
+      <c r="W62" s="3"/>
+      <c r="X62" s="3"/>
+    </row>
+    <row r="63" spans="2:24">
+      <c r="B63" s="4">
+        <v>42760</v>
+      </c>
+      <c r="C63" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D63" s="3"/>
+      <c r="E63" s="3"/>
+      <c r="F63" s="3"/>
+      <c r="G63" s="3"/>
+      <c r="H63" s="3"/>
+      <c r="I63" s="3"/>
+      <c r="J63" s="3"/>
+      <c r="K63" s="3"/>
+      <c r="L63" s="3"/>
+      <c r="M63" s="3"/>
+      <c r="N63" s="3"/>
+      <c r="O63" s="3"/>
+      <c r="P63" s="3"/>
+      <c r="Q63" s="3"/>
+      <c r="R63" s="3"/>
+      <c r="S63" s="3"/>
+      <c r="T63" s="3"/>
+      <c r="U63" s="3"/>
+      <c r="V63" s="3"/>
+      <c r="W63" s="3"/>
+      <c r="X63" s="3"/>
+    </row>
+    <row r="64" spans="2:24">
+      <c r="B64" s="4">
+        <v>42761</v>
+      </c>
+      <c r="C64" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D64" s="3"/>
+      <c r="E64" s="3"/>
+      <c r="F64" s="3"/>
+      <c r="G64" s="3"/>
+      <c r="H64" s="3"/>
+      <c r="I64" s="3"/>
+      <c r="J64" s="3"/>
+      <c r="K64" s="3"/>
+      <c r="L64" s="3"/>
+      <c r="M64" s="3"/>
+      <c r="N64" s="3"/>
+      <c r="O64" s="3"/>
+      <c r="P64" s="3"/>
+      <c r="Q64" s="3"/>
+      <c r="R64" s="3"/>
+      <c r="S64" s="3"/>
+      <c r="T64" s="3"/>
+      <c r="U64" s="3"/>
+      <c r="V64" s="3"/>
+      <c r="W64" s="3"/>
+      <c r="X64" s="3"/>
+    </row>
+    <row r="65" spans="2:24">
+      <c r="B65" s="4">
+        <v>42762</v>
+      </c>
+      <c r="C65" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D65" s="3"/>
+      <c r="E65" s="3"/>
+      <c r="F65" s="3"/>
+      <c r="G65" s="3"/>
+      <c r="H65" s="3"/>
+      <c r="I65" s="3"/>
+      <c r="J65" s="3"/>
+      <c r="K65" s="3"/>
+      <c r="L65" s="3"/>
+      <c r="M65" s="3"/>
+      <c r="N65" s="3"/>
+      <c r="O65" s="3"/>
+      <c r="P65" s="3"/>
+      <c r="Q65" s="3"/>
+      <c r="R65" s="3"/>
+      <c r="S65" s="3"/>
+      <c r="T65" s="3"/>
+      <c r="U65" s="3"/>
+      <c r="V65" s="3"/>
+      <c r="W65" s="3"/>
+      <c r="X65" s="3"/>
+    </row>
+    <row r="66" spans="2:24">
+      <c r="B66" s="4">
+        <v>42763</v>
+      </c>
+      <c r="C66" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D66" s="3"/>
+      <c r="E66" s="3"/>
+      <c r="F66" s="3"/>
+      <c r="G66" s="3"/>
+      <c r="H66" s="3"/>
+      <c r="I66" s="3"/>
+      <c r="J66" s="3"/>
+      <c r="K66" s="3"/>
+      <c r="L66" s="3"/>
+      <c r="M66" s="3"/>
+      <c r="N66" s="3"/>
+      <c r="O66" s="3"/>
+      <c r="P66" s="3"/>
+      <c r="Q66" s="3"/>
+      <c r="R66" s="3"/>
+      <c r="S66" s="3"/>
+      <c r="T66" s="3"/>
+      <c r="U66" s="3"/>
+      <c r="V66" s="3"/>
+      <c r="W66" s="3"/>
+      <c r="X66" s="3"/>
+    </row>
+    <row r="67" spans="2:24">
+      <c r="B67" s="4">
+        <v>42764</v>
+      </c>
+      <c r="C67" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D67" s="3"/>
+      <c r="E67" s="3"/>
+      <c r="F67" s="3"/>
+      <c r="G67" s="3"/>
+      <c r="H67" s="3"/>
+      <c r="I67" s="3"/>
+      <c r="J67" s="3"/>
+      <c r="K67" s="3"/>
+      <c r="L67" s="3"/>
+      <c r="M67" s="3"/>
+      <c r="N67" s="3"/>
+      <c r="O67" s="3"/>
+      <c r="P67" s="3"/>
+      <c r="Q67" s="3"/>
+      <c r="R67" s="3"/>
+      <c r="S67" s="3"/>
+      <c r="T67" s="3"/>
+      <c r="U67" s="3"/>
+      <c r="V67" s="3"/>
+      <c r="W67" s="3"/>
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24">
+      <c r="B68" s="4">
+        <v>42765</v>
+      </c>
+      <c r="C68" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D68" s="3"/>
+      <c r="E68" s="3"/>
+      <c r="F68" s="3"/>
+      <c r="G68" s="3"/>
+      <c r="H68" s="3"/>
+      <c r="I68" s="3"/>
+      <c r="J68" s="3"/>
+      <c r="K68" s="3"/>
+      <c r="L68" s="3"/>
+      <c r="M68" s="3"/>
+      <c r="N68" s="3"/>
+      <c r="O68" s="3"/>
+      <c r="P68" s="3"/>
+      <c r="Q68" s="3"/>
+      <c r="R68" s="3"/>
+      <c r="S68" s="3"/>
+      <c r="T68" s="3"/>
+      <c r="U68" s="3"/>
+      <c r="V68" s="3"/>
+      <c r="W68" s="3"/>
+      <c r="X68" s="3"/>
+    </row>
+    <row r="69" spans="2:24">
+      <c r="B69" s="4">
+        <v>42766</v>
+      </c>
+      <c r="C69" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D69" s="3"/>
+      <c r="E69" s="3"/>
+      <c r="F69" s="3"/>
+      <c r="G69" s="3"/>
+      <c r="H69" s="3"/>
+      <c r="I69" s="3"/>
+      <c r="J69" s="3"/>
+      <c r="K69" s="3"/>
+      <c r="L69" s="3"/>
+      <c r="M69" s="3"/>
+      <c r="N69" s="3"/>
+      <c r="O69" s="3"/>
+      <c r="P69" s="3"/>
+      <c r="Q69" s="3"/>
+      <c r="R69" s="3"/>
+      <c r="S69" s="3"/>
+      <c r="T69" s="3"/>
+      <c r="U69" s="3"/>
+      <c r="V69" s="3"/>
+      <c r="W69" s="3"/>
+      <c r="X69" s="3"/>
+    </row>
+    <row r="70" spans="2:24">
+      <c r="B70" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C70" s="6">
+        <f>SUM(C39:C69)</f>
+        <v>214</v>
+      </c>
+      <c r="D70" s="6"/>
+      <c r="E70" s="6"/>
+      <c r="F70" s="6"/>
+      <c r="G70" s="6"/>
+      <c r="H70" s="6"/>
+      <c r="I70" s="6"/>
+      <c r="J70" s="6"/>
+      <c r="K70" s="6"/>
+      <c r="L70" s="6"/>
+      <c r="M70" s="6"/>
+      <c r="N70" s="6"/>
+      <c r="O70" s="6"/>
+      <c r="P70" s="6"/>
+      <c r="Q70" s="6"/>
+      <c r="R70" s="6"/>
+      <c r="S70" s="6"/>
+      <c r="T70" s="6"/>
+      <c r="U70" s="6"/>
+      <c r="V70" s="6"/>
+      <c r="W70" s="6"/>
+      <c r="X70" s="6"/>
+    </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="B2:B3"/>
@@ -3461,8 +4487,8 @@
     <mergeCell ref="C2:C3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="D4:X5 D39:X40 D7:X37">
-    <cfRule type="containsBlanks" dxfId="0" priority="7">
+  <conditionalFormatting sqref="D4:X5 D7:X37 D39:X69">
+    <cfRule type="containsBlanks" dxfId="1" priority="7">
       <formula>LEN(TRIM(D4))=0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/DailyExpense.xlsx
+++ b/DailyExpense.xlsx
@@ -1540,6 +1540,376 @@
       </text>
     </comment>
     <comment ref="G40" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+上网</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I42" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+锅盔</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J42" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+按摩</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I44" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+酸奶</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> 8
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>煎饼果子</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> 12
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>奶茶</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> 8</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J44" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+上网</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H45" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+手机充值卡</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I45" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+柠檬茶</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> 5
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>炸鸡排</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> 10</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J45" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+上网</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> 11
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>看电影</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> 30</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I46" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+奶茶</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> 8
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>小麦汁</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> 5</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J46" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1839,14 +2209,7 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <fill>
         <patternFill>
@@ -2147,8 +2510,8 @@
   <dimension ref="B2:X70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I33" sqref="I33"/>
+      <pane ySplit="3" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L47" sqref="L47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3586,11 +3949,17 @@
       </c>
       <c r="C41" s="3">
         <f t="shared" ref="C41:C69" si="1">SUM(D41:CN41)</f>
-        <v>0</v>
-      </c>
-      <c r="D41" s="3"/>
-      <c r="E41" s="3"/>
-      <c r="F41" s="3"/>
+        <v>24</v>
+      </c>
+      <c r="D41" s="3">
+        <v>3</v>
+      </c>
+      <c r="E41" s="3">
+        <v>11</v>
+      </c>
+      <c r="F41" s="3">
+        <v>10</v>
+      </c>
       <c r="G41" s="3"/>
       <c r="H41" s="3"/>
       <c r="I41" s="3"/>
@@ -3616,15 +3985,25 @@
       </c>
       <c r="C42" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="D42" s="3"/>
-      <c r="E42" s="3"/>
-      <c r="F42" s="3"/>
+        <v>72</v>
+      </c>
+      <c r="D42" s="3">
+        <v>3</v>
+      </c>
+      <c r="E42" s="3">
+        <v>11</v>
+      </c>
+      <c r="F42" s="3">
+        <v>14</v>
+      </c>
       <c r="G42" s="3"/>
       <c r="H42" s="3"/>
-      <c r="I42" s="3"/>
-      <c r="J42" s="3"/>
+      <c r="I42" s="3">
+        <v>4</v>
+      </c>
+      <c r="J42" s="3">
+        <v>40</v>
+      </c>
       <c r="K42" s="3"/>
       <c r="L42" s="3"/>
       <c r="M42" s="3"/>
@@ -3646,10 +4025,14 @@
       </c>
       <c r="C43" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="D43" s="3"/>
-      <c r="E43" s="3"/>
+        <v>14</v>
+      </c>
+      <c r="D43" s="3">
+        <v>6</v>
+      </c>
+      <c r="E43" s="3">
+        <v>8</v>
+      </c>
       <c r="F43" s="3"/>
       <c r="G43" s="3"/>
       <c r="H43" s="3"/>
@@ -3676,15 +4059,25 @@
       </c>
       <c r="C44" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="D44" s="3"/>
-      <c r="E44" s="3"/>
-      <c r="F44" s="3"/>
+        <v>67</v>
+      </c>
+      <c r="D44" s="3">
+        <v>2</v>
+      </c>
+      <c r="E44" s="3">
+        <v>13</v>
+      </c>
+      <c r="F44" s="3">
+        <v>13</v>
+      </c>
       <c r="G44" s="3"/>
       <c r="H44" s="3"/>
-      <c r="I44" s="3"/>
-      <c r="J44" s="3"/>
+      <c r="I44" s="3">
+        <v>28</v>
+      </c>
+      <c r="J44" s="3">
+        <v>11</v>
+      </c>
       <c r="K44" s="3"/>
       <c r="L44" s="3"/>
       <c r="M44" s="3"/>
@@ -3706,15 +4099,25 @@
       </c>
       <c r="C45" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>179</v>
       </c>
       <c r="D45" s="3"/>
-      <c r="E45" s="3"/>
-      <c r="F45" s="3"/>
+      <c r="E45" s="3">
+        <v>8</v>
+      </c>
+      <c r="F45" s="3">
+        <v>15</v>
+      </c>
       <c r="G45" s="3"/>
-      <c r="H45" s="3"/>
-      <c r="I45" s="3"/>
-      <c r="J45" s="3"/>
+      <c r="H45" s="3">
+        <v>100</v>
+      </c>
+      <c r="I45" s="3">
+        <v>15</v>
+      </c>
+      <c r="J45" s="3">
+        <v>41</v>
+      </c>
       <c r="K45" s="3"/>
       <c r="L45" s="3"/>
       <c r="M45" s="3"/>
@@ -3736,20 +4139,30 @@
       </c>
       <c r="C46" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2185</v>
       </c>
       <c r="D46" s="3"/>
-      <c r="E46" s="3"/>
-      <c r="F46" s="3"/>
+      <c r="E46" s="3">
+        <v>20</v>
+      </c>
+      <c r="F46" s="3">
+        <v>26</v>
+      </c>
       <c r="G46" s="3"/>
       <c r="H46" s="3"/>
-      <c r="I46" s="3"/>
-      <c r="J46" s="3"/>
+      <c r="I46" s="3">
+        <v>13</v>
+      </c>
+      <c r="J46" s="3">
+        <v>26</v>
+      </c>
       <c r="K46" s="3"/>
       <c r="L46" s="3"/>
       <c r="M46" s="3"/>
       <c r="N46" s="3"/>
-      <c r="O46" s="3"/>
+      <c r="O46" s="3">
+        <v>2100</v>
+      </c>
       <c r="P46" s="3"/>
       <c r="Q46" s="3"/>
       <c r="R46" s="3"/>
@@ -4456,7 +4869,7 @@
       </c>
       <c r="C70" s="6">
         <f>SUM(C39:C69)</f>
-        <v>214</v>
+        <v>2755</v>
       </c>
       <c r="D70" s="6"/>
       <c r="E70" s="6"/>
@@ -4488,7 +4901,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="D4:X5 D7:X37 D39:X69">
-    <cfRule type="containsBlanks" dxfId="1" priority="7">
+    <cfRule type="containsBlanks" dxfId="0" priority="7">
       <formula>LEN(TRIM(D4))=0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/DailyExpense.xlsx
+++ b/DailyExpense.xlsx
@@ -1932,6 +1932,84 @@
           </rPr>
           <t xml:space="preserve">
 上网</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K47" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+参苓健脾胃颗粒</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J49" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+按摩</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M50" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+两条秋裤</t>
         </r>
       </text>
     </comment>
@@ -2510,8 +2588,8 @@
   <dimension ref="B2:X70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L47" sqref="L47"/>
+      <pane ySplit="3" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M43" sqref="M43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4179,16 +4257,24 @@
       </c>
       <c r="C47" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="D47" s="3"/>
-      <c r="E47" s="3"/>
-      <c r="F47" s="3"/>
+        <v>73</v>
+      </c>
+      <c r="D47" s="3">
+        <v>3</v>
+      </c>
+      <c r="E47" s="3">
+        <v>15</v>
+      </c>
+      <c r="F47" s="3">
+        <v>27</v>
+      </c>
       <c r="G47" s="3"/>
       <c r="H47" s="3"/>
       <c r="I47" s="3"/>
       <c r="J47" s="3"/>
-      <c r="K47" s="3"/>
+      <c r="K47" s="3">
+        <v>28</v>
+      </c>
       <c r="L47" s="3"/>
       <c r="M47" s="3"/>
       <c r="N47" s="3"/>
@@ -4209,11 +4295,17 @@
       </c>
       <c r="C48" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="D48" s="3"/>
-      <c r="E48" s="3"/>
-      <c r="F48" s="3"/>
+        <v>39</v>
+      </c>
+      <c r="D48" s="3">
+        <v>5</v>
+      </c>
+      <c r="E48" s="3">
+        <v>16</v>
+      </c>
+      <c r="F48" s="3">
+        <v>18</v>
+      </c>
       <c r="G48" s="3"/>
       <c r="H48" s="3"/>
       <c r="I48" s="3"/>
@@ -4239,15 +4331,21 @@
       </c>
       <c r="C49" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="D49" s="3"/>
+        <v>65</v>
+      </c>
+      <c r="D49" s="3">
+        <v>5</v>
+      </c>
       <c r="E49" s="3"/>
-      <c r="F49" s="3"/>
+      <c r="F49" s="3">
+        <v>20</v>
+      </c>
       <c r="G49" s="3"/>
       <c r="H49" s="3"/>
       <c r="I49" s="3"/>
-      <c r="J49" s="3"/>
+      <c r="J49" s="3">
+        <v>40</v>
+      </c>
       <c r="K49" s="3"/>
       <c r="L49" s="3"/>
       <c r="M49" s="3"/>
@@ -4269,18 +4367,26 @@
       </c>
       <c r="C50" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="D50" s="3"/>
-      <c r="E50" s="3"/>
-      <c r="F50" s="3"/>
+        <v>193</v>
+      </c>
+      <c r="D50" s="3">
+        <v>5</v>
+      </c>
+      <c r="E50" s="3">
+        <v>20</v>
+      </c>
+      <c r="F50" s="3">
+        <v>20</v>
+      </c>
       <c r="G50" s="3"/>
       <c r="H50" s="3"/>
       <c r="I50" s="3"/>
       <c r="J50" s="3"/>
       <c r="K50" s="3"/>
       <c r="L50" s="3"/>
-      <c r="M50" s="3"/>
+      <c r="M50" s="3">
+        <v>148</v>
+      </c>
       <c r="N50" s="3"/>
       <c r="O50" s="3"/>
       <c r="P50" s="3"/>
@@ -4869,7 +4975,7 @@
       </c>
       <c r="C70" s="6">
         <f>SUM(C39:C69)</f>
-        <v>2755</v>
+        <v>3125</v>
       </c>
       <c r="D70" s="6"/>
       <c r="E70" s="6"/>

--- a/DailyExpense.xlsx
+++ b/DailyExpense.xlsx
@@ -2589,7 +2589,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M43" sqref="M43"/>
+      <selection pane="bottomLeft" activeCell="D53" sqref="D53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4405,9 +4405,11 @@
       </c>
       <c r="C51" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="D51" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="D51" s="3">
+        <v>1</v>
+      </c>
       <c r="E51" s="3"/>
       <c r="F51" s="3"/>
       <c r="G51" s="3"/>
@@ -4975,7 +4977,7 @@
       </c>
       <c r="C70" s="6">
         <f>SUM(C39:C69)</f>
-        <v>3125</v>
+        <v>3126</v>
       </c>
       <c r="D70" s="6"/>
       <c r="E70" s="6"/>

--- a/DailyExpense.xlsx
+++ b/DailyExpense.xlsx
@@ -1461,7 +1461,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G37" authorId="0">
+    <comment ref="J37" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1487,7 +1487,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G39" authorId="0">
+    <comment ref="J39" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1539,7 +1539,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G40" authorId="0">
+    <comment ref="J40" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2010,6 +2010,396 @@
           </rPr>
           <t xml:space="preserve">
 两条秋裤</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H51" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+上网</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E52" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+和小二一起</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I52" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+奶茶</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J52" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+上网</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E53" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+和小二一起，汤锅</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I53" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+奶茶</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J53" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+上网</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="R54" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+装修，窗台石</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H55" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+充公交卡</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="R55" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+柜子尾款</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F57" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+和猴子、张岳江聚餐</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I57" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+一包红茶</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H58" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+打车</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I59" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+奶茶</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J59" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+上网</t>
         </r>
       </text>
     </comment>
@@ -2025,10 +2415,6 @@
   </si>
   <si>
     <t>早饭</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>中饭</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -2098,6 +2484,10 @@
   <si>
     <t>房租</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>午饭</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2287,7 +2677,56 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="8">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -2588,8 +3027,8 @@
   <dimension ref="B2:X70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D53" sqref="D53"/>
+      <pane ySplit="3" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H44" sqref="H44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2610,10 +3049,10 @@
         <v>0</v>
       </c>
       <c r="C2" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="9" t="s">
         <v>4</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>5</v>
       </c>
       <c r="E2" s="10"/>
       <c r="F2" s="10"/>
@@ -2643,49 +3082,49 @@
         <v>1</v>
       </c>
       <c r="E3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="L3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H3" s="2" t="s">
+      <c r="M3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="N3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="K3" s="2" t="s">
+      <c r="O3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="S3" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="O3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="P3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="R3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="S3" s="2" t="s">
-        <v>17</v>
       </c>
       <c r="T3" s="2"/>
       <c r="U3" s="2"/>
@@ -2767,7 +3206,7 @@
     </row>
     <row r="6" spans="2:24">
       <c r="B6" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C6" s="6">
         <f>SUM(C4:C5)</f>
@@ -3904,12 +4343,12 @@
       <c r="D37" s="3"/>
       <c r="E37" s="3"/>
       <c r="F37" s="3"/>
-      <c r="G37" s="3">
-        <v>12</v>
-      </c>
+      <c r="G37" s="3"/>
       <c r="H37" s="3"/>
       <c r="I37" s="3"/>
-      <c r="J37" s="3"/>
+      <c r="J37" s="3">
+        <v>12</v>
+      </c>
       <c r="K37" s="3"/>
       <c r="L37" s="3"/>
       <c r="M37" s="3"/>
@@ -3927,7 +4366,7 @@
     </row>
     <row r="38" spans="2:24">
       <c r="B38" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C38" s="6">
         <f>SUM(C7:C37)</f>
@@ -3966,12 +4405,12 @@
       <c r="D39" s="3"/>
       <c r="E39" s="3"/>
       <c r="F39" s="3"/>
-      <c r="G39" s="3">
-        <v>109</v>
-      </c>
+      <c r="G39" s="3"/>
       <c r="H39" s="3"/>
       <c r="I39" s="3"/>
-      <c r="J39" s="3"/>
+      <c r="J39" s="3">
+        <v>109</v>
+      </c>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
@@ -4000,12 +4439,12 @@
       <c r="F40" s="3">
         <v>98</v>
       </c>
-      <c r="G40" s="3">
-        <v>7</v>
-      </c>
+      <c r="G40" s="3"/>
       <c r="H40" s="3"/>
       <c r="I40" s="3"/>
-      <c r="J40" s="3"/>
+      <c r="J40" s="3">
+        <v>7</v>
+      </c>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
@@ -4405,15 +4844,21 @@
       </c>
       <c r="C51" s="3">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>86</v>
       </c>
       <c r="D51" s="3">
-        <v>1</v>
-      </c>
-      <c r="E51" s="3"/>
-      <c r="F51" s="3"/>
+        <v>12</v>
+      </c>
+      <c r="E51" s="3">
+        <v>23</v>
+      </c>
+      <c r="F51" s="3">
+        <v>37</v>
+      </c>
       <c r="G51" s="3"/>
-      <c r="H51" s="3"/>
+      <c r="H51" s="3">
+        <v>14</v>
+      </c>
       <c r="I51" s="3"/>
       <c r="J51" s="3"/>
       <c r="K51" s="3"/>
@@ -4436,16 +4881,24 @@
         <v>42749</v>
       </c>
       <c r="C52" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>SUM(E52:CN52)</f>
+        <v>121</v>
       </c>
       <c r="D52" s="3"/>
-      <c r="E52" s="3"/>
-      <c r="F52" s="3"/>
+      <c r="E52" s="3">
+        <v>54</v>
+      </c>
+      <c r="F52" s="3">
+        <v>28</v>
+      </c>
       <c r="G52" s="3"/>
       <c r="H52" s="3"/>
-      <c r="I52" s="3"/>
-      <c r="J52" s="3"/>
+      <c r="I52" s="3">
+        <v>5</v>
+      </c>
+      <c r="J52" s="3">
+        <v>34</v>
+      </c>
       <c r="K52" s="3"/>
       <c r="L52" s="3"/>
       <c r="M52" s="3"/>
@@ -4467,15 +4920,21 @@
       </c>
       <c r="C53" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>158</v>
       </c>
       <c r="D53" s="3"/>
-      <c r="E53" s="3"/>
+      <c r="E53" s="3">
+        <v>136</v>
+      </c>
       <c r="F53" s="3"/>
       <c r="G53" s="3"/>
       <c r="H53" s="3"/>
-      <c r="I53" s="3"/>
-      <c r="J53" s="3"/>
+      <c r="I53" s="3">
+        <v>16</v>
+      </c>
+      <c r="J53" s="3">
+        <v>6</v>
+      </c>
       <c r="K53" s="3"/>
       <c r="L53" s="3"/>
       <c r="M53" s="3"/>
@@ -4497,11 +4956,17 @@
       </c>
       <c r="C54" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="D54" s="3"/>
-      <c r="E54" s="3"/>
-      <c r="F54" s="3"/>
+        <v>1281</v>
+      </c>
+      <c r="D54" s="3">
+        <v>3</v>
+      </c>
+      <c r="E54" s="3">
+        <v>25</v>
+      </c>
+      <c r="F54" s="3">
+        <v>15</v>
+      </c>
       <c r="G54" s="3"/>
       <c r="H54" s="3"/>
       <c r="I54" s="3"/>
@@ -4513,7 +4978,9 @@
       <c r="O54" s="3"/>
       <c r="P54" s="3"/>
       <c r="Q54" s="3"/>
-      <c r="R54" s="3"/>
+      <c r="R54" s="3">
+        <v>1238</v>
+      </c>
       <c r="S54" s="3"/>
       <c r="T54" s="3"/>
       <c r="U54" s="3"/>
@@ -4527,13 +4994,21 @@
       </c>
       <c r="C55" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="D55" s="3"/>
-      <c r="E55" s="3"/>
-      <c r="F55" s="3"/>
+        <v>1864</v>
+      </c>
+      <c r="D55" s="3">
+        <v>3</v>
+      </c>
+      <c r="E55" s="3">
+        <v>19</v>
+      </c>
+      <c r="F55" s="3">
+        <v>12</v>
+      </c>
       <c r="G55" s="3"/>
-      <c r="H55" s="3"/>
+      <c r="H55" s="3">
+        <v>30</v>
+      </c>
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
@@ -4543,7 +5018,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-      <c r="R55" s="3"/>
+      <c r="R55" s="3">
+        <v>1800</v>
+      </c>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
@@ -4557,11 +5034,17 @@
       </c>
       <c r="C56" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="D56" s="3"/>
-      <c r="E56" s="3"/>
-      <c r="F56" s="3"/>
+        <v>46</v>
+      </c>
+      <c r="D56" s="3">
+        <v>13</v>
+      </c>
+      <c r="E56" s="3">
+        <v>28</v>
+      </c>
+      <c r="F56" s="3">
+        <v>5</v>
+      </c>
       <c r="G56" s="3"/>
       <c r="H56" s="3"/>
       <c r="I56" s="3"/>
@@ -4587,14 +5070,22 @@
       </c>
       <c r="C57" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="D57" s="3"/>
-      <c r="E57" s="3"/>
-      <c r="F57" s="3"/>
+        <v>171</v>
+      </c>
+      <c r="D57" s="3">
+        <v>5</v>
+      </c>
+      <c r="E57" s="3">
+        <v>18</v>
+      </c>
+      <c r="F57" s="3">
+        <v>120</v>
+      </c>
       <c r="G57" s="3"/>
       <c r="H57" s="3"/>
-      <c r="I57" s="3"/>
+      <c r="I57" s="3">
+        <v>28</v>
+      </c>
       <c r="J57" s="3"/>
       <c r="K57" s="3"/>
       <c r="L57" s="3"/>
@@ -4617,13 +5108,19 @@
       </c>
       <c r="C58" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="D58" s="3"/>
-      <c r="E58" s="3"/>
+        <v>58</v>
+      </c>
+      <c r="D58" s="3">
+        <v>8</v>
+      </c>
+      <c r="E58" s="3">
+        <v>20</v>
+      </c>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
-      <c r="H58" s="3"/>
+      <c r="H58" s="3">
+        <v>30</v>
+      </c>
       <c r="I58" s="3"/>
       <c r="J58" s="3"/>
       <c r="K58" s="3"/>
@@ -4647,15 +5144,23 @@
       </c>
       <c r="C59" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>77</v>
       </c>
       <c r="D59" s="3"/>
-      <c r="E59" s="3"/>
-      <c r="F59" s="3"/>
+      <c r="E59" s="3">
+        <v>26</v>
+      </c>
+      <c r="F59" s="3">
+        <v>27</v>
+      </c>
       <c r="G59" s="3"/>
       <c r="H59" s="3"/>
-      <c r="I59" s="3"/>
-      <c r="J59" s="3"/>
+      <c r="I59" s="3">
+        <v>6</v>
+      </c>
+      <c r="J59" s="3">
+        <v>18</v>
+      </c>
       <c r="K59" s="3"/>
       <c r="L59" s="3"/>
       <c r="M59" s="3"/>
@@ -4677,10 +5182,12 @@
       </c>
       <c r="C60" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="D60" s="3"/>
-      <c r="E60" s="3"/>
+      <c r="E60" s="3">
+        <v>20</v>
+      </c>
       <c r="F60" s="3"/>
       <c r="G60" s="3"/>
       <c r="H60" s="3"/>
@@ -4973,11 +5480,11 @@
     </row>
     <row r="70" spans="2:24">
       <c r="B70" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C70" s="6">
         <f>SUM(C39:C69)</f>
-        <v>3126</v>
+        <v>7007</v>
       </c>
       <c r="D70" s="6"/>
       <c r="E70" s="6"/>
@@ -5008,9 +5515,19 @@
     <mergeCell ref="C2:C3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="D4:X5 D7:X37 D39:X69">
-    <cfRule type="containsBlanks" dxfId="0" priority="7">
+  <conditionalFormatting sqref="D4:X5 D39:D51 D53:D69 E39:G69 H39:H51 H54:H69 I39:X69 D7:X37">
+    <cfRule type="containsBlanks" dxfId="7" priority="9">
       <formula>LEN(TRIM(D4))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H52:H53">
+    <cfRule type="containsBlanks" dxfId="6" priority="2">
+      <formula>LEN(TRIM(H52))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D52">
+    <cfRule type="containsBlanks" dxfId="4" priority="1">
+      <formula>LEN(TRIM(D52))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DailyExpense.xlsx
+++ b/DailyExpense.xlsx
@@ -2677,42 +2677,7 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="3">
     <dxf>
       <fill>
         <patternFill>
@@ -3028,7 +2993,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H44" sqref="H44"/>
+      <selection pane="bottomLeft" activeCell="G65" sqref="G65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5214,11 +5179,17 @@
       </c>
       <c r="C61" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="D61" s="3"/>
-      <c r="E61" s="3"/>
-      <c r="F61" s="3"/>
+        <v>36</v>
+      </c>
+      <c r="D61" s="3">
+        <v>5</v>
+      </c>
+      <c r="E61" s="3">
+        <v>14</v>
+      </c>
+      <c r="F61" s="3">
+        <v>17</v>
+      </c>
       <c r="G61" s="3"/>
       <c r="H61" s="3"/>
       <c r="I61" s="3"/>
@@ -5484,7 +5455,7 @@
       </c>
       <c r="C70" s="6">
         <f>SUM(C39:C69)</f>
-        <v>7007</v>
+        <v>7043</v>
       </c>
       <c r="D70" s="6"/>
       <c r="E70" s="6"/>
@@ -5516,17 +5487,17 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="D4:X5 D39:D51 D53:D69 E39:G69 H39:H51 H54:H69 I39:X69 D7:X37">
-    <cfRule type="containsBlanks" dxfId="7" priority="9">
+    <cfRule type="containsBlanks" dxfId="2" priority="9">
       <formula>LEN(TRIM(D4))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H52:H53">
-    <cfRule type="containsBlanks" dxfId="6" priority="2">
+    <cfRule type="containsBlanks" dxfId="1" priority="2">
       <formula>LEN(TRIM(H52))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D52">
-    <cfRule type="containsBlanks" dxfId="4" priority="1">
+    <cfRule type="containsBlanks" dxfId="0" priority="1">
       <formula>LEN(TRIM(D52))=0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/DailyExpense.xlsx
+++ b/DailyExpense.xlsx
@@ -2403,12 +2403,600 @@
         </r>
       </text>
     </comment>
+    <comment ref="J63" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+上网</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I64" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+奶茶</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J64" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+上网</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H65" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+给爸妈过年钱：6000
+过年红包：
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">38 </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">石板的那些人
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">88 </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">小二
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">38 </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">弟弟妹妹
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">68 </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>弟弟妹妹
+火车票</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>100</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K65" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+胃康灵胶囊</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H66" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+刘娟红包</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J66" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+上网</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J67" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+上网</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J68" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+上网</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H69" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+车票</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> 30
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>给小二爸妈买东西</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> 1300
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>打车</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>100</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I71" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+奶茶</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F72" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+和小二，德克士</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H72" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+车票</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">20
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>汽车票</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">226
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>打车</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>60</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H73" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+充公交卡</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J73" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+电影</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>IMAX</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="20">
   <si>
     <t>日期</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -2677,7 +3265,56 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="10">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -2989,11 +3626,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:X70"/>
+  <dimension ref="B2:X99"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G65" sqref="G65"/>
+      <pane ySplit="3" topLeftCell="A61" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G74" sqref="G74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5179,16 +5816,16 @@
       </c>
       <c r="C61" s="3">
         <f t="shared" si="1"/>
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D61" s="3">
         <v>5</v>
       </c>
       <c r="E61" s="3">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F61" s="3">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G61" s="3"/>
       <c r="H61" s="3"/>
@@ -5215,11 +5852,17 @@
       </c>
       <c r="C62" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="D62" s="3"/>
-      <c r="E62" s="3"/>
-      <c r="F62" s="3"/>
+        <v>37</v>
+      </c>
+      <c r="D62" s="3">
+        <v>5</v>
+      </c>
+      <c r="E62" s="3">
+        <v>16</v>
+      </c>
+      <c r="F62" s="3">
+        <v>16</v>
+      </c>
       <c r="G62" s="3"/>
       <c r="H62" s="3"/>
       <c r="I62" s="3"/>
@@ -5245,15 +5888,23 @@
       </c>
       <c r="C63" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="D63" s="3"/>
-      <c r="E63" s="3"/>
-      <c r="F63" s="3"/>
+        <v>26</v>
+      </c>
+      <c r="D63" s="3">
+        <v>5</v>
+      </c>
+      <c r="E63" s="3">
+        <v>10</v>
+      </c>
+      <c r="F63" s="3">
+        <v>5</v>
+      </c>
       <c r="G63" s="3"/>
       <c r="H63" s="3"/>
       <c r="I63" s="3"/>
-      <c r="J63" s="3"/>
+      <c r="J63" s="3">
+        <v>6</v>
+      </c>
       <c r="K63" s="3"/>
       <c r="L63" s="3"/>
       <c r="M63" s="3"/>
@@ -5275,15 +5926,25 @@
       </c>
       <c r="C64" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="D64" s="3"/>
-      <c r="E64" s="3"/>
-      <c r="F64" s="3"/>
+        <v>87</v>
+      </c>
+      <c r="D64" s="3">
+        <v>5</v>
+      </c>
+      <c r="E64" s="3">
+        <v>10</v>
+      </c>
+      <c r="F64" s="3">
+        <v>48</v>
+      </c>
       <c r="G64" s="3"/>
       <c r="H64" s="3"/>
-      <c r="I64" s="3"/>
-      <c r="J64" s="3"/>
+      <c r="I64" s="3">
+        <v>6</v>
+      </c>
+      <c r="J64" s="3">
+        <v>18</v>
+      </c>
       <c r="K64" s="3"/>
       <c r="L64" s="3"/>
       <c r="M64" s="3"/>
@@ -5305,16 +5966,22 @@
       </c>
       <c r="C65" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="D65" s="3"/>
+        <v>6344</v>
+      </c>
+      <c r="D65" s="3">
+        <v>2</v>
+      </c>
       <c r="E65" s="3"/>
       <c r="F65" s="3"/>
       <c r="G65" s="3"/>
-      <c r="H65" s="3"/>
+      <c r="H65" s="3">
+        <v>6332</v>
+      </c>
       <c r="I65" s="3"/>
       <c r="J65" s="3"/>
-      <c r="K65" s="3"/>
+      <c r="K65" s="3">
+        <v>10</v>
+      </c>
       <c r="L65" s="3"/>
       <c r="M65" s="3"/>
       <c r="N65" s="3"/>
@@ -5335,15 +6002,19 @@
       </c>
       <c r="C66" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>118</v>
       </c>
       <c r="D66" s="3"/>
       <c r="E66" s="3"/>
       <c r="F66" s="3"/>
       <c r="G66" s="3"/>
-      <c r="H66" s="3"/>
+      <c r="H66" s="3">
+        <v>88</v>
+      </c>
       <c r="I66" s="3"/>
-      <c r="J66" s="3"/>
+      <c r="J66" s="3">
+        <v>30</v>
+      </c>
       <c r="K66" s="3"/>
       <c r="L66" s="3"/>
       <c r="M66" s="3"/>
@@ -5365,7 +6036,7 @@
       </c>
       <c r="C67" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="D67" s="3"/>
       <c r="E67" s="3"/>
@@ -5373,7 +6044,9 @@
       <c r="G67" s="3"/>
       <c r="H67" s="3"/>
       <c r="I67" s="3"/>
-      <c r="J67" s="3"/>
+      <c r="J67" s="3">
+        <v>25</v>
+      </c>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
@@ -5395,7 +6068,7 @@
       </c>
       <c r="C68" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="D68" s="3"/>
       <c r="E68" s="3"/>
@@ -5403,7 +6076,9 @@
       <c r="G68" s="3"/>
       <c r="H68" s="3"/>
       <c r="I68" s="3"/>
-      <c r="J68" s="3"/>
+      <c r="J68" s="3">
+        <v>30</v>
+      </c>
       <c r="K68" s="3"/>
       <c r="L68" s="3"/>
       <c r="M68" s="3"/>
@@ -5425,13 +6100,15 @@
       </c>
       <c r="C69" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1430</v>
       </c>
       <c r="D69" s="3"/>
       <c r="E69" s="3"/>
       <c r="F69" s="3"/>
       <c r="G69" s="3"/>
-      <c r="H69" s="3"/>
+      <c r="H69" s="3">
+        <v>1430</v>
+      </c>
       <c r="I69" s="3"/>
       <c r="J69" s="3"/>
       <c r="K69" s="3"/>
@@ -5455,7 +6132,7 @@
       </c>
       <c r="C70" s="6">
         <f>SUM(C39:C69)</f>
-        <v>7043</v>
+        <v>15141</v>
       </c>
       <c r="D70" s="6"/>
       <c r="E70" s="6"/>
@@ -5479,6 +6156,894 @@
       <c r="W70" s="6"/>
       <c r="X70" s="6"/>
     </row>
+    <row r="71" spans="2:24">
+      <c r="B71" s="4">
+        <v>42767</v>
+      </c>
+      <c r="C71" s="3">
+        <f>SUM(D71:CN71)</f>
+        <v>4</v>
+      </c>
+      <c r="D71" s="3"/>
+      <c r="E71" s="3"/>
+      <c r="F71" s="3"/>
+      <c r="G71" s="3"/>
+      <c r="H71" s="3"/>
+      <c r="I71" s="3">
+        <v>4</v>
+      </c>
+      <c r="J71" s="3"/>
+      <c r="K71" s="3"/>
+      <c r="L71" s="3"/>
+      <c r="M71" s="3"/>
+      <c r="N71" s="3"/>
+      <c r="O71" s="3"/>
+      <c r="P71" s="3"/>
+      <c r="Q71" s="3"/>
+      <c r="R71" s="3"/>
+      <c r="S71" s="3"/>
+      <c r="T71" s="3"/>
+      <c r="U71" s="3"/>
+      <c r="V71" s="3"/>
+      <c r="W71" s="3"/>
+      <c r="X71" s="3"/>
+    </row>
+    <row r="72" spans="2:24">
+      <c r="B72" s="4">
+        <v>42768</v>
+      </c>
+      <c r="C72" s="3">
+        <f>SUM(D72:CN72)</f>
+        <v>386</v>
+      </c>
+      <c r="D72" s="3"/>
+      <c r="E72" s="3">
+        <v>20</v>
+      </c>
+      <c r="F72" s="3">
+        <v>60</v>
+      </c>
+      <c r="G72" s="3"/>
+      <c r="H72" s="3">
+        <v>306</v>
+      </c>
+      <c r="I72" s="3"/>
+      <c r="J72" s="3"/>
+      <c r="K72" s="3"/>
+      <c r="L72" s="3"/>
+      <c r="M72" s="3"/>
+      <c r="N72" s="3"/>
+      <c r="O72" s="3"/>
+      <c r="P72" s="3"/>
+      <c r="Q72" s="3"/>
+      <c r="R72" s="3"/>
+      <c r="S72" s="3"/>
+      <c r="T72" s="3"/>
+      <c r="U72" s="3"/>
+      <c r="V72" s="3"/>
+      <c r="W72" s="3"/>
+      <c r="X72" s="3"/>
+    </row>
+    <row r="73" spans="2:24">
+      <c r="B73" s="4">
+        <v>42769</v>
+      </c>
+      <c r="C73" s="3">
+        <f t="shared" ref="C73:C83" si="2">SUM(D73:CN73)</f>
+        <v>137</v>
+      </c>
+      <c r="D73" s="3">
+        <v>5</v>
+      </c>
+      <c r="E73" s="3">
+        <v>14</v>
+      </c>
+      <c r="F73" s="3">
+        <v>28</v>
+      </c>
+      <c r="G73" s="3"/>
+      <c r="H73" s="3">
+        <v>30</v>
+      </c>
+      <c r="I73" s="3"/>
+      <c r="J73" s="3">
+        <v>60</v>
+      </c>
+      <c r="K73" s="3"/>
+      <c r="L73" s="3"/>
+      <c r="M73" s="3"/>
+      <c r="N73" s="3"/>
+      <c r="O73" s="3"/>
+      <c r="P73" s="3"/>
+      <c r="Q73" s="3"/>
+      <c r="R73" s="3"/>
+      <c r="S73" s="3"/>
+      <c r="T73" s="3"/>
+      <c r="U73" s="3"/>
+      <c r="V73" s="3"/>
+      <c r="W73" s="3"/>
+      <c r="X73" s="3"/>
+    </row>
+    <row r="74" spans="2:24">
+      <c r="B74" s="4">
+        <v>42770</v>
+      </c>
+      <c r="C74" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D74" s="3"/>
+      <c r="E74" s="3"/>
+      <c r="F74" s="3"/>
+      <c r="G74" s="3"/>
+      <c r="H74" s="3"/>
+      <c r="I74" s="3"/>
+      <c r="J74" s="3"/>
+      <c r="K74" s="3"/>
+      <c r="L74" s="3"/>
+      <c r="M74" s="3"/>
+      <c r="N74" s="3"/>
+      <c r="O74" s="3"/>
+      <c r="P74" s="3"/>
+      <c r="Q74" s="3"/>
+      <c r="R74" s="3"/>
+      <c r="S74" s="3"/>
+      <c r="T74" s="3"/>
+      <c r="U74" s="3"/>
+      <c r="V74" s="3"/>
+      <c r="W74" s="3"/>
+      <c r="X74" s="3"/>
+    </row>
+    <row r="75" spans="2:24">
+      <c r="B75" s="4">
+        <v>42771</v>
+      </c>
+      <c r="C75" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D75" s="3"/>
+      <c r="E75" s="3"/>
+      <c r="F75" s="3"/>
+      <c r="G75" s="3"/>
+      <c r="H75" s="3"/>
+      <c r="I75" s="3"/>
+      <c r="J75" s="3"/>
+      <c r="K75" s="3"/>
+      <c r="L75" s="3"/>
+      <c r="M75" s="3"/>
+      <c r="N75" s="3"/>
+      <c r="O75" s="3"/>
+      <c r="P75" s="3"/>
+      <c r="Q75" s="3"/>
+      <c r="R75" s="3"/>
+      <c r="S75" s="3"/>
+      <c r="T75" s="3"/>
+      <c r="U75" s="3"/>
+      <c r="V75" s="3"/>
+      <c r="W75" s="3"/>
+      <c r="X75" s="3"/>
+    </row>
+    <row r="76" spans="2:24">
+      <c r="B76" s="4">
+        <v>42772</v>
+      </c>
+      <c r="C76" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D76" s="3"/>
+      <c r="E76" s="3"/>
+      <c r="F76" s="3"/>
+      <c r="G76" s="3"/>
+      <c r="H76" s="3"/>
+      <c r="I76" s="3"/>
+      <c r="J76" s="3"/>
+      <c r="K76" s="3"/>
+      <c r="L76" s="3"/>
+      <c r="M76" s="3"/>
+      <c r="N76" s="3"/>
+      <c r="O76" s="3"/>
+      <c r="P76" s="3"/>
+      <c r="Q76" s="3"/>
+      <c r="R76" s="3"/>
+      <c r="S76" s="3"/>
+      <c r="T76" s="3"/>
+      <c r="U76" s="3"/>
+      <c r="V76" s="3"/>
+      <c r="W76" s="3"/>
+      <c r="X76" s="3"/>
+    </row>
+    <row r="77" spans="2:24">
+      <c r="B77" s="4">
+        <v>42773</v>
+      </c>
+      <c r="C77" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D77" s="3"/>
+      <c r="E77" s="3"/>
+      <c r="F77" s="3"/>
+      <c r="G77" s="3"/>
+      <c r="H77" s="3"/>
+      <c r="I77" s="3"/>
+      <c r="J77" s="3"/>
+      <c r="K77" s="3"/>
+      <c r="L77" s="3"/>
+      <c r="M77" s="3"/>
+      <c r="N77" s="3"/>
+      <c r="O77" s="3"/>
+      <c r="P77" s="3"/>
+      <c r="Q77" s="3"/>
+      <c r="R77" s="3"/>
+      <c r="S77" s="3"/>
+      <c r="T77" s="3"/>
+      <c r="U77" s="3"/>
+      <c r="V77" s="3"/>
+      <c r="W77" s="3"/>
+      <c r="X77" s="3"/>
+    </row>
+    <row r="78" spans="2:24">
+      <c r="B78" s="4">
+        <v>42774</v>
+      </c>
+      <c r="C78" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D78" s="3"/>
+      <c r="E78" s="3"/>
+      <c r="F78" s="3"/>
+      <c r="G78" s="3"/>
+      <c r="H78" s="3"/>
+      <c r="I78" s="3"/>
+      <c r="J78" s="3"/>
+      <c r="K78" s="3"/>
+      <c r="L78" s="3"/>
+      <c r="M78" s="3"/>
+      <c r="N78" s="3"/>
+      <c r="O78" s="3"/>
+      <c r="P78" s="3"/>
+      <c r="Q78" s="3"/>
+      <c r="R78" s="3"/>
+      <c r="S78" s="3"/>
+      <c r="T78" s="3"/>
+      <c r="U78" s="3"/>
+      <c r="V78" s="3"/>
+      <c r="W78" s="3"/>
+      <c r="X78" s="3"/>
+    </row>
+    <row r="79" spans="2:24">
+      <c r="B79" s="4">
+        <v>42775</v>
+      </c>
+      <c r="C79" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D79" s="3"/>
+      <c r="E79" s="3"/>
+      <c r="F79" s="3"/>
+      <c r="G79" s="3"/>
+      <c r="H79" s="3"/>
+      <c r="I79" s="3"/>
+      <c r="J79" s="3"/>
+      <c r="K79" s="3"/>
+      <c r="L79" s="3"/>
+      <c r="M79" s="3"/>
+      <c r="N79" s="3"/>
+      <c r="O79" s="3"/>
+      <c r="P79" s="3"/>
+      <c r="Q79" s="3"/>
+      <c r="R79" s="3"/>
+      <c r="S79" s="3"/>
+      <c r="T79" s="3"/>
+      <c r="U79" s="3"/>
+      <c r="V79" s="3"/>
+      <c r="W79" s="3"/>
+      <c r="X79" s="3"/>
+    </row>
+    <row r="80" spans="2:24">
+      <c r="B80" s="4">
+        <v>42776</v>
+      </c>
+      <c r="C80" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D80" s="3"/>
+      <c r="E80" s="3"/>
+      <c r="F80" s="3"/>
+      <c r="G80" s="3"/>
+      <c r="H80" s="3"/>
+      <c r="I80" s="3"/>
+      <c r="J80" s="3"/>
+      <c r="K80" s="3"/>
+      <c r="L80" s="3"/>
+      <c r="M80" s="3"/>
+      <c r="N80" s="3"/>
+      <c r="O80" s="3"/>
+      <c r="P80" s="3"/>
+      <c r="Q80" s="3"/>
+      <c r="R80" s="3"/>
+      <c r="S80" s="3"/>
+      <c r="T80" s="3"/>
+      <c r="U80" s="3"/>
+      <c r="V80" s="3"/>
+      <c r="W80" s="3"/>
+      <c r="X80" s="3"/>
+    </row>
+    <row r="81" spans="2:24">
+      <c r="B81" s="4">
+        <v>42777</v>
+      </c>
+      <c r="C81" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D81" s="3"/>
+      <c r="E81" s="3"/>
+      <c r="F81" s="3"/>
+      <c r="G81" s="3"/>
+      <c r="H81" s="3"/>
+      <c r="I81" s="3"/>
+      <c r="J81" s="3"/>
+      <c r="K81" s="3"/>
+      <c r="L81" s="3"/>
+      <c r="M81" s="3"/>
+      <c r="N81" s="3"/>
+      <c r="O81" s="3"/>
+      <c r="P81" s="3"/>
+      <c r="Q81" s="3"/>
+      <c r="R81" s="3"/>
+      <c r="S81" s="3"/>
+      <c r="T81" s="3"/>
+      <c r="U81" s="3"/>
+      <c r="V81" s="3"/>
+      <c r="W81" s="3"/>
+      <c r="X81" s="3"/>
+    </row>
+    <row r="82" spans="2:24">
+      <c r="B82" s="4">
+        <v>42778</v>
+      </c>
+      <c r="C82" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D82" s="3"/>
+      <c r="E82" s="3"/>
+      <c r="F82" s="3"/>
+      <c r="G82" s="3"/>
+      <c r="H82" s="3"/>
+      <c r="I82" s="3"/>
+      <c r="J82" s="3"/>
+      <c r="K82" s="3"/>
+      <c r="L82" s="3"/>
+      <c r="M82" s="3"/>
+      <c r="N82" s="3"/>
+      <c r="O82" s="3"/>
+      <c r="P82" s="3"/>
+      <c r="Q82" s="3"/>
+      <c r="R82" s="3"/>
+      <c r="S82" s="3"/>
+      <c r="T82" s="3"/>
+      <c r="U82" s="3"/>
+      <c r="V82" s="3"/>
+      <c r="W82" s="3"/>
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="2:24">
+      <c r="B83" s="4">
+        <v>42779</v>
+      </c>
+      <c r="C83" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D83" s="3"/>
+      <c r="E83" s="3"/>
+      <c r="F83" s="3"/>
+      <c r="G83" s="3"/>
+      <c r="H83" s="3"/>
+      <c r="I83" s="3"/>
+      <c r="J83" s="3"/>
+      <c r="K83" s="3"/>
+      <c r="L83" s="3"/>
+      <c r="M83" s="3"/>
+      <c r="N83" s="3"/>
+      <c r="O83" s="3"/>
+      <c r="P83" s="3"/>
+      <c r="Q83" s="3"/>
+      <c r="R83" s="3"/>
+      <c r="S83" s="3"/>
+      <c r="T83" s="3"/>
+      <c r="U83" s="3"/>
+      <c r="V83" s="3"/>
+      <c r="W83" s="3"/>
+      <c r="X83" s="3"/>
+    </row>
+    <row r="84" spans="2:24">
+      <c r="B84" s="4">
+        <v>42780</v>
+      </c>
+      <c r="C84" s="3">
+        <f>SUM(E84:CN84)</f>
+        <v>0</v>
+      </c>
+      <c r="D84" s="3"/>
+      <c r="E84" s="3"/>
+      <c r="F84" s="3"/>
+      <c r="G84" s="3"/>
+      <c r="H84" s="3"/>
+      <c r="I84" s="3"/>
+      <c r="J84" s="3"/>
+      <c r="K84" s="3"/>
+      <c r="L84" s="3"/>
+      <c r="M84" s="3"/>
+      <c r="N84" s="3"/>
+      <c r="O84" s="3"/>
+      <c r="P84" s="3"/>
+      <c r="Q84" s="3"/>
+      <c r="R84" s="3"/>
+      <c r="S84" s="3"/>
+      <c r="T84" s="3"/>
+      <c r="U84" s="3"/>
+      <c r="V84" s="3"/>
+      <c r="W84" s="3"/>
+      <c r="X84" s="3"/>
+    </row>
+    <row r="85" spans="2:24">
+      <c r="B85" s="4">
+        <v>42781</v>
+      </c>
+      <c r="C85" s="3">
+        <f t="shared" ref="C85:C98" si="3">SUM(D85:CN85)</f>
+        <v>0</v>
+      </c>
+      <c r="D85" s="3"/>
+      <c r="E85" s="3"/>
+      <c r="F85" s="3"/>
+      <c r="G85" s="3"/>
+      <c r="H85" s="3"/>
+      <c r="I85" s="3"/>
+      <c r="J85" s="3"/>
+      <c r="K85" s="3"/>
+      <c r="L85" s="3"/>
+      <c r="M85" s="3"/>
+      <c r="N85" s="3"/>
+      <c r="O85" s="3"/>
+      <c r="P85" s="3"/>
+      <c r="Q85" s="3"/>
+      <c r="R85" s="3"/>
+      <c r="S85" s="3"/>
+      <c r="T85" s="3"/>
+      <c r="U85" s="3"/>
+      <c r="V85" s="3"/>
+      <c r="W85" s="3"/>
+      <c r="X85" s="3"/>
+    </row>
+    <row r="86" spans="2:24">
+      <c r="B86" s="4">
+        <v>42782</v>
+      </c>
+      <c r="C86" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="D86" s="3"/>
+      <c r="E86" s="3"/>
+      <c r="F86" s="3"/>
+      <c r="G86" s="3"/>
+      <c r="H86" s="3"/>
+      <c r="I86" s="3"/>
+      <c r="J86" s="3"/>
+      <c r="K86" s="3"/>
+      <c r="L86" s="3"/>
+      <c r="M86" s="3"/>
+      <c r="N86" s="3"/>
+      <c r="O86" s="3"/>
+      <c r="P86" s="3"/>
+      <c r="Q86" s="3"/>
+      <c r="R86" s="3"/>
+      <c r="S86" s="3"/>
+      <c r="T86" s="3"/>
+      <c r="U86" s="3"/>
+      <c r="V86" s="3"/>
+      <c r="W86" s="3"/>
+      <c r="X86" s="3"/>
+    </row>
+    <row r="87" spans="2:24">
+      <c r="B87" s="4">
+        <v>42783</v>
+      </c>
+      <c r="C87" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="D87" s="3"/>
+      <c r="E87" s="3"/>
+      <c r="F87" s="3"/>
+      <c r="G87" s="3"/>
+      <c r="H87" s="3"/>
+      <c r="I87" s="3"/>
+      <c r="J87" s="3"/>
+      <c r="K87" s="3"/>
+      <c r="L87" s="3"/>
+      <c r="M87" s="3"/>
+      <c r="N87" s="3"/>
+      <c r="O87" s="3"/>
+      <c r="P87" s="3"/>
+      <c r="Q87" s="3"/>
+      <c r="R87" s="3"/>
+      <c r="S87" s="3"/>
+      <c r="T87" s="3"/>
+      <c r="U87" s="3"/>
+      <c r="V87" s="3"/>
+      <c r="W87" s="3"/>
+      <c r="X87" s="3"/>
+    </row>
+    <row r="88" spans="2:24">
+      <c r="B88" s="4">
+        <v>42784</v>
+      </c>
+      <c r="C88" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="D88" s="3"/>
+      <c r="E88" s="3"/>
+      <c r="F88" s="3"/>
+      <c r="G88" s="3"/>
+      <c r="H88" s="3"/>
+      <c r="I88" s="3"/>
+      <c r="J88" s="3"/>
+      <c r="K88" s="3"/>
+      <c r="L88" s="3"/>
+      <c r="M88" s="3"/>
+      <c r="N88" s="3"/>
+      <c r="O88" s="3"/>
+      <c r="P88" s="3"/>
+      <c r="Q88" s="3"/>
+      <c r="R88" s="3"/>
+      <c r="S88" s="3"/>
+      <c r="T88" s="3"/>
+      <c r="U88" s="3"/>
+      <c r="V88" s="3"/>
+      <c r="W88" s="3"/>
+      <c r="X88" s="3"/>
+    </row>
+    <row r="89" spans="2:24">
+      <c r="B89" s="4">
+        <v>42785</v>
+      </c>
+      <c r="C89" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="D89" s="3"/>
+      <c r="E89" s="3"/>
+      <c r="F89" s="3"/>
+      <c r="G89" s="3"/>
+      <c r="H89" s="3"/>
+      <c r="I89" s="3"/>
+      <c r="J89" s="3"/>
+      <c r="K89" s="3"/>
+      <c r="L89" s="3"/>
+      <c r="M89" s="3"/>
+      <c r="N89" s="3"/>
+      <c r="O89" s="3"/>
+      <c r="P89" s="3"/>
+      <c r="Q89" s="3"/>
+      <c r="R89" s="3"/>
+      <c r="S89" s="3"/>
+      <c r="T89" s="3"/>
+      <c r="U89" s="3"/>
+      <c r="V89" s="3"/>
+      <c r="W89" s="3"/>
+      <c r="X89" s="3"/>
+    </row>
+    <row r="90" spans="2:24">
+      <c r="B90" s="4">
+        <v>42786</v>
+      </c>
+      <c r="C90" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="D90" s="3"/>
+      <c r="E90" s="3"/>
+      <c r="F90" s="3"/>
+      <c r="G90" s="3"/>
+      <c r="H90" s="3"/>
+      <c r="I90" s="3"/>
+      <c r="J90" s="3"/>
+      <c r="K90" s="3"/>
+      <c r="L90" s="3"/>
+      <c r="M90" s="3"/>
+      <c r="N90" s="3"/>
+      <c r="O90" s="3"/>
+      <c r="P90" s="3"/>
+      <c r="Q90" s="3"/>
+      <c r="R90" s="3"/>
+      <c r="S90" s="3"/>
+      <c r="T90" s="3"/>
+      <c r="U90" s="3"/>
+      <c r="V90" s="3"/>
+      <c r="W90" s="3"/>
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="2:24">
+      <c r="B91" s="4">
+        <v>42787</v>
+      </c>
+      <c r="C91" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="D91" s="3"/>
+      <c r="E91" s="3"/>
+      <c r="F91" s="3"/>
+      <c r="G91" s="3"/>
+      <c r="H91" s="3"/>
+      <c r="I91" s="3"/>
+      <c r="J91" s="3"/>
+      <c r="K91" s="3"/>
+      <c r="L91" s="3"/>
+      <c r="M91" s="3"/>
+      <c r="N91" s="3"/>
+      <c r="O91" s="3"/>
+      <c r="P91" s="3"/>
+      <c r="Q91" s="3"/>
+      <c r="R91" s="3"/>
+      <c r="S91" s="3"/>
+      <c r="T91" s="3"/>
+      <c r="U91" s="3"/>
+      <c r="V91" s="3"/>
+      <c r="W91" s="3"/>
+      <c r="X91" s="3"/>
+    </row>
+    <row r="92" spans="2:24">
+      <c r="B92" s="4">
+        <v>42788</v>
+      </c>
+      <c r="C92" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="D92" s="3"/>
+      <c r="E92" s="3"/>
+      <c r="F92" s="3"/>
+      <c r="G92" s="3"/>
+      <c r="H92" s="3"/>
+      <c r="I92" s="3"/>
+      <c r="J92" s="3"/>
+      <c r="K92" s="3"/>
+      <c r="L92" s="3"/>
+      <c r="M92" s="3"/>
+      <c r="N92" s="3"/>
+      <c r="O92" s="3"/>
+      <c r="P92" s="3"/>
+      <c r="Q92" s="3"/>
+      <c r="R92" s="3"/>
+      <c r="S92" s="3"/>
+      <c r="T92" s="3"/>
+      <c r="U92" s="3"/>
+      <c r="V92" s="3"/>
+      <c r="W92" s="3"/>
+      <c r="X92" s="3"/>
+    </row>
+    <row r="93" spans="2:24">
+      <c r="B93" s="4">
+        <v>42789</v>
+      </c>
+      <c r="C93" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="D93" s="3"/>
+      <c r="E93" s="3"/>
+      <c r="F93" s="3"/>
+      <c r="G93" s="3"/>
+      <c r="H93" s="3"/>
+      <c r="I93" s="3"/>
+      <c r="J93" s="3"/>
+      <c r="K93" s="3"/>
+      <c r="L93" s="3"/>
+      <c r="M93" s="3"/>
+      <c r="N93" s="3"/>
+      <c r="O93" s="3"/>
+      <c r="P93" s="3"/>
+      <c r="Q93" s="3"/>
+      <c r="R93" s="3"/>
+      <c r="S93" s="3"/>
+      <c r="T93" s="3"/>
+      <c r="U93" s="3"/>
+      <c r="V93" s="3"/>
+      <c r="W93" s="3"/>
+      <c r="X93" s="3"/>
+    </row>
+    <row r="94" spans="2:24">
+      <c r="B94" s="4">
+        <v>42790</v>
+      </c>
+      <c r="C94" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="D94" s="3"/>
+      <c r="E94" s="3"/>
+      <c r="F94" s="3"/>
+      <c r="G94" s="3"/>
+      <c r="H94" s="3"/>
+      <c r="I94" s="3"/>
+      <c r="J94" s="3"/>
+      <c r="K94" s="3"/>
+      <c r="L94" s="3"/>
+      <c r="M94" s="3"/>
+      <c r="N94" s="3"/>
+      <c r="O94" s="3"/>
+      <c r="P94" s="3"/>
+      <c r="Q94" s="3"/>
+      <c r="R94" s="3"/>
+      <c r="S94" s="3"/>
+      <c r="T94" s="3"/>
+      <c r="U94" s="3"/>
+      <c r="V94" s="3"/>
+      <c r="W94" s="3"/>
+      <c r="X94" s="3"/>
+    </row>
+    <row r="95" spans="2:24">
+      <c r="B95" s="4">
+        <v>42791</v>
+      </c>
+      <c r="C95" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="D95" s="3"/>
+      <c r="E95" s="3"/>
+      <c r="F95" s="3"/>
+      <c r="G95" s="3"/>
+      <c r="H95" s="3"/>
+      <c r="I95" s="3"/>
+      <c r="J95" s="3"/>
+      <c r="K95" s="3"/>
+      <c r="L95" s="3"/>
+      <c r="M95" s="3"/>
+      <c r="N95" s="3"/>
+      <c r="O95" s="3"/>
+      <c r="P95" s="3"/>
+      <c r="Q95" s="3"/>
+      <c r="R95" s="3"/>
+      <c r="S95" s="3"/>
+      <c r="T95" s="3"/>
+      <c r="U95" s="3"/>
+      <c r="V95" s="3"/>
+      <c r="W95" s="3"/>
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="2:24">
+      <c r="B96" s="4">
+        <v>42792</v>
+      </c>
+      <c r="C96" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="D96" s="3"/>
+      <c r="E96" s="3"/>
+      <c r="F96" s="3"/>
+      <c r="G96" s="3"/>
+      <c r="H96" s="3"/>
+      <c r="I96" s="3"/>
+      <c r="J96" s="3"/>
+      <c r="K96" s="3"/>
+      <c r="L96" s="3"/>
+      <c r="M96" s="3"/>
+      <c r="N96" s="3"/>
+      <c r="O96" s="3"/>
+      <c r="P96" s="3"/>
+      <c r="Q96" s="3"/>
+      <c r="R96" s="3"/>
+      <c r="S96" s="3"/>
+      <c r="T96" s="3"/>
+      <c r="U96" s="3"/>
+      <c r="V96" s="3"/>
+      <c r="W96" s="3"/>
+      <c r="X96" s="3"/>
+    </row>
+    <row r="97" spans="2:24">
+      <c r="B97" s="4">
+        <v>42793</v>
+      </c>
+      <c r="C97" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="D97" s="3"/>
+      <c r="E97" s="3"/>
+      <c r="F97" s="3"/>
+      <c r="G97" s="3"/>
+      <c r="H97" s="3"/>
+      <c r="I97" s="3"/>
+      <c r="J97" s="3"/>
+      <c r="K97" s="3"/>
+      <c r="L97" s="3"/>
+      <c r="M97" s="3"/>
+      <c r="N97" s="3"/>
+      <c r="O97" s="3"/>
+      <c r="P97" s="3"/>
+      <c r="Q97" s="3"/>
+      <c r="R97" s="3"/>
+      <c r="S97" s="3"/>
+      <c r="T97" s="3"/>
+      <c r="U97" s="3"/>
+      <c r="V97" s="3"/>
+      <c r="W97" s="3"/>
+      <c r="X97" s="3"/>
+    </row>
+    <row r="98" spans="2:24">
+      <c r="B98" s="4">
+        <v>42794</v>
+      </c>
+      <c r="C98" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="D98" s="3"/>
+      <c r="E98" s="3"/>
+      <c r="F98" s="3"/>
+      <c r="G98" s="3"/>
+      <c r="H98" s="3"/>
+      <c r="I98" s="3"/>
+      <c r="J98" s="3"/>
+      <c r="K98" s="3"/>
+      <c r="L98" s="3"/>
+      <c r="M98" s="3"/>
+      <c r="N98" s="3"/>
+      <c r="O98" s="3"/>
+      <c r="P98" s="3"/>
+      <c r="Q98" s="3"/>
+      <c r="R98" s="3"/>
+      <c r="S98" s="3"/>
+      <c r="T98" s="3"/>
+      <c r="U98" s="3"/>
+      <c r="V98" s="3"/>
+      <c r="W98" s="3"/>
+      <c r="X98" s="3"/>
+    </row>
+    <row r="99" spans="2:24">
+      <c r="B99" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C99" s="6">
+        <f>SUM(C71:C98)</f>
+        <v>527</v>
+      </c>
+      <c r="D99" s="6"/>
+      <c r="E99" s="6"/>
+      <c r="F99" s="6"/>
+      <c r="G99" s="6"/>
+      <c r="H99" s="6"/>
+      <c r="I99" s="6"/>
+      <c r="J99" s="6"/>
+      <c r="K99" s="6"/>
+      <c r="L99" s="6"/>
+      <c r="M99" s="6"/>
+      <c r="N99" s="6"/>
+      <c r="O99" s="6"/>
+      <c r="P99" s="6"/>
+      <c r="Q99" s="6"/>
+      <c r="R99" s="6"/>
+      <c r="S99" s="6"/>
+      <c r="T99" s="6"/>
+      <c r="U99" s="6"/>
+      <c r="V99" s="6"/>
+      <c r="W99" s="6"/>
+      <c r="X99" s="6"/>
+    </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="B2:B3"/>
@@ -5486,19 +7051,9 @@
     <mergeCell ref="C2:C3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="D4:X5 D39:D51 D53:D69 E39:G69 H39:H51 H54:H69 I39:X69 D7:X37">
-    <cfRule type="containsBlanks" dxfId="2" priority="9">
+  <conditionalFormatting sqref="D4:X5 D7:X37 D39:X69 D71:X98">
+    <cfRule type="containsBlanks" dxfId="6" priority="12">
       <formula>LEN(TRIM(D4))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H52:H53">
-    <cfRule type="containsBlanks" dxfId="1" priority="2">
-      <formula>LEN(TRIM(H52))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D52">
-    <cfRule type="containsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(D52))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DailyExpense.xlsx
+++ b/DailyExpense.xlsx
@@ -2988,6 +2988,136 @@
             <family val="2"/>
           </rPr>
           <t>IMAX</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I74" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+牛奶</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J74" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+上网</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F75" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+外卖赛百味</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I75" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+柠檬茶</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J75" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+上网</t>
         </r>
       </text>
     </comment>
@@ -3265,70 +3395,7 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="10">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <fill>
         <patternFill>
@@ -3630,7 +3697,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A61" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G74" sqref="G74"/>
+      <selection pane="bottomLeft" activeCell="J88" sqref="J88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -6270,15 +6337,23 @@
       </c>
       <c r="C74" s="3">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="D74" s="3"/>
+        <v>39</v>
+      </c>
+      <c r="D74" s="3">
+        <v>5</v>
+      </c>
       <c r="E74" s="3"/>
-      <c r="F74" s="3"/>
+      <c r="F74" s="3">
+        <v>20</v>
+      </c>
       <c r="G74" s="3"/>
       <c r="H74" s="3"/>
-      <c r="I74" s="3"/>
-      <c r="J74" s="3"/>
+      <c r="I74" s="3">
+        <v>4</v>
+      </c>
+      <c r="J74" s="3">
+        <v>10</v>
+      </c>
       <c r="K74" s="3"/>
       <c r="L74" s="3"/>
       <c r="M74" s="3"/>
@@ -6300,15 +6375,23 @@
       </c>
       <c r="C75" s="3">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>71</v>
       </c>
       <c r="D75" s="3"/>
-      <c r="E75" s="3"/>
-      <c r="F75" s="3"/>
+      <c r="E75" s="3">
+        <v>8</v>
+      </c>
+      <c r="F75" s="3">
+        <v>34</v>
+      </c>
       <c r="G75" s="3"/>
       <c r="H75" s="3"/>
-      <c r="I75" s="3"/>
-      <c r="J75" s="3"/>
+      <c r="I75" s="3">
+        <v>5</v>
+      </c>
+      <c r="J75" s="3">
+        <v>24</v>
+      </c>
       <c r="K75" s="3"/>
       <c r="L75" s="3"/>
       <c r="M75" s="3"/>
@@ -7020,7 +7103,7 @@
       </c>
       <c r="C99" s="6">
         <f>SUM(C71:C98)</f>
-        <v>527</v>
+        <v>637</v>
       </c>
       <c r="D99" s="6"/>
       <c r="E99" s="6"/>
@@ -7052,7 +7135,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="D4:X5 D7:X37 D39:X69 D71:X98">
-    <cfRule type="containsBlanks" dxfId="6" priority="12">
+    <cfRule type="containsBlanks" dxfId="0" priority="12">
       <formula>LEN(TRIM(D4))=0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/DailyExpense.xlsx
+++ b/DailyExpense.xlsx
@@ -3096,6 +3096,113 @@
       </text>
     </comment>
     <comment ref="J75" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+上网</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I76" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+好时</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> 12
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>德芙两盒</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> 60</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J78" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+按摩</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J80" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3697,7 +3804,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A61" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J88" sqref="J88"/>
+      <selection pane="bottomLeft" activeCell="E81" sqref="E81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -6413,14 +6520,22 @@
       </c>
       <c r="C76" s="3">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="D76" s="3"/>
-      <c r="E76" s="3"/>
-      <c r="F76" s="3"/>
+        <v>107</v>
+      </c>
+      <c r="D76" s="3">
+        <v>6</v>
+      </c>
+      <c r="E76" s="3">
+        <v>18</v>
+      </c>
+      <c r="F76" s="3">
+        <v>11</v>
+      </c>
       <c r="G76" s="3"/>
       <c r="H76" s="3"/>
-      <c r="I76" s="3"/>
+      <c r="I76" s="3">
+        <v>72</v>
+      </c>
       <c r="J76" s="3"/>
       <c r="K76" s="3"/>
       <c r="L76" s="3"/>
@@ -6443,11 +6558,17 @@
       </c>
       <c r="C77" s="3">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="D77" s="3"/>
-      <c r="E77" s="3"/>
-      <c r="F77" s="3"/>
+        <v>41</v>
+      </c>
+      <c r="D77" s="3">
+        <v>5</v>
+      </c>
+      <c r="E77" s="3">
+        <v>18</v>
+      </c>
+      <c r="F77" s="3">
+        <v>18</v>
+      </c>
       <c r="G77" s="3"/>
       <c r="H77" s="3"/>
       <c r="I77" s="3"/>
@@ -6473,15 +6594,23 @@
       </c>
       <c r="C78" s="3">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="D78" s="3"/>
-      <c r="E78" s="3"/>
-      <c r="F78" s="3"/>
+        <v>80</v>
+      </c>
+      <c r="D78" s="3">
+        <v>5</v>
+      </c>
+      <c r="E78" s="3">
+        <v>15</v>
+      </c>
+      <c r="F78" s="3">
+        <v>20</v>
+      </c>
       <c r="G78" s="3"/>
       <c r="H78" s="3"/>
       <c r="I78" s="3"/>
-      <c r="J78" s="3"/>
+      <c r="J78" s="3">
+        <v>40</v>
+      </c>
       <c r="K78" s="3"/>
       <c r="L78" s="3"/>
       <c r="M78" s="3"/>
@@ -6503,11 +6632,17 @@
       </c>
       <c r="C79" s="3">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="D79" s="3"/>
-      <c r="E79" s="3"/>
-      <c r="F79" s="3"/>
+        <v>39</v>
+      </c>
+      <c r="D79" s="3">
+        <v>4</v>
+      </c>
+      <c r="E79" s="3">
+        <v>15</v>
+      </c>
+      <c r="F79" s="3">
+        <v>20</v>
+      </c>
       <c r="G79" s="3"/>
       <c r="H79" s="3"/>
       <c r="I79" s="3"/>
@@ -6533,15 +6668,23 @@
       </c>
       <c r="C80" s="3">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="D80" s="3"/>
-      <c r="E80" s="3"/>
-      <c r="F80" s="3"/>
+        <v>45</v>
+      </c>
+      <c r="D80" s="3">
+        <v>5</v>
+      </c>
+      <c r="E80" s="3">
+        <v>15</v>
+      </c>
+      <c r="F80" s="3">
+        <v>16</v>
+      </c>
       <c r="G80" s="3"/>
       <c r="H80" s="3"/>
       <c r="I80" s="3"/>
-      <c r="J80" s="3"/>
+      <c r="J80" s="3">
+        <v>9</v>
+      </c>
       <c r="K80" s="3"/>
       <c r="L80" s="3"/>
       <c r="M80" s="3"/>
@@ -6563,10 +6706,12 @@
       </c>
       <c r="C81" s="3">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="D81" s="3"/>
-      <c r="E81" s="3"/>
+      <c r="E81" s="3">
+        <v>27</v>
+      </c>
       <c r="F81" s="3"/>
       <c r="G81" s="3"/>
       <c r="H81" s="3"/>
@@ -7103,7 +7248,7 @@
       </c>
       <c r="C99" s="6">
         <f>SUM(C71:C98)</f>
-        <v>637</v>
+        <v>976</v>
       </c>
       <c r="D99" s="6"/>
       <c r="E99" s="6"/>

--- a/DailyExpense.xlsx
+++ b/DailyExpense.xlsx
@@ -3203,6 +3203,113 @@
       </text>
     </comment>
     <comment ref="J80" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+上网</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I81" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+趣多多</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> 6
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>柠檬茶</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> 5</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J81" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+上网</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J82" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3804,7 +3911,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A61" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E81" sqref="E81"/>
+      <selection pane="bottomLeft" activeCell="M69" sqref="M69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -6706,7 +6813,7 @@
       </c>
       <c r="C81" s="3">
         <f t="shared" si="2"/>
-        <v>27</v>
+        <v>58</v>
       </c>
       <c r="D81" s="3"/>
       <c r="E81" s="3">
@@ -6715,8 +6822,12 @@
       <c r="F81" s="3"/>
       <c r="G81" s="3"/>
       <c r="H81" s="3"/>
-      <c r="I81" s="3"/>
-      <c r="J81" s="3"/>
+      <c r="I81" s="3">
+        <v>11</v>
+      </c>
+      <c r="J81" s="3">
+        <v>20</v>
+      </c>
       <c r="K81" s="3"/>
       <c r="L81" s="3"/>
       <c r="M81" s="3"/>
@@ -6738,15 +6849,21 @@
       </c>
       <c r="C82" s="3">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="D82" s="3"/>
       <c r="E82" s="3"/>
-      <c r="F82" s="3"/>
+      <c r="F82" s="3">
+        <v>34</v>
+      </c>
       <c r="G82" s="3"/>
       <c r="H82" s="3"/>
-      <c r="I82" s="3"/>
-      <c r="J82" s="3"/>
+      <c r="I82" s="3">
+        <v>5</v>
+      </c>
+      <c r="J82" s="3">
+        <v>20</v>
+      </c>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
@@ -7248,7 +7365,7 @@
       </c>
       <c r="C99" s="6">
         <f>SUM(C71:C98)</f>
-        <v>976</v>
+        <v>1066</v>
       </c>
       <c r="D99" s="6"/>
       <c r="E99" s="6"/>

--- a/DailyExpense.xlsx
+++ b/DailyExpense.xlsx
@@ -2403,6 +2403,32 @@
         </r>
       </text>
     </comment>
+    <comment ref="H63" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+理发</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="J63" authorId="0">
       <text>
         <r>
@@ -3332,6 +3358,473 @@
           </rPr>
           <t xml:space="preserve">
 上网</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H83" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+小二情人节礼物，圣罗兰口红之类的套装</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I86" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+奶茶</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J86" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+上网</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I87" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+星巴克</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>咖啡</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J87" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+上网</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="R87" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+装修，楼上漏水维修</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H88" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">作者:
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I88" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+柠檬茶</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J88" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+上网</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>21</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+网球</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>60</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H89" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+理发</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I89" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+趣多多</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">6
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>士力架</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">3
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>柠檬茶</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">5
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>两盒德芙巧克力</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> 80
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>士力架</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> 30
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>德芙</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> 30</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J89" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+上网</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>19</t>
         </r>
       </text>
     </comment>
@@ -3910,8 +4403,8 @@
   <dimension ref="B2:X99"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A61" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M69" sqref="M69"/>
+      <pane ySplit="3" topLeftCell="A64" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K85" sqref="K85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -6169,7 +6662,7 @@
       </c>
       <c r="C63" s="3">
         <f t="shared" si="1"/>
-        <v>26</v>
+        <v>61</v>
       </c>
       <c r="D63" s="3">
         <v>5</v>
@@ -6181,7 +6674,9 @@
         <v>5</v>
       </c>
       <c r="G63" s="3"/>
-      <c r="H63" s="3"/>
+      <c r="H63" s="3">
+        <v>35</v>
+      </c>
       <c r="I63" s="3"/>
       <c r="J63" s="3">
         <v>6</v>
@@ -6413,7 +6908,7 @@
       </c>
       <c r="C70" s="6">
         <f>SUM(C39:C69)</f>
-        <v>15141</v>
+        <v>15176</v>
       </c>
       <c r="D70" s="6"/>
       <c r="E70" s="6"/>
@@ -6885,13 +7380,21 @@
       </c>
       <c r="C83" s="3">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="D83" s="3"/>
-      <c r="E83" s="3"/>
-      <c r="F83" s="3"/>
+        <v>1231</v>
+      </c>
+      <c r="D83" s="3">
+        <v>5</v>
+      </c>
+      <c r="E83" s="3">
+        <v>13</v>
+      </c>
+      <c r="F83" s="3">
+        <v>13</v>
+      </c>
       <c r="G83" s="3"/>
-      <c r="H83" s="3"/>
+      <c r="H83" s="3">
+        <v>1200</v>
+      </c>
       <c r="I83" s="3"/>
       <c r="J83" s="3"/>
       <c r="K83" s="3"/>
@@ -6915,11 +7418,17 @@
       </c>
       <c r="C84" s="3">
         <f>SUM(E84:CN84)</f>
-        <v>0</v>
-      </c>
-      <c r="D84" s="3"/>
-      <c r="E84" s="3"/>
-      <c r="F84" s="3"/>
+        <v>34</v>
+      </c>
+      <c r="D84" s="3">
+        <v>5</v>
+      </c>
+      <c r="E84" s="3">
+        <v>15</v>
+      </c>
+      <c r="F84" s="3">
+        <v>19</v>
+      </c>
       <c r="G84" s="3"/>
       <c r="H84" s="3"/>
       <c r="I84" s="3"/>
@@ -6945,11 +7454,17 @@
       </c>
       <c r="C85" s="3">
         <f t="shared" ref="C85:C98" si="3">SUM(D85:CN85)</f>
-        <v>0</v>
-      </c>
-      <c r="D85" s="3"/>
-      <c r="E85" s="3"/>
-      <c r="F85" s="3"/>
+        <v>31</v>
+      </c>
+      <c r="D85" s="3">
+        <v>5</v>
+      </c>
+      <c r="E85" s="3">
+        <v>15</v>
+      </c>
+      <c r="F85" s="3">
+        <v>11</v>
+      </c>
       <c r="G85" s="3"/>
       <c r="H85" s="3"/>
       <c r="I85" s="3"/>
@@ -6975,15 +7490,25 @@
       </c>
       <c r="C86" s="3">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="D86" s="3"/>
-      <c r="E86" s="3"/>
-      <c r="F86" s="3"/>
+        <v>46</v>
+      </c>
+      <c r="D86" s="3">
+        <v>7</v>
+      </c>
+      <c r="E86" s="3">
+        <v>16</v>
+      </c>
+      <c r="F86" s="3">
+        <v>12</v>
+      </c>
       <c r="G86" s="3"/>
       <c r="H86" s="3"/>
-      <c r="I86" s="3"/>
-      <c r="J86" s="3"/>
+      <c r="I86" s="3">
+        <v>5</v>
+      </c>
+      <c r="J86" s="3">
+        <v>6</v>
+      </c>
       <c r="K86" s="3"/>
       <c r="L86" s="3"/>
       <c r="M86" s="3"/>
@@ -7005,15 +7530,25 @@
       </c>
       <c r="C87" s="3">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="D87" s="3"/>
-      <c r="E87" s="3"/>
-      <c r="F87" s="3"/>
+        <v>224</v>
+      </c>
+      <c r="D87" s="3">
+        <v>3</v>
+      </c>
+      <c r="E87" s="3">
+        <v>15</v>
+      </c>
+      <c r="F87" s="3">
+        <v>6</v>
+      </c>
       <c r="G87" s="3"/>
       <c r="H87" s="3"/>
-      <c r="I87" s="3"/>
-      <c r="J87" s="3"/>
+      <c r="I87" s="3">
+        <v>35</v>
+      </c>
+      <c r="J87" s="3">
+        <v>15</v>
+      </c>
       <c r="K87" s="3"/>
       <c r="L87" s="3"/>
       <c r="M87" s="3"/>
@@ -7021,7 +7556,9 @@
       <c r="O87" s="3"/>
       <c r="P87" s="3"/>
       <c r="Q87" s="3"/>
-      <c r="R87" s="3"/>
+      <c r="R87" s="3">
+        <v>150</v>
+      </c>
       <c r="S87" s="3"/>
       <c r="T87" s="3"/>
       <c r="U87" s="3"/>
@@ -7035,15 +7572,23 @@
       </c>
       <c r="C88" s="3">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="D88" s="3"/>
-      <c r="E88" s="3"/>
-      <c r="F88" s="3"/>
+      <c r="E88" s="3">
+        <v>3</v>
+      </c>
+      <c r="F88" s="3">
+        <v>16</v>
+      </c>
       <c r="G88" s="3"/>
       <c r="H88" s="3"/>
-      <c r="I88" s="3"/>
-      <c r="J88" s="3"/>
+      <c r="I88" s="3">
+        <v>5</v>
+      </c>
+      <c r="J88" s="3">
+        <v>81</v>
+      </c>
       <c r="K88" s="3"/>
       <c r="L88" s="3"/>
       <c r="M88" s="3"/>
@@ -7065,15 +7610,25 @@
       </c>
       <c r="C89" s="3">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>224</v>
       </c>
       <c r="D89" s="3"/>
-      <c r="E89" s="3"/>
-      <c r="F89" s="3"/>
+      <c r="E89" s="3">
+        <v>10</v>
+      </c>
+      <c r="F89" s="3">
+        <v>6</v>
+      </c>
       <c r="G89" s="3"/>
-      <c r="H89" s="3"/>
-      <c r="I89" s="3"/>
-      <c r="J89" s="3"/>
+      <c r="H89" s="3">
+        <v>35</v>
+      </c>
+      <c r="I89" s="3">
+        <v>154</v>
+      </c>
+      <c r="J89" s="3">
+        <v>19</v>
+      </c>
       <c r="K89" s="3"/>
       <c r="L89" s="3"/>
       <c r="M89" s="3"/>
@@ -7365,7 +7920,7 @@
       </c>
       <c r="C99" s="6">
         <f>SUM(C71:C98)</f>
-        <v>1066</v>
+        <v>2961</v>
       </c>
       <c r="D99" s="6"/>
       <c r="E99" s="6"/>

--- a/DailyExpense.xlsx
+++ b/DailyExpense.xlsx
@@ -1350,7 +1350,7 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-装修款</t>
+装修款 曾欢</t>
         </r>
       </text>
     </comment>
@@ -3825,6 +3825,181 @@
             <family val="2"/>
           </rPr>
           <t>19</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J91" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+按摩</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J92" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+上网</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J93" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+上网</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I96" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+牛奶</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="R96" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+门余款</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H97" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+艾普宽带</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>半年费用</t>
         </r>
       </text>
     </comment>
@@ -4403,8 +4578,8 @@
   <dimension ref="B2:X99"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A64" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K85" sqref="K85"/>
+      <pane ySplit="3" topLeftCell="A52" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="R23" sqref="R23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -7650,11 +7825,17 @@
       </c>
       <c r="C90" s="3">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="D90" s="3"/>
-      <c r="E90" s="3"/>
-      <c r="F90" s="3"/>
+        <v>29</v>
+      </c>
+      <c r="D90" s="3">
+        <v>2</v>
+      </c>
+      <c r="E90" s="3">
+        <v>15</v>
+      </c>
+      <c r="F90" s="3">
+        <v>12</v>
+      </c>
       <c r="G90" s="3"/>
       <c r="H90" s="3"/>
       <c r="I90" s="3"/>
@@ -7680,15 +7861,23 @@
       </c>
       <c r="C91" s="3">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="D91" s="3"/>
-      <c r="E91" s="3"/>
-      <c r="F91" s="3"/>
+        <v>87</v>
+      </c>
+      <c r="D91" s="3">
+        <v>10</v>
+      </c>
+      <c r="E91" s="3">
+        <v>18</v>
+      </c>
+      <c r="F91" s="3">
+        <v>19</v>
+      </c>
       <c r="G91" s="3"/>
       <c r="H91" s="3"/>
       <c r="I91" s="3"/>
-      <c r="J91" s="3"/>
+      <c r="J91" s="3">
+        <v>40</v>
+      </c>
       <c r="K91" s="3"/>
       <c r="L91" s="3"/>
       <c r="M91" s="3"/>
@@ -7710,15 +7899,21 @@
       </c>
       <c r="C92" s="3">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="D92" s="3"/>
-      <c r="E92" s="3"/>
+        <v>25</v>
+      </c>
+      <c r="D92" s="3">
+        <v>4</v>
+      </c>
+      <c r="E92" s="3">
+        <v>15</v>
+      </c>
       <c r="F92" s="3"/>
       <c r="G92" s="3"/>
       <c r="H92" s="3"/>
       <c r="I92" s="3"/>
-      <c r="J92" s="3"/>
+      <c r="J92" s="3">
+        <v>6</v>
+      </c>
       <c r="K92" s="3"/>
       <c r="L92" s="3"/>
       <c r="M92" s="3"/>
@@ -7740,15 +7935,23 @@
       </c>
       <c r="C93" s="3">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="D93" s="3"/>
-      <c r="E93" s="3"/>
-      <c r="F93" s="3"/>
+        <v>48</v>
+      </c>
+      <c r="D93" s="3">
+        <v>10</v>
+      </c>
+      <c r="E93" s="3">
+        <v>20</v>
+      </c>
+      <c r="F93" s="3">
+        <v>10</v>
+      </c>
       <c r="G93" s="3"/>
       <c r="H93" s="3"/>
       <c r="I93" s="3"/>
-      <c r="J93" s="3"/>
+      <c r="J93" s="3">
+        <v>8</v>
+      </c>
       <c r="K93" s="3"/>
       <c r="L93" s="3"/>
       <c r="M93" s="3"/>
@@ -7770,11 +7973,17 @@
       </c>
       <c r="C94" s="3">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="D94" s="3"/>
-      <c r="E94" s="3"/>
-      <c r="F94" s="3"/>
+        <v>37</v>
+      </c>
+      <c r="D94" s="3">
+        <v>6</v>
+      </c>
+      <c r="E94" s="3">
+        <v>15</v>
+      </c>
+      <c r="F94" s="3">
+        <v>16</v>
+      </c>
       <c r="G94" s="3"/>
       <c r="H94" s="3"/>
       <c r="I94" s="3"/>
@@ -7800,11 +8009,17 @@
       </c>
       <c r="C95" s="3">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="D95" s="3"/>
-      <c r="E95" s="3"/>
-      <c r="F95" s="3"/>
+        <v>36</v>
+      </c>
+      <c r="D95" s="3">
+        <v>6</v>
+      </c>
+      <c r="E95" s="3">
+        <v>15</v>
+      </c>
+      <c r="F95" s="3">
+        <v>15</v>
+      </c>
       <c r="G95" s="3"/>
       <c r="H95" s="3"/>
       <c r="I95" s="3"/>
@@ -7830,14 +8045,22 @@
       </c>
       <c r="C96" s="3">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="D96" s="3"/>
-      <c r="E96" s="3"/>
-      <c r="F96" s="3"/>
+        <v>7655</v>
+      </c>
+      <c r="D96" s="3">
+        <v>5</v>
+      </c>
+      <c r="E96" s="3">
+        <v>15</v>
+      </c>
+      <c r="F96" s="3">
+        <v>17</v>
+      </c>
       <c r="G96" s="3"/>
       <c r="H96" s="3"/>
-      <c r="I96" s="3"/>
+      <c r="I96" s="3">
+        <v>5</v>
+      </c>
       <c r="J96" s="3"/>
       <c r="K96" s="3"/>
       <c r="L96" s="3"/>
@@ -7846,7 +8069,9 @@
       <c r="O96" s="3"/>
       <c r="P96" s="3"/>
       <c r="Q96" s="3"/>
-      <c r="R96" s="3"/>
+      <c r="R96" s="3">
+        <v>7613</v>
+      </c>
       <c r="S96" s="3"/>
       <c r="T96" s="3"/>
       <c r="U96" s="3"/>
@@ -7860,13 +8085,21 @@
       </c>
       <c r="C97" s="3">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="D97" s="3"/>
-      <c r="E97" s="3"/>
-      <c r="F97" s="3"/>
+        <v>365</v>
+      </c>
+      <c r="D97" s="3">
+        <v>4</v>
+      </c>
+      <c r="E97" s="3">
+        <v>14</v>
+      </c>
+      <c r="F97" s="3">
+        <v>7</v>
+      </c>
       <c r="G97" s="3"/>
-      <c r="H97" s="3"/>
+      <c r="H97" s="3">
+        <v>340</v>
+      </c>
       <c r="I97" s="3"/>
       <c r="J97" s="3"/>
       <c r="K97" s="3"/>
@@ -7920,7 +8153,7 @@
       </c>
       <c r="C99" s="6">
         <f>SUM(C71:C98)</f>
-        <v>2961</v>
+        <v>11243</v>
       </c>
       <c r="D99" s="6"/>
       <c r="E99" s="6"/>

--- a/DailyExpense.xlsx
+++ b/DailyExpense.xlsx
@@ -4003,12 +4003,116 @@
         </r>
       </text>
     </comment>
+    <comment ref="H98" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+充公交卡</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J98" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+按摩</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H100" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+打车</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I100" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+奶茶</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
   <si>
     <t>日期</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -4277,7 +4381,35 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="5">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -4575,11 +4707,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:X99"/>
+  <dimension ref="B2:X131"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A52" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R23" sqref="R23"/>
+      <pane ySplit="3" topLeftCell="A76" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C96" sqref="C96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -7113,7 +7245,7 @@
       </c>
       <c r="C71" s="3">
         <f>SUM(D71:CN71)</f>
-        <v>4</v>
+        <v>2104</v>
       </c>
       <c r="D71" s="3"/>
       <c r="E71" s="3"/>
@@ -7128,7 +7260,9 @@
       <c r="L71" s="3"/>
       <c r="M71" s="3"/>
       <c r="N71" s="3"/>
-      <c r="O71" s="3"/>
+      <c r="O71" s="3">
+        <v>2100</v>
+      </c>
       <c r="P71" s="3"/>
       <c r="Q71" s="3"/>
       <c r="R71" s="3"/>
@@ -7628,7 +7762,7 @@
         <v>42781</v>
       </c>
       <c r="C85" s="3">
-        <f t="shared" ref="C85:C98" si="3">SUM(D85:CN85)</f>
+        <f t="shared" ref="C85:C130" si="3">SUM(D85:CN85)</f>
         <v>31</v>
       </c>
       <c r="D85" s="3">
@@ -8123,15 +8257,25 @@
       </c>
       <c r="C98" s="3">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="D98" s="3"/>
-      <c r="E98" s="3"/>
-      <c r="F98" s="3"/>
+        <v>195</v>
+      </c>
+      <c r="D98" s="3">
+        <v>7</v>
+      </c>
+      <c r="E98" s="3">
+        <v>11</v>
+      </c>
+      <c r="F98" s="3">
+        <v>7</v>
+      </c>
       <c r="G98" s="3"/>
-      <c r="H98" s="3"/>
+      <c r="H98" s="3">
+        <v>130</v>
+      </c>
       <c r="I98" s="3"/>
-      <c r="J98" s="3"/>
+      <c r="J98" s="3">
+        <v>40</v>
+      </c>
       <c r="K98" s="3"/>
       <c r="L98" s="3"/>
       <c r="M98" s="3"/>
@@ -8153,7 +8297,7 @@
       </c>
       <c r="C99" s="6">
         <f>SUM(C71:C98)</f>
-        <v>11243</v>
+        <v>13538</v>
       </c>
       <c r="D99" s="6"/>
       <c r="E99" s="6"/>
@@ -8177,6 +8321,976 @@
       <c r="W99" s="6"/>
       <c r="X99" s="6"/>
     </row>
+    <row r="100" spans="2:24">
+      <c r="B100" s="4">
+        <v>42795</v>
+      </c>
+      <c r="C100" s="3">
+        <f t="shared" si="3"/>
+        <v>2160</v>
+      </c>
+      <c r="D100" s="3">
+        <v>5</v>
+      </c>
+      <c r="E100" s="3">
+        <v>16</v>
+      </c>
+      <c r="F100" s="3">
+        <v>8</v>
+      </c>
+      <c r="G100" s="3"/>
+      <c r="H100" s="3">
+        <v>31</v>
+      </c>
+      <c r="I100" s="3"/>
+      <c r="J100" s="3"/>
+      <c r="K100" s="3"/>
+      <c r="L100" s="3"/>
+      <c r="M100" s="3"/>
+      <c r="N100" s="3"/>
+      <c r="O100" s="3">
+        <v>2100</v>
+      </c>
+      <c r="P100" s="3"/>
+      <c r="Q100" s="3"/>
+      <c r="R100" s="3"/>
+      <c r="S100" s="3"/>
+      <c r="T100" s="3"/>
+      <c r="U100" s="3"/>
+      <c r="V100" s="3"/>
+      <c r="W100" s="3"/>
+      <c r="X100" s="3"/>
+    </row>
+    <row r="101" spans="2:24">
+      <c r="B101" s="4">
+        <v>42796</v>
+      </c>
+      <c r="C101" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="D101" s="3"/>
+      <c r="E101" s="3"/>
+      <c r="F101" s="3"/>
+      <c r="G101" s="3"/>
+      <c r="H101" s="3"/>
+      <c r="I101" s="3"/>
+      <c r="J101" s="3"/>
+      <c r="K101" s="3"/>
+      <c r="L101" s="3"/>
+      <c r="M101" s="3"/>
+      <c r="N101" s="3"/>
+      <c r="O101" s="3"/>
+      <c r="P101" s="3"/>
+      <c r="Q101" s="3"/>
+      <c r="R101" s="3"/>
+      <c r="S101" s="3"/>
+      <c r="T101" s="3"/>
+      <c r="U101" s="3"/>
+      <c r="V101" s="3"/>
+      <c r="W101" s="3"/>
+      <c r="X101" s="3"/>
+    </row>
+    <row r="102" spans="2:24">
+      <c r="B102" s="4">
+        <v>42797</v>
+      </c>
+      <c r="C102" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="D102" s="3"/>
+      <c r="E102" s="3"/>
+      <c r="F102" s="3"/>
+      <c r="G102" s="3"/>
+      <c r="H102" s="3"/>
+      <c r="I102" s="3"/>
+      <c r="J102" s="3"/>
+      <c r="K102" s="3"/>
+      <c r="L102" s="3"/>
+      <c r="M102" s="3"/>
+      <c r="N102" s="3"/>
+      <c r="O102" s="3"/>
+      <c r="P102" s="3"/>
+      <c r="Q102" s="3"/>
+      <c r="R102" s="3"/>
+      <c r="S102" s="3"/>
+      <c r="T102" s="3"/>
+      <c r="U102" s="3"/>
+      <c r="V102" s="3"/>
+      <c r="W102" s="3"/>
+      <c r="X102" s="3"/>
+    </row>
+    <row r="103" spans="2:24">
+      <c r="B103" s="4">
+        <v>42798</v>
+      </c>
+      <c r="C103" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="D103" s="3"/>
+      <c r="E103" s="3"/>
+      <c r="F103" s="3"/>
+      <c r="G103" s="3"/>
+      <c r="H103" s="3"/>
+      <c r="I103" s="3"/>
+      <c r="J103" s="3"/>
+      <c r="K103" s="3"/>
+      <c r="L103" s="3"/>
+      <c r="M103" s="3"/>
+      <c r="N103" s="3"/>
+      <c r="O103" s="3"/>
+      <c r="P103" s="3"/>
+      <c r="Q103" s="3"/>
+      <c r="R103" s="3"/>
+      <c r="S103" s="3"/>
+      <c r="T103" s="3"/>
+      <c r="U103" s="3"/>
+      <c r="V103" s="3"/>
+      <c r="W103" s="3"/>
+      <c r="X103" s="3"/>
+    </row>
+    <row r="104" spans="2:24">
+      <c r="B104" s="4">
+        <v>42799</v>
+      </c>
+      <c r="C104" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="D104" s="3"/>
+      <c r="E104" s="3"/>
+      <c r="F104" s="3"/>
+      <c r="G104" s="3"/>
+      <c r="H104" s="3"/>
+      <c r="I104" s="3"/>
+      <c r="J104" s="3"/>
+      <c r="K104" s="3"/>
+      <c r="L104" s="3"/>
+      <c r="M104" s="3"/>
+      <c r="N104" s="3"/>
+      <c r="O104" s="3"/>
+      <c r="P104" s="3"/>
+      <c r="Q104" s="3"/>
+      <c r="R104" s="3"/>
+      <c r="S104" s="3"/>
+      <c r="T104" s="3"/>
+      <c r="U104" s="3"/>
+      <c r="V104" s="3"/>
+      <c r="W104" s="3"/>
+      <c r="X104" s="3"/>
+    </row>
+    <row r="105" spans="2:24">
+      <c r="B105" s="4">
+        <v>42800</v>
+      </c>
+      <c r="C105" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="D105" s="3"/>
+      <c r="E105" s="3"/>
+      <c r="F105" s="3"/>
+      <c r="G105" s="3"/>
+      <c r="H105" s="3"/>
+      <c r="I105" s="3"/>
+      <c r="J105" s="3"/>
+      <c r="K105" s="3"/>
+      <c r="L105" s="3"/>
+      <c r="M105" s="3"/>
+      <c r="N105" s="3"/>
+      <c r="O105" s="3"/>
+      <c r="P105" s="3"/>
+      <c r="Q105" s="3"/>
+      <c r="R105" s="3"/>
+      <c r="S105" s="3"/>
+      <c r="T105" s="3"/>
+      <c r="U105" s="3"/>
+      <c r="V105" s="3"/>
+      <c r="W105" s="3"/>
+      <c r="X105" s="3"/>
+    </row>
+    <row r="106" spans="2:24">
+      <c r="B106" s="4">
+        <v>42801</v>
+      </c>
+      <c r="C106" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="D106" s="3"/>
+      <c r="E106" s="3"/>
+      <c r="F106" s="3"/>
+      <c r="G106" s="3"/>
+      <c r="H106" s="3"/>
+      <c r="I106" s="3"/>
+      <c r="J106" s="3"/>
+      <c r="K106" s="3"/>
+      <c r="L106" s="3"/>
+      <c r="M106" s="3"/>
+      <c r="N106" s="3"/>
+      <c r="O106" s="3"/>
+      <c r="P106" s="3"/>
+      <c r="Q106" s="3"/>
+      <c r="R106" s="3"/>
+      <c r="S106" s="3"/>
+      <c r="T106" s="3"/>
+      <c r="U106" s="3"/>
+      <c r="V106" s="3"/>
+      <c r="W106" s="3"/>
+      <c r="X106" s="3"/>
+    </row>
+    <row r="107" spans="2:24">
+      <c r="B107" s="4">
+        <v>42802</v>
+      </c>
+      <c r="C107" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="D107" s="3"/>
+      <c r="E107" s="3"/>
+      <c r="F107" s="3"/>
+      <c r="G107" s="3"/>
+      <c r="H107" s="3"/>
+      <c r="I107" s="3"/>
+      <c r="J107" s="3"/>
+      <c r="K107" s="3"/>
+      <c r="L107" s="3"/>
+      <c r="M107" s="3"/>
+      <c r="N107" s="3"/>
+      <c r="O107" s="3"/>
+      <c r="P107" s="3"/>
+      <c r="Q107" s="3"/>
+      <c r="R107" s="3"/>
+      <c r="S107" s="3"/>
+      <c r="T107" s="3"/>
+      <c r="U107" s="3"/>
+      <c r="V107" s="3"/>
+      <c r="W107" s="3"/>
+      <c r="X107" s="3"/>
+    </row>
+    <row r="108" spans="2:24">
+      <c r="B108" s="4">
+        <v>42803</v>
+      </c>
+      <c r="C108" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="D108" s="3"/>
+      <c r="E108" s="3"/>
+      <c r="F108" s="3"/>
+      <c r="G108" s="3"/>
+      <c r="H108" s="3"/>
+      <c r="I108" s="3"/>
+      <c r="J108" s="3"/>
+      <c r="K108" s="3"/>
+      <c r="L108" s="3"/>
+      <c r="M108" s="3"/>
+      <c r="N108" s="3"/>
+      <c r="O108" s="3"/>
+      <c r="P108" s="3"/>
+      <c r="Q108" s="3"/>
+      <c r="R108" s="3"/>
+      <c r="S108" s="3"/>
+      <c r="T108" s="3"/>
+      <c r="U108" s="3"/>
+      <c r="V108" s="3"/>
+      <c r="W108" s="3"/>
+      <c r="X108" s="3"/>
+    </row>
+    <row r="109" spans="2:24">
+      <c r="B109" s="4">
+        <v>42804</v>
+      </c>
+      <c r="C109" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="D109" s="3"/>
+      <c r="E109" s="3"/>
+      <c r="F109" s="3"/>
+      <c r="G109" s="3"/>
+      <c r="H109" s="3"/>
+      <c r="I109" s="3"/>
+      <c r="J109" s="3"/>
+      <c r="K109" s="3"/>
+      <c r="L109" s="3"/>
+      <c r="M109" s="3"/>
+      <c r="N109" s="3"/>
+      <c r="O109" s="3"/>
+      <c r="P109" s="3"/>
+      <c r="Q109" s="3"/>
+      <c r="R109" s="3"/>
+      <c r="S109" s="3"/>
+      <c r="T109" s="3"/>
+      <c r="U109" s="3"/>
+      <c r="V109" s="3"/>
+      <c r="W109" s="3"/>
+      <c r="X109" s="3"/>
+    </row>
+    <row r="110" spans="2:24">
+      <c r="B110" s="4">
+        <v>42805</v>
+      </c>
+      <c r="C110" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="D110" s="3"/>
+      <c r="E110" s="3"/>
+      <c r="F110" s="3"/>
+      <c r="G110" s="3"/>
+      <c r="H110" s="3"/>
+      <c r="I110" s="3"/>
+      <c r="J110" s="3"/>
+      <c r="K110" s="3"/>
+      <c r="L110" s="3"/>
+      <c r="M110" s="3"/>
+      <c r="N110" s="3"/>
+      <c r="O110" s="3"/>
+      <c r="P110" s="3"/>
+      <c r="Q110" s="3"/>
+      <c r="R110" s="3"/>
+      <c r="S110" s="3"/>
+      <c r="T110" s="3"/>
+      <c r="U110" s="3"/>
+      <c r="V110" s="3"/>
+      <c r="W110" s="3"/>
+      <c r="X110" s="3"/>
+    </row>
+    <row r="111" spans="2:24">
+      <c r="B111" s="4">
+        <v>42806</v>
+      </c>
+      <c r="C111" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="D111" s="3"/>
+      <c r="E111" s="3"/>
+      <c r="F111" s="3"/>
+      <c r="G111" s="3"/>
+      <c r="H111" s="3"/>
+      <c r="I111" s="3"/>
+      <c r="J111" s="3"/>
+      <c r="K111" s="3"/>
+      <c r="L111" s="3"/>
+      <c r="M111" s="3"/>
+      <c r="N111" s="3"/>
+      <c r="O111" s="3"/>
+      <c r="P111" s="3"/>
+      <c r="Q111" s="3"/>
+      <c r="R111" s="3"/>
+      <c r="S111" s="3"/>
+      <c r="T111" s="3"/>
+      <c r="U111" s="3"/>
+      <c r="V111" s="3"/>
+      <c r="W111" s="3"/>
+      <c r="X111" s="3"/>
+    </row>
+    <row r="112" spans="2:24">
+      <c r="B112" s="4">
+        <v>42807</v>
+      </c>
+      <c r="C112" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="D112" s="3"/>
+      <c r="E112" s="3"/>
+      <c r="F112" s="3"/>
+      <c r="G112" s="3"/>
+      <c r="H112" s="3"/>
+      <c r="I112" s="3"/>
+      <c r="J112" s="3"/>
+      <c r="K112" s="3"/>
+      <c r="L112" s="3"/>
+      <c r="M112" s="3"/>
+      <c r="N112" s="3"/>
+      <c r="O112" s="3"/>
+      <c r="P112" s="3"/>
+      <c r="Q112" s="3"/>
+      <c r="R112" s="3"/>
+      <c r="S112" s="3"/>
+      <c r="T112" s="3"/>
+      <c r="U112" s="3"/>
+      <c r="V112" s="3"/>
+      <c r="W112" s="3"/>
+      <c r="X112" s="3"/>
+    </row>
+    <row r="113" spans="2:24">
+      <c r="B113" s="4">
+        <v>42808</v>
+      </c>
+      <c r="C113" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="D113" s="3"/>
+      <c r="E113" s="3"/>
+      <c r="F113" s="3"/>
+      <c r="G113" s="3"/>
+      <c r="H113" s="3"/>
+      <c r="I113" s="3"/>
+      <c r="J113" s="3"/>
+      <c r="K113" s="3"/>
+      <c r="L113" s="3"/>
+      <c r="M113" s="3"/>
+      <c r="N113" s="3"/>
+      <c r="O113" s="3"/>
+      <c r="P113" s="3"/>
+      <c r="Q113" s="3"/>
+      <c r="R113" s="3"/>
+      <c r="S113" s="3"/>
+      <c r="T113" s="3"/>
+      <c r="U113" s="3"/>
+      <c r="V113" s="3"/>
+      <c r="W113" s="3"/>
+      <c r="X113" s="3"/>
+    </row>
+    <row r="114" spans="2:24">
+      <c r="B114" s="4">
+        <v>42809</v>
+      </c>
+      <c r="C114" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="D114" s="3"/>
+      <c r="E114" s="3"/>
+      <c r="F114" s="3"/>
+      <c r="G114" s="3"/>
+      <c r="H114" s="3"/>
+      <c r="I114" s="3"/>
+      <c r="J114" s="3"/>
+      <c r="K114" s="3"/>
+      <c r="L114" s="3"/>
+      <c r="M114" s="3"/>
+      <c r="N114" s="3"/>
+      <c r="O114" s="3"/>
+      <c r="P114" s="3"/>
+      <c r="Q114" s="3"/>
+      <c r="R114" s="3"/>
+      <c r="S114" s="3"/>
+      <c r="T114" s="3"/>
+      <c r="U114" s="3"/>
+      <c r="V114" s="3"/>
+      <c r="W114" s="3"/>
+      <c r="X114" s="3"/>
+    </row>
+    <row r="115" spans="2:24">
+      <c r="B115" s="4">
+        <v>42810</v>
+      </c>
+      <c r="C115" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="D115" s="3"/>
+      <c r="E115" s="3"/>
+      <c r="F115" s="3"/>
+      <c r="G115" s="3"/>
+      <c r="H115" s="3"/>
+      <c r="I115" s="3"/>
+      <c r="J115" s="3"/>
+      <c r="K115" s="3"/>
+      <c r="L115" s="3"/>
+      <c r="M115" s="3"/>
+      <c r="N115" s="3"/>
+      <c r="O115" s="3"/>
+      <c r="P115" s="3"/>
+      <c r="Q115" s="3"/>
+      <c r="R115" s="3"/>
+      <c r="S115" s="3"/>
+      <c r="T115" s="3"/>
+      <c r="U115" s="3"/>
+      <c r="V115" s="3"/>
+      <c r="W115" s="3"/>
+      <c r="X115" s="3"/>
+    </row>
+    <row r="116" spans="2:24">
+      <c r="B116" s="4">
+        <v>42811</v>
+      </c>
+      <c r="C116" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="D116" s="3"/>
+      <c r="E116" s="3"/>
+      <c r="F116" s="3"/>
+      <c r="G116" s="3"/>
+      <c r="H116" s="3"/>
+      <c r="I116" s="3"/>
+      <c r="J116" s="3"/>
+      <c r="K116" s="3"/>
+      <c r="L116" s="3"/>
+      <c r="M116" s="3"/>
+      <c r="N116" s="3"/>
+      <c r="O116" s="3"/>
+      <c r="P116" s="3"/>
+      <c r="Q116" s="3"/>
+      <c r="R116" s="3"/>
+      <c r="S116" s="3"/>
+      <c r="T116" s="3"/>
+      <c r="U116" s="3"/>
+      <c r="V116" s="3"/>
+      <c r="W116" s="3"/>
+      <c r="X116" s="3"/>
+    </row>
+    <row r="117" spans="2:24">
+      <c r="B117" s="4">
+        <v>42812</v>
+      </c>
+      <c r="C117" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="D117" s="3"/>
+      <c r="E117" s="3"/>
+      <c r="F117" s="3"/>
+      <c r="G117" s="3"/>
+      <c r="H117" s="3"/>
+      <c r="I117" s="3"/>
+      <c r="J117" s="3"/>
+      <c r="K117" s="3"/>
+      <c r="L117" s="3"/>
+      <c r="M117" s="3"/>
+      <c r="N117" s="3"/>
+      <c r="O117" s="3"/>
+      <c r="P117" s="3"/>
+      <c r="Q117" s="3"/>
+      <c r="R117" s="3"/>
+      <c r="S117" s="3"/>
+      <c r="T117" s="3"/>
+      <c r="U117" s="3"/>
+      <c r="V117" s="3"/>
+      <c r="W117" s="3"/>
+      <c r="X117" s="3"/>
+    </row>
+    <row r="118" spans="2:24">
+      <c r="B118" s="4">
+        <v>42813</v>
+      </c>
+      <c r="C118" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="D118" s="3"/>
+      <c r="E118" s="3"/>
+      <c r="F118" s="3"/>
+      <c r="G118" s="3"/>
+      <c r="H118" s="3"/>
+      <c r="I118" s="3"/>
+      <c r="J118" s="3"/>
+      <c r="K118" s="3"/>
+      <c r="L118" s="3"/>
+      <c r="M118" s="3"/>
+      <c r="N118" s="3"/>
+      <c r="O118" s="3"/>
+      <c r="P118" s="3"/>
+      <c r="Q118" s="3"/>
+      <c r="R118" s="3"/>
+      <c r="S118" s="3"/>
+      <c r="T118" s="3"/>
+      <c r="U118" s="3"/>
+      <c r="V118" s="3"/>
+      <c r="W118" s="3"/>
+      <c r="X118" s="3"/>
+    </row>
+    <row r="119" spans="2:24">
+      <c r="B119" s="4">
+        <v>42814</v>
+      </c>
+      <c r="C119" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="D119" s="3"/>
+      <c r="E119" s="3"/>
+      <c r="F119" s="3"/>
+      <c r="G119" s="3"/>
+      <c r="H119" s="3"/>
+      <c r="I119" s="3"/>
+      <c r="J119" s="3"/>
+      <c r="K119" s="3"/>
+      <c r="L119" s="3"/>
+      <c r="M119" s="3"/>
+      <c r="N119" s="3"/>
+      <c r="O119" s="3"/>
+      <c r="P119" s="3"/>
+      <c r="Q119" s="3"/>
+      <c r="R119" s="3"/>
+      <c r="S119" s="3"/>
+      <c r="T119" s="3"/>
+      <c r="U119" s="3"/>
+      <c r="V119" s="3"/>
+      <c r="W119" s="3"/>
+      <c r="X119" s="3"/>
+    </row>
+    <row r="120" spans="2:24">
+      <c r="B120" s="4">
+        <v>42815</v>
+      </c>
+      <c r="C120" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="D120" s="3"/>
+      <c r="E120" s="3"/>
+      <c r="F120" s="3"/>
+      <c r="G120" s="3"/>
+      <c r="H120" s="3"/>
+      <c r="I120" s="3"/>
+      <c r="J120" s="3"/>
+      <c r="K120" s="3"/>
+      <c r="L120" s="3"/>
+      <c r="M120" s="3"/>
+      <c r="N120" s="3"/>
+      <c r="O120" s="3"/>
+      <c r="P120" s="3"/>
+      <c r="Q120" s="3"/>
+      <c r="R120" s="3"/>
+      <c r="S120" s="3"/>
+      <c r="T120" s="3"/>
+      <c r="U120" s="3"/>
+      <c r="V120" s="3"/>
+      <c r="W120" s="3"/>
+      <c r="X120" s="3"/>
+    </row>
+    <row r="121" spans="2:24">
+      <c r="B121" s="4">
+        <v>42816</v>
+      </c>
+      <c r="C121" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="D121" s="3"/>
+      <c r="E121" s="3"/>
+      <c r="F121" s="3"/>
+      <c r="G121" s="3"/>
+      <c r="H121" s="3"/>
+      <c r="I121" s="3"/>
+      <c r="J121" s="3"/>
+      <c r="K121" s="3"/>
+      <c r="L121" s="3"/>
+      <c r="M121" s="3"/>
+      <c r="N121" s="3"/>
+      <c r="O121" s="3"/>
+      <c r="P121" s="3"/>
+      <c r="Q121" s="3"/>
+      <c r="R121" s="3"/>
+      <c r="S121" s="3"/>
+      <c r="T121" s="3"/>
+      <c r="U121" s="3"/>
+      <c r="V121" s="3"/>
+      <c r="W121" s="3"/>
+      <c r="X121" s="3"/>
+    </row>
+    <row r="122" spans="2:24">
+      <c r="B122" s="4">
+        <v>42817</v>
+      </c>
+      <c r="C122" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="D122" s="3"/>
+      <c r="E122" s="3"/>
+      <c r="F122" s="3"/>
+      <c r="G122" s="3"/>
+      <c r="H122" s="3"/>
+      <c r="I122" s="3"/>
+      <c r="J122" s="3"/>
+      <c r="K122" s="3"/>
+      <c r="L122" s="3"/>
+      <c r="M122" s="3"/>
+      <c r="N122" s="3"/>
+      <c r="O122" s="3"/>
+      <c r="P122" s="3"/>
+      <c r="Q122" s="3"/>
+      <c r="R122" s="3"/>
+      <c r="S122" s="3"/>
+      <c r="T122" s="3"/>
+      <c r="U122" s="3"/>
+      <c r="V122" s="3"/>
+      <c r="W122" s="3"/>
+      <c r="X122" s="3"/>
+    </row>
+    <row r="123" spans="2:24">
+      <c r="B123" s="4">
+        <v>42818</v>
+      </c>
+      <c r="C123" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="D123" s="3"/>
+      <c r="E123" s="3"/>
+      <c r="F123" s="3"/>
+      <c r="G123" s="3"/>
+      <c r="H123" s="3"/>
+      <c r="I123" s="3"/>
+      <c r="J123" s="3"/>
+      <c r="K123" s="3"/>
+      <c r="L123" s="3"/>
+      <c r="M123" s="3"/>
+      <c r="N123" s="3"/>
+      <c r="O123" s="3"/>
+      <c r="P123" s="3"/>
+      <c r="Q123" s="3"/>
+      <c r="R123" s="3"/>
+      <c r="S123" s="3"/>
+      <c r="T123" s="3"/>
+      <c r="U123" s="3"/>
+      <c r="V123" s="3"/>
+      <c r="W123" s="3"/>
+      <c r="X123" s="3"/>
+    </row>
+    <row r="124" spans="2:24">
+      <c r="B124" s="4">
+        <v>42819</v>
+      </c>
+      <c r="C124" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="D124" s="3"/>
+      <c r="E124" s="3"/>
+      <c r="F124" s="3"/>
+      <c r="G124" s="3"/>
+      <c r="H124" s="3"/>
+      <c r="I124" s="3"/>
+      <c r="J124" s="3"/>
+      <c r="K124" s="3"/>
+      <c r="L124" s="3"/>
+      <c r="M124" s="3"/>
+      <c r="N124" s="3"/>
+      <c r="O124" s="3"/>
+      <c r="P124" s="3"/>
+      <c r="Q124" s="3"/>
+      <c r="R124" s="3"/>
+      <c r="S124" s="3"/>
+      <c r="T124" s="3"/>
+      <c r="U124" s="3"/>
+      <c r="V124" s="3"/>
+      <c r="W124" s="3"/>
+      <c r="X124" s="3"/>
+    </row>
+    <row r="125" spans="2:24">
+      <c r="B125" s="4">
+        <v>42820</v>
+      </c>
+      <c r="C125" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="D125" s="3"/>
+      <c r="E125" s="3"/>
+      <c r="F125" s="3"/>
+      <c r="G125" s="3"/>
+      <c r="H125" s="3"/>
+      <c r="I125" s="3"/>
+      <c r="J125" s="3"/>
+      <c r="K125" s="3"/>
+      <c r="L125" s="3"/>
+      <c r="M125" s="3"/>
+      <c r="N125" s="3"/>
+      <c r="O125" s="3"/>
+      <c r="P125" s="3"/>
+      <c r="Q125" s="3"/>
+      <c r="R125" s="3"/>
+      <c r="S125" s="3"/>
+      <c r="T125" s="3"/>
+      <c r="U125" s="3"/>
+      <c r="V125" s="3"/>
+      <c r="W125" s="3"/>
+      <c r="X125" s="3"/>
+    </row>
+    <row r="126" spans="2:24">
+      <c r="B126" s="4">
+        <v>42821</v>
+      </c>
+      <c r="C126" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="D126" s="3"/>
+      <c r="E126" s="3"/>
+      <c r="F126" s="3"/>
+      <c r="G126" s="3"/>
+      <c r="H126" s="3"/>
+      <c r="I126" s="3"/>
+      <c r="J126" s="3"/>
+      <c r="K126" s="3"/>
+      <c r="L126" s="3"/>
+      <c r="M126" s="3"/>
+      <c r="N126" s="3"/>
+      <c r="O126" s="3"/>
+      <c r="P126" s="3"/>
+      <c r="Q126" s="3"/>
+      <c r="R126" s="3"/>
+      <c r="S126" s="3"/>
+      <c r="T126" s="3"/>
+      <c r="U126" s="3"/>
+      <c r="V126" s="3"/>
+      <c r="W126" s="3"/>
+      <c r="X126" s="3"/>
+    </row>
+    <row r="127" spans="2:24">
+      <c r="B127" s="4">
+        <v>42822</v>
+      </c>
+      <c r="C127" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="D127" s="3"/>
+      <c r="E127" s="3"/>
+      <c r="F127" s="3"/>
+      <c r="G127" s="3"/>
+      <c r="H127" s="3"/>
+      <c r="I127" s="3"/>
+      <c r="J127" s="3"/>
+      <c r="K127" s="3"/>
+      <c r="L127" s="3"/>
+      <c r="M127" s="3"/>
+      <c r="N127" s="3"/>
+      <c r="O127" s="3"/>
+      <c r="P127" s="3"/>
+      <c r="Q127" s="3"/>
+      <c r="R127" s="3"/>
+      <c r="S127" s="3"/>
+      <c r="T127" s="3"/>
+      <c r="U127" s="3"/>
+      <c r="V127" s="3"/>
+      <c r="W127" s="3"/>
+      <c r="X127" s="3"/>
+    </row>
+    <row r="128" spans="2:24">
+      <c r="B128" s="4">
+        <v>42823</v>
+      </c>
+      <c r="C128" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="D128" s="3"/>
+      <c r="E128" s="3"/>
+      <c r="F128" s="3"/>
+      <c r="G128" s="3"/>
+      <c r="H128" s="3"/>
+      <c r="I128" s="3"/>
+      <c r="J128" s="3"/>
+      <c r="K128" s="3"/>
+      <c r="L128" s="3"/>
+      <c r="M128" s="3"/>
+      <c r="N128" s="3"/>
+      <c r="O128" s="3"/>
+      <c r="P128" s="3"/>
+      <c r="Q128" s="3"/>
+      <c r="R128" s="3"/>
+      <c r="S128" s="3"/>
+      <c r="T128" s="3"/>
+      <c r="U128" s="3"/>
+      <c r="V128" s="3"/>
+      <c r="W128" s="3"/>
+      <c r="X128" s="3"/>
+    </row>
+    <row r="129" spans="2:24">
+      <c r="B129" s="4">
+        <v>42824</v>
+      </c>
+      <c r="C129" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="D129" s="3"/>
+      <c r="E129" s="3"/>
+      <c r="F129" s="3"/>
+      <c r="G129" s="3"/>
+      <c r="H129" s="3"/>
+      <c r="I129" s="3"/>
+      <c r="J129" s="3"/>
+      <c r="K129" s="3"/>
+      <c r="L129" s="3"/>
+      <c r="M129" s="3"/>
+      <c r="N129" s="3"/>
+      <c r="O129" s="3"/>
+      <c r="P129" s="3"/>
+      <c r="Q129" s="3"/>
+      <c r="R129" s="3"/>
+      <c r="S129" s="3"/>
+      <c r="T129" s="3"/>
+      <c r="U129" s="3"/>
+      <c r="V129" s="3"/>
+      <c r="W129" s="3"/>
+      <c r="X129" s="3"/>
+    </row>
+    <row r="130" spans="2:24">
+      <c r="B130" s="4">
+        <v>42825</v>
+      </c>
+      <c r="C130" s="3">
+        <f>SUM(D130:CN130)</f>
+        <v>0</v>
+      </c>
+      <c r="D130" s="3"/>
+      <c r="E130" s="3"/>
+      <c r="F130" s="3"/>
+      <c r="G130" s="3"/>
+      <c r="H130" s="3"/>
+      <c r="I130" s="3"/>
+      <c r="J130" s="3"/>
+      <c r="K130" s="3"/>
+      <c r="L130" s="3"/>
+      <c r="M130" s="3"/>
+      <c r="N130" s="3"/>
+      <c r="O130" s="3"/>
+      <c r="P130" s="3"/>
+      <c r="Q130" s="3"/>
+      <c r="R130" s="3"/>
+      <c r="S130" s="3"/>
+      <c r="T130" s="3"/>
+      <c r="U130" s="3"/>
+      <c r="V130" s="3"/>
+      <c r="W130" s="3"/>
+      <c r="X130" s="3"/>
+    </row>
+    <row r="131" spans="2:24">
+      <c r="B131" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C131" s="6">
+        <f>SUM(C100:C127)</f>
+        <v>2160</v>
+      </c>
+      <c r="D131" s="6"/>
+      <c r="E131" s="6"/>
+      <c r="F131" s="6"/>
+      <c r="G131" s="6"/>
+      <c r="H131" s="6"/>
+      <c r="I131" s="6"/>
+      <c r="J131" s="6"/>
+      <c r="K131" s="6"/>
+      <c r="L131" s="6"/>
+      <c r="M131" s="6"/>
+      <c r="N131" s="6"/>
+      <c r="O131" s="6"/>
+      <c r="P131" s="6"/>
+      <c r="Q131" s="6"/>
+      <c r="R131" s="6"/>
+      <c r="S131" s="6"/>
+      <c r="T131" s="6"/>
+      <c r="U131" s="6"/>
+      <c r="V131" s="6"/>
+      <c r="W131" s="6"/>
+      <c r="X131" s="6"/>
+    </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="B2:B3"/>
@@ -8184,8 +9298,8 @@
     <mergeCell ref="C2:C3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="D4:X5 D7:X37 D39:X69 D71:X98">
-    <cfRule type="containsBlanks" dxfId="0" priority="12">
+  <conditionalFormatting sqref="D4:X5 D7:X37 D39:X69 D100:X130 D71:X98">
+    <cfRule type="containsBlanks" dxfId="3" priority="13">
       <formula>LEN(TRIM(D4))=0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/DailyExpense.xlsx
+++ b/DailyExpense.xlsx
@@ -177,7 +177,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M7" authorId="0">
+    <comment ref="L7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -255,7 +255,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q11" authorId="0">
+    <comment ref="P11" authorId="0">
       <text>
         <r>
           <rPr>
@@ -342,7 +342,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R12" authorId="0">
+    <comment ref="Q12" authorId="0">
       <text>
         <r>
           <rPr>
@@ -737,7 +737,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R16" authorId="0">
+    <comment ref="Q16" authorId="0">
       <text>
         <r>
           <rPr>
@@ -952,7 +952,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R23" authorId="0">
+    <comment ref="Q23" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1094,7 +1094,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M26" authorId="0">
+    <comment ref="L26" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1302,7 +1302,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M32" authorId="0">
+    <comment ref="L32" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1328,7 +1328,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R32" authorId="0">
+    <comment ref="Q32" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1987,7 +1987,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M50" authorId="0">
+    <comment ref="L50" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2195,7 +2195,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R54" authorId="0">
+    <comment ref="Q54" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2247,7 +2247,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R55" authorId="0">
+    <comment ref="Q55" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3510,7 +3510,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R87" authorId="0">
+    <comment ref="Q87" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3932,7 +3932,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R96" authorId="0">
+    <comment ref="Q96" authorId="0">
       <text>
         <r>
           <rPr>
@@ -4104,6 +4104,242 @@
           </rPr>
           <t xml:space="preserve">
 奶茶</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H102" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+摩拜充值</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J102" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+上网</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J103" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+电影</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G104" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+牙膏</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H104" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+100 </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">手机充值
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">66 </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>打车</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I104" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+德芙、士力架等</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F106" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+和兰小林吃饭</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J107" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+上网</t>
         </r>
       </text>
     </comment>
@@ -4112,7 +4348,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
   <si>
     <t>日期</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -4120,10 +4356,6 @@
   <si>
     <t>早饭</t>
     <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>理发店充值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>支出总计</t>
@@ -4381,35 +4613,7 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <fill>
         <patternFill>
@@ -4707,11 +4911,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:X131"/>
+  <dimension ref="B2:W131"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A76" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C96" sqref="C96"/>
+      <pane ySplit="3" topLeftCell="A103" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K117" sqref="K117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4721,21 +4925,21 @@
     <col min="3" max="3" width="10" style="1" customWidth="1"/>
     <col min="4" max="6" width="9" style="1"/>
     <col min="7" max="8" width="10.25" style="1" customWidth="1"/>
-    <col min="9" max="12" width="12.25" style="1" customWidth="1"/>
-    <col min="13" max="16" width="9" style="1"/>
-    <col min="17" max="17" width="13.875" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="9" style="1"/>
+    <col min="9" max="11" width="12.25" style="1" customWidth="1"/>
+    <col min="12" max="15" width="9" style="1"/>
+    <col min="16" max="16" width="13.875" style="1" customWidth="1"/>
+    <col min="17" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:24">
+    <row r="2" spans="2:23">
       <c r="B2" s="7" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="9" t="s">
         <v>3</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>4</v>
       </c>
       <c r="E2" s="10"/>
       <c r="F2" s="10"/>
@@ -4756,43 +4960,42 @@
       <c r="U2" s="10"/>
       <c r="V2" s="10"/>
       <c r="W2" s="10"/>
-      <c r="X2" s="10"/>
-    </row>
-    <row r="3" spans="2:24">
+    </row>
+    <row r="3" spans="2:23">
       <c r="B3" s="8"/>
       <c r="C3" s="12"/>
       <c r="D3" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="K3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="I3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="M3" s="2" t="s">
+      <c r="N3" s="2" t="s">
         <v>7</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>18</v>
       </c>
       <c r="O3" s="2" t="s">
         <v>8</v>
@@ -4804,23 +5007,20 @@
         <v>10</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="S3" s="2" t="s">
-        <v>16</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="S3" s="2"/>
       <c r="T3" s="2"/>
       <c r="U3" s="2"/>
       <c r="V3" s="2"/>
       <c r="W3" s="2"/>
-      <c r="X3" s="2"/>
-    </row>
-    <row r="4" spans="2:24">
+    </row>
+    <row r="4" spans="2:23">
       <c r="B4" s="4">
         <v>42703</v>
       </c>
       <c r="C4" s="3">
-        <f>SUM(D4:CN4)</f>
+        <f>SUM(D4:CM4)</f>
         <v>80</v>
       </c>
       <c r="D4" s="3"/>
@@ -4849,14 +5049,13 @@
       <c r="U4" s="3"/>
       <c r="V4" s="3"/>
       <c r="W4" s="3"/>
-      <c r="X4" s="3"/>
-    </row>
-    <row r="5" spans="2:24">
+    </row>
+    <row r="5" spans="2:23">
       <c r="B5" s="4">
         <v>42704</v>
       </c>
       <c r="C5" s="3">
-        <f>SUM(D5:CN5)</f>
+        <f>SUM(D5:CM5)</f>
         <v>52</v>
       </c>
       <c r="D5" s="3"/>
@@ -4885,11 +5084,10 @@
       <c r="U5" s="3"/>
       <c r="V5" s="3"/>
       <c r="W5" s="3"/>
-      <c r="X5" s="3"/>
-    </row>
-    <row r="6" spans="2:24">
+    </row>
+    <row r="6" spans="2:23">
       <c r="B6" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C6" s="6">
         <f>SUM(C4:C5)</f>
@@ -4915,14 +5113,13 @@
       <c r="U6" s="6"/>
       <c r="V6" s="6"/>
       <c r="W6" s="6"/>
-      <c r="X6" s="6"/>
-    </row>
-    <row r="7" spans="2:24">
+    </row>
+    <row r="7" spans="2:23">
       <c r="B7" s="4">
         <v>42705</v>
       </c>
       <c r="C7" s="3">
-        <f t="shared" ref="C7:C37" si="0">SUM(D7:CN7)</f>
+        <f t="shared" ref="C7:C37" si="0">SUM(D7:CM7)</f>
         <v>475</v>
       </c>
       <c r="D7" s="3"/>
@@ -4939,10 +5136,10 @@
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3">
+      <c r="L7" s="3">
         <v>399</v>
       </c>
+      <c r="M7" s="3"/>
       <c r="N7" s="3"/>
       <c r="O7" s="3"/>
       <c r="P7" s="3"/>
@@ -4953,9 +5150,8 @@
       <c r="U7" s="3"/>
       <c r="V7" s="3"/>
       <c r="W7" s="3"/>
-      <c r="X7" s="3"/>
-    </row>
-    <row r="8" spans="2:24">
+    </row>
+    <row r="8" spans="2:23">
       <c r="B8" s="4">
         <v>42706</v>
       </c>
@@ -4983,9 +5179,8 @@
       <c r="U8" s="3"/>
       <c r="V8" s="3"/>
       <c r="W8" s="3"/>
-      <c r="X8" s="3"/>
-    </row>
-    <row r="9" spans="2:24">
+    </row>
+    <row r="9" spans="2:23">
       <c r="B9" s="4">
         <v>42707</v>
       </c>
@@ -5015,9 +5210,8 @@
       <c r="U9" s="3"/>
       <c r="V9" s="3"/>
       <c r="W9" s="3"/>
-      <c r="X9" s="3"/>
-    </row>
-    <row r="10" spans="2:24">
+    </row>
+    <row r="10" spans="2:23">
       <c r="B10" s="4">
         <v>42708</v>
       </c>
@@ -5045,9 +5239,8 @@
       <c r="U10" s="3"/>
       <c r="V10" s="3"/>
       <c r="W10" s="3"/>
-      <c r="X10" s="3"/>
-    </row>
-    <row r="11" spans="2:24">
+    </row>
+    <row r="11" spans="2:23">
       <c r="B11" s="4">
         <v>42709</v>
       </c>
@@ -5069,25 +5262,24 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-      <c r="N11" s="3"/>
+      <c r="N11" s="3">
+        <v>2100</v>
+      </c>
       <c r="O11" s="3">
-        <v>2100</v>
+        <v>20</v>
       </c>
       <c r="P11" s="3">
-        <v>20</v>
-      </c>
-      <c r="Q11" s="3">
         <v>558</v>
       </c>
+      <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-      <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="2:24">
+    </row>
+    <row r="12" spans="2:23">
       <c r="B12" s="4">
         <v>42710</v>
       </c>
@@ -5116,18 +5308,17 @@
       <c r="N12" s="3"/>
       <c r="O12" s="3"/>
       <c r="P12" s="3"/>
-      <c r="Q12" s="3"/>
-      <c r="R12" s="3">
+      <c r="Q12" s="3">
         <v>1100</v>
       </c>
+      <c r="R12" s="3"/>
       <c r="S12" s="3"/>
       <c r="T12" s="3"/>
       <c r="U12" s="3"/>
       <c r="V12" s="3"/>
       <c r="W12" s="3"/>
-      <c r="X12" s="3"/>
-    </row>
-    <row r="13" spans="2:24">
+    </row>
+    <row r="13" spans="2:23">
       <c r="B13" s="4">
         <v>42711</v>
       </c>
@@ -5161,9 +5352,8 @@
       <c r="U13" s="3"/>
       <c r="V13" s="3"/>
       <c r="W13" s="3"/>
-      <c r="X13" s="3"/>
-    </row>
-    <row r="14" spans="2:24">
+    </row>
+    <row r="14" spans="2:23">
       <c r="B14" s="4">
         <v>42712</v>
       </c>
@@ -5193,17 +5383,16 @@
       <c r="O14" s="3"/>
       <c r="P14" s="3"/>
       <c r="Q14" s="3"/>
-      <c r="R14" s="3"/>
-      <c r="S14" s="3">
+      <c r="R14" s="3">
         <v>4</v>
       </c>
+      <c r="S14" s="3"/>
       <c r="T14" s="3"/>
       <c r="U14" s="3"/>
       <c r="V14" s="3"/>
       <c r="W14" s="3"/>
-      <c r="X14" s="3"/>
-    </row>
-    <row r="15" spans="2:24">
+    </row>
+    <row r="15" spans="2:23">
       <c r="B15" s="4">
         <v>42713</v>
       </c>
@@ -5235,9 +5424,8 @@
       <c r="U15" s="3"/>
       <c r="V15" s="3"/>
       <c r="W15" s="3"/>
-      <c r="X15" s="3"/>
-    </row>
-    <row r="16" spans="2:24">
+    </row>
+    <row r="16" spans="2:23">
       <c r="B16" s="4">
         <v>42714</v>
       </c>
@@ -5266,18 +5454,17 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-      <c r="Q16" s="3"/>
-      <c r="R16" s="3">
+      <c r="Q16" s="3">
         <v>500</v>
       </c>
+      <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-      <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="2:24">
+    </row>
+    <row r="17" spans="2:23">
       <c r="B17" s="4">
         <v>42715</v>
       </c>
@@ -5311,9 +5498,8 @@
       <c r="U17" s="3"/>
       <c r="V17" s="3"/>
       <c r="W17" s="3"/>
-      <c r="X17" s="3"/>
-    </row>
-    <row r="18" spans="2:24">
+    </row>
+    <row r="18" spans="2:23">
       <c r="B18" s="4">
         <v>42716</v>
       </c>
@@ -5347,9 +5533,8 @@
       <c r="U18" s="3"/>
       <c r="V18" s="3"/>
       <c r="W18" s="3"/>
-      <c r="X18" s="3"/>
-    </row>
-    <row r="19" spans="2:24">
+    </row>
+    <row r="19" spans="2:23">
       <c r="B19" s="4">
         <v>42717</v>
       </c>
@@ -5379,9 +5564,8 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-      <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="2:24">
+    </row>
+    <row r="20" spans="2:23">
       <c r="B20" s="4">
         <v>42718</v>
       </c>
@@ -5415,9 +5599,8 @@
       <c r="U20" s="3"/>
       <c r="V20" s="3"/>
       <c r="W20" s="3"/>
-      <c r="X20" s="3"/>
-    </row>
-    <row r="21" spans="2:24">
+    </row>
+    <row r="21" spans="2:23">
       <c r="B21" s="4">
         <v>42719</v>
       </c>
@@ -5451,9 +5634,8 @@
       <c r="U21" s="3"/>
       <c r="V21" s="3"/>
       <c r="W21" s="3"/>
-      <c r="X21" s="3"/>
-    </row>
-    <row r="22" spans="2:24">
+    </row>
+    <row r="22" spans="2:23">
       <c r="B22" s="4">
         <v>42720</v>
       </c>
@@ -5487,9 +5669,8 @@
       <c r="U22" s="3"/>
       <c r="V22" s="3"/>
       <c r="W22" s="3"/>
-      <c r="X22" s="3"/>
-    </row>
-    <row r="23" spans="2:24">
+    </row>
+    <row r="23" spans="2:23">
       <c r="B23" s="4">
         <v>42721</v>
       </c>
@@ -5518,18 +5699,17 @@
       <c r="N23" s="3"/>
       <c r="O23" s="3"/>
       <c r="P23" s="3"/>
-      <c r="Q23" s="3"/>
-      <c r="R23" s="3">
+      <c r="Q23" s="3">
         <v>6850</v>
       </c>
+      <c r="R23" s="3"/>
       <c r="S23" s="3"/>
       <c r="T23" s="3"/>
       <c r="U23" s="3"/>
       <c r="V23" s="3"/>
       <c r="W23" s="3"/>
-      <c r="X23" s="3"/>
-    </row>
-    <row r="24" spans="2:24">
+    </row>
+    <row r="24" spans="2:23">
       <c r="B24" s="4">
         <v>42722</v>
       </c>
@@ -5563,9 +5743,8 @@
       <c r="U24" s="3"/>
       <c r="V24" s="3"/>
       <c r="W24" s="3"/>
-      <c r="X24" s="3"/>
-    </row>
-    <row r="25" spans="2:24">
+    </row>
+    <row r="25" spans="2:23">
       <c r="B25" s="4">
         <v>42723</v>
       </c>
@@ -5601,9 +5780,8 @@
       <c r="U25" s="3"/>
       <c r="V25" s="3"/>
       <c r="W25" s="3"/>
-      <c r="X25" s="3"/>
-    </row>
-    <row r="26" spans="2:24">
+    </row>
+    <row r="26" spans="2:23">
       <c r="B26" s="4">
         <v>42724</v>
       </c>
@@ -5627,10 +5805,10 @@
       <c r="K26" s="3">
         <v>29</v>
       </c>
-      <c r="L26" s="3"/>
-      <c r="M26" s="3">
+      <c r="L26" s="3">
         <v>78</v>
       </c>
+      <c r="M26" s="3"/>
       <c r="N26" s="3"/>
       <c r="O26" s="3"/>
       <c r="P26" s="3"/>
@@ -5641,9 +5819,8 @@
       <c r="U26" s="3"/>
       <c r="V26" s="3"/>
       <c r="W26" s="3"/>
-      <c r="X26" s="3"/>
-    </row>
-    <row r="27" spans="2:24">
+    </row>
+    <row r="27" spans="2:23">
       <c r="B27" s="4">
         <v>42725</v>
       </c>
@@ -5679,9 +5856,8 @@
       <c r="U27" s="3"/>
       <c r="V27" s="3"/>
       <c r="W27" s="3"/>
-      <c r="X27" s="3"/>
-    </row>
-    <row r="28" spans="2:24">
+    </row>
+    <row r="28" spans="2:23">
       <c r="B28" s="4">
         <v>42726</v>
       </c>
@@ -5717,9 +5893,8 @@
       <c r="U28" s="3"/>
       <c r="V28" s="3"/>
       <c r="W28" s="3"/>
-      <c r="X28" s="3"/>
-    </row>
-    <row r="29" spans="2:24">
+    </row>
+    <row r="29" spans="2:23">
       <c r="B29" s="4">
         <v>42727</v>
       </c>
@@ -5753,9 +5928,8 @@
       <c r="U29" s="3"/>
       <c r="V29" s="3"/>
       <c r="W29" s="3"/>
-      <c r="X29" s="3"/>
-    </row>
-    <row r="30" spans="2:24">
+    </row>
+    <row r="30" spans="2:23">
       <c r="B30" s="4">
         <v>42728</v>
       </c>
@@ -5785,9 +5959,8 @@
       <c r="U30" s="3"/>
       <c r="V30" s="3"/>
       <c r="W30" s="3"/>
-      <c r="X30" s="3"/>
-    </row>
-    <row r="31" spans="2:24">
+    </row>
+    <row r="31" spans="2:23">
       <c r="B31" s="4">
         <v>42729</v>
       </c>
@@ -5823,9 +5996,8 @@
       <c r="U31" s="3"/>
       <c r="V31" s="3"/>
       <c r="W31" s="3"/>
-      <c r="X31" s="3"/>
-    </row>
-    <row r="32" spans="2:24">
+    </row>
+    <row r="32" spans="2:23">
       <c r="B32" s="4">
         <v>42730</v>
       </c>
@@ -5849,25 +6021,24 @@
       <c r="I32" s="3"/>
       <c r="J32" s="3"/>
       <c r="K32" s="3"/>
-      <c r="L32" s="3"/>
-      <c r="M32" s="3">
+      <c r="L32" s="3">
         <v>1811</v>
       </c>
+      <c r="M32" s="3"/>
       <c r="N32" s="3"/>
       <c r="O32" s="3"/>
       <c r="P32" s="3"/>
-      <c r="Q32" s="3"/>
-      <c r="R32" s="3">
+      <c r="Q32" s="3">
         <v>19600</v>
       </c>
+      <c r="R32" s="3"/>
       <c r="S32" s="3"/>
       <c r="T32" s="3"/>
       <c r="U32" s="3"/>
       <c r="V32" s="3"/>
       <c r="W32" s="3"/>
-      <c r="X32" s="3"/>
-    </row>
-    <row r="33" spans="2:24">
+    </row>
+    <row r="33" spans="2:23">
       <c r="B33" s="4">
         <v>42731</v>
       </c>
@@ -5903,9 +6074,8 @@
       <c r="U33" s="3"/>
       <c r="V33" s="3"/>
       <c r="W33" s="3"/>
-      <c r="X33" s="3"/>
-    </row>
-    <row r="34" spans="2:24">
+    </row>
+    <row r="34" spans="2:23">
       <c r="B34" s="4">
         <v>42732</v>
       </c>
@@ -5939,9 +6109,8 @@
       <c r="U34" s="3"/>
       <c r="V34" s="3"/>
       <c r="W34" s="3"/>
-      <c r="X34" s="3"/>
-    </row>
-    <row r="35" spans="2:24">
+    </row>
+    <row r="35" spans="2:23">
       <c r="B35" s="4">
         <v>42733</v>
       </c>
@@ -5977,9 +6146,8 @@
       <c r="U35" s="3"/>
       <c r="V35" s="3"/>
       <c r="W35" s="3"/>
-      <c r="X35" s="3"/>
-    </row>
-    <row r="36" spans="2:24">
+    </row>
+    <row r="36" spans="2:23">
       <c r="B36" s="4">
         <v>42734</v>
       </c>
@@ -6013,9 +6181,8 @@
       <c r="U36" s="3"/>
       <c r="V36" s="3"/>
       <c r="W36" s="3"/>
-      <c r="X36" s="3"/>
-    </row>
-    <row r="37" spans="2:24">
+    </row>
+    <row r="37" spans="2:23">
       <c r="B37" s="4">
         <v>42735</v>
       </c>
@@ -6045,11 +6212,10 @@
       <c r="U37" s="3"/>
       <c r="V37" s="3"/>
       <c r="W37" s="3"/>
-      <c r="X37" s="3"/>
-    </row>
-    <row r="38" spans="2:24">
+    </row>
+    <row r="38" spans="2:23">
       <c r="B38" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C38" s="6">
         <f>SUM(C7:C37)</f>
@@ -6075,14 +6241,13 @@
       <c r="U38" s="6"/>
       <c r="V38" s="6"/>
       <c r="W38" s="6"/>
-      <c r="X38" s="6"/>
-    </row>
-    <row r="39" spans="2:24">
+    </row>
+    <row r="39" spans="2:23">
       <c r="B39" s="4">
         <v>42736</v>
       </c>
       <c r="C39" s="3">
-        <f>SUM(D39:CN39)</f>
+        <f>SUM(D39:CM39)</f>
         <v>109</v>
       </c>
       <c r="D39" s="3"/>
@@ -6107,14 +6272,13 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-      <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24">
+    </row>
+    <row r="40" spans="2:23">
       <c r="B40" s="4">
         <v>42737</v>
       </c>
       <c r="C40" s="3">
-        <f>SUM(D40:CN40)</f>
+        <f>SUM(D40:CM40)</f>
         <v>105</v>
       </c>
       <c r="D40" s="3"/>
@@ -6141,14 +6305,13 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-      <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24">
+    </row>
+    <row r="41" spans="2:23">
       <c r="B41" s="4">
         <v>42738</v>
       </c>
       <c r="C41" s="3">
-        <f t="shared" ref="C41:C69" si="1">SUM(D41:CN41)</f>
+        <f t="shared" ref="C41:C69" si="1">SUM(D41:CM41)</f>
         <v>24</v>
       </c>
       <c r="D41" s="3">
@@ -6177,9 +6340,8 @@
       <c r="U41" s="3"/>
       <c r="V41" s="3"/>
       <c r="W41" s="3"/>
-      <c r="X41" s="3"/>
-    </row>
-    <row r="42" spans="2:24">
+    </row>
+    <row r="42" spans="2:23">
       <c r="B42" s="4">
         <v>42739</v>
       </c>
@@ -6217,9 +6379,8 @@
       <c r="U42" s="3"/>
       <c r="V42" s="3"/>
       <c r="W42" s="3"/>
-      <c r="X42" s="3"/>
-    </row>
-    <row r="43" spans="2:24">
+    </row>
+    <row r="43" spans="2:23">
       <c r="B43" s="4">
         <v>42740</v>
       </c>
@@ -6251,9 +6412,8 @@
       <c r="U43" s="3"/>
       <c r="V43" s="3"/>
       <c r="W43" s="3"/>
-      <c r="X43" s="3"/>
-    </row>
-    <row r="44" spans="2:24">
+    </row>
+    <row r="44" spans="2:23">
       <c r="B44" s="4">
         <v>42741</v>
       </c>
@@ -6291,9 +6451,8 @@
       <c r="U44" s="3"/>
       <c r="V44" s="3"/>
       <c r="W44" s="3"/>
-      <c r="X44" s="3"/>
-    </row>
-    <row r="45" spans="2:24">
+    </row>
+    <row r="45" spans="2:23">
       <c r="B45" s="4">
         <v>42742</v>
       </c>
@@ -6331,9 +6490,8 @@
       <c r="U45" s="3"/>
       <c r="V45" s="3"/>
       <c r="W45" s="3"/>
-      <c r="X45" s="3"/>
-    </row>
-    <row r="46" spans="2:24">
+    </row>
+    <row r="46" spans="2:23">
       <c r="B46" s="4">
         <v>42743</v>
       </c>
@@ -6359,10 +6517,10 @@
       <c r="K46" s="3"/>
       <c r="L46" s="3"/>
       <c r="M46" s="3"/>
-      <c r="N46" s="3"/>
-      <c r="O46" s="3">
+      <c r="N46" s="3">
         <v>2100</v>
       </c>
+      <c r="O46" s="3"/>
       <c r="P46" s="3"/>
       <c r="Q46" s="3"/>
       <c r="R46" s="3"/>
@@ -6371,9 +6529,8 @@
       <c r="U46" s="3"/>
       <c r="V46" s="3"/>
       <c r="W46" s="3"/>
-      <c r="X46" s="3"/>
-    </row>
-    <row r="47" spans="2:24">
+    </row>
+    <row r="47" spans="2:23">
       <c r="B47" s="4">
         <v>42744</v>
       </c>
@@ -6409,9 +6566,8 @@
       <c r="U47" s="3"/>
       <c r="V47" s="3"/>
       <c r="W47" s="3"/>
-      <c r="X47" s="3"/>
-    </row>
-    <row r="48" spans="2:24">
+    </row>
+    <row r="48" spans="2:23">
       <c r="B48" s="4">
         <v>42745</v>
       </c>
@@ -6445,9 +6601,8 @@
       <c r="U48" s="3"/>
       <c r="V48" s="3"/>
       <c r="W48" s="3"/>
-      <c r="X48" s="3"/>
-    </row>
-    <row r="49" spans="2:24">
+    </row>
+    <row r="49" spans="2:23">
       <c r="B49" s="4">
         <v>42746</v>
       </c>
@@ -6481,9 +6636,8 @@
       <c r="U49" s="3"/>
       <c r="V49" s="3"/>
       <c r="W49" s="3"/>
-      <c r="X49" s="3"/>
-    </row>
-    <row r="50" spans="2:24">
+    </row>
+    <row r="50" spans="2:23">
       <c r="B50" s="4">
         <v>42747</v>
       </c>
@@ -6505,10 +6659,10 @@
       <c r="I50" s="3"/>
       <c r="J50" s="3"/>
       <c r="K50" s="3"/>
-      <c r="L50" s="3"/>
-      <c r="M50" s="3">
+      <c r="L50" s="3">
         <v>148</v>
       </c>
+      <c r="M50" s="3"/>
       <c r="N50" s="3"/>
       <c r="O50" s="3"/>
       <c r="P50" s="3"/>
@@ -6519,9 +6673,8 @@
       <c r="U50" s="3"/>
       <c r="V50" s="3"/>
       <c r="W50" s="3"/>
-      <c r="X50" s="3"/>
-    </row>
-    <row r="51" spans="2:24">
+    </row>
+    <row r="51" spans="2:23">
       <c r="B51" s="4">
         <v>42748</v>
       </c>
@@ -6557,14 +6710,13 @@
       <c r="U51" s="3"/>
       <c r="V51" s="3"/>
       <c r="W51" s="3"/>
-      <c r="X51" s="3"/>
-    </row>
-    <row r="52" spans="2:24">
+    </row>
+    <row r="52" spans="2:23">
       <c r="B52" s="4">
         <v>42749</v>
       </c>
       <c r="C52" s="3">
-        <f>SUM(E52:CN52)</f>
+        <f>SUM(E52:CM52)</f>
         <v>121</v>
       </c>
       <c r="D52" s="3"/>
@@ -6595,9 +6747,8 @@
       <c r="U52" s="3"/>
       <c r="V52" s="3"/>
       <c r="W52" s="3"/>
-      <c r="X52" s="3"/>
-    </row>
-    <row r="53" spans="2:24">
+    </row>
+    <row r="53" spans="2:23">
       <c r="B53" s="4">
         <v>42750</v>
       </c>
@@ -6631,9 +6782,8 @@
       <c r="U53" s="3"/>
       <c r="V53" s="3"/>
       <c r="W53" s="3"/>
-      <c r="X53" s="3"/>
-    </row>
-    <row r="54" spans="2:24">
+    </row>
+    <row r="54" spans="2:23">
       <c r="B54" s="4">
         <v>42751</v>
       </c>
@@ -6660,18 +6810,17 @@
       <c r="N54" s="3"/>
       <c r="O54" s="3"/>
       <c r="P54" s="3"/>
-      <c r="Q54" s="3"/>
-      <c r="R54" s="3">
+      <c r="Q54" s="3">
         <v>1238</v>
       </c>
+      <c r="R54" s="3"/>
       <c r="S54" s="3"/>
       <c r="T54" s="3"/>
       <c r="U54" s="3"/>
       <c r="V54" s="3"/>
       <c r="W54" s="3"/>
-      <c r="X54" s="3"/>
-    </row>
-    <row r="55" spans="2:24">
+    </row>
+    <row r="55" spans="2:23">
       <c r="B55" s="4">
         <v>42752</v>
       </c>
@@ -6700,18 +6849,17 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-      <c r="Q55" s="3"/>
-      <c r="R55" s="3">
+      <c r="Q55" s="3">
         <v>1800</v>
       </c>
+      <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-      <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="2:24">
+    </row>
+    <row r="56" spans="2:23">
       <c r="B56" s="4">
         <v>42753</v>
       </c>
@@ -6745,9 +6893,8 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-      <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="2:24">
+    </row>
+    <row r="57" spans="2:23">
       <c r="B57" s="4">
         <v>42754</v>
       </c>
@@ -6783,9 +6930,8 @@
       <c r="U57" s="3"/>
       <c r="V57" s="3"/>
       <c r="W57" s="3"/>
-      <c r="X57" s="3"/>
-    </row>
-    <row r="58" spans="2:24">
+    </row>
+    <row r="58" spans="2:23">
       <c r="B58" s="4">
         <v>42755</v>
       </c>
@@ -6819,9 +6965,8 @@
       <c r="U58" s="3"/>
       <c r="V58" s="3"/>
       <c r="W58" s="3"/>
-      <c r="X58" s="3"/>
-    </row>
-    <row r="59" spans="2:24">
+    </row>
+    <row r="59" spans="2:23">
       <c r="B59" s="4">
         <v>42756</v>
       </c>
@@ -6857,9 +7002,8 @@
       <c r="U59" s="3"/>
       <c r="V59" s="3"/>
       <c r="W59" s="3"/>
-      <c r="X59" s="3"/>
-    </row>
-    <row r="60" spans="2:24">
+    </row>
+    <row r="60" spans="2:23">
       <c r="B60" s="4">
         <v>42757</v>
       </c>
@@ -6889,9 +7033,8 @@
       <c r="U60" s="3"/>
       <c r="V60" s="3"/>
       <c r="W60" s="3"/>
-      <c r="X60" s="3"/>
-    </row>
-    <row r="61" spans="2:24">
+    </row>
+    <row r="61" spans="2:23">
       <c r="B61" s="4">
         <v>42758</v>
       </c>
@@ -6925,9 +7068,8 @@
       <c r="U61" s="3"/>
       <c r="V61" s="3"/>
       <c r="W61" s="3"/>
-      <c r="X61" s="3"/>
-    </row>
-    <row r="62" spans="2:24">
+    </row>
+    <row r="62" spans="2:23">
       <c r="B62" s="4">
         <v>42759</v>
       </c>
@@ -6961,9 +7103,8 @@
       <c r="U62" s="3"/>
       <c r="V62" s="3"/>
       <c r="W62" s="3"/>
-      <c r="X62" s="3"/>
-    </row>
-    <row r="63" spans="2:24">
+    </row>
+    <row r="63" spans="2:23">
       <c r="B63" s="4">
         <v>42760</v>
       </c>
@@ -7001,9 +7142,8 @@
       <c r="U63" s="3"/>
       <c r="V63" s="3"/>
       <c r="W63" s="3"/>
-      <c r="X63" s="3"/>
-    </row>
-    <row r="64" spans="2:24">
+    </row>
+    <row r="64" spans="2:23">
       <c r="B64" s="4">
         <v>42761</v>
       </c>
@@ -7041,9 +7181,8 @@
       <c r="U64" s="3"/>
       <c r="V64" s="3"/>
       <c r="W64" s="3"/>
-      <c r="X64" s="3"/>
-    </row>
-    <row r="65" spans="2:24">
+    </row>
+    <row r="65" spans="2:23">
       <c r="B65" s="4">
         <v>42762</v>
       </c>
@@ -7077,9 +7216,8 @@
       <c r="U65" s="3"/>
       <c r="V65" s="3"/>
       <c r="W65" s="3"/>
-      <c r="X65" s="3"/>
-    </row>
-    <row r="66" spans="2:24">
+    </row>
+    <row r="66" spans="2:23">
       <c r="B66" s="4">
         <v>42763</v>
       </c>
@@ -7111,9 +7249,8 @@
       <c r="U66" s="3"/>
       <c r="V66" s="3"/>
       <c r="W66" s="3"/>
-      <c r="X66" s="3"/>
-    </row>
-    <row r="67" spans="2:24">
+    </row>
+    <row r="67" spans="2:23">
       <c r="B67" s="4">
         <v>42764</v>
       </c>
@@ -7143,9 +7280,8 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-      <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24">
+    </row>
+    <row r="68" spans="2:23">
       <c r="B68" s="4">
         <v>42765</v>
       </c>
@@ -7175,9 +7311,8 @@
       <c r="U68" s="3"/>
       <c r="V68" s="3"/>
       <c r="W68" s="3"/>
-      <c r="X68" s="3"/>
-    </row>
-    <row r="69" spans="2:24">
+    </row>
+    <row r="69" spans="2:23">
       <c r="B69" s="4">
         <v>42766</v>
       </c>
@@ -7207,11 +7342,10 @@
       <c r="U69" s="3"/>
       <c r="V69" s="3"/>
       <c r="W69" s="3"/>
-      <c r="X69" s="3"/>
-    </row>
-    <row r="70" spans="2:24">
+    </row>
+    <row r="70" spans="2:23">
       <c r="B70" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C70" s="6">
         <f>SUM(C39:C69)</f>
@@ -7237,14 +7371,13 @@
       <c r="U70" s="6"/>
       <c r="V70" s="6"/>
       <c r="W70" s="6"/>
-      <c r="X70" s="6"/>
-    </row>
-    <row r="71" spans="2:24">
+    </row>
+    <row r="71" spans="2:23">
       <c r="B71" s="4">
         <v>42767</v>
       </c>
       <c r="C71" s="3">
-        <f>SUM(D71:CN71)</f>
+        <f>SUM(D71:CM71)</f>
         <v>2104</v>
       </c>
       <c r="D71" s="3"/>
@@ -7259,10 +7392,10 @@
       <c r="K71" s="3"/>
       <c r="L71" s="3"/>
       <c r="M71" s="3"/>
-      <c r="N71" s="3"/>
-      <c r="O71" s="3">
+      <c r="N71" s="3">
         <v>2100</v>
       </c>
+      <c r="O71" s="3"/>
       <c r="P71" s="3"/>
       <c r="Q71" s="3"/>
       <c r="R71" s="3"/>
@@ -7271,14 +7404,13 @@
       <c r="U71" s="3"/>
       <c r="V71" s="3"/>
       <c r="W71" s="3"/>
-      <c r="X71" s="3"/>
-    </row>
-    <row r="72" spans="2:24">
+    </row>
+    <row r="72" spans="2:23">
       <c r="B72" s="4">
         <v>42768</v>
       </c>
       <c r="C72" s="3">
-        <f>SUM(D72:CN72)</f>
+        <f>SUM(D72:CM72)</f>
         <v>386</v>
       </c>
       <c r="D72" s="3"/>
@@ -7307,14 +7439,13 @@
       <c r="U72" s="3"/>
       <c r="V72" s="3"/>
       <c r="W72" s="3"/>
-      <c r="X72" s="3"/>
-    </row>
-    <row r="73" spans="2:24">
+    </row>
+    <row r="73" spans="2:23">
       <c r="B73" s="4">
         <v>42769</v>
       </c>
       <c r="C73" s="3">
-        <f t="shared" ref="C73:C83" si="2">SUM(D73:CN73)</f>
+        <f t="shared" ref="C73:C83" si="2">SUM(D73:CM73)</f>
         <v>137</v>
       </c>
       <c r="D73" s="3">
@@ -7347,9 +7478,8 @@
       <c r="U73" s="3"/>
       <c r="V73" s="3"/>
       <c r="W73" s="3"/>
-      <c r="X73" s="3"/>
-    </row>
-    <row r="74" spans="2:24">
+    </row>
+    <row r="74" spans="2:23">
       <c r="B74" s="4">
         <v>42770</v>
       </c>
@@ -7385,9 +7515,8 @@
       <c r="U74" s="3"/>
       <c r="V74" s="3"/>
       <c r="W74" s="3"/>
-      <c r="X74" s="3"/>
-    </row>
-    <row r="75" spans="2:24">
+    </row>
+    <row r="75" spans="2:23">
       <c r="B75" s="4">
         <v>42771</v>
       </c>
@@ -7423,9 +7552,8 @@
       <c r="U75" s="3"/>
       <c r="V75" s="3"/>
       <c r="W75" s="3"/>
-      <c r="X75" s="3"/>
-    </row>
-    <row r="76" spans="2:24">
+    </row>
+    <row r="76" spans="2:23">
       <c r="B76" s="4">
         <v>42772</v>
       </c>
@@ -7461,9 +7589,8 @@
       <c r="U76" s="3"/>
       <c r="V76" s="3"/>
       <c r="W76" s="3"/>
-      <c r="X76" s="3"/>
-    </row>
-    <row r="77" spans="2:24">
+    </row>
+    <row r="77" spans="2:23">
       <c r="B77" s="4">
         <v>42773</v>
       </c>
@@ -7497,9 +7624,8 @@
       <c r="U77" s="3"/>
       <c r="V77" s="3"/>
       <c r="W77" s="3"/>
-      <c r="X77" s="3"/>
-    </row>
-    <row r="78" spans="2:24">
+    </row>
+    <row r="78" spans="2:23">
       <c r="B78" s="4">
         <v>42774</v>
       </c>
@@ -7535,9 +7661,8 @@
       <c r="U78" s="3"/>
       <c r="V78" s="3"/>
       <c r="W78" s="3"/>
-      <c r="X78" s="3"/>
-    </row>
-    <row r="79" spans="2:24">
+    </row>
+    <row r="79" spans="2:23">
       <c r="B79" s="4">
         <v>42775</v>
       </c>
@@ -7571,9 +7696,8 @@
       <c r="U79" s="3"/>
       <c r="V79" s="3"/>
       <c r="W79" s="3"/>
-      <c r="X79" s="3"/>
-    </row>
-    <row r="80" spans="2:24">
+    </row>
+    <row r="80" spans="2:23">
       <c r="B80" s="4">
         <v>42776</v>
       </c>
@@ -7609,9 +7733,8 @@
       <c r="U80" s="3"/>
       <c r="V80" s="3"/>
       <c r="W80" s="3"/>
-      <c r="X80" s="3"/>
-    </row>
-    <row r="81" spans="2:24">
+    </row>
+    <row r="81" spans="2:23">
       <c r="B81" s="4">
         <v>42777</v>
       </c>
@@ -7645,9 +7768,8 @@
       <c r="U81" s="3"/>
       <c r="V81" s="3"/>
       <c r="W81" s="3"/>
-      <c r="X81" s="3"/>
-    </row>
-    <row r="82" spans="2:24">
+    </row>
+    <row r="82" spans="2:23">
       <c r="B82" s="4">
         <v>42778</v>
       </c>
@@ -7681,9 +7803,8 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-      <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="2:24">
+    </row>
+    <row r="83" spans="2:23">
       <c r="B83" s="4">
         <v>42779</v>
       </c>
@@ -7719,14 +7840,13 @@
       <c r="U83" s="3"/>
       <c r="V83" s="3"/>
       <c r="W83" s="3"/>
-      <c r="X83" s="3"/>
-    </row>
-    <row r="84" spans="2:24">
+    </row>
+    <row r="84" spans="2:23">
       <c r="B84" s="4">
         <v>42780</v>
       </c>
       <c r="C84" s="3">
-        <f>SUM(E84:CN84)</f>
+        <f>SUM(E84:CM84)</f>
         <v>34</v>
       </c>
       <c r="D84" s="3">
@@ -7755,14 +7875,13 @@
       <c r="U84" s="3"/>
       <c r="V84" s="3"/>
       <c r="W84" s="3"/>
-      <c r="X84" s="3"/>
-    </row>
-    <row r="85" spans="2:24">
+    </row>
+    <row r="85" spans="2:23">
       <c r="B85" s="4">
         <v>42781</v>
       </c>
       <c r="C85" s="3">
-        <f t="shared" ref="C85:C130" si="3">SUM(D85:CN85)</f>
+        <f t="shared" ref="C85:C129" si="3">SUM(D85:CM85)</f>
         <v>31</v>
       </c>
       <c r="D85" s="3">
@@ -7791,9 +7910,8 @@
       <c r="U85" s="3"/>
       <c r="V85" s="3"/>
       <c r="W85" s="3"/>
-      <c r="X85" s="3"/>
-    </row>
-    <row r="86" spans="2:24">
+    </row>
+    <row r="86" spans="2:23">
       <c r="B86" s="4">
         <v>42782</v>
       </c>
@@ -7831,9 +7949,8 @@
       <c r="U86" s="3"/>
       <c r="V86" s="3"/>
       <c r="W86" s="3"/>
-      <c r="X86" s="3"/>
-    </row>
-    <row r="87" spans="2:24">
+    </row>
+    <row r="87" spans="2:23">
       <c r="B87" s="4">
         <v>42783</v>
       </c>
@@ -7864,18 +7981,17 @@
       <c r="N87" s="3"/>
       <c r="O87" s="3"/>
       <c r="P87" s="3"/>
-      <c r="Q87" s="3"/>
-      <c r="R87" s="3">
+      <c r="Q87" s="3">
         <v>150</v>
       </c>
+      <c r="R87" s="3"/>
       <c r="S87" s="3"/>
       <c r="T87" s="3"/>
       <c r="U87" s="3"/>
       <c r="V87" s="3"/>
       <c r="W87" s="3"/>
-      <c r="X87" s="3"/>
-    </row>
-    <row r="88" spans="2:24">
+    </row>
+    <row r="88" spans="2:23">
       <c r="B88" s="4">
         <v>42784</v>
       </c>
@@ -7911,9 +8027,8 @@
       <c r="U88" s="3"/>
       <c r="V88" s="3"/>
       <c r="W88" s="3"/>
-      <c r="X88" s="3"/>
-    </row>
-    <row r="89" spans="2:24">
+    </row>
+    <row r="89" spans="2:23">
       <c r="B89" s="4">
         <v>42785</v>
       </c>
@@ -7951,9 +8066,8 @@
       <c r="U89" s="3"/>
       <c r="V89" s="3"/>
       <c r="W89" s="3"/>
-      <c r="X89" s="3"/>
-    </row>
-    <row r="90" spans="2:24">
+    </row>
+    <row r="90" spans="2:23">
       <c r="B90" s="4">
         <v>42786</v>
       </c>
@@ -7987,9 +8101,8 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-      <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="2:24">
+    </row>
+    <row r="91" spans="2:23">
       <c r="B91" s="4">
         <v>42787</v>
       </c>
@@ -8025,9 +8138,8 @@
       <c r="U91" s="3"/>
       <c r="V91" s="3"/>
       <c r="W91" s="3"/>
-      <c r="X91" s="3"/>
-    </row>
-    <row r="92" spans="2:24">
+    </row>
+    <row r="92" spans="2:23">
       <c r="B92" s="4">
         <v>42788</v>
       </c>
@@ -8061,9 +8173,8 @@
       <c r="U92" s="3"/>
       <c r="V92" s="3"/>
       <c r="W92" s="3"/>
-      <c r="X92" s="3"/>
-    </row>
-    <row r="93" spans="2:24">
+    </row>
+    <row r="93" spans="2:23">
       <c r="B93" s="4">
         <v>42789</v>
       </c>
@@ -8099,9 +8210,8 @@
       <c r="U93" s="3"/>
       <c r="V93" s="3"/>
       <c r="W93" s="3"/>
-      <c r="X93" s="3"/>
-    </row>
-    <row r="94" spans="2:24">
+    </row>
+    <row r="94" spans="2:23">
       <c r="B94" s="4">
         <v>42790</v>
       </c>
@@ -8135,9 +8245,8 @@
       <c r="U94" s="3"/>
       <c r="V94" s="3"/>
       <c r="W94" s="3"/>
-      <c r="X94" s="3"/>
-    </row>
-    <row r="95" spans="2:24">
+    </row>
+    <row r="95" spans="2:23">
       <c r="B95" s="4">
         <v>42791</v>
       </c>
@@ -8171,9 +8280,8 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-      <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="2:24">
+    </row>
+    <row r="96" spans="2:23">
       <c r="B96" s="4">
         <v>42792</v>
       </c>
@@ -8202,18 +8310,17 @@
       <c r="N96" s="3"/>
       <c r="O96" s="3"/>
       <c r="P96" s="3"/>
-      <c r="Q96" s="3"/>
-      <c r="R96" s="3">
+      <c r="Q96" s="3">
         <v>7613</v>
       </c>
+      <c r="R96" s="3"/>
       <c r="S96" s="3"/>
       <c r="T96" s="3"/>
       <c r="U96" s="3"/>
       <c r="V96" s="3"/>
       <c r="W96" s="3"/>
-      <c r="X96" s="3"/>
-    </row>
-    <row r="97" spans="2:24">
+    </row>
+    <row r="97" spans="2:23">
       <c r="B97" s="4">
         <v>42793</v>
       </c>
@@ -8249,9 +8356,8 @@
       <c r="U97" s="3"/>
       <c r="V97" s="3"/>
       <c r="W97" s="3"/>
-      <c r="X97" s="3"/>
-    </row>
-    <row r="98" spans="2:24">
+    </row>
+    <row r="98" spans="2:23">
       <c r="B98" s="4">
         <v>42794</v>
       </c>
@@ -8289,11 +8395,10 @@
       <c r="U98" s="3"/>
       <c r="V98" s="3"/>
       <c r="W98" s="3"/>
-      <c r="X98" s="3"/>
-    </row>
-    <row r="99" spans="2:24">
+    </row>
+    <row r="99" spans="2:23">
       <c r="B99" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C99" s="6">
         <f>SUM(C71:C98)</f>
@@ -8319,9 +8424,8 @@
       <c r="U99" s="6"/>
       <c r="V99" s="6"/>
       <c r="W99" s="6"/>
-      <c r="X99" s="6"/>
-    </row>
-    <row r="100" spans="2:24">
+    </row>
+    <row r="100" spans="2:23">
       <c r="B100" s="4">
         <v>42795</v>
       </c>
@@ -8347,10 +8451,10 @@
       <c r="K100" s="3"/>
       <c r="L100" s="3"/>
       <c r="M100" s="3"/>
-      <c r="N100" s="3"/>
-      <c r="O100" s="3">
+      <c r="N100" s="3">
         <v>2100</v>
       </c>
+      <c r="O100" s="3"/>
       <c r="P100" s="3"/>
       <c r="Q100" s="3"/>
       <c r="R100" s="3"/>
@@ -8359,22 +8463,29 @@
       <c r="U100" s="3"/>
       <c r="V100" s="3"/>
       <c r="W100" s="3"/>
-      <c r="X100" s="3"/>
-    </row>
-    <row r="101" spans="2:24">
+    </row>
+    <row r="101" spans="2:23">
       <c r="B101" s="4">
         <v>42796</v>
       </c>
       <c r="C101" s="3">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="D101" s="3"/>
-      <c r="E101" s="3"/>
-      <c r="F101" s="3"/>
+        <v>42</v>
+      </c>
+      <c r="D101" s="3">
+        <v>6</v>
+      </c>
+      <c r="E101" s="3">
+        <v>10</v>
+      </c>
+      <c r="F101" s="3">
+        <v>14</v>
+      </c>
       <c r="G101" s="3"/>
       <c r="H101" s="3"/>
-      <c r="I101" s="3"/>
+      <c r="I101" s="3">
+        <v>12</v>
+      </c>
       <c r="J101" s="3"/>
       <c r="K101" s="3"/>
       <c r="L101" s="3"/>
@@ -8389,23 +8500,32 @@
       <c r="U101" s="3"/>
       <c r="V101" s="3"/>
       <c r="W101" s="3"/>
-      <c r="X101" s="3"/>
-    </row>
-    <row r="102" spans="2:24">
+    </row>
+    <row r="102" spans="2:23">
       <c r="B102" s="4">
         <v>42797</v>
       </c>
       <c r="C102" s="3">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="D102" s="3"/>
-      <c r="E102" s="3"/>
-      <c r="F102" s="3"/>
+        <v>55</v>
+      </c>
+      <c r="D102" s="3">
+        <v>2</v>
+      </c>
+      <c r="E102" s="3">
+        <v>21</v>
+      </c>
+      <c r="F102" s="3">
+        <v>12</v>
+      </c>
       <c r="G102" s="3"/>
-      <c r="H102" s="3"/>
+      <c r="H102" s="3">
+        <v>10</v>
+      </c>
       <c r="I102" s="3"/>
-      <c r="J102" s="3"/>
+      <c r="J102" s="3">
+        <v>10</v>
+      </c>
       <c r="K102" s="3"/>
       <c r="L102" s="3"/>
       <c r="M102" s="3"/>
@@ -8419,23 +8539,28 @@
       <c r="U102" s="3"/>
       <c r="V102" s="3"/>
       <c r="W102" s="3"/>
-      <c r="X102" s="3"/>
-    </row>
-    <row r="103" spans="2:24">
+    </row>
+    <row r="103" spans="2:23">
       <c r="B103" s="4">
         <v>42798</v>
       </c>
       <c r="C103" s="3">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="D103" s="3"/>
-      <c r="E103" s="3"/>
-      <c r="F103" s="3"/>
+      <c r="E103" s="3">
+        <v>14</v>
+      </c>
+      <c r="F103" s="3">
+        <v>14</v>
+      </c>
       <c r="G103" s="3"/>
       <c r="H103" s="3"/>
       <c r="I103" s="3"/>
-      <c r="J103" s="3"/>
+      <c r="J103" s="3">
+        <v>38</v>
+      </c>
       <c r="K103" s="3"/>
       <c r="L103" s="3"/>
       <c r="M103" s="3"/>
@@ -8449,22 +8574,33 @@
       <c r="U103" s="3"/>
       <c r="V103" s="3"/>
       <c r="W103" s="3"/>
-      <c r="X103" s="3"/>
-    </row>
-    <row r="104" spans="2:24">
+    </row>
+    <row r="104" spans="2:23">
       <c r="B104" s="4">
         <v>42799</v>
       </c>
       <c r="C104" s="3">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="D104" s="3"/>
-      <c r="E104" s="3"/>
-      <c r="F104" s="3"/>
-      <c r="G104" s="3"/>
-      <c r="H104" s="3"/>
-      <c r="I104" s="3"/>
+        <v>324</v>
+      </c>
+      <c r="D104" s="3">
+        <v>4</v>
+      </c>
+      <c r="E104" s="3">
+        <v>15</v>
+      </c>
+      <c r="F104" s="3">
+        <v>20</v>
+      </c>
+      <c r="G104" s="3">
+        <v>19</v>
+      </c>
+      <c r="H104" s="3">
+        <v>166</v>
+      </c>
+      <c r="I104" s="3">
+        <v>100</v>
+      </c>
       <c r="J104" s="3"/>
       <c r="K104" s="3"/>
       <c r="L104" s="3"/>
@@ -8479,19 +8615,24 @@
       <c r="U104" s="3"/>
       <c r="V104" s="3"/>
       <c r="W104" s="3"/>
-      <c r="X104" s="3"/>
-    </row>
-    <row r="105" spans="2:24">
+    </row>
+    <row r="105" spans="2:23">
       <c r="B105" s="4">
         <v>42800</v>
       </c>
       <c r="C105" s="3">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="D105" s="3"/>
-      <c r="E105" s="3"/>
-      <c r="F105" s="3"/>
+        <v>28</v>
+      </c>
+      <c r="D105" s="3">
+        <v>4</v>
+      </c>
+      <c r="E105" s="3">
+        <v>14</v>
+      </c>
+      <c r="F105" s="3">
+        <v>10</v>
+      </c>
       <c r="G105" s="3"/>
       <c r="H105" s="3"/>
       <c r="I105" s="3"/>
@@ -8509,19 +8650,24 @@
       <c r="U105" s="3"/>
       <c r="V105" s="3"/>
       <c r="W105" s="3"/>
-      <c r="X105" s="3"/>
-    </row>
-    <row r="106" spans="2:24">
+    </row>
+    <row r="106" spans="2:23">
       <c r="B106" s="4">
         <v>42801</v>
       </c>
       <c r="C106" s="3">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="D106" s="3"/>
-      <c r="E106" s="3"/>
-      <c r="F106" s="3"/>
+        <v>160</v>
+      </c>
+      <c r="D106" s="3">
+        <v>5</v>
+      </c>
+      <c r="E106" s="3">
+        <v>15</v>
+      </c>
+      <c r="F106" s="3">
+        <v>140</v>
+      </c>
       <c r="G106" s="3"/>
       <c r="H106" s="3"/>
       <c r="I106" s="3"/>
@@ -8539,23 +8685,30 @@
       <c r="U106" s="3"/>
       <c r="V106" s="3"/>
       <c r="W106" s="3"/>
-      <c r="X106" s="3"/>
-    </row>
-    <row r="107" spans="2:24">
+    </row>
+    <row r="107" spans="2:23">
       <c r="B107" s="4">
         <v>42802</v>
       </c>
       <c r="C107" s="3">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="D107" s="3"/>
-      <c r="E107" s="3"/>
-      <c r="F107" s="3"/>
+        <v>31</v>
+      </c>
+      <c r="D107" s="3">
+        <v>2</v>
+      </c>
+      <c r="E107" s="3">
+        <v>15</v>
+      </c>
+      <c r="F107" s="3">
+        <v>10</v>
+      </c>
       <c r="G107" s="3"/>
       <c r="H107" s="3"/>
       <c r="I107" s="3"/>
-      <c r="J107" s="3"/>
+      <c r="J107" s="3">
+        <v>4</v>
+      </c>
       <c r="K107" s="3"/>
       <c r="L107" s="3"/>
       <c r="M107" s="3"/>
@@ -8569,9 +8722,8 @@
       <c r="U107" s="3"/>
       <c r="V107" s="3"/>
       <c r="W107" s="3"/>
-      <c r="X107" s="3"/>
-    </row>
-    <row r="108" spans="2:24">
+    </row>
+    <row r="108" spans="2:23">
       <c r="B108" s="4">
         <v>42803</v>
       </c>
@@ -8599,9 +8751,8 @@
       <c r="U108" s="3"/>
       <c r="V108" s="3"/>
       <c r="W108" s="3"/>
-      <c r="X108" s="3"/>
-    </row>
-    <row r="109" spans="2:24">
+    </row>
+    <row r="109" spans="2:23">
       <c r="B109" s="4">
         <v>42804</v>
       </c>
@@ -8629,9 +8780,8 @@
       <c r="U109" s="3"/>
       <c r="V109" s="3"/>
       <c r="W109" s="3"/>
-      <c r="X109" s="3"/>
-    </row>
-    <row r="110" spans="2:24">
+    </row>
+    <row r="110" spans="2:23">
       <c r="B110" s="4">
         <v>42805</v>
       </c>
@@ -8659,9 +8809,8 @@
       <c r="U110" s="3"/>
       <c r="V110" s="3"/>
       <c r="W110" s="3"/>
-      <c r="X110" s="3"/>
-    </row>
-    <row r="111" spans="2:24">
+    </row>
+    <row r="111" spans="2:23">
       <c r="B111" s="4">
         <v>42806</v>
       </c>
@@ -8689,9 +8838,8 @@
       <c r="U111" s="3"/>
       <c r="V111" s="3"/>
       <c r="W111" s="3"/>
-      <c r="X111" s="3"/>
-    </row>
-    <row r="112" spans="2:24">
+    </row>
+    <row r="112" spans="2:23">
       <c r="B112" s="4">
         <v>42807</v>
       </c>
@@ -8719,9 +8867,8 @@
       <c r="U112" s="3"/>
       <c r="V112" s="3"/>
       <c r="W112" s="3"/>
-      <c r="X112" s="3"/>
-    </row>
-    <row r="113" spans="2:24">
+    </row>
+    <row r="113" spans="2:23">
       <c r="B113" s="4">
         <v>42808</v>
       </c>
@@ -8749,9 +8896,8 @@
       <c r="U113" s="3"/>
       <c r="V113" s="3"/>
       <c r="W113" s="3"/>
-      <c r="X113" s="3"/>
-    </row>
-    <row r="114" spans="2:24">
+    </row>
+    <row r="114" spans="2:23">
       <c r="B114" s="4">
         <v>42809</v>
       </c>
@@ -8779,9 +8925,8 @@
       <c r="U114" s="3"/>
       <c r="V114" s="3"/>
       <c r="W114" s="3"/>
-      <c r="X114" s="3"/>
-    </row>
-    <row r="115" spans="2:24">
+    </row>
+    <row r="115" spans="2:23">
       <c r="B115" s="4">
         <v>42810</v>
       </c>
@@ -8809,9 +8954,8 @@
       <c r="U115" s="3"/>
       <c r="V115" s="3"/>
       <c r="W115" s="3"/>
-      <c r="X115" s="3"/>
-    </row>
-    <row r="116" spans="2:24">
+    </row>
+    <row r="116" spans="2:23">
       <c r="B116" s="4">
         <v>42811</v>
       </c>
@@ -8839,9 +8983,8 @@
       <c r="U116" s="3"/>
       <c r="V116" s="3"/>
       <c r="W116" s="3"/>
-      <c r="X116" s="3"/>
-    </row>
-    <row r="117" spans="2:24">
+    </row>
+    <row r="117" spans="2:23">
       <c r="B117" s="4">
         <v>42812</v>
       </c>
@@ -8869,9 +9012,8 @@
       <c r="U117" s="3"/>
       <c r="V117" s="3"/>
       <c r="W117" s="3"/>
-      <c r="X117" s="3"/>
-    </row>
-    <row r="118" spans="2:24">
+    </row>
+    <row r="118" spans="2:23">
       <c r="B118" s="4">
         <v>42813</v>
       </c>
@@ -8899,9 +9041,8 @@
       <c r="U118" s="3"/>
       <c r="V118" s="3"/>
       <c r="W118" s="3"/>
-      <c r="X118" s="3"/>
-    </row>
-    <row r="119" spans="2:24">
+    </row>
+    <row r="119" spans="2:23">
       <c r="B119" s="4">
         <v>42814</v>
       </c>
@@ -8929,9 +9070,8 @@
       <c r="U119" s="3"/>
       <c r="V119" s="3"/>
       <c r="W119" s="3"/>
-      <c r="X119" s="3"/>
-    </row>
-    <row r="120" spans="2:24">
+    </row>
+    <row r="120" spans="2:23">
       <c r="B120" s="4">
         <v>42815</v>
       </c>
@@ -8959,9 +9099,8 @@
       <c r="U120" s="3"/>
       <c r="V120" s="3"/>
       <c r="W120" s="3"/>
-      <c r="X120" s="3"/>
-    </row>
-    <row r="121" spans="2:24">
+    </row>
+    <row r="121" spans="2:23">
       <c r="B121" s="4">
         <v>42816</v>
       </c>
@@ -8989,9 +9128,8 @@
       <c r="U121" s="3"/>
       <c r="V121" s="3"/>
       <c r="W121" s="3"/>
-      <c r="X121" s="3"/>
-    </row>
-    <row r="122" spans="2:24">
+    </row>
+    <row r="122" spans="2:23">
       <c r="B122" s="4">
         <v>42817</v>
       </c>
@@ -9019,9 +9157,8 @@
       <c r="U122" s="3"/>
       <c r="V122" s="3"/>
       <c r="W122" s="3"/>
-      <c r="X122" s="3"/>
-    </row>
-    <row r="123" spans="2:24">
+    </row>
+    <row r="123" spans="2:23">
       <c r="B123" s="4">
         <v>42818</v>
       </c>
@@ -9049,9 +9186,8 @@
       <c r="U123" s="3"/>
       <c r="V123" s="3"/>
       <c r="W123" s="3"/>
-      <c r="X123" s="3"/>
-    </row>
-    <row r="124" spans="2:24">
+    </row>
+    <row r="124" spans="2:23">
       <c r="B124" s="4">
         <v>42819</v>
       </c>
@@ -9079,9 +9215,8 @@
       <c r="U124" s="3"/>
       <c r="V124" s="3"/>
       <c r="W124" s="3"/>
-      <c r="X124" s="3"/>
-    </row>
-    <row r="125" spans="2:24">
+    </row>
+    <row r="125" spans="2:23">
       <c r="B125" s="4">
         <v>42820</v>
       </c>
@@ -9109,9 +9244,8 @@
       <c r="U125" s="3"/>
       <c r="V125" s="3"/>
       <c r="W125" s="3"/>
-      <c r="X125" s="3"/>
-    </row>
-    <row r="126" spans="2:24">
+    </row>
+    <row r="126" spans="2:23">
       <c r="B126" s="4">
         <v>42821</v>
       </c>
@@ -9139,9 +9273,8 @@
       <c r="U126" s="3"/>
       <c r="V126" s="3"/>
       <c r="W126" s="3"/>
-      <c r="X126" s="3"/>
-    </row>
-    <row r="127" spans="2:24">
+    </row>
+    <row r="127" spans="2:23">
       <c r="B127" s="4">
         <v>42822</v>
       </c>
@@ -9169,9 +9302,8 @@
       <c r="U127" s="3"/>
       <c r="V127" s="3"/>
       <c r="W127" s="3"/>
-      <c r="X127" s="3"/>
-    </row>
-    <row r="128" spans="2:24">
+    </row>
+    <row r="128" spans="2:23">
       <c r="B128" s="4">
         <v>42823</v>
       </c>
@@ -9199,9 +9331,8 @@
       <c r="U128" s="3"/>
       <c r="V128" s="3"/>
       <c r="W128" s="3"/>
-      <c r="X128" s="3"/>
-    </row>
-    <row r="129" spans="2:24">
+    </row>
+    <row r="129" spans="2:23">
       <c r="B129" s="4">
         <v>42824</v>
       </c>
@@ -9229,14 +9360,13 @@
       <c r="U129" s="3"/>
       <c r="V129" s="3"/>
       <c r="W129" s="3"/>
-      <c r="X129" s="3"/>
-    </row>
-    <row r="130" spans="2:24">
+    </row>
+    <row r="130" spans="2:23">
       <c r="B130" s="4">
         <v>42825</v>
       </c>
       <c r="C130" s="3">
-        <f>SUM(D130:CN130)</f>
+        <f>SUM(D130:CM130)</f>
         <v>0</v>
       </c>
       <c r="D130" s="3"/>
@@ -9259,15 +9389,14 @@
       <c r="U130" s="3"/>
       <c r="V130" s="3"/>
       <c r="W130" s="3"/>
-      <c r="X130" s="3"/>
-    </row>
-    <row r="131" spans="2:24">
+    </row>
+    <row r="131" spans="2:23">
       <c r="B131" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C131" s="6">
         <f>SUM(C100:C127)</f>
-        <v>2160</v>
+        <v>2866</v>
       </c>
       <c r="D131" s="6"/>
       <c r="E131" s="6"/>
@@ -9289,17 +9418,16 @@
       <c r="U131" s="6"/>
       <c r="V131" s="6"/>
       <c r="W131" s="6"/>
-      <c r="X131" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="B2:B3"/>
-    <mergeCell ref="D2:X2"/>
+    <mergeCell ref="D2:W2"/>
     <mergeCell ref="C2:C3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="D4:X5 D7:X37 D39:X69 D100:X130 D71:X98">
-    <cfRule type="containsBlanks" dxfId="3" priority="13">
+  <conditionalFormatting sqref="D4:W5 D7:W37 D39:W69 D100:W130 D71:W98">
+    <cfRule type="containsBlanks" dxfId="0" priority="13">
       <formula>LEN(TRIM(D4))=0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/DailyExpense.xlsx
+++ b/DailyExpense.xlsx
@@ -4340,6 +4340,275 @@
           </rPr>
           <t xml:space="preserve">
 上网</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J108" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+上网</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J109" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+上网</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H110" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+打车</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J110" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+电影</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">30
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>按摩</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">45
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>上网</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>15</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H111" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+打车</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I111" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+士力架</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">10
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>柚子茶</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>32</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J111" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+电影</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>32</t>
         </r>
       </text>
     </comment>
@@ -4914,8 +5183,8 @@
   <dimension ref="B2:W131"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A103" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K117" sqref="K117"/>
+      <pane ySplit="3" topLeftCell="A94" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C107" sqref="C107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -8729,15 +8998,23 @@
       </c>
       <c r="C108" s="3">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="D108" s="3"/>
-      <c r="E108" s="3"/>
-      <c r="F108" s="3"/>
+        <v>39</v>
+      </c>
+      <c r="D108" s="3">
+        <v>5</v>
+      </c>
+      <c r="E108" s="3">
+        <v>13</v>
+      </c>
+      <c r="F108" s="3">
+        <v>15</v>
+      </c>
       <c r="G108" s="3"/>
       <c r="H108" s="3"/>
       <c r="I108" s="3"/>
-      <c r="J108" s="3"/>
+      <c r="J108" s="3">
+        <v>6</v>
+      </c>
       <c r="K108" s="3"/>
       <c r="L108" s="3"/>
       <c r="M108" s="3"/>
@@ -8758,15 +9035,23 @@
       </c>
       <c r="C109" s="3">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="D109" s="3"/>
-      <c r="E109" s="3"/>
-      <c r="F109" s="3"/>
+        <v>40</v>
+      </c>
+      <c r="D109" s="3">
+        <v>4</v>
+      </c>
+      <c r="E109" s="3">
+        <v>10</v>
+      </c>
+      <c r="F109" s="3">
+        <v>15</v>
+      </c>
       <c r="G109" s="3"/>
       <c r="H109" s="3"/>
       <c r="I109" s="3"/>
-      <c r="J109" s="3"/>
+      <c r="J109" s="3">
+        <v>11</v>
+      </c>
       <c r="K109" s="3"/>
       <c r="L109" s="3"/>
       <c r="M109" s="3"/>
@@ -8787,15 +9072,23 @@
       </c>
       <c r="C110" s="3">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>114</v>
       </c>
       <c r="D110" s="3"/>
-      <c r="E110" s="3"/>
-      <c r="F110" s="3"/>
+      <c r="E110" s="3">
+        <v>15</v>
+      </c>
+      <c r="F110" s="3">
+        <v>15</v>
+      </c>
       <c r="G110" s="3"/>
-      <c r="H110" s="3"/>
+      <c r="H110" s="3">
+        <v>9</v>
+      </c>
       <c r="I110" s="3"/>
-      <c r="J110" s="3"/>
+      <c r="J110" s="3">
+        <v>75</v>
+      </c>
       <c r="K110" s="3"/>
       <c r="L110" s="3"/>
       <c r="M110" s="3"/>
@@ -8816,15 +9109,25 @@
       </c>
       <c r="C111" s="3">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>148</v>
       </c>
       <c r="D111" s="3"/>
-      <c r="E111" s="3"/>
-      <c r="F111" s="3"/>
+      <c r="E111" s="3">
+        <v>12</v>
+      </c>
+      <c r="F111" s="3">
+        <v>2</v>
+      </c>
       <c r="G111" s="3"/>
-      <c r="H111" s="3"/>
-      <c r="I111" s="3"/>
-      <c r="J111" s="3"/>
+      <c r="H111" s="3">
+        <v>60</v>
+      </c>
+      <c r="I111" s="3">
+        <v>42</v>
+      </c>
+      <c r="J111" s="3">
+        <v>32</v>
+      </c>
       <c r="K111" s="3"/>
       <c r="L111" s="3"/>
       <c r="M111" s="3"/>
@@ -9396,7 +9699,7 @@
       </c>
       <c r="C131" s="6">
         <f>SUM(C100:C127)</f>
-        <v>2866</v>
+        <v>3207</v>
       </c>
       <c r="D131" s="6"/>
       <c r="E131" s="6"/>

--- a/DailyExpense.xlsx
+++ b/DailyExpense.xlsx
@@ -4609,6 +4609,559 @@
             <family val="2"/>
           </rPr>
           <t>32</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I112" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+牛奶</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">10
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>其他</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>8</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H115" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+菊花茶</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J115" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+上网</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>8</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Q115" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+厨卫吊顶尾款</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>1121</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I116" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+汽水</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J116" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+电影</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">20
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>上网</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">15
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>按摩</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>40</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J117" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+电影</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">37
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>上网</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>16</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I118" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+酸奶</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">13
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>好利来芝士</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">30
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>柠檬茶</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>5</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J118" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+上网</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>17</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Q118" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+装修师傅烟</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">23
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>装修款</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>5000</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I119" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+酸奶</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M119" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+房租</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>1650
+3</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>个月水电</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>150</t>
         </r>
       </text>
     </comment>
@@ -5183,8 +5736,8 @@
   <dimension ref="B2:W131"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A94" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C107" sqref="C107"/>
+      <pane ySplit="3" topLeftCell="A97" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N112" sqref="N112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -9148,14 +9701,22 @@
       </c>
       <c r="C112" s="3">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="D112" s="3"/>
-      <c r="E112" s="3"/>
-      <c r="F112" s="3"/>
+        <v>48</v>
+      </c>
+      <c r="D112" s="3">
+        <v>5</v>
+      </c>
+      <c r="E112" s="3">
+        <v>15</v>
+      </c>
+      <c r="F112" s="3">
+        <v>10</v>
+      </c>
       <c r="G112" s="3"/>
       <c r="H112" s="3"/>
-      <c r="I112" s="3"/>
+      <c r="I112" s="3">
+        <v>18</v>
+      </c>
       <c r="J112" s="3"/>
       <c r="K112" s="3"/>
       <c r="L112" s="3"/>
@@ -9177,11 +9738,17 @@
       </c>
       <c r="C113" s="3">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="D113" s="3"/>
-      <c r="E113" s="3"/>
-      <c r="F113" s="3"/>
+        <v>44</v>
+      </c>
+      <c r="D113" s="3">
+        <v>5</v>
+      </c>
+      <c r="E113" s="3">
+        <v>15</v>
+      </c>
+      <c r="F113" s="3">
+        <v>24</v>
+      </c>
       <c r="G113" s="3"/>
       <c r="H113" s="3"/>
       <c r="I113" s="3"/>
@@ -9206,11 +9773,17 @@
       </c>
       <c r="C114" s="3">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="D114" s="3"/>
-      <c r="E114" s="3"/>
-      <c r="F114" s="3"/>
+        <v>29</v>
+      </c>
+      <c r="D114" s="3">
+        <v>7</v>
+      </c>
+      <c r="E114" s="3">
+        <v>10</v>
+      </c>
+      <c r="F114" s="3">
+        <v>12</v>
+      </c>
       <c r="G114" s="3"/>
       <c r="H114" s="3"/>
       <c r="I114" s="3"/>
@@ -9235,22 +9808,34 @@
       </c>
       <c r="C115" s="3">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="D115" s="3"/>
-      <c r="E115" s="3"/>
-      <c r="F115" s="3"/>
+        <v>1171</v>
+      </c>
+      <c r="D115" s="3">
+        <v>8</v>
+      </c>
+      <c r="E115" s="3">
+        <v>15</v>
+      </c>
+      <c r="F115" s="3">
+        <v>14</v>
+      </c>
       <c r="G115" s="3"/>
-      <c r="H115" s="3"/>
+      <c r="H115" s="3">
+        <v>5</v>
+      </c>
       <c r="I115" s="3"/>
-      <c r="J115" s="3"/>
+      <c r="J115" s="3">
+        <v>8</v>
+      </c>
       <c r="K115" s="3"/>
       <c r="L115" s="3"/>
       <c r="M115" s="3"/>
       <c r="N115" s="3"/>
       <c r="O115" s="3"/>
       <c r="P115" s="3"/>
-      <c r="Q115" s="3"/>
+      <c r="Q115" s="3">
+        <v>1121</v>
+      </c>
       <c r="R115" s="3"/>
       <c r="S115" s="3"/>
       <c r="T115" s="3"/>
@@ -9264,15 +9849,23 @@
       </c>
       <c r="C116" s="3">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>126</v>
       </c>
       <c r="D116" s="3"/>
-      <c r="E116" s="3"/>
-      <c r="F116" s="3"/>
+      <c r="E116" s="3">
+        <v>12</v>
+      </c>
+      <c r="F116" s="3">
+        <v>28</v>
+      </c>
       <c r="G116" s="3"/>
       <c r="H116" s="3"/>
-      <c r="I116" s="3"/>
-      <c r="J116" s="3"/>
+      <c r="I116" s="3">
+        <v>11</v>
+      </c>
+      <c r="J116" s="3">
+        <v>75</v>
+      </c>
       <c r="K116" s="3"/>
       <c r="L116" s="3"/>
       <c r="M116" s="3"/>
@@ -9293,15 +9886,21 @@
       </c>
       <c r="C117" s="3">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="D117" s="3"/>
-      <c r="E117" s="3"/>
-      <c r="F117" s="3"/>
+      <c r="E117" s="3">
+        <v>12</v>
+      </c>
+      <c r="F117" s="3">
+        <v>13</v>
+      </c>
       <c r="G117" s="3"/>
       <c r="H117" s="3"/>
       <c r="I117" s="3"/>
-      <c r="J117" s="3"/>
+      <c r="J117" s="3">
+        <v>53</v>
+      </c>
       <c r="K117" s="3"/>
       <c r="L117" s="3"/>
       <c r="M117" s="3"/>
@@ -9322,22 +9921,34 @@
       </c>
       <c r="C118" s="3">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="D118" s="3"/>
-      <c r="E118" s="3"/>
-      <c r="F118" s="3"/>
+        <v>5134</v>
+      </c>
+      <c r="D118" s="3">
+        <v>5</v>
+      </c>
+      <c r="E118" s="3">
+        <v>25</v>
+      </c>
+      <c r="F118" s="3">
+        <v>16</v>
+      </c>
       <c r="G118" s="3"/>
       <c r="H118" s="3"/>
-      <c r="I118" s="3"/>
-      <c r="J118" s="3"/>
+      <c r="I118" s="3">
+        <v>48</v>
+      </c>
+      <c r="J118" s="3">
+        <v>17</v>
+      </c>
       <c r="K118" s="3"/>
       <c r="L118" s="3"/>
       <c r="M118" s="3"/>
       <c r="N118" s="3"/>
       <c r="O118" s="3"/>
       <c r="P118" s="3"/>
-      <c r="Q118" s="3"/>
+      <c r="Q118" s="3">
+        <v>5023</v>
+      </c>
       <c r="R118" s="3"/>
       <c r="S118" s="3"/>
       <c r="T118" s="3"/>
@@ -9351,18 +9962,28 @@
       </c>
       <c r="C119" s="3">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="D119" s="3"/>
-      <c r="E119" s="3"/>
-      <c r="F119" s="3"/>
+        <v>1839</v>
+      </c>
+      <c r="D119" s="3">
+        <v>7</v>
+      </c>
+      <c r="E119" s="3">
+        <v>13</v>
+      </c>
+      <c r="F119" s="3">
+        <v>12</v>
+      </c>
       <c r="G119" s="3"/>
       <c r="H119" s="3"/>
-      <c r="I119" s="3"/>
+      <c r="I119" s="3">
+        <v>7</v>
+      </c>
       <c r="J119" s="3"/>
       <c r="K119" s="3"/>
       <c r="L119" s="3"/>
-      <c r="M119" s="3"/>
+      <c r="M119" s="3">
+        <v>1800</v>
+      </c>
       <c r="N119" s="3"/>
       <c r="O119" s="3"/>
       <c r="P119" s="3"/>
@@ -9699,7 +10320,7 @@
       </c>
       <c r="C131" s="6">
         <f>SUM(C100:C127)</f>
-        <v>3207</v>
+        <v>11676</v>
       </c>
       <c r="D131" s="6"/>
       <c r="E131" s="6"/>

--- a/DailyExpense.xlsx
+++ b/DailyExpense.xlsx
@@ -5162,6 +5162,334 @@
             <family val="2"/>
           </rPr>
           <t>150</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H120" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+理发</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J122" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+按摩</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J123" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+电影</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H124" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+打车</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K124" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+参苓健脾胃颗粒</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E125" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+和小二</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I125" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+柠檬茶</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J125" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+上网</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L125" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+优衣库</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>裤子</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G126" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+洗面奶</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">60
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>洗发水</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>50</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+香皂</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>20</t>
         </r>
       </text>
     </comment>
@@ -5737,7 +6065,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A97" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N112" sqref="N112"/>
+      <selection pane="bottomLeft" activeCell="M115" sqref="M115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -10001,13 +10329,21 @@
       </c>
       <c r="C120" s="3">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="D120" s="3"/>
-      <c r="E120" s="3"/>
-      <c r="F120" s="3"/>
+        <v>60</v>
+      </c>
+      <c r="D120" s="3">
+        <v>5</v>
+      </c>
+      <c r="E120" s="3">
+        <v>10</v>
+      </c>
+      <c r="F120" s="3">
+        <v>10</v>
+      </c>
       <c r="G120" s="3"/>
-      <c r="H120" s="3"/>
+      <c r="H120" s="3">
+        <v>35</v>
+      </c>
       <c r="I120" s="3"/>
       <c r="J120" s="3"/>
       <c r="K120" s="3"/>
@@ -10030,11 +10366,17 @@
       </c>
       <c r="C121" s="3">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="D121" s="3"/>
-      <c r="E121" s="3"/>
-      <c r="F121" s="3"/>
+        <v>58</v>
+      </c>
+      <c r="D121" s="3">
+        <v>15</v>
+      </c>
+      <c r="E121" s="3">
+        <v>13</v>
+      </c>
+      <c r="F121" s="3">
+        <v>30</v>
+      </c>
       <c r="G121" s="3"/>
       <c r="H121" s="3"/>
       <c r="I121" s="3"/>
@@ -10059,15 +10401,23 @@
       </c>
       <c r="C122" s="3">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="D122" s="3"/>
-      <c r="E122" s="3"/>
-      <c r="F122" s="3"/>
+        <v>106</v>
+      </c>
+      <c r="D122" s="3">
+        <v>15</v>
+      </c>
+      <c r="E122" s="3">
+        <v>30</v>
+      </c>
+      <c r="F122" s="3">
+        <v>16</v>
+      </c>
       <c r="G122" s="3"/>
       <c r="H122" s="3"/>
       <c r="I122" s="3"/>
-      <c r="J122" s="3"/>
+      <c r="J122" s="3">
+        <v>45</v>
+      </c>
       <c r="K122" s="3"/>
       <c r="L122" s="3"/>
       <c r="M122" s="3"/>
@@ -10088,15 +10438,23 @@
       </c>
       <c r="C123" s="3">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="D123" s="3"/>
-      <c r="E123" s="3"/>
-      <c r="F123" s="3"/>
+        <v>130</v>
+      </c>
+      <c r="D123" s="3">
+        <v>15</v>
+      </c>
+      <c r="E123" s="3">
+        <v>10</v>
+      </c>
+      <c r="F123" s="3">
+        <v>38</v>
+      </c>
       <c r="G123" s="3"/>
       <c r="H123" s="3"/>
       <c r="I123" s="3"/>
-      <c r="J123" s="3"/>
+      <c r="J123" s="3">
+        <v>67</v>
+      </c>
       <c r="K123" s="3"/>
       <c r="L123" s="3"/>
       <c r="M123" s="3"/>
@@ -10117,16 +10475,20 @@
       </c>
       <c r="C124" s="3">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="D124" s="3"/>
       <c r="E124" s="3"/>
       <c r="F124" s="3"/>
       <c r="G124" s="3"/>
-      <c r="H124" s="3"/>
+      <c r="H124" s="3">
+        <v>22</v>
+      </c>
       <c r="I124" s="3"/>
       <c r="J124" s="3"/>
-      <c r="K124" s="3"/>
+      <c r="K124" s="3">
+        <v>35</v>
+      </c>
       <c r="L124" s="3"/>
       <c r="M124" s="3"/>
       <c r="N124" s="3"/>
@@ -10146,17 +10508,27 @@
       </c>
       <c r="C125" s="3">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>344</v>
       </c>
       <c r="D125" s="3"/>
-      <c r="E125" s="3"/>
-      <c r="F125" s="3"/>
+      <c r="E125" s="3">
+        <v>72</v>
+      </c>
+      <c r="F125" s="3">
+        <v>12</v>
+      </c>
       <c r="G125" s="3"/>
       <c r="H125" s="3"/>
-      <c r="I125" s="3"/>
-      <c r="J125" s="3"/>
+      <c r="I125" s="3">
+        <v>5</v>
+      </c>
+      <c r="J125" s="3">
+        <v>10</v>
+      </c>
       <c r="K125" s="3"/>
-      <c r="L125" s="3"/>
+      <c r="L125" s="3">
+        <v>245</v>
+      </c>
       <c r="M125" s="3"/>
       <c r="N125" s="3"/>
       <c r="O125" s="3"/>
@@ -10175,12 +10547,20 @@
       </c>
       <c r="C126" s="3">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="D126" s="3"/>
-      <c r="E126" s="3"/>
-      <c r="F126" s="3"/>
-      <c r="G126" s="3"/>
+        <v>168</v>
+      </c>
+      <c r="D126" s="3">
+        <v>3</v>
+      </c>
+      <c r="E126" s="3">
+        <v>12</v>
+      </c>
+      <c r="F126" s="3">
+        <v>25</v>
+      </c>
+      <c r="G126" s="3">
+        <v>128</v>
+      </c>
       <c r="H126" s="3"/>
       <c r="I126" s="3"/>
       <c r="J126" s="3"/>
@@ -10204,11 +10584,17 @@
       </c>
       <c r="C127" s="3">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="D127" s="3"/>
-      <c r="E127" s="3"/>
-      <c r="F127" s="3"/>
+        <v>35</v>
+      </c>
+      <c r="D127" s="3">
+        <v>9</v>
+      </c>
+      <c r="E127" s="3">
+        <v>13</v>
+      </c>
+      <c r="F127" s="3">
+        <v>13</v>
+      </c>
       <c r="G127" s="3"/>
       <c r="H127" s="3"/>
       <c r="I127" s="3"/>
@@ -10320,7 +10706,7 @@
       </c>
       <c r="C131" s="6">
         <f>SUM(C100:C127)</f>
-        <v>11676</v>
+        <v>12634</v>
       </c>
       <c r="D131" s="6"/>
       <c r="E131" s="6"/>

--- a/DailyExpense.xlsx
+++ b/DailyExpense.xlsx
@@ -5493,12 +5493,471 @@
         </r>
       </text>
     </comment>
+    <comment ref="I128" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+枣夹核桃两包</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> 70
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>德芙巧克力</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> 30
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>士力架</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">29
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>柠檬茶</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> 5</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Q129" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+橱柜、洁具尾款</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I130" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+柠檬茶</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J130" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+上网</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H132" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+柠檬茶</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J132" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+上网</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I133" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+锅盔</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J133" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+打网球</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">60
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>看电影</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">70
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>上网</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>4</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J134" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+上网</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">30
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>菊花茶</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>7</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H135" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+手机充值</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I135" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+柠檬茶</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J135" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+上网</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="19">
   <si>
     <t>日期</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -5763,7 +6222,14 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -6061,11 +6527,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:W131"/>
+  <dimension ref="B2:W162"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A97" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M115" sqref="M115"/>
+      <pane ySplit="3" topLeftCell="A127" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I144" sqref="I144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -9580,7 +10046,7 @@
         <v>42795</v>
       </c>
       <c r="C100" s="3">
-        <f t="shared" si="3"/>
+        <f>SUM(D100:CM100)</f>
         <v>2160</v>
       </c>
       <c r="D100" s="3">
@@ -10619,14 +11085,22 @@
       </c>
       <c r="C128" s="3">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="D128" s="3"/>
-      <c r="E128" s="3"/>
-      <c r="F128" s="3"/>
+        <v>182</v>
+      </c>
+      <c r="D128" s="3">
+        <v>5</v>
+      </c>
+      <c r="E128" s="3">
+        <v>25</v>
+      </c>
+      <c r="F128" s="3">
+        <v>18</v>
+      </c>
       <c r="G128" s="3"/>
       <c r="H128" s="3"/>
-      <c r="I128" s="3"/>
+      <c r="I128" s="3">
+        <v>134</v>
+      </c>
       <c r="J128" s="3"/>
       <c r="K128" s="3"/>
       <c r="L128" s="3"/>
@@ -10648,11 +11122,17 @@
       </c>
       <c r="C129" s="3">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="D129" s="3"/>
-      <c r="E129" s="3"/>
-      <c r="F129" s="3"/>
+        <v>8072</v>
+      </c>
+      <c r="D129" s="3">
+        <v>15</v>
+      </c>
+      <c r="E129" s="3">
+        <v>15</v>
+      </c>
+      <c r="F129" s="3">
+        <v>15</v>
+      </c>
       <c r="G129" s="3"/>
       <c r="H129" s="3"/>
       <c r="I129" s="3"/>
@@ -10663,7 +11143,9 @@
       <c r="N129" s="3"/>
       <c r="O129" s="3"/>
       <c r="P129" s="3"/>
-      <c r="Q129" s="3"/>
+      <c r="Q129" s="3">
+        <v>8027</v>
+      </c>
       <c r="R129" s="3"/>
       <c r="S129" s="3"/>
       <c r="T129" s="3"/>
@@ -10677,15 +11159,25 @@
       </c>
       <c r="C130" s="3">
         <f>SUM(D130:CM130)</f>
-        <v>0</v>
-      </c>
-      <c r="D130" s="3"/>
-      <c r="E130" s="3"/>
-      <c r="F130" s="3"/>
+        <v>57</v>
+      </c>
+      <c r="D130" s="3">
+        <v>8</v>
+      </c>
+      <c r="E130" s="3">
+        <v>25</v>
+      </c>
+      <c r="F130" s="3">
+        <v>12</v>
+      </c>
       <c r="G130" s="3"/>
       <c r="H130" s="3"/>
-      <c r="I130" s="3"/>
-      <c r="J130" s="3"/>
+      <c r="I130" s="3">
+        <v>5</v>
+      </c>
+      <c r="J130" s="3">
+        <v>7</v>
+      </c>
       <c r="K130" s="3"/>
       <c r="L130" s="3"/>
       <c r="M130" s="3"/>
@@ -10705,8 +11197,8 @@
         <v>5</v>
       </c>
       <c r="C131" s="6">
-        <f>SUM(C100:C127)</f>
-        <v>12634</v>
+        <f>SUM(C100:C130)</f>
+        <v>20945</v>
       </c>
       <c r="D131" s="6"/>
       <c r="E131" s="6"/>
@@ -10729,6 +11221,929 @@
       <c r="V131" s="6"/>
       <c r="W131" s="6"/>
     </row>
+    <row r="132" spans="2:23">
+      <c r="B132" s="4">
+        <v>42826</v>
+      </c>
+      <c r="C132" s="3">
+        <f>SUM(D132:CM132)</f>
+        <v>2154</v>
+      </c>
+      <c r="D132" s="3">
+        <v>7</v>
+      </c>
+      <c r="E132" s="3">
+        <v>19</v>
+      </c>
+      <c r="F132" s="3">
+        <v>15</v>
+      </c>
+      <c r="G132" s="3"/>
+      <c r="H132" s="3">
+        <v>5</v>
+      </c>
+      <c r="I132" s="3"/>
+      <c r="J132" s="3">
+        <v>8</v>
+      </c>
+      <c r="K132" s="3"/>
+      <c r="L132" s="3"/>
+      <c r="M132" s="3"/>
+      <c r="N132" s="3">
+        <v>2100</v>
+      </c>
+      <c r="O132" s="3"/>
+      <c r="P132" s="3"/>
+      <c r="Q132" s="3"/>
+      <c r="R132" s="3"/>
+      <c r="S132" s="3"/>
+      <c r="T132" s="3"/>
+      <c r="U132" s="3"/>
+      <c r="V132" s="3"/>
+      <c r="W132" s="3"/>
+    </row>
+    <row r="133" spans="2:23">
+      <c r="B133" s="4">
+        <v>42827</v>
+      </c>
+      <c r="C133" s="3">
+        <f t="shared" ref="C133:C161" si="4">SUM(D133:CM133)</f>
+        <v>139</v>
+      </c>
+      <c r="D133" s="3"/>
+      <c r="E133" s="3"/>
+      <c r="F133" s="3"/>
+      <c r="G133" s="3"/>
+      <c r="H133" s="3"/>
+      <c r="I133" s="3">
+        <v>5</v>
+      </c>
+      <c r="J133" s="3">
+        <v>134</v>
+      </c>
+      <c r="K133" s="3"/>
+      <c r="L133" s="3"/>
+      <c r="M133" s="3"/>
+      <c r="N133" s="3"/>
+      <c r="O133" s="3"/>
+      <c r="P133" s="3"/>
+      <c r="Q133" s="3"/>
+      <c r="R133" s="3"/>
+      <c r="S133" s="3"/>
+      <c r="T133" s="3"/>
+      <c r="U133" s="3"/>
+      <c r="V133" s="3"/>
+      <c r="W133" s="3"/>
+    </row>
+    <row r="134" spans="2:23">
+      <c r="B134" s="4">
+        <v>42828</v>
+      </c>
+      <c r="C134" s="3">
+        <f t="shared" si="4"/>
+        <v>37</v>
+      </c>
+      <c r="D134" s="3"/>
+      <c r="E134" s="3"/>
+      <c r="F134" s="3"/>
+      <c r="G134" s="3"/>
+      <c r="H134" s="3"/>
+      <c r="I134" s="3"/>
+      <c r="J134" s="3">
+        <v>37</v>
+      </c>
+      <c r="K134" s="3"/>
+      <c r="L134" s="3"/>
+      <c r="M134" s="3"/>
+      <c r="N134" s="3"/>
+      <c r="O134" s="3"/>
+      <c r="P134" s="3"/>
+      <c r="Q134" s="3"/>
+      <c r="R134" s="3"/>
+      <c r="S134" s="3"/>
+      <c r="T134" s="3"/>
+      <c r="U134" s="3"/>
+      <c r="V134" s="3"/>
+      <c r="W134" s="3"/>
+    </row>
+    <row r="135" spans="2:23">
+      <c r="B135" s="4">
+        <v>42829</v>
+      </c>
+      <c r="C135" s="3">
+        <f t="shared" si="4"/>
+        <v>112</v>
+      </c>
+      <c r="D135" s="3"/>
+      <c r="E135" s="3"/>
+      <c r="F135" s="3"/>
+      <c r="G135" s="3"/>
+      <c r="H135" s="3">
+        <v>100</v>
+      </c>
+      <c r="I135" s="3">
+        <v>5</v>
+      </c>
+      <c r="J135" s="3">
+        <v>7</v>
+      </c>
+      <c r="K135" s="3"/>
+      <c r="L135" s="3"/>
+      <c r="M135" s="3"/>
+      <c r="N135" s="3"/>
+      <c r="O135" s="3"/>
+      <c r="P135" s="3"/>
+      <c r="Q135" s="3"/>
+      <c r="R135" s="3"/>
+      <c r="S135" s="3"/>
+      <c r="T135" s="3"/>
+      <c r="U135" s="3"/>
+      <c r="V135" s="3"/>
+      <c r="W135" s="3"/>
+    </row>
+    <row r="136" spans="2:23">
+      <c r="B136" s="4">
+        <v>42830</v>
+      </c>
+      <c r="C136" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="D136" s="3"/>
+      <c r="E136" s="3"/>
+      <c r="F136" s="3"/>
+      <c r="G136" s="3"/>
+      <c r="H136" s="3"/>
+      <c r="I136" s="3"/>
+      <c r="J136" s="3"/>
+      <c r="K136" s="3"/>
+      <c r="L136" s="3"/>
+      <c r="M136" s="3"/>
+      <c r="N136" s="3"/>
+      <c r="O136" s="3"/>
+      <c r="P136" s="3"/>
+      <c r="Q136" s="3"/>
+      <c r="R136" s="3"/>
+      <c r="S136" s="3"/>
+      <c r="T136" s="3"/>
+      <c r="U136" s="3"/>
+      <c r="V136" s="3"/>
+      <c r="W136" s="3"/>
+    </row>
+    <row r="137" spans="2:23">
+      <c r="B137" s="4">
+        <v>42831</v>
+      </c>
+      <c r="C137" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="D137" s="3"/>
+      <c r="E137" s="3"/>
+      <c r="F137" s="3"/>
+      <c r="G137" s="3"/>
+      <c r="H137" s="3"/>
+      <c r="I137" s="3"/>
+      <c r="J137" s="3"/>
+      <c r="K137" s="3"/>
+      <c r="L137" s="3"/>
+      <c r="M137" s="3"/>
+      <c r="N137" s="3"/>
+      <c r="O137" s="3"/>
+      <c r="P137" s="3"/>
+      <c r="Q137" s="3"/>
+      <c r="R137" s="3"/>
+      <c r="S137" s="3"/>
+      <c r="T137" s="3"/>
+      <c r="U137" s="3"/>
+      <c r="V137" s="3"/>
+      <c r="W137" s="3"/>
+    </row>
+    <row r="138" spans="2:23">
+      <c r="B138" s="4">
+        <v>42832</v>
+      </c>
+      <c r="C138" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="D138" s="3"/>
+      <c r="E138" s="3"/>
+      <c r="F138" s="3"/>
+      <c r="G138" s="3"/>
+      <c r="H138" s="3"/>
+      <c r="I138" s="3"/>
+      <c r="J138" s="3"/>
+      <c r="K138" s="3"/>
+      <c r="L138" s="3"/>
+      <c r="M138" s="3"/>
+      <c r="N138" s="3"/>
+      <c r="O138" s="3"/>
+      <c r="P138" s="3"/>
+      <c r="Q138" s="3"/>
+      <c r="R138" s="3"/>
+      <c r="S138" s="3"/>
+      <c r="T138" s="3"/>
+      <c r="U138" s="3"/>
+      <c r="V138" s="3"/>
+      <c r="W138" s="3"/>
+    </row>
+    <row r="139" spans="2:23">
+      <c r="B139" s="4">
+        <v>42833</v>
+      </c>
+      <c r="C139" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="D139" s="3"/>
+      <c r="E139" s="3"/>
+      <c r="F139" s="3"/>
+      <c r="G139" s="3"/>
+      <c r="H139" s="3"/>
+      <c r="I139" s="3"/>
+      <c r="J139" s="3"/>
+      <c r="K139" s="3"/>
+      <c r="L139" s="3"/>
+      <c r="M139" s="3"/>
+      <c r="N139" s="3"/>
+      <c r="O139" s="3"/>
+      <c r="P139" s="3"/>
+      <c r="Q139" s="3"/>
+      <c r="R139" s="3"/>
+      <c r="S139" s="3"/>
+      <c r="T139" s="3"/>
+      <c r="U139" s="3"/>
+      <c r="V139" s="3"/>
+      <c r="W139" s="3"/>
+    </row>
+    <row r="140" spans="2:23">
+      <c r="B140" s="4">
+        <v>42834</v>
+      </c>
+      <c r="C140" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="D140" s="3"/>
+      <c r="E140" s="3"/>
+      <c r="F140" s="3"/>
+      <c r="G140" s="3"/>
+      <c r="H140" s="3"/>
+      <c r="I140" s="3"/>
+      <c r="J140" s="3"/>
+      <c r="K140" s="3"/>
+      <c r="L140" s="3"/>
+      <c r="M140" s="3"/>
+      <c r="N140" s="3"/>
+      <c r="O140" s="3"/>
+      <c r="P140" s="3"/>
+      <c r="Q140" s="3"/>
+      <c r="R140" s="3"/>
+      <c r="S140" s="3"/>
+      <c r="T140" s="3"/>
+      <c r="U140" s="3"/>
+      <c r="V140" s="3"/>
+      <c r="W140" s="3"/>
+    </row>
+    <row r="141" spans="2:23">
+      <c r="B141" s="4">
+        <v>42835</v>
+      </c>
+      <c r="C141" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="D141" s="3"/>
+      <c r="E141" s="3"/>
+      <c r="F141" s="3"/>
+      <c r="G141" s="3"/>
+      <c r="H141" s="3"/>
+      <c r="I141" s="3"/>
+      <c r="J141" s="3"/>
+      <c r="K141" s="3"/>
+      <c r="L141" s="3"/>
+      <c r="M141" s="3"/>
+      <c r="N141" s="3"/>
+      <c r="O141" s="3"/>
+      <c r="P141" s="3"/>
+      <c r="Q141" s="3"/>
+      <c r="R141" s="3"/>
+      <c r="S141" s="3"/>
+      <c r="T141" s="3"/>
+      <c r="U141" s="3"/>
+      <c r="V141" s="3"/>
+      <c r="W141" s="3"/>
+    </row>
+    <row r="142" spans="2:23">
+      <c r="B142" s="4">
+        <v>42836</v>
+      </c>
+      <c r="C142" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="D142" s="3"/>
+      <c r="E142" s="3"/>
+      <c r="F142" s="3"/>
+      <c r="G142" s="3"/>
+      <c r="H142" s="3"/>
+      <c r="I142" s="3"/>
+      <c r="J142" s="3"/>
+      <c r="K142" s="3"/>
+      <c r="L142" s="3"/>
+      <c r="M142" s="3"/>
+      <c r="N142" s="3"/>
+      <c r="O142" s="3"/>
+      <c r="P142" s="3"/>
+      <c r="Q142" s="3"/>
+      <c r="R142" s="3"/>
+      <c r="S142" s="3"/>
+      <c r="T142" s="3"/>
+      <c r="U142" s="3"/>
+      <c r="V142" s="3"/>
+      <c r="W142" s="3"/>
+    </row>
+    <row r="143" spans="2:23">
+      <c r="B143" s="4">
+        <v>42837</v>
+      </c>
+      <c r="C143" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="D143" s="3"/>
+      <c r="E143" s="3"/>
+      <c r="F143" s="3"/>
+      <c r="G143" s="3"/>
+      <c r="H143" s="3"/>
+      <c r="I143" s="3"/>
+      <c r="J143" s="3"/>
+      <c r="K143" s="3"/>
+      <c r="L143" s="3"/>
+      <c r="M143" s="3"/>
+      <c r="N143" s="3"/>
+      <c r="O143" s="3"/>
+      <c r="P143" s="3"/>
+      <c r="Q143" s="3"/>
+      <c r="R143" s="3"/>
+      <c r="S143" s="3"/>
+      <c r="T143" s="3"/>
+      <c r="U143" s="3"/>
+      <c r="V143" s="3"/>
+      <c r="W143" s="3"/>
+    </row>
+    <row r="144" spans="2:23">
+      <c r="B144" s="4">
+        <v>42838</v>
+      </c>
+      <c r="C144" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="D144" s="3"/>
+      <c r="E144" s="3"/>
+      <c r="F144" s="3"/>
+      <c r="G144" s="3"/>
+      <c r="H144" s="3"/>
+      <c r="I144" s="3"/>
+      <c r="J144" s="3"/>
+      <c r="K144" s="3"/>
+      <c r="L144" s="3"/>
+      <c r="M144" s="3"/>
+      <c r="N144" s="3"/>
+      <c r="O144" s="3"/>
+      <c r="P144" s="3"/>
+      <c r="Q144" s="3"/>
+      <c r="R144" s="3"/>
+      <c r="S144" s="3"/>
+      <c r="T144" s="3"/>
+      <c r="U144" s="3"/>
+      <c r="V144" s="3"/>
+      <c r="W144" s="3"/>
+    </row>
+    <row r="145" spans="2:23">
+      <c r="B145" s="4">
+        <v>42839</v>
+      </c>
+      <c r="C145" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="D145" s="3"/>
+      <c r="E145" s="3"/>
+      <c r="F145" s="3"/>
+      <c r="G145" s="3"/>
+      <c r="H145" s="3"/>
+      <c r="I145" s="3"/>
+      <c r="J145" s="3"/>
+      <c r="K145" s="3"/>
+      <c r="L145" s="3"/>
+      <c r="M145" s="3"/>
+      <c r="N145" s="3"/>
+      <c r="O145" s="3"/>
+      <c r="P145" s="3"/>
+      <c r="Q145" s="3"/>
+      <c r="R145" s="3"/>
+      <c r="S145" s="3"/>
+      <c r="T145" s="3"/>
+      <c r="U145" s="3"/>
+      <c r="V145" s="3"/>
+      <c r="W145" s="3"/>
+    </row>
+    <row r="146" spans="2:23">
+      <c r="B146" s="4">
+        <v>42840</v>
+      </c>
+      <c r="C146" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="D146" s="3"/>
+      <c r="E146" s="3"/>
+      <c r="F146" s="3"/>
+      <c r="G146" s="3"/>
+      <c r="H146" s="3"/>
+      <c r="I146" s="3"/>
+      <c r="J146" s="3"/>
+      <c r="K146" s="3"/>
+      <c r="L146" s="3"/>
+      <c r="M146" s="3"/>
+      <c r="N146" s="3"/>
+      <c r="O146" s="3"/>
+      <c r="P146" s="3"/>
+      <c r="Q146" s="3"/>
+      <c r="R146" s="3"/>
+      <c r="S146" s="3"/>
+      <c r="T146" s="3"/>
+      <c r="U146" s="3"/>
+      <c r="V146" s="3"/>
+      <c r="W146" s="3"/>
+    </row>
+    <row r="147" spans="2:23">
+      <c r="B147" s="4">
+        <v>42841</v>
+      </c>
+      <c r="C147" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="D147" s="3"/>
+      <c r="E147" s="3"/>
+      <c r="F147" s="3"/>
+      <c r="G147" s="3"/>
+      <c r="H147" s="3"/>
+      <c r="I147" s="3"/>
+      <c r="J147" s="3"/>
+      <c r="K147" s="3"/>
+      <c r="L147" s="3"/>
+      <c r="M147" s="3"/>
+      <c r="N147" s="3"/>
+      <c r="O147" s="3"/>
+      <c r="P147" s="3"/>
+      <c r="Q147" s="3"/>
+      <c r="R147" s="3"/>
+      <c r="S147" s="3"/>
+      <c r="T147" s="3"/>
+      <c r="U147" s="3"/>
+      <c r="V147" s="3"/>
+      <c r="W147" s="3"/>
+    </row>
+    <row r="148" spans="2:23">
+      <c r="B148" s="4">
+        <v>42842</v>
+      </c>
+      <c r="C148" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="D148" s="3"/>
+      <c r="E148" s="3"/>
+      <c r="F148" s="3"/>
+      <c r="G148" s="3"/>
+      <c r="H148" s="3"/>
+      <c r="I148" s="3"/>
+      <c r="J148" s="3"/>
+      <c r="K148" s="3"/>
+      <c r="L148" s="3"/>
+      <c r="M148" s="3"/>
+      <c r="N148" s="3"/>
+      <c r="O148" s="3"/>
+      <c r="P148" s="3"/>
+      <c r="Q148" s="3"/>
+      <c r="R148" s="3"/>
+      <c r="S148" s="3"/>
+      <c r="T148" s="3"/>
+      <c r="U148" s="3"/>
+      <c r="V148" s="3"/>
+      <c r="W148" s="3"/>
+    </row>
+    <row r="149" spans="2:23">
+      <c r="B149" s="4">
+        <v>42843</v>
+      </c>
+      <c r="C149" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="D149" s="3"/>
+      <c r="E149" s="3"/>
+      <c r="F149" s="3"/>
+      <c r="G149" s="3"/>
+      <c r="H149" s="3"/>
+      <c r="I149" s="3"/>
+      <c r="J149" s="3"/>
+      <c r="K149" s="3"/>
+      <c r="L149" s="3"/>
+      <c r="M149" s="3"/>
+      <c r="N149" s="3"/>
+      <c r="O149" s="3"/>
+      <c r="P149" s="3"/>
+      <c r="Q149" s="3"/>
+      <c r="R149" s="3"/>
+      <c r="S149" s="3"/>
+      <c r="T149" s="3"/>
+      <c r="U149" s="3"/>
+      <c r="V149" s="3"/>
+      <c r="W149" s="3"/>
+    </row>
+    <row r="150" spans="2:23">
+      <c r="B150" s="4">
+        <v>42844</v>
+      </c>
+      <c r="C150" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="D150" s="3"/>
+      <c r="E150" s="3"/>
+      <c r="F150" s="3"/>
+      <c r="G150" s="3"/>
+      <c r="H150" s="3"/>
+      <c r="I150" s="3"/>
+      <c r="J150" s="3"/>
+      <c r="K150" s="3"/>
+      <c r="L150" s="3"/>
+      <c r="M150" s="3"/>
+      <c r="N150" s="3"/>
+      <c r="O150" s="3"/>
+      <c r="P150" s="3"/>
+      <c r="Q150" s="3"/>
+      <c r="R150" s="3"/>
+      <c r="S150" s="3"/>
+      <c r="T150" s="3"/>
+      <c r="U150" s="3"/>
+      <c r="V150" s="3"/>
+      <c r="W150" s="3"/>
+    </row>
+    <row r="151" spans="2:23">
+      <c r="B151" s="4">
+        <v>42845</v>
+      </c>
+      <c r="C151" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="D151" s="3"/>
+      <c r="E151" s="3"/>
+      <c r="F151" s="3"/>
+      <c r="G151" s="3"/>
+      <c r="H151" s="3"/>
+      <c r="I151" s="3"/>
+      <c r="J151" s="3"/>
+      <c r="K151" s="3"/>
+      <c r="L151" s="3"/>
+      <c r="M151" s="3"/>
+      <c r="N151" s="3"/>
+      <c r="O151" s="3"/>
+      <c r="P151" s="3"/>
+      <c r="Q151" s="3"/>
+      <c r="R151" s="3"/>
+      <c r="S151" s="3"/>
+      <c r="T151" s="3"/>
+      <c r="U151" s="3"/>
+      <c r="V151" s="3"/>
+      <c r="W151" s="3"/>
+    </row>
+    <row r="152" spans="2:23">
+      <c r="B152" s="4">
+        <v>42846</v>
+      </c>
+      <c r="C152" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="D152" s="3"/>
+      <c r="E152" s="3"/>
+      <c r="F152" s="3"/>
+      <c r="G152" s="3"/>
+      <c r="H152" s="3"/>
+      <c r="I152" s="3"/>
+      <c r="J152" s="3"/>
+      <c r="K152" s="3"/>
+      <c r="L152" s="3"/>
+      <c r="M152" s="3"/>
+      <c r="N152" s="3"/>
+      <c r="O152" s="3"/>
+      <c r="P152" s="3"/>
+      <c r="Q152" s="3"/>
+      <c r="R152" s="3"/>
+      <c r="S152" s="3"/>
+      <c r="T152" s="3"/>
+      <c r="U152" s="3"/>
+      <c r="V152" s="3"/>
+      <c r="W152" s="3"/>
+    </row>
+    <row r="153" spans="2:23">
+      <c r="B153" s="4">
+        <v>42847</v>
+      </c>
+      <c r="C153" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="D153" s="3"/>
+      <c r="E153" s="3"/>
+      <c r="F153" s="3"/>
+      <c r="G153" s="3"/>
+      <c r="H153" s="3"/>
+      <c r="I153" s="3"/>
+      <c r="J153" s="3"/>
+      <c r="K153" s="3"/>
+      <c r="L153" s="3"/>
+      <c r="M153" s="3"/>
+      <c r="N153" s="3"/>
+      <c r="O153" s="3"/>
+      <c r="P153" s="3"/>
+      <c r="Q153" s="3"/>
+      <c r="R153" s="3"/>
+      <c r="S153" s="3"/>
+      <c r="T153" s="3"/>
+      <c r="U153" s="3"/>
+      <c r="V153" s="3"/>
+      <c r="W153" s="3"/>
+    </row>
+    <row r="154" spans="2:23">
+      <c r="B154" s="4">
+        <v>42848</v>
+      </c>
+      <c r="C154" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="D154" s="3"/>
+      <c r="E154" s="3"/>
+      <c r="F154" s="3"/>
+      <c r="G154" s="3"/>
+      <c r="H154" s="3"/>
+      <c r="I154" s="3"/>
+      <c r="J154" s="3"/>
+      <c r="K154" s="3"/>
+      <c r="L154" s="3"/>
+      <c r="M154" s="3"/>
+      <c r="N154" s="3"/>
+      <c r="O154" s="3"/>
+      <c r="P154" s="3"/>
+      <c r="Q154" s="3"/>
+      <c r="R154" s="3"/>
+      <c r="S154" s="3"/>
+      <c r="T154" s="3"/>
+      <c r="U154" s="3"/>
+      <c r="V154" s="3"/>
+      <c r="W154" s="3"/>
+    </row>
+    <row r="155" spans="2:23">
+      <c r="B155" s="4">
+        <v>42849</v>
+      </c>
+      <c r="C155" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="D155" s="3"/>
+      <c r="E155" s="3"/>
+      <c r="F155" s="3"/>
+      <c r="G155" s="3"/>
+      <c r="H155" s="3"/>
+      <c r="I155" s="3"/>
+      <c r="J155" s="3"/>
+      <c r="K155" s="3"/>
+      <c r="L155" s="3"/>
+      <c r="M155" s="3"/>
+      <c r="N155" s="3"/>
+      <c r="O155" s="3"/>
+      <c r="P155" s="3"/>
+      <c r="Q155" s="3"/>
+      <c r="R155" s="3"/>
+      <c r="S155" s="3"/>
+      <c r="T155" s="3"/>
+      <c r="U155" s="3"/>
+      <c r="V155" s="3"/>
+      <c r="W155" s="3"/>
+    </row>
+    <row r="156" spans="2:23">
+      <c r="B156" s="4">
+        <v>42850</v>
+      </c>
+      <c r="C156" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="D156" s="3"/>
+      <c r="E156" s="3"/>
+      <c r="F156" s="3"/>
+      <c r="G156" s="3"/>
+      <c r="H156" s="3"/>
+      <c r="I156" s="3"/>
+      <c r="J156" s="3"/>
+      <c r="K156" s="3"/>
+      <c r="L156" s="3"/>
+      <c r="M156" s="3"/>
+      <c r="N156" s="3"/>
+      <c r="O156" s="3"/>
+      <c r="P156" s="3"/>
+      <c r="Q156" s="3"/>
+      <c r="R156" s="3"/>
+      <c r="S156" s="3"/>
+      <c r="T156" s="3"/>
+      <c r="U156" s="3"/>
+      <c r="V156" s="3"/>
+      <c r="W156" s="3"/>
+    </row>
+    <row r="157" spans="2:23">
+      <c r="B157" s="4">
+        <v>42851</v>
+      </c>
+      <c r="C157" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="D157" s="3"/>
+      <c r="E157" s="3"/>
+      <c r="F157" s="3"/>
+      <c r="G157" s="3"/>
+      <c r="H157" s="3"/>
+      <c r="I157" s="3"/>
+      <c r="J157" s="3"/>
+      <c r="K157" s="3"/>
+      <c r="L157" s="3"/>
+      <c r="M157" s="3"/>
+      <c r="N157" s="3"/>
+      <c r="O157" s="3"/>
+      <c r="P157" s="3"/>
+      <c r="Q157" s="3"/>
+      <c r="R157" s="3"/>
+      <c r="S157" s="3"/>
+      <c r="T157" s="3"/>
+      <c r="U157" s="3"/>
+      <c r="V157" s="3"/>
+      <c r="W157" s="3"/>
+    </row>
+    <row r="158" spans="2:23">
+      <c r="B158" s="4">
+        <v>42852</v>
+      </c>
+      <c r="C158" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="D158" s="3"/>
+      <c r="E158" s="3"/>
+      <c r="F158" s="3"/>
+      <c r="G158" s="3"/>
+      <c r="H158" s="3"/>
+      <c r="I158" s="3"/>
+      <c r="J158" s="3"/>
+      <c r="K158" s="3"/>
+      <c r="L158" s="3"/>
+      <c r="M158" s="3"/>
+      <c r="N158" s="3"/>
+      <c r="O158" s="3"/>
+      <c r="P158" s="3"/>
+      <c r="Q158" s="3"/>
+      <c r="R158" s="3"/>
+      <c r="S158" s="3"/>
+      <c r="T158" s="3"/>
+      <c r="U158" s="3"/>
+      <c r="V158" s="3"/>
+      <c r="W158" s="3"/>
+    </row>
+    <row r="159" spans="2:23">
+      <c r="B159" s="4">
+        <v>42853</v>
+      </c>
+      <c r="C159" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="D159" s="3"/>
+      <c r="E159" s="3"/>
+      <c r="F159" s="3"/>
+      <c r="G159" s="3"/>
+      <c r="H159" s="3"/>
+      <c r="I159" s="3"/>
+      <c r="J159" s="3"/>
+      <c r="K159" s="3"/>
+      <c r="L159" s="3"/>
+      <c r="M159" s="3"/>
+      <c r="N159" s="3"/>
+      <c r="O159" s="3"/>
+      <c r="P159" s="3"/>
+      <c r="Q159" s="3"/>
+      <c r="R159" s="3"/>
+      <c r="S159" s="3"/>
+      <c r="T159" s="3"/>
+      <c r="U159" s="3"/>
+      <c r="V159" s="3"/>
+      <c r="W159" s="3"/>
+    </row>
+    <row r="160" spans="2:23">
+      <c r="B160" s="4">
+        <v>42854</v>
+      </c>
+      <c r="C160" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="D160" s="3"/>
+      <c r="E160" s="3"/>
+      <c r="F160" s="3"/>
+      <c r="G160" s="3"/>
+      <c r="H160" s="3"/>
+      <c r="I160" s="3"/>
+      <c r="J160" s="3"/>
+      <c r="K160" s="3"/>
+      <c r="L160" s="3"/>
+      <c r="M160" s="3"/>
+      <c r="N160" s="3"/>
+      <c r="O160" s="3"/>
+      <c r="P160" s="3"/>
+      <c r="Q160" s="3"/>
+      <c r="R160" s="3"/>
+      <c r="S160" s="3"/>
+      <c r="T160" s="3"/>
+      <c r="U160" s="3"/>
+      <c r="V160" s="3"/>
+      <c r="W160" s="3"/>
+    </row>
+    <row r="161" spans="2:23">
+      <c r="B161" s="4">
+        <v>42855</v>
+      </c>
+      <c r="C161" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="D161" s="3"/>
+      <c r="E161" s="3"/>
+      <c r="F161" s="3"/>
+      <c r="G161" s="3"/>
+      <c r="H161" s="3"/>
+      <c r="I161" s="3"/>
+      <c r="J161" s="3"/>
+      <c r="K161" s="3"/>
+      <c r="L161" s="3"/>
+      <c r="M161" s="3"/>
+      <c r="N161" s="3"/>
+      <c r="O161" s="3"/>
+      <c r="P161" s="3"/>
+      <c r="Q161" s="3"/>
+      <c r="R161" s="3"/>
+      <c r="S161" s="3"/>
+      <c r="T161" s="3"/>
+      <c r="U161" s="3"/>
+      <c r="V161" s="3"/>
+      <c r="W161" s="3"/>
+    </row>
+    <row r="162" spans="2:23">
+      <c r="B162" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C162" s="6">
+        <f>SUM(C132:C159)</f>
+        <v>2442</v>
+      </c>
+      <c r="D162" s="6"/>
+      <c r="E162" s="6"/>
+      <c r="F162" s="6"/>
+      <c r="G162" s="6"/>
+      <c r="H162" s="6"/>
+      <c r="I162" s="6"/>
+      <c r="J162" s="6"/>
+      <c r="K162" s="6"/>
+      <c r="L162" s="6"/>
+      <c r="M162" s="6"/>
+      <c r="N162" s="6"/>
+      <c r="O162" s="6"/>
+      <c r="P162" s="6"/>
+      <c r="Q162" s="6"/>
+      <c r="R162" s="6"/>
+      <c r="S162" s="6"/>
+      <c r="T162" s="6"/>
+      <c r="U162" s="6"/>
+      <c r="V162" s="6"/>
+      <c r="W162" s="6"/>
+    </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="B2:B3"/>
@@ -10736,8 +12151,8 @@
     <mergeCell ref="C2:C3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="D4:W5 D7:W37 D39:W69 D100:W130 D71:W98">
-    <cfRule type="containsBlanks" dxfId="0" priority="13">
+  <conditionalFormatting sqref="D4:W5 D7:W37 D39:W69 D100:W130 D71:W98 D132:W161">
+    <cfRule type="containsBlanks" dxfId="0" priority="14">
       <formula>LEN(TRIM(D4))=0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/DailyExpense.xlsx
+++ b/DailyExpense.xlsx
@@ -5949,6 +5949,363 @@
           </rPr>
           <t xml:space="preserve">
 上网</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H136" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+公交卡充值</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J136" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+按摩</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K136" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+参苓健脾胃颗粒</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J137" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+上网</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J138" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+上网</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H139" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+摩拜充值</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J139" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+打网球</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L139" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+买内裤</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>2</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>条</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I140" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+柠檬茶</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J140" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+上网</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Q141" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+地板尾款</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J142" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+按摩</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Q142" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+插座、开关、筒灯</t>
         </r>
       </text>
     </comment>
@@ -6222,14 +6579,7 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <fill>
         <patternFill>
@@ -6530,8 +6880,8 @@
   <dimension ref="B2:W162"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A127" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I144" sqref="I144"/>
+      <pane ySplit="3" topLeftCell="A121" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D142" sqref="D142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -11367,16 +11717,28 @@
       </c>
       <c r="C136" s="3">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="D136" s="3"/>
-      <c r="E136" s="3"/>
-      <c r="F136" s="3"/>
+        <v>179</v>
+      </c>
+      <c r="D136" s="3">
+        <v>8</v>
+      </c>
+      <c r="E136" s="3">
+        <v>16</v>
+      </c>
+      <c r="F136" s="3">
+        <v>17</v>
+      </c>
       <c r="G136" s="3"/>
-      <c r="H136" s="3"/>
+      <c r="H136" s="3">
+        <v>70</v>
+      </c>
       <c r="I136" s="3"/>
-      <c r="J136" s="3"/>
-      <c r="K136" s="3"/>
+      <c r="J136" s="3">
+        <v>40</v>
+      </c>
+      <c r="K136" s="3">
+        <v>28</v>
+      </c>
       <c r="L136" s="3"/>
       <c r="M136" s="3"/>
       <c r="N136" s="3"/>
@@ -11396,15 +11758,23 @@
       </c>
       <c r="C137" s="3">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="D137" s="3"/>
-      <c r="E137" s="3"/>
-      <c r="F137" s="3"/>
+        <v>33</v>
+      </c>
+      <c r="D137" s="3">
+        <v>6</v>
+      </c>
+      <c r="E137" s="3">
+        <v>12</v>
+      </c>
+      <c r="F137" s="3">
+        <v>8</v>
+      </c>
       <c r="G137" s="3"/>
       <c r="H137" s="3"/>
       <c r="I137" s="3"/>
-      <c r="J137" s="3"/>
+      <c r="J137" s="3">
+        <v>7</v>
+      </c>
       <c r="K137" s="3"/>
       <c r="L137" s="3"/>
       <c r="M137" s="3"/>
@@ -11425,15 +11795,23 @@
       </c>
       <c r="C138" s="3">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="D138" s="3"/>
-      <c r="E138" s="3"/>
-      <c r="F138" s="3"/>
+        <v>36</v>
+      </c>
+      <c r="D138" s="3">
+        <v>6</v>
+      </c>
+      <c r="E138" s="3">
+        <v>12</v>
+      </c>
+      <c r="F138" s="3">
+        <v>8</v>
+      </c>
       <c r="G138" s="3"/>
       <c r="H138" s="3"/>
       <c r="I138" s="3"/>
-      <c r="J138" s="3"/>
+      <c r="J138" s="3">
+        <v>10</v>
+      </c>
       <c r="K138" s="3"/>
       <c r="L138" s="3"/>
       <c r="M138" s="3"/>
@@ -11454,17 +11832,25 @@
       </c>
       <c r="C139" s="3">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="D139" s="3"/>
+        <v>125</v>
+      </c>
+      <c r="D139" s="3">
+        <v>10</v>
+      </c>
       <c r="E139" s="3"/>
       <c r="F139" s="3"/>
       <c r="G139" s="3"/>
-      <c r="H139" s="3"/>
+      <c r="H139" s="3">
+        <v>10</v>
+      </c>
       <c r="I139" s="3"/>
-      <c r="J139" s="3"/>
+      <c r="J139" s="3">
+        <v>60</v>
+      </c>
       <c r="K139" s="3"/>
-      <c r="L139" s="3"/>
+      <c r="L139" s="3">
+        <v>45</v>
+      </c>
       <c r="M139" s="3"/>
       <c r="N139" s="3"/>
       <c r="O139" s="3"/>
@@ -11483,15 +11869,21 @@
       </c>
       <c r="C140" s="3">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="D140" s="3"/>
       <c r="E140" s="3"/>
-      <c r="F140" s="3"/>
+      <c r="F140" s="3">
+        <v>16</v>
+      </c>
       <c r="G140" s="3"/>
       <c r="H140" s="3"/>
-      <c r="I140" s="3"/>
-      <c r="J140" s="3"/>
+      <c r="I140" s="3">
+        <v>5</v>
+      </c>
+      <c r="J140" s="3">
+        <v>13</v>
+      </c>
       <c r="K140" s="3"/>
       <c r="L140" s="3"/>
       <c r="M140" s="3"/>
@@ -11512,11 +11904,17 @@
       </c>
       <c r="C141" s="3">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="D141" s="3"/>
-      <c r="E141" s="3"/>
-      <c r="F141" s="3"/>
+        <v>6143</v>
+      </c>
+      <c r="D141" s="3">
+        <v>4</v>
+      </c>
+      <c r="E141" s="3">
+        <v>15</v>
+      </c>
+      <c r="F141" s="3">
+        <v>22</v>
+      </c>
       <c r="G141" s="3"/>
       <c r="H141" s="3"/>
       <c r="I141" s="3"/>
@@ -11527,7 +11925,9 @@
       <c r="N141" s="3"/>
       <c r="O141" s="3"/>
       <c r="P141" s="3"/>
-      <c r="Q141" s="3"/>
+      <c r="Q141" s="3">
+        <v>6102</v>
+      </c>
       <c r="R141" s="3"/>
       <c r="S141" s="3"/>
       <c r="T141" s="3"/>
@@ -11541,22 +11941,32 @@
       </c>
       <c r="C142" s="3">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="D142" s="3"/>
-      <c r="E142" s="3"/>
-      <c r="F142" s="3"/>
+        <v>1602</v>
+      </c>
+      <c r="D142" s="3">
+        <v>6</v>
+      </c>
+      <c r="E142" s="3">
+        <v>20</v>
+      </c>
+      <c r="F142" s="3">
+        <v>15</v>
+      </c>
       <c r="G142" s="3"/>
       <c r="H142" s="3"/>
       <c r="I142" s="3"/>
-      <c r="J142" s="3"/>
+      <c r="J142" s="3">
+        <v>40</v>
+      </c>
       <c r="K142" s="3"/>
       <c r="L142" s="3"/>
       <c r="M142" s="3"/>
       <c r="N142" s="3"/>
       <c r="O142" s="3"/>
       <c r="P142" s="3"/>
-      <c r="Q142" s="3"/>
+      <c r="Q142" s="3">
+        <v>1521</v>
+      </c>
       <c r="R142" s="3"/>
       <c r="S142" s="3"/>
       <c r="T142" s="3"/>
@@ -12121,7 +12531,7 @@
       </c>
       <c r="C162" s="6">
         <f>SUM(C132:C159)</f>
-        <v>2442</v>
+        <v>10594</v>
       </c>
       <c r="D162" s="6"/>
       <c r="E162" s="6"/>

--- a/DailyExpense.xlsx
+++ b/DailyExpense.xlsx
@@ -6306,6 +6306,621 @@
           </rPr>
           <t xml:space="preserve">
 插座、开关、筒灯</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Q143" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+灯带</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J145" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+上网</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I146" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+梅子酒</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">12
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>宫廷糕点</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>12</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J146" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+上网</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I148" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+巧克力
+酸奶</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H150" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+理发</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I152" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+酸奶</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Q152" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+华帝烟机灶具</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">2200
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>万和热水器</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>1900</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I153" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+柠檬茶</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">5
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>颗粒奶优</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>5</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J153" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+上网</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Q153" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+欧普灯具</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J154" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+上网</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Q154" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+华帝烟机灶具安装费</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">230
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>万和热水器安装费</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>300</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J155" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+上网</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J156" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+按摩</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I157" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+酸奶</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">8
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>酸奶</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>8</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J157" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+上网</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I158" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+士力架
+巧克力</t>
         </r>
       </text>
     </comment>
@@ -6579,7 +7194,14 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -6880,8 +7502,8 @@
   <dimension ref="B2:W162"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A121" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D142" sqref="D142"/>
+      <pane ySplit="3" topLeftCell="A133" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="U145" sqref="U145"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -11980,11 +12602,17 @@
       </c>
       <c r="C143" s="3">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="D143" s="3"/>
-      <c r="E143" s="3"/>
-      <c r="F143" s="3"/>
+        <v>510</v>
+      </c>
+      <c r="D143" s="3">
+        <v>15</v>
+      </c>
+      <c r="E143" s="3">
+        <v>15</v>
+      </c>
+      <c r="F143" s="3">
+        <v>18</v>
+      </c>
       <c r="G143" s="3"/>
       <c r="H143" s="3"/>
       <c r="I143" s="3"/>
@@ -11995,7 +12623,9 @@
       <c r="N143" s="3"/>
       <c r="O143" s="3"/>
       <c r="P143" s="3"/>
-      <c r="Q143" s="3"/>
+      <c r="Q143" s="3">
+        <v>462</v>
+      </c>
       <c r="R143" s="3"/>
       <c r="S143" s="3"/>
       <c r="T143" s="3"/>
@@ -12009,11 +12639,17 @@
       </c>
       <c r="C144" s="3">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="D144" s="3"/>
-      <c r="E144" s="3"/>
-      <c r="F144" s="3"/>
+        <v>50</v>
+      </c>
+      <c r="D144" s="3">
+        <v>10</v>
+      </c>
+      <c r="E144" s="3">
+        <v>25</v>
+      </c>
+      <c r="F144" s="3">
+        <v>15</v>
+      </c>
       <c r="G144" s="3"/>
       <c r="H144" s="3"/>
       <c r="I144" s="3"/>
@@ -12038,15 +12674,23 @@
       </c>
       <c r="C145" s="3">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="D145" s="3"/>
-      <c r="E145" s="3"/>
-      <c r="F145" s="3"/>
+        <v>37</v>
+      </c>
+      <c r="D145" s="3">
+        <v>5</v>
+      </c>
+      <c r="E145" s="3">
+        <v>17</v>
+      </c>
+      <c r="F145" s="3">
+        <v>8</v>
+      </c>
       <c r="G145" s="3"/>
       <c r="H145" s="3"/>
       <c r="I145" s="3"/>
-      <c r="J145" s="3"/>
+      <c r="J145" s="3">
+        <v>7</v>
+      </c>
       <c r="K145" s="3"/>
       <c r="L145" s="3"/>
       <c r="M145" s="3"/>
@@ -12067,15 +12711,21 @@
       </c>
       <c r="C146" s="3">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="D146" s="3"/>
-      <c r="E146" s="3"/>
+      <c r="E146" s="3">
+        <v>12</v>
+      </c>
       <c r="F146" s="3"/>
       <c r="G146" s="3"/>
       <c r="H146" s="3"/>
-      <c r="I146" s="3"/>
-      <c r="J146" s="3"/>
+      <c r="I146" s="3">
+        <v>24</v>
+      </c>
+      <c r="J146" s="3">
+        <v>26</v>
+      </c>
       <c r="K146" s="3"/>
       <c r="L146" s="3"/>
       <c r="M146" s="3"/>
@@ -12096,11 +12746,15 @@
       </c>
       <c r="C147" s="3">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="D147" s="3"/>
-      <c r="E147" s="3"/>
-      <c r="F147" s="3"/>
+      <c r="E147" s="3">
+        <v>14</v>
+      </c>
+      <c r="F147" s="3">
+        <v>45</v>
+      </c>
       <c r="G147" s="3"/>
       <c r="H147" s="3"/>
       <c r="I147" s="3"/>
@@ -12125,14 +12779,22 @@
       </c>
       <c r="C148" s="3">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="D148" s="3"/>
-      <c r="E148" s="3"/>
-      <c r="F148" s="3"/>
+        <v>53</v>
+      </c>
+      <c r="D148" s="3">
+        <v>10</v>
+      </c>
+      <c r="E148" s="3">
+        <v>13</v>
+      </c>
+      <c r="F148" s="3">
+        <v>15</v>
+      </c>
       <c r="G148" s="3"/>
       <c r="H148" s="3"/>
-      <c r="I148" s="3"/>
+      <c r="I148" s="3">
+        <v>15</v>
+      </c>
       <c r="J148" s="3"/>
       <c r="K148" s="3"/>
       <c r="L148" s="3"/>
@@ -12154,11 +12816,17 @@
       </c>
       <c r="C149" s="3">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="D149" s="3"/>
-      <c r="E149" s="3"/>
-      <c r="F149" s="3"/>
+        <v>36</v>
+      </c>
+      <c r="D149" s="3">
+        <v>5</v>
+      </c>
+      <c r="E149" s="3">
+        <v>18</v>
+      </c>
+      <c r="F149" s="3">
+        <v>13</v>
+      </c>
       <c r="G149" s="3"/>
       <c r="H149" s="3"/>
       <c r="I149" s="3"/>
@@ -12183,13 +12851,21 @@
       </c>
       <c r="C150" s="3">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="D150" s="3"/>
-      <c r="E150" s="3"/>
-      <c r="F150" s="3"/>
+        <v>77</v>
+      </c>
+      <c r="D150" s="3">
+        <v>9</v>
+      </c>
+      <c r="E150" s="3">
+        <v>20</v>
+      </c>
+      <c r="F150" s="3">
+        <v>13</v>
+      </c>
       <c r="G150" s="3"/>
-      <c r="H150" s="3"/>
+      <c r="H150" s="3">
+        <v>35</v>
+      </c>
       <c r="I150" s="3"/>
       <c r="J150" s="3"/>
       <c r="K150" s="3"/>
@@ -12212,11 +12888,17 @@
       </c>
       <c r="C151" s="3">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="D151" s="3"/>
-      <c r="E151" s="3"/>
-      <c r="F151" s="3"/>
+        <v>71</v>
+      </c>
+      <c r="D151" s="3">
+        <v>10</v>
+      </c>
+      <c r="E151" s="3">
+        <v>20</v>
+      </c>
+      <c r="F151" s="3">
+        <v>41</v>
+      </c>
       <c r="G151" s="3"/>
       <c r="H151" s="3"/>
       <c r="I151" s="3"/>
@@ -12241,14 +12923,22 @@
       </c>
       <c r="C152" s="3">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="D152" s="3"/>
-      <c r="E152" s="3"/>
-      <c r="F152" s="3"/>
+        <v>4144</v>
+      </c>
+      <c r="D152" s="3">
+        <v>3</v>
+      </c>
+      <c r="E152" s="3">
+        <v>20</v>
+      </c>
+      <c r="F152" s="3">
+        <v>13</v>
+      </c>
       <c r="G152" s="3"/>
       <c r="H152" s="3"/>
-      <c r="I152" s="3"/>
+      <c r="I152" s="3">
+        <v>8</v>
+      </c>
       <c r="J152" s="3"/>
       <c r="K152" s="3"/>
       <c r="L152" s="3"/>
@@ -12256,7 +12946,9 @@
       <c r="N152" s="3"/>
       <c r="O152" s="3"/>
       <c r="P152" s="3"/>
-      <c r="Q152" s="3"/>
+      <c r="Q152" s="3">
+        <v>4100</v>
+      </c>
       <c r="R152" s="3"/>
       <c r="S152" s="3"/>
       <c r="T152" s="3"/>
@@ -12270,22 +12962,32 @@
       </c>
       <c r="C153" s="3">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>5373</v>
       </c>
       <c r="D153" s="3"/>
-      <c r="E153" s="3"/>
-      <c r="F153" s="3"/>
+      <c r="E153" s="3">
+        <v>31</v>
+      </c>
+      <c r="F153" s="3">
+        <v>22</v>
+      </c>
       <c r="G153" s="3"/>
       <c r="H153" s="3"/>
-      <c r="I153" s="3"/>
-      <c r="J153" s="3"/>
+      <c r="I153" s="3">
+        <v>10</v>
+      </c>
+      <c r="J153" s="3">
+        <v>10</v>
+      </c>
       <c r="K153" s="3"/>
       <c r="L153" s="3"/>
       <c r="M153" s="3"/>
       <c r="N153" s="3"/>
       <c r="O153" s="3"/>
       <c r="P153" s="3"/>
-      <c r="Q153" s="3"/>
+      <c r="Q153" s="3">
+        <v>5300</v>
+      </c>
       <c r="R153" s="3"/>
       <c r="S153" s="3"/>
       <c r="T153" s="3"/>
@@ -12299,22 +13001,30 @@
       </c>
       <c r="C154" s="3">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>577</v>
       </c>
       <c r="D154" s="3"/>
-      <c r="E154" s="3"/>
-      <c r="F154" s="3"/>
+      <c r="E154" s="3">
+        <v>15</v>
+      </c>
+      <c r="F154" s="3">
+        <v>22</v>
+      </c>
       <c r="G154" s="3"/>
       <c r="H154" s="3"/>
       <c r="I154" s="3"/>
-      <c r="J154" s="3"/>
+      <c r="J154" s="3">
+        <v>10</v>
+      </c>
       <c r="K154" s="3"/>
       <c r="L154" s="3"/>
       <c r="M154" s="3"/>
       <c r="N154" s="3"/>
       <c r="O154" s="3"/>
       <c r="P154" s="3"/>
-      <c r="Q154" s="3"/>
+      <c r="Q154" s="3">
+        <v>530</v>
+      </c>
       <c r="R154" s="3"/>
       <c r="S154" s="3"/>
       <c r="T154" s="3"/>
@@ -12328,15 +13038,23 @@
       </c>
       <c r="C155" s="3">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="D155" s="3"/>
-      <c r="E155" s="3"/>
-      <c r="F155" s="3"/>
+        <v>48</v>
+      </c>
+      <c r="D155" s="3">
+        <v>5</v>
+      </c>
+      <c r="E155" s="3">
+        <v>20</v>
+      </c>
+      <c r="F155" s="3">
+        <v>16</v>
+      </c>
       <c r="G155" s="3"/>
       <c r="H155" s="3"/>
       <c r="I155" s="3"/>
-      <c r="J155" s="3"/>
+      <c r="J155" s="3">
+        <v>7</v>
+      </c>
       <c r="K155" s="3"/>
       <c r="L155" s="3"/>
       <c r="M155" s="3"/>
@@ -12357,15 +13075,23 @@
       </c>
       <c r="C156" s="3">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="D156" s="3"/>
-      <c r="E156" s="3"/>
-      <c r="F156" s="3"/>
+        <v>84</v>
+      </c>
+      <c r="D156" s="3">
+        <v>5</v>
+      </c>
+      <c r="E156" s="3">
+        <v>22</v>
+      </c>
+      <c r="F156" s="3">
+        <v>12</v>
+      </c>
       <c r="G156" s="3"/>
       <c r="H156" s="3"/>
       <c r="I156" s="3"/>
-      <c r="J156" s="3"/>
+      <c r="J156" s="3">
+        <v>45</v>
+      </c>
       <c r="K156" s="3"/>
       <c r="L156" s="3"/>
       <c r="M156" s="3"/>
@@ -12386,15 +13112,23 @@
       </c>
       <c r="C157" s="3">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="D157" s="3"/>
-      <c r="E157" s="3"/>
-      <c r="F157" s="3"/>
+      <c r="E157" s="3">
+        <v>18</v>
+      </c>
+      <c r="F157" s="3">
+        <v>13</v>
+      </c>
       <c r="G157" s="3"/>
       <c r="H157" s="3"/>
-      <c r="I157" s="3"/>
-      <c r="J157" s="3"/>
+      <c r="I157" s="3">
+        <v>16</v>
+      </c>
+      <c r="J157" s="3">
+        <v>7</v>
+      </c>
       <c r="K157" s="3"/>
       <c r="L157" s="3"/>
       <c r="M157" s="3"/>
@@ -12415,14 +13149,22 @@
       </c>
       <c r="C158" s="3">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="D158" s="3"/>
-      <c r="E158" s="3"/>
-      <c r="F158" s="3"/>
+        <v>49</v>
+      </c>
+      <c r="D158" s="3">
+        <v>5</v>
+      </c>
+      <c r="E158" s="3">
+        <v>18</v>
+      </c>
+      <c r="F158" s="3">
+        <v>13</v>
+      </c>
       <c r="G158" s="3"/>
       <c r="H158" s="3"/>
-      <c r="I158" s="3"/>
+      <c r="I158" s="3">
+        <v>13</v>
+      </c>
       <c r="J158" s="3"/>
       <c r="K158" s="3"/>
       <c r="L158" s="3"/>
@@ -12531,7 +13273,7 @@
       </c>
       <c r="C162" s="6">
         <f>SUM(C132:C159)</f>
-        <v>10594</v>
+        <v>21878</v>
       </c>
       <c r="D162" s="6"/>
       <c r="E162" s="6"/>
@@ -12562,7 +13304,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="D4:W5 D7:W37 D39:W69 D100:W130 D71:W98 D132:W161">
-    <cfRule type="containsBlanks" dxfId="0" priority="14">
+    <cfRule type="containsBlanks" dxfId="1" priority="14">
       <formula>LEN(TRIM(D4))=0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/DailyExpense.xlsx
+++ b/DailyExpense.xlsx
@@ -6442,6 +6442,32 @@
         </r>
       </text>
     </comment>
+    <comment ref="H147" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+洗衣服</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="I148" authorId="0">
       <text>
         <r>
@@ -6921,6 +6947,1686 @@
           <t xml:space="preserve">
 士力架
 巧克力</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G159" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+卫生纸等日用品</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>81</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H159" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+摩拜充值</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> 10</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J159" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+电影</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I160" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+葱油酥</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">10
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>可乐</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">5
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>饮料</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>10</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J160" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+上网</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G161" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+洗衣粉</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I161" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+鸡尾酒</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">10
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>烤肠</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">3
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>趣多多</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>6</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J161" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+上网</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I163" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+烤肠</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">3
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>薯片</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">5
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>鸡尾酒</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">10
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>鸡尾酒</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>10</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J163" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+上网</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>24</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H164" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+洗衣服</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>60</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I164" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+酸奶</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">16
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>酸奶</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">8
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>宫廷糕点</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>15</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J165" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+按摩</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I166" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+烤肠</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">2
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>鸡尾酒</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>12</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J166" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+上网</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>9</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I167" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+酸奶、巧克力</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>51</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J167" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+电影</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>68</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F168" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+和小二一起</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H168" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+买篮球</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H169" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+摩拜充值</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>20</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I169" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+菊花茶</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">5
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>饮料</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>8</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J169" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+上网</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>22</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I172" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+酸奶</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J173" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+上网</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I174" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+饮料</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J174" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+上网</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I175" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+鸡尾酒</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">10
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>冰淇淋</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>8</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J175" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+上网</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>24</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I176" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+鸡尾酒</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">10
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>肉松饼</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">8
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>饮料</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>5</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J176" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+上网</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">10
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>电影</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>38</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Q177" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+阳台防腐木安装</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">1500
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>装修尾款</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>5000</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I178" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+鸡尾酒</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>7</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J178" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+按摩</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I179" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+酸奶</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J179" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+上网</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H180" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+理发</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>35</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I181" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+饮料</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J181" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+上网</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>9
+dota2</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>充值</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>100</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H182" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+半年物管费</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">1102
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>公交卡充值</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>100</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I182" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+饮料</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">4
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>饮料</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>10</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Q182" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+墙纸尾款</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>200</t>
         </r>
       </text>
     </comment>
@@ -6929,7 +8635,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="19">
   <si>
     <t>日期</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -7194,14 +8900,7 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <fill>
         <patternFill>
@@ -7499,11 +9198,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:W162"/>
+  <dimension ref="B2:W225"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A133" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="U145" sqref="U145"/>
+      <pane ySplit="3" topLeftCell="A153" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O172" sqref="O172"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -12746,7 +14445,7 @@
       </c>
       <c r="C147" s="3">
         <f t="shared" si="4"/>
-        <v>59</v>
+        <v>109</v>
       </c>
       <c r="D147" s="3"/>
       <c r="E147" s="3">
@@ -12756,7 +14455,9 @@
         <v>45</v>
       </c>
       <c r="G147" s="3"/>
-      <c r="H147" s="3"/>
+      <c r="H147" s="3">
+        <v>50</v>
+      </c>
       <c r="I147" s="3"/>
       <c r="J147" s="3"/>
       <c r="K147" s="3"/>
@@ -13186,15 +14887,27 @@
       </c>
       <c r="C159" s="3">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="D159" s="3"/>
-      <c r="E159" s="3"/>
-      <c r="F159" s="3"/>
-      <c r="G159" s="3"/>
-      <c r="H159" s="3"/>
+        <v>175</v>
+      </c>
+      <c r="D159" s="3">
+        <v>13</v>
+      </c>
+      <c r="E159" s="3">
+        <v>14</v>
+      </c>
+      <c r="F159" s="3">
+        <v>16</v>
+      </c>
+      <c r="G159" s="3">
+        <v>81</v>
+      </c>
+      <c r="H159" s="3">
+        <v>10</v>
+      </c>
       <c r="I159" s="3"/>
-      <c r="J159" s="3"/>
+      <c r="J159" s="3">
+        <v>41</v>
+      </c>
       <c r="K159" s="3"/>
       <c r="L159" s="3"/>
       <c r="M159" s="3"/>
@@ -13215,15 +14928,23 @@
       </c>
       <c r="C160" s="3">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="D160" s="3"/>
-      <c r="E160" s="3"/>
-      <c r="F160" s="3"/>
+      <c r="E160" s="3">
+        <v>28</v>
+      </c>
+      <c r="F160" s="3">
+        <v>16</v>
+      </c>
       <c r="G160" s="3"/>
       <c r="H160" s="3"/>
-      <c r="I160" s="3"/>
-      <c r="J160" s="3"/>
+      <c r="I160" s="3">
+        <v>25</v>
+      </c>
+      <c r="J160" s="3">
+        <v>25</v>
+      </c>
       <c r="K160" s="3"/>
       <c r="L160" s="3"/>
       <c r="M160" s="3"/>
@@ -13244,15 +14965,23 @@
       </c>
       <c r="C161" s="3">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="D161" s="3"/>
-      <c r="E161" s="3"/>
+      <c r="E161" s="3">
+        <v>16</v>
+      </c>
       <c r="F161" s="3"/>
-      <c r="G161" s="3"/>
+      <c r="G161" s="3">
+        <v>20</v>
+      </c>
       <c r="H161" s="3"/>
-      <c r="I161" s="3"/>
-      <c r="J161" s="3"/>
+      <c r="I161" s="3">
+        <v>19</v>
+      </c>
+      <c r="J161" s="3">
+        <v>25</v>
+      </c>
       <c r="K161" s="3"/>
       <c r="L161" s="3"/>
       <c r="M161" s="3"/>
@@ -13272,8 +15001,8 @@
         <v>5</v>
       </c>
       <c r="C162" s="6">
-        <f>SUM(C132:C159)</f>
-        <v>21878</v>
+        <f>SUM(C132:C161)</f>
+        <v>22277</v>
       </c>
       <c r="D162" s="6"/>
       <c r="E162" s="6"/>
@@ -13296,6 +15025,2003 @@
       <c r="V162" s="6"/>
       <c r="W162" s="6"/>
     </row>
+    <row r="163" spans="2:23">
+      <c r="B163" s="4">
+        <v>42856</v>
+      </c>
+      <c r="C163" s="3">
+        <f t="shared" ref="C163:C193" si="5">SUM(D163:CM163)</f>
+        <v>2180</v>
+      </c>
+      <c r="D163" s="3"/>
+      <c r="E163" s="3">
+        <v>12</v>
+      </c>
+      <c r="F163" s="3">
+        <v>16</v>
+      </c>
+      <c r="G163" s="3"/>
+      <c r="H163" s="3"/>
+      <c r="I163" s="3">
+        <v>28</v>
+      </c>
+      <c r="J163" s="3">
+        <v>24</v>
+      </c>
+      <c r="K163" s="3"/>
+      <c r="L163" s="3"/>
+      <c r="M163" s="3"/>
+      <c r="N163" s="3">
+        <v>2100</v>
+      </c>
+      <c r="O163" s="3"/>
+      <c r="P163" s="3"/>
+      <c r="Q163" s="3"/>
+      <c r="R163" s="3"/>
+      <c r="S163" s="3"/>
+      <c r="T163" s="3"/>
+      <c r="U163" s="3"/>
+      <c r="V163" s="3"/>
+      <c r="W163" s="3"/>
+    </row>
+    <row r="164" spans="2:23">
+      <c r="B164" s="4">
+        <v>42857</v>
+      </c>
+      <c r="C164" s="3">
+        <f t="shared" si="5"/>
+        <v>138</v>
+      </c>
+      <c r="D164" s="3">
+        <v>8</v>
+      </c>
+      <c r="E164" s="3">
+        <v>18</v>
+      </c>
+      <c r="F164" s="3">
+        <v>13</v>
+      </c>
+      <c r="G164" s="3"/>
+      <c r="H164" s="3">
+        <v>60</v>
+      </c>
+      <c r="I164" s="3">
+        <v>39</v>
+      </c>
+      <c r="J164" s="3"/>
+      <c r="K164" s="3"/>
+      <c r="L164" s="3"/>
+      <c r="M164" s="3"/>
+      <c r="N164" s="3"/>
+      <c r="O164" s="3"/>
+      <c r="P164" s="3"/>
+      <c r="Q164" s="3"/>
+      <c r="R164" s="3"/>
+      <c r="S164" s="3"/>
+      <c r="T164" s="3"/>
+      <c r="U164" s="3"/>
+      <c r="V164" s="3"/>
+      <c r="W164" s="3"/>
+    </row>
+    <row r="165" spans="2:23">
+      <c r="B165" s="4">
+        <v>42858</v>
+      </c>
+      <c r="C165" s="3">
+        <f t="shared" si="5"/>
+        <v>83</v>
+      </c>
+      <c r="D165" s="3">
+        <v>8</v>
+      </c>
+      <c r="E165" s="3">
+        <v>17</v>
+      </c>
+      <c r="F165" s="3">
+        <v>13</v>
+      </c>
+      <c r="G165" s="3"/>
+      <c r="H165" s="3"/>
+      <c r="I165" s="3"/>
+      <c r="J165" s="3">
+        <v>45</v>
+      </c>
+      <c r="K165" s="3"/>
+      <c r="L165" s="3"/>
+      <c r="M165" s="3"/>
+      <c r="N165" s="3"/>
+      <c r="O165" s="3"/>
+      <c r="P165" s="3"/>
+      <c r="Q165" s="3"/>
+      <c r="R165" s="3"/>
+      <c r="S165" s="3"/>
+      <c r="T165" s="3"/>
+      <c r="U165" s="3"/>
+      <c r="V165" s="3"/>
+      <c r="W165" s="3"/>
+    </row>
+    <row r="166" spans="2:23">
+      <c r="B166" s="4">
+        <v>42859</v>
+      </c>
+      <c r="C166" s="3">
+        <f t="shared" si="5"/>
+        <v>63</v>
+      </c>
+      <c r="D166" s="3">
+        <v>5</v>
+      </c>
+      <c r="E166" s="3">
+        <v>18</v>
+      </c>
+      <c r="F166" s="3">
+        <v>17</v>
+      </c>
+      <c r="G166" s="3"/>
+      <c r="H166" s="3"/>
+      <c r="I166" s="3">
+        <v>14</v>
+      </c>
+      <c r="J166" s="3">
+        <v>9</v>
+      </c>
+      <c r="K166" s="3"/>
+      <c r="L166" s="3"/>
+      <c r="M166" s="3"/>
+      <c r="N166" s="3"/>
+      <c r="O166" s="3"/>
+      <c r="P166" s="3"/>
+      <c r="Q166" s="3"/>
+      <c r="R166" s="3"/>
+      <c r="S166" s="3"/>
+      <c r="T166" s="3"/>
+      <c r="U166" s="3"/>
+      <c r="V166" s="3"/>
+      <c r="W166" s="3"/>
+    </row>
+    <row r="167" spans="2:23">
+      <c r="B167" s="4">
+        <v>42860</v>
+      </c>
+      <c r="C167" s="3">
+        <f t="shared" si="5"/>
+        <v>181</v>
+      </c>
+      <c r="D167" s="3">
+        <v>8</v>
+      </c>
+      <c r="E167" s="3">
+        <v>18</v>
+      </c>
+      <c r="F167" s="3">
+        <v>36</v>
+      </c>
+      <c r="G167" s="3"/>
+      <c r="H167" s="3"/>
+      <c r="I167" s="3">
+        <v>51</v>
+      </c>
+      <c r="J167" s="3">
+        <v>68</v>
+      </c>
+      <c r="K167" s="3"/>
+      <c r="L167" s="3"/>
+      <c r="M167" s="3"/>
+      <c r="N167" s="3"/>
+      <c r="O167" s="3"/>
+      <c r="P167" s="3"/>
+      <c r="Q167" s="3"/>
+      <c r="R167" s="3"/>
+      <c r="S167" s="3"/>
+      <c r="T167" s="3"/>
+      <c r="U167" s="3"/>
+      <c r="V167" s="3"/>
+      <c r="W167" s="3"/>
+    </row>
+    <row r="168" spans="2:23">
+      <c r="B168" s="4">
+        <v>42861</v>
+      </c>
+      <c r="C168" s="3">
+        <f t="shared" si="5"/>
+        <v>237</v>
+      </c>
+      <c r="D168" s="3"/>
+      <c r="E168" s="3">
+        <v>20</v>
+      </c>
+      <c r="F168" s="3">
+        <v>57</v>
+      </c>
+      <c r="G168" s="3"/>
+      <c r="H168" s="3">
+        <v>160</v>
+      </c>
+      <c r="I168" s="3"/>
+      <c r="J168" s="3"/>
+      <c r="K168" s="3"/>
+      <c r="L168" s="3"/>
+      <c r="M168" s="3"/>
+      <c r="N168" s="3"/>
+      <c r="O168" s="3"/>
+      <c r="P168" s="3"/>
+      <c r="Q168" s="3"/>
+      <c r="R168" s="3"/>
+      <c r="S168" s="3"/>
+      <c r="T168" s="3"/>
+      <c r="U168" s="3"/>
+      <c r="V168" s="3"/>
+      <c r="W168" s="3"/>
+    </row>
+    <row r="169" spans="2:23">
+      <c r="B169" s="4">
+        <v>42862</v>
+      </c>
+      <c r="C169" s="3">
+        <f t="shared" si="5"/>
+        <v>107</v>
+      </c>
+      <c r="D169" s="3"/>
+      <c r="E169" s="3">
+        <v>16</v>
+      </c>
+      <c r="F169" s="3">
+        <v>36</v>
+      </c>
+      <c r="G169" s="3"/>
+      <c r="H169" s="3">
+        <v>20</v>
+      </c>
+      <c r="I169" s="3">
+        <v>13</v>
+      </c>
+      <c r="J169" s="3">
+        <v>22</v>
+      </c>
+      <c r="K169" s="3"/>
+      <c r="L169" s="3"/>
+      <c r="M169" s="3"/>
+      <c r="N169" s="3"/>
+      <c r="O169" s="3"/>
+      <c r="P169" s="3"/>
+      <c r="Q169" s="3"/>
+      <c r="R169" s="3"/>
+      <c r="S169" s="3"/>
+      <c r="T169" s="3"/>
+      <c r="U169" s="3"/>
+      <c r="V169" s="3"/>
+      <c r="W169" s="3"/>
+    </row>
+    <row r="170" spans="2:23">
+      <c r="B170" s="4">
+        <v>42863</v>
+      </c>
+      <c r="C170" s="3">
+        <f t="shared" si="5"/>
+        <v>42</v>
+      </c>
+      <c r="D170" s="3">
+        <v>7</v>
+      </c>
+      <c r="E170" s="3">
+        <v>18</v>
+      </c>
+      <c r="F170" s="3">
+        <v>17</v>
+      </c>
+      <c r="G170" s="3"/>
+      <c r="H170" s="3"/>
+      <c r="I170" s="3"/>
+      <c r="J170" s="3"/>
+      <c r="K170" s="3"/>
+      <c r="L170" s="3"/>
+      <c r="M170" s="3"/>
+      <c r="N170" s="3"/>
+      <c r="O170" s="3"/>
+      <c r="P170" s="3"/>
+      <c r="Q170" s="3"/>
+      <c r="R170" s="3"/>
+      <c r="S170" s="3"/>
+      <c r="T170" s="3"/>
+      <c r="U170" s="3"/>
+      <c r="V170" s="3"/>
+      <c r="W170" s="3"/>
+    </row>
+    <row r="171" spans="2:23">
+      <c r="B171" s="4">
+        <v>42864</v>
+      </c>
+      <c r="C171" s="3">
+        <f t="shared" si="5"/>
+        <v>42</v>
+      </c>
+      <c r="D171" s="3">
+        <v>10</v>
+      </c>
+      <c r="E171" s="3">
+        <v>17</v>
+      </c>
+      <c r="F171" s="3">
+        <v>15</v>
+      </c>
+      <c r="G171" s="3"/>
+      <c r="H171" s="3"/>
+      <c r="I171" s="3"/>
+      <c r="J171" s="3"/>
+      <c r="K171" s="3"/>
+      <c r="L171" s="3"/>
+      <c r="M171" s="3"/>
+      <c r="N171" s="3"/>
+      <c r="O171" s="3"/>
+      <c r="P171" s="3"/>
+      <c r="Q171" s="3"/>
+      <c r="R171" s="3"/>
+      <c r="S171" s="3"/>
+      <c r="T171" s="3"/>
+      <c r="U171" s="3"/>
+      <c r="V171" s="3"/>
+      <c r="W171" s="3"/>
+    </row>
+    <row r="172" spans="2:23">
+      <c r="B172" s="4">
+        <v>42865</v>
+      </c>
+      <c r="C172" s="3">
+        <f t="shared" si="5"/>
+        <v>51</v>
+      </c>
+      <c r="D172" s="3">
+        <v>9</v>
+      </c>
+      <c r="E172" s="3">
+        <v>20</v>
+      </c>
+      <c r="F172" s="3">
+        <v>13</v>
+      </c>
+      <c r="G172" s="3"/>
+      <c r="H172" s="3"/>
+      <c r="I172" s="3">
+        <v>9</v>
+      </c>
+      <c r="J172" s="3"/>
+      <c r="K172" s="3"/>
+      <c r="L172" s="3"/>
+      <c r="M172" s="3"/>
+      <c r="N172" s="3"/>
+      <c r="O172" s="3"/>
+      <c r="P172" s="3"/>
+      <c r="Q172" s="3"/>
+      <c r="R172" s="3"/>
+      <c r="S172" s="3"/>
+      <c r="T172" s="3"/>
+      <c r="U172" s="3"/>
+      <c r="V172" s="3"/>
+      <c r="W172" s="3"/>
+    </row>
+    <row r="173" spans="2:23">
+      <c r="B173" s="4">
+        <v>42866</v>
+      </c>
+      <c r="C173" s="3">
+        <f t="shared" si="5"/>
+        <v>52</v>
+      </c>
+      <c r="D173" s="3">
+        <v>12</v>
+      </c>
+      <c r="E173" s="3">
+        <v>13</v>
+      </c>
+      <c r="F173" s="3">
+        <v>18</v>
+      </c>
+      <c r="G173" s="3"/>
+      <c r="H173" s="3"/>
+      <c r="I173" s="3"/>
+      <c r="J173" s="3">
+        <v>9</v>
+      </c>
+      <c r="K173" s="3"/>
+      <c r="L173" s="3"/>
+      <c r="M173" s="3"/>
+      <c r="N173" s="3"/>
+      <c r="O173" s="3"/>
+      <c r="P173" s="3"/>
+      <c r="Q173" s="3"/>
+      <c r="R173" s="3"/>
+      <c r="S173" s="3"/>
+      <c r="T173" s="3"/>
+      <c r="U173" s="3"/>
+      <c r="V173" s="3"/>
+      <c r="W173" s="3"/>
+    </row>
+    <row r="174" spans="2:23">
+      <c r="B174" s="4">
+        <v>42867</v>
+      </c>
+      <c r="C174" s="3">
+        <f t="shared" si="5"/>
+        <v>56</v>
+      </c>
+      <c r="D174" s="3">
+        <v>10</v>
+      </c>
+      <c r="E174" s="3">
+        <v>18</v>
+      </c>
+      <c r="F174" s="3">
+        <v>12</v>
+      </c>
+      <c r="G174" s="3"/>
+      <c r="H174" s="3"/>
+      <c r="I174" s="3">
+        <v>6</v>
+      </c>
+      <c r="J174" s="3">
+        <v>10</v>
+      </c>
+      <c r="K174" s="3"/>
+      <c r="L174" s="3"/>
+      <c r="M174" s="3"/>
+      <c r="N174" s="3"/>
+      <c r="O174" s="3"/>
+      <c r="P174" s="3"/>
+      <c r="Q174" s="3"/>
+      <c r="R174" s="3"/>
+      <c r="S174" s="3"/>
+      <c r="T174" s="3"/>
+      <c r="U174" s="3"/>
+      <c r="V174" s="3"/>
+      <c r="W174" s="3"/>
+    </row>
+    <row r="175" spans="2:23">
+      <c r="B175" s="4">
+        <v>42868</v>
+      </c>
+      <c r="C175" s="3">
+        <f t="shared" si="5"/>
+        <v>87</v>
+      </c>
+      <c r="D175" s="3"/>
+      <c r="E175" s="3">
+        <v>16</v>
+      </c>
+      <c r="F175" s="3">
+        <v>29</v>
+      </c>
+      <c r="G175" s="3"/>
+      <c r="H175" s="3"/>
+      <c r="I175" s="3">
+        <v>18</v>
+      </c>
+      <c r="J175" s="3">
+        <v>24</v>
+      </c>
+      <c r="K175" s="3"/>
+      <c r="L175" s="3"/>
+      <c r="M175" s="3"/>
+      <c r="N175" s="3"/>
+      <c r="O175" s="3"/>
+      <c r="P175" s="3"/>
+      <c r="Q175" s="3"/>
+      <c r="R175" s="3"/>
+      <c r="S175" s="3"/>
+      <c r="T175" s="3"/>
+      <c r="U175" s="3"/>
+      <c r="V175" s="3"/>
+      <c r="W175" s="3"/>
+    </row>
+    <row r="176" spans="2:23">
+      <c r="B176" s="4">
+        <v>42869</v>
+      </c>
+      <c r="C176" s="3">
+        <f t="shared" si="5"/>
+        <v>106</v>
+      </c>
+      <c r="D176" s="3"/>
+      <c r="E176" s="3">
+        <v>12</v>
+      </c>
+      <c r="F176" s="3">
+        <v>23</v>
+      </c>
+      <c r="G176" s="3"/>
+      <c r="H176" s="3"/>
+      <c r="I176" s="3">
+        <v>23</v>
+      </c>
+      <c r="J176" s="3">
+        <v>48</v>
+      </c>
+      <c r="K176" s="3"/>
+      <c r="L176" s="3"/>
+      <c r="M176" s="3"/>
+      <c r="N176" s="3"/>
+      <c r="O176" s="3"/>
+      <c r="P176" s="3"/>
+      <c r="Q176" s="3"/>
+      <c r="R176" s="3"/>
+      <c r="S176" s="3"/>
+      <c r="T176" s="3"/>
+      <c r="U176" s="3"/>
+      <c r="V176" s="3"/>
+      <c r="W176" s="3"/>
+    </row>
+    <row r="177" spans="2:23">
+      <c r="B177" s="4">
+        <v>42870</v>
+      </c>
+      <c r="C177" s="3">
+        <f t="shared" si="5"/>
+        <v>6538</v>
+      </c>
+      <c r="D177" s="3">
+        <v>6</v>
+      </c>
+      <c r="E177" s="3">
+        <v>12</v>
+      </c>
+      <c r="F177" s="3">
+        <v>20</v>
+      </c>
+      <c r="G177" s="3"/>
+      <c r="H177" s="3"/>
+      <c r="I177" s="3"/>
+      <c r="J177" s="3"/>
+      <c r="K177" s="3"/>
+      <c r="L177" s="3"/>
+      <c r="M177" s="3"/>
+      <c r="N177" s="3"/>
+      <c r="O177" s="3"/>
+      <c r="P177" s="3"/>
+      <c r="Q177" s="3">
+        <v>6500</v>
+      </c>
+      <c r="R177" s="3"/>
+      <c r="S177" s="3"/>
+      <c r="T177" s="3"/>
+      <c r="U177" s="3"/>
+      <c r="V177" s="3"/>
+      <c r="W177" s="3"/>
+    </row>
+    <row r="178" spans="2:23">
+      <c r="B178" s="4">
+        <v>42871</v>
+      </c>
+      <c r="C178" s="3">
+        <f t="shared" si="5"/>
+        <v>90</v>
+      </c>
+      <c r="D178" s="3"/>
+      <c r="E178" s="3">
+        <v>20</v>
+      </c>
+      <c r="F178" s="3">
+        <v>18</v>
+      </c>
+      <c r="G178" s="3"/>
+      <c r="H178" s="3"/>
+      <c r="I178" s="3">
+        <v>7</v>
+      </c>
+      <c r="J178" s="3">
+        <v>45</v>
+      </c>
+      <c r="K178" s="3"/>
+      <c r="L178" s="3"/>
+      <c r="M178" s="3"/>
+      <c r="N178" s="3"/>
+      <c r="O178" s="3"/>
+      <c r="P178" s="3"/>
+      <c r="Q178" s="3"/>
+      <c r="R178" s="3"/>
+      <c r="S178" s="3"/>
+      <c r="T178" s="3"/>
+      <c r="U178" s="3"/>
+      <c r="V178" s="3"/>
+      <c r="W178" s="3"/>
+    </row>
+    <row r="179" spans="2:23">
+      <c r="B179" s="4">
+        <v>42872</v>
+      </c>
+      <c r="C179" s="3">
+        <f t="shared" si="5"/>
+        <v>64</v>
+      </c>
+      <c r="D179" s="3">
+        <v>9</v>
+      </c>
+      <c r="E179" s="3">
+        <v>15</v>
+      </c>
+      <c r="F179" s="3">
+        <v>25</v>
+      </c>
+      <c r="G179" s="3"/>
+      <c r="H179" s="3"/>
+      <c r="I179" s="3">
+        <v>7</v>
+      </c>
+      <c r="J179" s="3">
+        <v>8</v>
+      </c>
+      <c r="K179" s="3"/>
+      <c r="L179" s="3"/>
+      <c r="M179" s="3"/>
+      <c r="N179" s="3"/>
+      <c r="O179" s="3"/>
+      <c r="P179" s="3"/>
+      <c r="Q179" s="3"/>
+      <c r="R179" s="3"/>
+      <c r="S179" s="3"/>
+      <c r="T179" s="3"/>
+      <c r="U179" s="3"/>
+      <c r="V179" s="3"/>
+      <c r="W179" s="3"/>
+    </row>
+    <row r="180" spans="2:23">
+      <c r="B180" s="4">
+        <v>42873</v>
+      </c>
+      <c r="C180" s="3">
+        <f t="shared" si="5"/>
+        <v>85</v>
+      </c>
+      <c r="D180" s="3">
+        <v>8</v>
+      </c>
+      <c r="E180" s="3">
+        <v>24</v>
+      </c>
+      <c r="F180" s="3">
+        <v>18</v>
+      </c>
+      <c r="G180" s="3"/>
+      <c r="H180" s="3">
+        <v>35</v>
+      </c>
+      <c r="I180" s="3"/>
+      <c r="J180" s="3"/>
+      <c r="K180" s="3"/>
+      <c r="L180" s="3"/>
+      <c r="M180" s="3"/>
+      <c r="N180" s="3"/>
+      <c r="O180" s="3"/>
+      <c r="P180" s="3"/>
+      <c r="Q180" s="3"/>
+      <c r="R180" s="3"/>
+      <c r="S180" s="3"/>
+      <c r="T180" s="3"/>
+      <c r="U180" s="3"/>
+      <c r="V180" s="3"/>
+      <c r="W180" s="3"/>
+    </row>
+    <row r="181" spans="2:23">
+      <c r="B181" s="4">
+        <v>42874</v>
+      </c>
+      <c r="C181" s="3">
+        <f t="shared" si="5"/>
+        <v>144</v>
+      </c>
+      <c r="D181" s="3">
+        <v>9</v>
+      </c>
+      <c r="E181" s="3">
+        <v>20</v>
+      </c>
+      <c r="F181" s="3"/>
+      <c r="G181" s="3"/>
+      <c r="H181" s="3"/>
+      <c r="I181" s="3">
+        <v>6</v>
+      </c>
+      <c r="J181" s="3">
+        <v>109</v>
+      </c>
+      <c r="K181" s="3"/>
+      <c r="L181" s="3"/>
+      <c r="M181" s="3"/>
+      <c r="N181" s="3"/>
+      <c r="O181" s="3"/>
+      <c r="P181" s="3"/>
+      <c r="Q181" s="3"/>
+      <c r="R181" s="3"/>
+      <c r="S181" s="3"/>
+      <c r="T181" s="3"/>
+      <c r="U181" s="3"/>
+      <c r="V181" s="3"/>
+      <c r="W181" s="3"/>
+    </row>
+    <row r="182" spans="2:23">
+      <c r="B182" s="4">
+        <v>42875</v>
+      </c>
+      <c r="C182" s="3">
+        <f t="shared" si="5"/>
+        <v>1444</v>
+      </c>
+      <c r="D182" s="3"/>
+      <c r="E182" s="3">
+        <v>12</v>
+      </c>
+      <c r="F182" s="3">
+        <v>16</v>
+      </c>
+      <c r="G182" s="3"/>
+      <c r="H182" s="3">
+        <v>1202</v>
+      </c>
+      <c r="I182" s="3">
+        <v>14</v>
+      </c>
+      <c r="J182" s="3"/>
+      <c r="K182" s="3"/>
+      <c r="L182" s="3"/>
+      <c r="M182" s="3"/>
+      <c r="N182" s="3"/>
+      <c r="O182" s="3"/>
+      <c r="P182" s="3"/>
+      <c r="Q182" s="3">
+        <v>200</v>
+      </c>
+      <c r="R182" s="3"/>
+      <c r="S182" s="3"/>
+      <c r="T182" s="3"/>
+      <c r="U182" s="3"/>
+      <c r="V182" s="3"/>
+      <c r="W182" s="3"/>
+    </row>
+    <row r="183" spans="2:23">
+      <c r="B183" s="4">
+        <v>42876</v>
+      </c>
+      <c r="C183" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="D183" s="3"/>
+      <c r="E183" s="3"/>
+      <c r="F183" s="3"/>
+      <c r="G183" s="3"/>
+      <c r="H183" s="3"/>
+      <c r="I183" s="3"/>
+      <c r="J183" s="3"/>
+      <c r="K183" s="3"/>
+      <c r="L183" s="3"/>
+      <c r="M183" s="3"/>
+      <c r="N183" s="3"/>
+      <c r="O183" s="3"/>
+      <c r="P183" s="3"/>
+      <c r="Q183" s="3"/>
+      <c r="R183" s="3"/>
+      <c r="S183" s="3"/>
+      <c r="T183" s="3"/>
+      <c r="U183" s="3"/>
+      <c r="V183" s="3"/>
+      <c r="W183" s="3"/>
+    </row>
+    <row r="184" spans="2:23">
+      <c r="B184" s="4">
+        <v>42877</v>
+      </c>
+      <c r="C184" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="D184" s="3"/>
+      <c r="E184" s="3"/>
+      <c r="F184" s="3"/>
+      <c r="G184" s="3"/>
+      <c r="H184" s="3"/>
+      <c r="I184" s="3"/>
+      <c r="J184" s="3"/>
+      <c r="K184" s="3"/>
+      <c r="L184" s="3"/>
+      <c r="M184" s="3"/>
+      <c r="N184" s="3"/>
+      <c r="O184" s="3"/>
+      <c r="P184" s="3"/>
+      <c r="Q184" s="3"/>
+      <c r="R184" s="3"/>
+      <c r="S184" s="3"/>
+      <c r="T184" s="3"/>
+      <c r="U184" s="3"/>
+      <c r="V184" s="3"/>
+      <c r="W184" s="3"/>
+    </row>
+    <row r="185" spans="2:23">
+      <c r="B185" s="4">
+        <v>42878</v>
+      </c>
+      <c r="C185" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="D185" s="3"/>
+      <c r="E185" s="3"/>
+      <c r="F185" s="3"/>
+      <c r="G185" s="3"/>
+      <c r="H185" s="3"/>
+      <c r="I185" s="3"/>
+      <c r="J185" s="3"/>
+      <c r="K185" s="3"/>
+      <c r="L185" s="3"/>
+      <c r="M185" s="3"/>
+      <c r="N185" s="3"/>
+      <c r="O185" s="3"/>
+      <c r="P185" s="3"/>
+      <c r="Q185" s="3"/>
+      <c r="R185" s="3"/>
+      <c r="S185" s="3"/>
+      <c r="T185" s="3"/>
+      <c r="U185" s="3"/>
+      <c r="V185" s="3"/>
+      <c r="W185" s="3"/>
+    </row>
+    <row r="186" spans="2:23">
+      <c r="B186" s="4">
+        <v>42879</v>
+      </c>
+      <c r="C186" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="D186" s="3"/>
+      <c r="E186" s="3"/>
+      <c r="F186" s="3"/>
+      <c r="G186" s="3"/>
+      <c r="H186" s="3"/>
+      <c r="I186" s="3"/>
+      <c r="J186" s="3"/>
+      <c r="K186" s="3"/>
+      <c r="L186" s="3"/>
+      <c r="M186" s="3"/>
+      <c r="N186" s="3"/>
+      <c r="O186" s="3"/>
+      <c r="P186" s="3"/>
+      <c r="Q186" s="3"/>
+      <c r="R186" s="3"/>
+      <c r="S186" s="3"/>
+      <c r="T186" s="3"/>
+      <c r="U186" s="3"/>
+      <c r="V186" s="3"/>
+      <c r="W186" s="3"/>
+    </row>
+    <row r="187" spans="2:23">
+      <c r="B187" s="4">
+        <v>42880</v>
+      </c>
+      <c r="C187" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="D187" s="3"/>
+      <c r="E187" s="3"/>
+      <c r="F187" s="3"/>
+      <c r="G187" s="3"/>
+      <c r="H187" s="3"/>
+      <c r="I187" s="3"/>
+      <c r="J187" s="3"/>
+      <c r="K187" s="3"/>
+      <c r="L187" s="3"/>
+      <c r="M187" s="3"/>
+      <c r="N187" s="3"/>
+      <c r="O187" s="3"/>
+      <c r="P187" s="3"/>
+      <c r="Q187" s="3"/>
+      <c r="R187" s="3"/>
+      <c r="S187" s="3"/>
+      <c r="T187" s="3"/>
+      <c r="U187" s="3"/>
+      <c r="V187" s="3"/>
+      <c r="W187" s="3"/>
+    </row>
+    <row r="188" spans="2:23">
+      <c r="B188" s="4">
+        <v>42881</v>
+      </c>
+      <c r="C188" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="D188" s="3"/>
+      <c r="E188" s="3"/>
+      <c r="F188" s="3"/>
+      <c r="G188" s="3"/>
+      <c r="H188" s="3"/>
+      <c r="I188" s="3"/>
+      <c r="J188" s="3"/>
+      <c r="K188" s="3"/>
+      <c r="L188" s="3"/>
+      <c r="M188" s="3"/>
+      <c r="N188" s="3"/>
+      <c r="O188" s="3"/>
+      <c r="P188" s="3"/>
+      <c r="Q188" s="3"/>
+      <c r="R188" s="3"/>
+      <c r="S188" s="3"/>
+      <c r="T188" s="3"/>
+      <c r="U188" s="3"/>
+      <c r="V188" s="3"/>
+      <c r="W188" s="3"/>
+    </row>
+    <row r="189" spans="2:23">
+      <c r="B189" s="4">
+        <v>42882</v>
+      </c>
+      <c r="C189" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="D189" s="3"/>
+      <c r="E189" s="3"/>
+      <c r="F189" s="3"/>
+      <c r="G189" s="3"/>
+      <c r="H189" s="3"/>
+      <c r="I189" s="3"/>
+      <c r="J189" s="3"/>
+      <c r="K189" s="3"/>
+      <c r="L189" s="3"/>
+      <c r="M189" s="3"/>
+      <c r="N189" s="3"/>
+      <c r="O189" s="3"/>
+      <c r="P189" s="3"/>
+      <c r="Q189" s="3"/>
+      <c r="R189" s="3"/>
+      <c r="S189" s="3"/>
+      <c r="T189" s="3"/>
+      <c r="U189" s="3"/>
+      <c r="V189" s="3"/>
+      <c r="W189" s="3"/>
+    </row>
+    <row r="190" spans="2:23">
+      <c r="B190" s="4">
+        <v>42883</v>
+      </c>
+      <c r="C190" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="D190" s="3"/>
+      <c r="E190" s="3"/>
+      <c r="F190" s="3"/>
+      <c r="G190" s="3"/>
+      <c r="H190" s="3"/>
+      <c r="I190" s="3"/>
+      <c r="J190" s="3"/>
+      <c r="K190" s="3"/>
+      <c r="L190" s="3"/>
+      <c r="M190" s="3"/>
+      <c r="N190" s="3"/>
+      <c r="O190" s="3"/>
+      <c r="P190" s="3"/>
+      <c r="Q190" s="3"/>
+      <c r="R190" s="3"/>
+      <c r="S190" s="3"/>
+      <c r="T190" s="3"/>
+      <c r="U190" s="3"/>
+      <c r="V190" s="3"/>
+      <c r="W190" s="3"/>
+    </row>
+    <row r="191" spans="2:23">
+      <c r="B191" s="4">
+        <v>42884</v>
+      </c>
+      <c r="C191" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="D191" s="3"/>
+      <c r="E191" s="3"/>
+      <c r="F191" s="3"/>
+      <c r="G191" s="3"/>
+      <c r="H191" s="3"/>
+      <c r="I191" s="3"/>
+      <c r="J191" s="3"/>
+      <c r="K191" s="3"/>
+      <c r="L191" s="3"/>
+      <c r="M191" s="3"/>
+      <c r="N191" s="3"/>
+      <c r="O191" s="3"/>
+      <c r="P191" s="3"/>
+      <c r="Q191" s="3"/>
+      <c r="R191" s="3"/>
+      <c r="S191" s="3"/>
+      <c r="T191" s="3"/>
+      <c r="U191" s="3"/>
+      <c r="V191" s="3"/>
+      <c r="W191" s="3"/>
+    </row>
+    <row r="192" spans="2:23">
+      <c r="B192" s="4">
+        <v>42885</v>
+      </c>
+      <c r="C192" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="D192" s="3"/>
+      <c r="E192" s="3"/>
+      <c r="F192" s="3"/>
+      <c r="G192" s="3"/>
+      <c r="H192" s="3"/>
+      <c r="I192" s="3"/>
+      <c r="J192" s="3"/>
+      <c r="K192" s="3"/>
+      <c r="L192" s="3"/>
+      <c r="M192" s="3"/>
+      <c r="N192" s="3"/>
+      <c r="O192" s="3"/>
+      <c r="P192" s="3"/>
+      <c r="Q192" s="3"/>
+      <c r="R192" s="3"/>
+      <c r="S192" s="3"/>
+      <c r="T192" s="3"/>
+      <c r="U192" s="3"/>
+      <c r="V192" s="3"/>
+      <c r="W192" s="3"/>
+    </row>
+    <row r="193" spans="2:23">
+      <c r="B193" s="4">
+        <v>42886</v>
+      </c>
+      <c r="C193" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="D193" s="3"/>
+      <c r="E193" s="3"/>
+      <c r="F193" s="3"/>
+      <c r="G193" s="3"/>
+      <c r="H193" s="3"/>
+      <c r="I193" s="3"/>
+      <c r="J193" s="3"/>
+      <c r="K193" s="3"/>
+      <c r="L193" s="3"/>
+      <c r="M193" s="3"/>
+      <c r="N193" s="3"/>
+      <c r="O193" s="3"/>
+      <c r="P193" s="3"/>
+      <c r="Q193" s="3"/>
+      <c r="R193" s="3"/>
+      <c r="S193" s="3"/>
+      <c r="T193" s="3"/>
+      <c r="U193" s="3"/>
+      <c r="V193" s="3"/>
+      <c r="W193" s="3"/>
+    </row>
+    <row r="194" spans="2:23">
+      <c r="B194" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C194" s="6">
+        <f>SUM(C163:C193)</f>
+        <v>11790</v>
+      </c>
+      <c r="D194" s="6"/>
+      <c r="E194" s="6"/>
+      <c r="F194" s="6"/>
+      <c r="G194" s="6"/>
+      <c r="H194" s="6"/>
+      <c r="I194" s="6"/>
+      <c r="J194" s="6"/>
+      <c r="K194" s="6"/>
+      <c r="L194" s="6"/>
+      <c r="M194" s="6"/>
+      <c r="N194" s="6"/>
+      <c r="O194" s="6"/>
+      <c r="P194" s="6"/>
+      <c r="Q194" s="6"/>
+      <c r="R194" s="6"/>
+      <c r="S194" s="6"/>
+      <c r="T194" s="6"/>
+      <c r="U194" s="6"/>
+      <c r="V194" s="6"/>
+      <c r="W194" s="6"/>
+    </row>
+    <row r="195" spans="2:23">
+      <c r="B195" s="4">
+        <v>42887</v>
+      </c>
+      <c r="C195" s="3">
+        <f t="shared" ref="C195:C224" si="6">SUM(D195:CM195)</f>
+        <v>0</v>
+      </c>
+      <c r="D195" s="3"/>
+      <c r="E195" s="3"/>
+      <c r="F195" s="3"/>
+      <c r="G195" s="3"/>
+      <c r="H195" s="3"/>
+      <c r="I195" s="3"/>
+      <c r="J195" s="3"/>
+      <c r="K195" s="3"/>
+      <c r="L195" s="3"/>
+      <c r="M195" s="3"/>
+      <c r="N195" s="3"/>
+      <c r="O195" s="3"/>
+      <c r="P195" s="3"/>
+      <c r="Q195" s="3"/>
+      <c r="R195" s="3"/>
+      <c r="S195" s="3"/>
+      <c r="T195" s="3"/>
+      <c r="U195" s="3"/>
+      <c r="V195" s="3"/>
+      <c r="W195" s="3"/>
+    </row>
+    <row r="196" spans="2:23">
+      <c r="B196" s="4">
+        <v>42888</v>
+      </c>
+      <c r="C196" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="D196" s="3"/>
+      <c r="E196" s="3"/>
+      <c r="F196" s="3"/>
+      <c r="G196" s="3"/>
+      <c r="H196" s="3"/>
+      <c r="I196" s="3"/>
+      <c r="J196" s="3"/>
+      <c r="K196" s="3"/>
+      <c r="L196" s="3"/>
+      <c r="M196" s="3"/>
+      <c r="N196" s="3"/>
+      <c r="O196" s="3"/>
+      <c r="P196" s="3"/>
+      <c r="Q196" s="3"/>
+      <c r="R196" s="3"/>
+      <c r="S196" s="3"/>
+      <c r="T196" s="3"/>
+      <c r="U196" s="3"/>
+      <c r="V196" s="3"/>
+      <c r="W196" s="3"/>
+    </row>
+    <row r="197" spans="2:23">
+      <c r="B197" s="4">
+        <v>42889</v>
+      </c>
+      <c r="C197" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="D197" s="3"/>
+      <c r="E197" s="3"/>
+      <c r="F197" s="3"/>
+      <c r="G197" s="3"/>
+      <c r="H197" s="3"/>
+      <c r="I197" s="3"/>
+      <c r="J197" s="3"/>
+      <c r="K197" s="3"/>
+      <c r="L197" s="3"/>
+      <c r="M197" s="3"/>
+      <c r="N197" s="3"/>
+      <c r="O197" s="3"/>
+      <c r="P197" s="3"/>
+      <c r="Q197" s="3"/>
+      <c r="R197" s="3"/>
+      <c r="S197" s="3"/>
+      <c r="T197" s="3"/>
+      <c r="U197" s="3"/>
+      <c r="V197" s="3"/>
+      <c r="W197" s="3"/>
+    </row>
+    <row r="198" spans="2:23">
+      <c r="B198" s="4">
+        <v>42890</v>
+      </c>
+      <c r="C198" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="D198" s="3"/>
+      <c r="E198" s="3"/>
+      <c r="F198" s="3"/>
+      <c r="G198" s="3"/>
+      <c r="H198" s="3"/>
+      <c r="I198" s="3"/>
+      <c r="J198" s="3"/>
+      <c r="K198" s="3"/>
+      <c r="L198" s="3"/>
+      <c r="M198" s="3"/>
+      <c r="N198" s="3"/>
+      <c r="O198" s="3"/>
+      <c r="P198" s="3"/>
+      <c r="Q198" s="3"/>
+      <c r="R198" s="3"/>
+      <c r="S198" s="3"/>
+      <c r="T198" s="3"/>
+      <c r="U198" s="3"/>
+      <c r="V198" s="3"/>
+      <c r="W198" s="3"/>
+    </row>
+    <row r="199" spans="2:23">
+      <c r="B199" s="4">
+        <v>42891</v>
+      </c>
+      <c r="C199" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="D199" s="3"/>
+      <c r="E199" s="3"/>
+      <c r="F199" s="3"/>
+      <c r="G199" s="3"/>
+      <c r="H199" s="3"/>
+      <c r="I199" s="3"/>
+      <c r="J199" s="3"/>
+      <c r="K199" s="3"/>
+      <c r="L199" s="3"/>
+      <c r="M199" s="3"/>
+      <c r="N199" s="3"/>
+      <c r="O199" s="3"/>
+      <c r="P199" s="3"/>
+      <c r="Q199" s="3"/>
+      <c r="R199" s="3"/>
+      <c r="S199" s="3"/>
+      <c r="T199" s="3"/>
+      <c r="U199" s="3"/>
+      <c r="V199" s="3"/>
+      <c r="W199" s="3"/>
+    </row>
+    <row r="200" spans="2:23">
+      <c r="B200" s="4">
+        <v>42892</v>
+      </c>
+      <c r="C200" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="D200" s="3"/>
+      <c r="E200" s="3"/>
+      <c r="F200" s="3"/>
+      <c r="G200" s="3"/>
+      <c r="H200" s="3"/>
+      <c r="I200" s="3"/>
+      <c r="J200" s="3"/>
+      <c r="K200" s="3"/>
+      <c r="L200" s="3"/>
+      <c r="M200" s="3"/>
+      <c r="N200" s="3"/>
+      <c r="O200" s="3"/>
+      <c r="P200" s="3"/>
+      <c r="Q200" s="3"/>
+      <c r="R200" s="3"/>
+      <c r="S200" s="3"/>
+      <c r="T200" s="3"/>
+      <c r="U200" s="3"/>
+      <c r="V200" s="3"/>
+      <c r="W200" s="3"/>
+    </row>
+    <row r="201" spans="2:23">
+      <c r="B201" s="4">
+        <v>42893</v>
+      </c>
+      <c r="C201" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="D201" s="3"/>
+      <c r="E201" s="3"/>
+      <c r="F201" s="3"/>
+      <c r="G201" s="3"/>
+      <c r="H201" s="3"/>
+      <c r="I201" s="3"/>
+      <c r="J201" s="3"/>
+      <c r="K201" s="3"/>
+      <c r="L201" s="3"/>
+      <c r="M201" s="3"/>
+      <c r="N201" s="3"/>
+      <c r="O201" s="3"/>
+      <c r="P201" s="3"/>
+      <c r="Q201" s="3"/>
+      <c r="R201" s="3"/>
+      <c r="S201" s="3"/>
+      <c r="T201" s="3"/>
+      <c r="U201" s="3"/>
+      <c r="V201" s="3"/>
+      <c r="W201" s="3"/>
+    </row>
+    <row r="202" spans="2:23">
+      <c r="B202" s="4">
+        <v>42894</v>
+      </c>
+      <c r="C202" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="D202" s="3"/>
+      <c r="E202" s="3"/>
+      <c r="F202" s="3"/>
+      <c r="G202" s="3"/>
+      <c r="H202" s="3"/>
+      <c r="I202" s="3"/>
+      <c r="J202" s="3"/>
+      <c r="K202" s="3"/>
+      <c r="L202" s="3"/>
+      <c r="M202" s="3"/>
+      <c r="N202" s="3"/>
+      <c r="O202" s="3"/>
+      <c r="P202" s="3"/>
+      <c r="Q202" s="3"/>
+      <c r="R202" s="3"/>
+      <c r="S202" s="3"/>
+      <c r="T202" s="3"/>
+      <c r="U202" s="3"/>
+      <c r="V202" s="3"/>
+      <c r="W202" s="3"/>
+    </row>
+    <row r="203" spans="2:23">
+      <c r="B203" s="4">
+        <v>42895</v>
+      </c>
+      <c r="C203" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="D203" s="3"/>
+      <c r="E203" s="3"/>
+      <c r="F203" s="3"/>
+      <c r="G203" s="3"/>
+      <c r="H203" s="3"/>
+      <c r="I203" s="3"/>
+      <c r="J203" s="3"/>
+      <c r="K203" s="3"/>
+      <c r="L203" s="3"/>
+      <c r="M203" s="3"/>
+      <c r="N203" s="3"/>
+      <c r="O203" s="3"/>
+      <c r="P203" s="3"/>
+      <c r="Q203" s="3"/>
+      <c r="R203" s="3"/>
+      <c r="S203" s="3"/>
+      <c r="T203" s="3"/>
+      <c r="U203" s="3"/>
+      <c r="V203" s="3"/>
+      <c r="W203" s="3"/>
+    </row>
+    <row r="204" spans="2:23">
+      <c r="B204" s="4">
+        <v>42896</v>
+      </c>
+      <c r="C204" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="D204" s="3"/>
+      <c r="E204" s="3"/>
+      <c r="F204" s="3"/>
+      <c r="G204" s="3"/>
+      <c r="H204" s="3"/>
+      <c r="I204" s="3"/>
+      <c r="J204" s="3"/>
+      <c r="K204" s="3"/>
+      <c r="L204" s="3"/>
+      <c r="M204" s="3"/>
+      <c r="N204" s="3"/>
+      <c r="O204" s="3"/>
+      <c r="P204" s="3"/>
+      <c r="Q204" s="3"/>
+      <c r="R204" s="3"/>
+      <c r="S204" s="3"/>
+      <c r="T204" s="3"/>
+      <c r="U204" s="3"/>
+      <c r="V204" s="3"/>
+      <c r="W204" s="3"/>
+    </row>
+    <row r="205" spans="2:23">
+      <c r="B205" s="4">
+        <v>42897</v>
+      </c>
+      <c r="C205" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="D205" s="3"/>
+      <c r="E205" s="3"/>
+      <c r="F205" s="3"/>
+      <c r="G205" s="3"/>
+      <c r="H205" s="3"/>
+      <c r="I205" s="3"/>
+      <c r="J205" s="3"/>
+      <c r="K205" s="3"/>
+      <c r="L205" s="3"/>
+      <c r="M205" s="3"/>
+      <c r="N205" s="3"/>
+      <c r="O205" s="3"/>
+      <c r="P205" s="3"/>
+      <c r="Q205" s="3"/>
+      <c r="R205" s="3"/>
+      <c r="S205" s="3"/>
+      <c r="T205" s="3"/>
+      <c r="U205" s="3"/>
+      <c r="V205" s="3"/>
+      <c r="W205" s="3"/>
+    </row>
+    <row r="206" spans="2:23">
+      <c r="B206" s="4">
+        <v>42898</v>
+      </c>
+      <c r="C206" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="D206" s="3"/>
+      <c r="E206" s="3"/>
+      <c r="F206" s="3"/>
+      <c r="G206" s="3"/>
+      <c r="H206" s="3"/>
+      <c r="I206" s="3"/>
+      <c r="J206" s="3"/>
+      <c r="K206" s="3"/>
+      <c r="L206" s="3"/>
+      <c r="M206" s="3"/>
+      <c r="N206" s="3"/>
+      <c r="O206" s="3"/>
+      <c r="P206" s="3"/>
+      <c r="Q206" s="3"/>
+      <c r="R206" s="3"/>
+      <c r="S206" s="3"/>
+      <c r="T206" s="3"/>
+      <c r="U206" s="3"/>
+      <c r="V206" s="3"/>
+      <c r="W206" s="3"/>
+    </row>
+    <row r="207" spans="2:23">
+      <c r="B207" s="4">
+        <v>42899</v>
+      </c>
+      <c r="C207" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="D207" s="3"/>
+      <c r="E207" s="3"/>
+      <c r="F207" s="3"/>
+      <c r="G207" s="3"/>
+      <c r="H207" s="3"/>
+      <c r="I207" s="3"/>
+      <c r="J207" s="3"/>
+      <c r="K207" s="3"/>
+      <c r="L207" s="3"/>
+      <c r="M207" s="3"/>
+      <c r="N207" s="3"/>
+      <c r="O207" s="3"/>
+      <c r="P207" s="3"/>
+      <c r="Q207" s="3"/>
+      <c r="R207" s="3"/>
+      <c r="S207" s="3"/>
+      <c r="T207" s="3"/>
+      <c r="U207" s="3"/>
+      <c r="V207" s="3"/>
+      <c r="W207" s="3"/>
+    </row>
+    <row r="208" spans="2:23">
+      <c r="B208" s="4">
+        <v>42900</v>
+      </c>
+      <c r="C208" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="D208" s="3"/>
+      <c r="E208" s="3"/>
+      <c r="F208" s="3"/>
+      <c r="G208" s="3"/>
+      <c r="H208" s="3"/>
+      <c r="I208" s="3"/>
+      <c r="J208" s="3"/>
+      <c r="K208" s="3"/>
+      <c r="L208" s="3"/>
+      <c r="M208" s="3"/>
+      <c r="N208" s="3"/>
+      <c r="O208" s="3"/>
+      <c r="P208" s="3"/>
+      <c r="Q208" s="3"/>
+      <c r="R208" s="3"/>
+      <c r="S208" s="3"/>
+      <c r="T208" s="3"/>
+      <c r="U208" s="3"/>
+      <c r="V208" s="3"/>
+      <c r="W208" s="3"/>
+    </row>
+    <row r="209" spans="2:23">
+      <c r="B209" s="4">
+        <v>42901</v>
+      </c>
+      <c r="C209" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="D209" s="3"/>
+      <c r="E209" s="3"/>
+      <c r="F209" s="3"/>
+      <c r="G209" s="3"/>
+      <c r="H209" s="3"/>
+      <c r="I209" s="3"/>
+      <c r="J209" s="3"/>
+      <c r="K209" s="3"/>
+      <c r="L209" s="3"/>
+      <c r="M209" s="3"/>
+      <c r="N209" s="3"/>
+      <c r="O209" s="3"/>
+      <c r="P209" s="3"/>
+      <c r="Q209" s="3"/>
+      <c r="R209" s="3"/>
+      <c r="S209" s="3"/>
+      <c r="T209" s="3"/>
+      <c r="U209" s="3"/>
+      <c r="V209" s="3"/>
+      <c r="W209" s="3"/>
+    </row>
+    <row r="210" spans="2:23">
+      <c r="B210" s="4">
+        <v>42902</v>
+      </c>
+      <c r="C210" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="D210" s="3"/>
+      <c r="E210" s="3"/>
+      <c r="F210" s="3"/>
+      <c r="G210" s="3"/>
+      <c r="H210" s="3"/>
+      <c r="I210" s="3"/>
+      <c r="J210" s="3"/>
+      <c r="K210" s="3"/>
+      <c r="L210" s="3"/>
+      <c r="M210" s="3"/>
+      <c r="N210" s="3"/>
+      <c r="O210" s="3"/>
+      <c r="P210" s="3"/>
+      <c r="Q210" s="3"/>
+      <c r="R210" s="3"/>
+      <c r="S210" s="3"/>
+      <c r="T210" s="3"/>
+      <c r="U210" s="3"/>
+      <c r="V210" s="3"/>
+      <c r="W210" s="3"/>
+    </row>
+    <row r="211" spans="2:23">
+      <c r="B211" s="4">
+        <v>42903</v>
+      </c>
+      <c r="C211" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="D211" s="3"/>
+      <c r="E211" s="3"/>
+      <c r="F211" s="3"/>
+      <c r="G211" s="3"/>
+      <c r="H211" s="3"/>
+      <c r="I211" s="3"/>
+      <c r="J211" s="3"/>
+      <c r="K211" s="3"/>
+      <c r="L211" s="3"/>
+      <c r="M211" s="3"/>
+      <c r="N211" s="3"/>
+      <c r="O211" s="3"/>
+      <c r="P211" s="3"/>
+      <c r="Q211" s="3"/>
+      <c r="R211" s="3"/>
+      <c r="S211" s="3"/>
+      <c r="T211" s="3"/>
+      <c r="U211" s="3"/>
+      <c r="V211" s="3"/>
+      <c r="W211" s="3"/>
+    </row>
+    <row r="212" spans="2:23">
+      <c r="B212" s="4">
+        <v>42904</v>
+      </c>
+      <c r="C212" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="D212" s="3"/>
+      <c r="E212" s="3"/>
+      <c r="F212" s="3"/>
+      <c r="G212" s="3"/>
+      <c r="H212" s="3"/>
+      <c r="I212" s="3"/>
+      <c r="J212" s="3"/>
+      <c r="K212" s="3"/>
+      <c r="L212" s="3"/>
+      <c r="M212" s="3"/>
+      <c r="N212" s="3"/>
+      <c r="O212" s="3"/>
+      <c r="P212" s="3"/>
+      <c r="Q212" s="3"/>
+      <c r="R212" s="3"/>
+      <c r="S212" s="3"/>
+      <c r="T212" s="3"/>
+      <c r="U212" s="3"/>
+      <c r="V212" s="3"/>
+      <c r="W212" s="3"/>
+    </row>
+    <row r="213" spans="2:23">
+      <c r="B213" s="4">
+        <v>42905</v>
+      </c>
+      <c r="C213" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="D213" s="3"/>
+      <c r="E213" s="3"/>
+      <c r="F213" s="3"/>
+      <c r="G213" s="3"/>
+      <c r="H213" s="3"/>
+      <c r="I213" s="3"/>
+      <c r="J213" s="3"/>
+      <c r="K213" s="3"/>
+      <c r="L213" s="3"/>
+      <c r="M213" s="3"/>
+      <c r="N213" s="3"/>
+      <c r="O213" s="3"/>
+      <c r="P213" s="3"/>
+      <c r="Q213" s="3"/>
+      <c r="R213" s="3"/>
+      <c r="S213" s="3"/>
+      <c r="T213" s="3"/>
+      <c r="U213" s="3"/>
+      <c r="V213" s="3"/>
+      <c r="W213" s="3"/>
+    </row>
+    <row r="214" spans="2:23">
+      <c r="B214" s="4">
+        <v>42906</v>
+      </c>
+      <c r="C214" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="D214" s="3"/>
+      <c r="E214" s="3"/>
+      <c r="F214" s="3"/>
+      <c r="G214" s="3"/>
+      <c r="H214" s="3"/>
+      <c r="I214" s="3"/>
+      <c r="J214" s="3"/>
+      <c r="K214" s="3"/>
+      <c r="L214" s="3"/>
+      <c r="M214" s="3"/>
+      <c r="N214" s="3"/>
+      <c r="O214" s="3"/>
+      <c r="P214" s="3"/>
+      <c r="Q214" s="3"/>
+      <c r="R214" s="3"/>
+      <c r="S214" s="3"/>
+      <c r="T214" s="3"/>
+      <c r="U214" s="3"/>
+      <c r="V214" s="3"/>
+      <c r="W214" s="3"/>
+    </row>
+    <row r="215" spans="2:23">
+      <c r="B215" s="4">
+        <v>42907</v>
+      </c>
+      <c r="C215" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="D215" s="3"/>
+      <c r="E215" s="3"/>
+      <c r="F215" s="3"/>
+      <c r="G215" s="3"/>
+      <c r="H215" s="3"/>
+      <c r="I215" s="3"/>
+      <c r="J215" s="3"/>
+      <c r="K215" s="3"/>
+      <c r="L215" s="3"/>
+      <c r="M215" s="3"/>
+      <c r="N215" s="3"/>
+      <c r="O215" s="3"/>
+      <c r="P215" s="3"/>
+      <c r="Q215" s="3"/>
+      <c r="R215" s="3"/>
+      <c r="S215" s="3"/>
+      <c r="T215" s="3"/>
+      <c r="U215" s="3"/>
+      <c r="V215" s="3"/>
+      <c r="W215" s="3"/>
+    </row>
+    <row r="216" spans="2:23">
+      <c r="B216" s="4">
+        <v>42908</v>
+      </c>
+      <c r="C216" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="D216" s="3"/>
+      <c r="E216" s="3"/>
+      <c r="F216" s="3"/>
+      <c r="G216" s="3"/>
+      <c r="H216" s="3"/>
+      <c r="I216" s="3"/>
+      <c r="J216" s="3"/>
+      <c r="K216" s="3"/>
+      <c r="L216" s="3"/>
+      <c r="M216" s="3"/>
+      <c r="N216" s="3"/>
+      <c r="O216" s="3"/>
+      <c r="P216" s="3"/>
+      <c r="Q216" s="3"/>
+      <c r="R216" s="3"/>
+      <c r="S216" s="3"/>
+      <c r="T216" s="3"/>
+      <c r="U216" s="3"/>
+      <c r="V216" s="3"/>
+      <c r="W216" s="3"/>
+    </row>
+    <row r="217" spans="2:23">
+      <c r="B217" s="4">
+        <v>42909</v>
+      </c>
+      <c r="C217" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="D217" s="3"/>
+      <c r="E217" s="3"/>
+      <c r="F217" s="3"/>
+      <c r="G217" s="3"/>
+      <c r="H217" s="3"/>
+      <c r="I217" s="3"/>
+      <c r="J217" s="3"/>
+      <c r="K217" s="3"/>
+      <c r="L217" s="3"/>
+      <c r="M217" s="3"/>
+      <c r="N217" s="3"/>
+      <c r="O217" s="3"/>
+      <c r="P217" s="3"/>
+      <c r="Q217" s="3"/>
+      <c r="R217" s="3"/>
+      <c r="S217" s="3"/>
+      <c r="T217" s="3"/>
+      <c r="U217" s="3"/>
+      <c r="V217" s="3"/>
+      <c r="W217" s="3"/>
+    </row>
+    <row r="218" spans="2:23">
+      <c r="B218" s="4">
+        <v>42910</v>
+      </c>
+      <c r="C218" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="D218" s="3"/>
+      <c r="E218" s="3"/>
+      <c r="F218" s="3"/>
+      <c r="G218" s="3"/>
+      <c r="H218" s="3"/>
+      <c r="I218" s="3"/>
+      <c r="J218" s="3"/>
+      <c r="K218" s="3"/>
+      <c r="L218" s="3"/>
+      <c r="M218" s="3"/>
+      <c r="N218" s="3"/>
+      <c r="O218" s="3"/>
+      <c r="P218" s="3"/>
+      <c r="Q218" s="3"/>
+      <c r="R218" s="3"/>
+      <c r="S218" s="3"/>
+      <c r="T218" s="3"/>
+      <c r="U218" s="3"/>
+      <c r="V218" s="3"/>
+      <c r="W218" s="3"/>
+    </row>
+    <row r="219" spans="2:23">
+      <c r="B219" s="4">
+        <v>42911</v>
+      </c>
+      <c r="C219" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="D219" s="3"/>
+      <c r="E219" s="3"/>
+      <c r="F219" s="3"/>
+      <c r="G219" s="3"/>
+      <c r="H219" s="3"/>
+      <c r="I219" s="3"/>
+      <c r="J219" s="3"/>
+      <c r="K219" s="3"/>
+      <c r="L219" s="3"/>
+      <c r="M219" s="3"/>
+      <c r="N219" s="3"/>
+      <c r="O219" s="3"/>
+      <c r="P219" s="3"/>
+      <c r="Q219" s="3"/>
+      <c r="R219" s="3"/>
+      <c r="S219" s="3"/>
+      <c r="T219" s="3"/>
+      <c r="U219" s="3"/>
+      <c r="V219" s="3"/>
+      <c r="W219" s="3"/>
+    </row>
+    <row r="220" spans="2:23">
+      <c r="B220" s="4">
+        <v>42912</v>
+      </c>
+      <c r="C220" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="D220" s="3"/>
+      <c r="E220" s="3"/>
+      <c r="F220" s="3"/>
+      <c r="G220" s="3"/>
+      <c r="H220" s="3"/>
+      <c r="I220" s="3"/>
+      <c r="J220" s="3"/>
+      <c r="K220" s="3"/>
+      <c r="L220" s="3"/>
+      <c r="M220" s="3"/>
+      <c r="N220" s="3"/>
+      <c r="O220" s="3"/>
+      <c r="P220" s="3"/>
+      <c r="Q220" s="3"/>
+      <c r="R220" s="3"/>
+      <c r="S220" s="3"/>
+      <c r="T220" s="3"/>
+      <c r="U220" s="3"/>
+      <c r="V220" s="3"/>
+      <c r="W220" s="3"/>
+    </row>
+    <row r="221" spans="2:23">
+      <c r="B221" s="4">
+        <v>42913</v>
+      </c>
+      <c r="C221" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="D221" s="3"/>
+      <c r="E221" s="3"/>
+      <c r="F221" s="3"/>
+      <c r="G221" s="3"/>
+      <c r="H221" s="3"/>
+      <c r="I221" s="3"/>
+      <c r="J221" s="3"/>
+      <c r="K221" s="3"/>
+      <c r="L221" s="3"/>
+      <c r="M221" s="3"/>
+      <c r="N221" s="3"/>
+      <c r="O221" s="3"/>
+      <c r="P221" s="3"/>
+      <c r="Q221" s="3"/>
+      <c r="R221" s="3"/>
+      <c r="S221" s="3"/>
+      <c r="T221" s="3"/>
+      <c r="U221" s="3"/>
+      <c r="V221" s="3"/>
+      <c r="W221" s="3"/>
+    </row>
+    <row r="222" spans="2:23">
+      <c r="B222" s="4">
+        <v>42914</v>
+      </c>
+      <c r="C222" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="D222" s="3"/>
+      <c r="E222" s="3"/>
+      <c r="F222" s="3"/>
+      <c r="G222" s="3"/>
+      <c r="H222" s="3"/>
+      <c r="I222" s="3"/>
+      <c r="J222" s="3"/>
+      <c r="K222" s="3"/>
+      <c r="L222" s="3"/>
+      <c r="M222" s="3"/>
+      <c r="N222" s="3"/>
+      <c r="O222" s="3"/>
+      <c r="P222" s="3"/>
+      <c r="Q222" s="3"/>
+      <c r="R222" s="3"/>
+      <c r="S222" s="3"/>
+      <c r="T222" s="3"/>
+      <c r="U222" s="3"/>
+      <c r="V222" s="3"/>
+      <c r="W222" s="3"/>
+    </row>
+    <row r="223" spans="2:23">
+      <c r="B223" s="4">
+        <v>42915</v>
+      </c>
+      <c r="C223" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="D223" s="3"/>
+      <c r="E223" s="3"/>
+      <c r="F223" s="3"/>
+      <c r="G223" s="3"/>
+      <c r="H223" s="3"/>
+      <c r="I223" s="3"/>
+      <c r="J223" s="3"/>
+      <c r="K223" s="3"/>
+      <c r="L223" s="3"/>
+      <c r="M223" s="3"/>
+      <c r="N223" s="3"/>
+      <c r="O223" s="3"/>
+      <c r="P223" s="3"/>
+      <c r="Q223" s="3"/>
+      <c r="R223" s="3"/>
+      <c r="S223" s="3"/>
+      <c r="T223" s="3"/>
+      <c r="U223" s="3"/>
+      <c r="V223" s="3"/>
+      <c r="W223" s="3"/>
+    </row>
+    <row r="224" spans="2:23">
+      <c r="B224" s="4">
+        <v>42916</v>
+      </c>
+      <c r="C224" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="D224" s="3"/>
+      <c r="E224" s="3"/>
+      <c r="F224" s="3"/>
+      <c r="G224" s="3"/>
+      <c r="H224" s="3"/>
+      <c r="I224" s="3"/>
+      <c r="J224" s="3"/>
+      <c r="K224" s="3"/>
+      <c r="L224" s="3"/>
+      <c r="M224" s="3"/>
+      <c r="N224" s="3"/>
+      <c r="O224" s="3"/>
+      <c r="P224" s="3"/>
+      <c r="Q224" s="3"/>
+      <c r="R224" s="3"/>
+      <c r="S224" s="3"/>
+      <c r="T224" s="3"/>
+      <c r="U224" s="3"/>
+      <c r="V224" s="3"/>
+      <c r="W224" s="3"/>
+    </row>
+    <row r="225" spans="2:23">
+      <c r="B225" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C225" s="6">
+        <f>SUM(C195:C224)</f>
+        <v>0</v>
+      </c>
+      <c r="D225" s="6"/>
+      <c r="E225" s="6"/>
+      <c r="F225" s="6"/>
+      <c r="G225" s="6"/>
+      <c r="H225" s="6"/>
+      <c r="I225" s="6"/>
+      <c r="J225" s="6"/>
+      <c r="K225" s="6"/>
+      <c r="L225" s="6"/>
+      <c r="M225" s="6"/>
+      <c r="N225" s="6"/>
+      <c r="O225" s="6"/>
+      <c r="P225" s="6"/>
+      <c r="Q225" s="6"/>
+      <c r="R225" s="6"/>
+      <c r="S225" s="6"/>
+      <c r="T225" s="6"/>
+      <c r="U225" s="6"/>
+      <c r="V225" s="6"/>
+      <c r="W225" s="6"/>
+    </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="B2:B3"/>
@@ -13303,8 +17029,8 @@
     <mergeCell ref="C2:C3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="D4:W5 D7:W37 D39:W69 D100:W130 D71:W98 D132:W161">
-    <cfRule type="containsBlanks" dxfId="1" priority="14">
+  <conditionalFormatting sqref="D4:W5 D7:W37 D39:W69 D100:W130 D71:W98 D163:W193 D195:W224 D132:W161">
+    <cfRule type="containsBlanks" dxfId="0" priority="18">
       <formula>LEN(TRIM(D4))=0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/DailyExpense.xlsx
+++ b/DailyExpense.xlsx
@@ -8627,6 +8627,1831 @@
             <family val="2"/>
           </rPr>
           <t>200</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H183" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+手机充值</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> 100</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I183" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+巧克力</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">20
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>肉松饼</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">6
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>柠檬茶</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">5
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J183" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+上网</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>28</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J185" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+上网</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J186" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+上网</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I187" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+菊花茶</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>10</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J187" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+上网</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H188" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+打车</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>12</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I188" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+奶茶</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J188" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+上网</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I189" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+零食</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>12</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H190" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+车票</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">55
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>打车</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>40</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H192" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+打车</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J192" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+唱歌</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>100</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I193" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+柠檬茶</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J193" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+上网</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J195" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+上网</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J196" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+上网</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I197" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+柠檬茶</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J197" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+上网</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I198" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+鸡尾酒</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">10
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>烤肠</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">3
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>薯片</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>5</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J198" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+上网</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J199" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+上网</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J200" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+按摩</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J201" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+上网</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J202" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+上网</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I203" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+巧克力</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J203" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+电影</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I204" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+菊花茶</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J204" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+上网</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">23
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>按摩，和小二</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> 216</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Q204" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+奥普浴霸，</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>2</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>个，</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">1800
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>浴室玻璃隔断定金</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>1000</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E205" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+吃饭，和小二，杨兰</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I205" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+可乐</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J205" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+上网</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H206" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+充公交卡</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">100
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>理发</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>35</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I206" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+汽水</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K206" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+参苓健脾胃颗粒</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I209" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+菊花茶</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J209" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+上网</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I210" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+牛奶
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I211" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+冰粉</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">5
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>果汁</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>18</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Q211" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">作者:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>订金7484，共17484
+床，三张</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">6200
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>餐桌椅</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> 2900</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+沙发</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> 5500
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>茶几</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> 1200
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>电视柜</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> 1300
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H212" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+打车</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I212" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+烤肠</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">4
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>奶茶</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">27
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>果汁面包</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>29</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J213" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+电影</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">26
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>友唱</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>20</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J214" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+按摩</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>40</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I215" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+菊花茶</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J215" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+上网</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M215" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+三个月房租，水电费</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I216" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+巧克力</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">11
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>烤肠</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>2</t>
         </r>
       </text>
     </comment>
@@ -9201,8 +11026,8 @@
   <dimension ref="B2:W225"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A153" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O172" sqref="O172"/>
+      <pane ySplit="3" topLeftCell="A195" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="V189" sqref="V189"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -15781,15 +17606,27 @@
       </c>
       <c r="C183" s="3">
         <f t="shared" si="5"/>
+        <v>181</v>
+      </c>
+      <c r="D183" s="3">
         <v>0</v>
       </c>
-      <c r="D183" s="3"/>
-      <c r="E183" s="3"/>
-      <c r="F183" s="3"/>
+      <c r="E183" s="3">
+        <v>17</v>
+      </c>
+      <c r="F183" s="3">
+        <v>5</v>
+      </c>
       <c r="G183" s="3"/>
-      <c r="H183" s="3"/>
-      <c r="I183" s="3"/>
-      <c r="J183" s="3"/>
+      <c r="H183" s="3">
+        <v>100</v>
+      </c>
+      <c r="I183" s="3">
+        <v>31</v>
+      </c>
+      <c r="J183" s="3">
+        <v>28</v>
+      </c>
       <c r="K183" s="3"/>
       <c r="L183" s="3"/>
       <c r="M183" s="3"/>
@@ -15810,11 +17647,17 @@
       </c>
       <c r="C184" s="3">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="D184" s="3"/>
-      <c r="E184" s="3"/>
-      <c r="F184" s="3"/>
+        <v>42</v>
+      </c>
+      <c r="D184" s="3">
+        <v>6</v>
+      </c>
+      <c r="E184" s="3">
+        <v>18</v>
+      </c>
+      <c r="F184" s="3">
+        <v>18</v>
+      </c>
       <c r="G184" s="3"/>
       <c r="H184" s="3"/>
       <c r="I184" s="3"/>
@@ -15839,15 +17682,23 @@
       </c>
       <c r="C185" s="3">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="D185" s="3"/>
-      <c r="E185" s="3"/>
-      <c r="F185" s="3"/>
+        <v>50</v>
+      </c>
+      <c r="D185" s="3">
+        <v>8</v>
+      </c>
+      <c r="E185" s="3">
+        <v>17</v>
+      </c>
+      <c r="F185" s="3">
+        <v>16</v>
+      </c>
       <c r="G185" s="3"/>
       <c r="H185" s="3"/>
       <c r="I185" s="3"/>
-      <c r="J185" s="3"/>
+      <c r="J185" s="3">
+        <v>9</v>
+      </c>
       <c r="K185" s="3"/>
       <c r="L185" s="3"/>
       <c r="M185" s="3"/>
@@ -15868,15 +17719,23 @@
       </c>
       <c r="C186" s="3">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="D186" s="3"/>
-      <c r="E186" s="3"/>
-      <c r="F186" s="3"/>
+        <v>52</v>
+      </c>
+      <c r="D186" s="3">
+        <v>8</v>
+      </c>
+      <c r="E186" s="3">
+        <v>18</v>
+      </c>
+      <c r="F186" s="3">
+        <v>18</v>
+      </c>
       <c r="G186" s="3"/>
       <c r="H186" s="3"/>
       <c r="I186" s="3"/>
-      <c r="J186" s="3"/>
+      <c r="J186" s="3">
+        <v>8</v>
+      </c>
       <c r="K186" s="3"/>
       <c r="L186" s="3"/>
       <c r="M186" s="3"/>
@@ -15897,15 +17756,25 @@
       </c>
       <c r="C187" s="3">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="D187" s="3"/>
-      <c r="E187" s="3"/>
-      <c r="F187" s="3"/>
+        <v>70</v>
+      </c>
+      <c r="D187" s="3">
+        <v>13</v>
+      </c>
+      <c r="E187" s="3">
+        <v>23</v>
+      </c>
+      <c r="F187" s="3">
+        <v>16</v>
+      </c>
       <c r="G187" s="3"/>
       <c r="H187" s="3"/>
-      <c r="I187" s="3"/>
-      <c r="J187" s="3"/>
+      <c r="I187" s="3">
+        <v>10</v>
+      </c>
+      <c r="J187" s="3">
+        <v>8</v>
+      </c>
       <c r="K187" s="3"/>
       <c r="L187" s="3"/>
       <c r="M187" s="3"/>
@@ -15926,15 +17795,27 @@
       </c>
       <c r="C188" s="3">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="D188" s="3"/>
-      <c r="E188" s="3"/>
-      <c r="F188" s="3"/>
+        <v>71</v>
+      </c>
+      <c r="D188" s="3">
+        <v>6</v>
+      </c>
+      <c r="E188" s="3">
+        <v>18</v>
+      </c>
+      <c r="F188" s="3">
+        <v>17</v>
+      </c>
       <c r="G188" s="3"/>
-      <c r="H188" s="3"/>
-      <c r="I188" s="3"/>
-      <c r="J188" s="3"/>
+      <c r="H188" s="3">
+        <v>12</v>
+      </c>
+      <c r="I188" s="3">
+        <v>6</v>
+      </c>
+      <c r="J188" s="3">
+        <v>12</v>
+      </c>
       <c r="K188" s="3"/>
       <c r="L188" s="3"/>
       <c r="M188" s="3"/>
@@ -15955,14 +17836,22 @@
       </c>
       <c r="C189" s="3">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="D189" s="3"/>
-      <c r="E189" s="3"/>
-      <c r="F189" s="3"/>
+        <v>64</v>
+      </c>
+      <c r="D189" s="3">
+        <v>5</v>
+      </c>
+      <c r="E189" s="3">
+        <v>15</v>
+      </c>
+      <c r="F189" s="3">
+        <v>32</v>
+      </c>
       <c r="G189" s="3"/>
       <c r="H189" s="3"/>
-      <c r="I189" s="3"/>
+      <c r="I189" s="3">
+        <v>12</v>
+      </c>
       <c r="J189" s="3"/>
       <c r="K189" s="3"/>
       <c r="L189" s="3"/>
@@ -15984,13 +17873,17 @@
       </c>
       <c r="C190" s="3">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>117</v>
       </c>
       <c r="D190" s="3"/>
-      <c r="E190" s="3"/>
+      <c r="E190" s="3">
+        <v>22</v>
+      </c>
       <c r="F190" s="3"/>
       <c r="G190" s="3"/>
-      <c r="H190" s="3"/>
+      <c r="H190" s="3">
+        <v>95</v>
+      </c>
       <c r="I190" s="3"/>
       <c r="J190" s="3"/>
       <c r="K190" s="3"/>
@@ -16042,15 +17935,19 @@
       </c>
       <c r="C192" s="3">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="D192" s="3"/>
       <c r="E192" s="3"/>
       <c r="F192" s="3"/>
       <c r="G192" s="3"/>
-      <c r="H192" s="3"/>
+      <c r="H192" s="3">
+        <v>10</v>
+      </c>
       <c r="I192" s="3"/>
-      <c r="J192" s="3"/>
+      <c r="J192" s="3">
+        <v>100</v>
+      </c>
       <c r="K192" s="3"/>
       <c r="L192" s="3"/>
       <c r="M192" s="3"/>
@@ -16071,15 +17968,25 @@
       </c>
       <c r="C193" s="3">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="D193" s="3"/>
-      <c r="E193" s="3"/>
-      <c r="F193" s="3"/>
+        <v>54</v>
+      </c>
+      <c r="D193" s="3">
+        <v>6</v>
+      </c>
+      <c r="E193" s="3">
+        <v>18</v>
+      </c>
+      <c r="F193" s="3">
+        <v>16</v>
+      </c>
       <c r="G193" s="3"/>
       <c r="H193" s="3"/>
-      <c r="I193" s="3"/>
-      <c r="J193" s="3"/>
+      <c r="I193" s="3">
+        <v>5</v>
+      </c>
+      <c r="J193" s="3">
+        <v>9</v>
+      </c>
       <c r="K193" s="3"/>
       <c r="L193" s="3"/>
       <c r="M193" s="3"/>
@@ -16100,7 +18007,7 @@
       </c>
       <c r="C194" s="6">
         <f>SUM(C163:C193)</f>
-        <v>11790</v>
+        <v>12601</v>
       </c>
       <c r="D194" s="6"/>
       <c r="E194" s="6"/>
@@ -16129,15 +18036,21 @@
       </c>
       <c r="C195" s="3">
         <f t="shared" ref="C195:C224" si="6">SUM(D195:CM195)</f>
-        <v>0</v>
-      </c>
-      <c r="D195" s="3"/>
-      <c r="E195" s="3"/>
+        <v>28</v>
+      </c>
+      <c r="D195" s="3">
+        <v>7</v>
+      </c>
+      <c r="E195" s="3">
+        <v>13</v>
+      </c>
       <c r="F195" s="3"/>
       <c r="G195" s="3"/>
       <c r="H195" s="3"/>
       <c r="I195" s="3"/>
-      <c r="J195" s="3"/>
+      <c r="J195" s="3">
+        <v>8</v>
+      </c>
       <c r="K195" s="3"/>
       <c r="L195" s="3"/>
       <c r="M195" s="3"/>
@@ -16158,15 +18071,23 @@
       </c>
       <c r="C196" s="3">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="D196" s="3"/>
-      <c r="E196" s="3"/>
-      <c r="F196" s="3"/>
+        <v>38</v>
+      </c>
+      <c r="D196" s="3">
+        <v>3</v>
+      </c>
+      <c r="E196" s="3">
+        <v>14</v>
+      </c>
+      <c r="F196" s="3">
+        <v>13</v>
+      </c>
       <c r="G196" s="3"/>
       <c r="H196" s="3"/>
       <c r="I196" s="3"/>
-      <c r="J196" s="3"/>
+      <c r="J196" s="3">
+        <v>8</v>
+      </c>
       <c r="K196" s="3"/>
       <c r="L196" s="3"/>
       <c r="M196" s="3"/>
@@ -16187,15 +18108,23 @@
       </c>
       <c r="C197" s="3">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="D197" s="3"/>
-      <c r="E197" s="3"/>
-      <c r="F197" s="3"/>
+      <c r="E197" s="3">
+        <v>16</v>
+      </c>
+      <c r="F197" s="3">
+        <v>5</v>
+      </c>
       <c r="G197" s="3"/>
       <c r="H197" s="3"/>
-      <c r="I197" s="3"/>
-      <c r="J197" s="3"/>
+      <c r="I197" s="3">
+        <v>5</v>
+      </c>
+      <c r="J197" s="3">
+        <v>30</v>
+      </c>
       <c r="K197" s="3"/>
       <c r="L197" s="3"/>
       <c r="M197" s="3"/>
@@ -16216,15 +18145,23 @@
       </c>
       <c r="C198" s="3">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="D198" s="3"/>
-      <c r="E198" s="3"/>
-      <c r="F198" s="3"/>
+      <c r="E198" s="3">
+        <v>9</v>
+      </c>
+      <c r="F198" s="3">
+        <v>5</v>
+      </c>
       <c r="G198" s="3"/>
       <c r="H198" s="3"/>
-      <c r="I198" s="3"/>
-      <c r="J198" s="3"/>
+      <c r="I198" s="3">
+        <v>18</v>
+      </c>
+      <c r="J198" s="3">
+        <v>24</v>
+      </c>
       <c r="K198" s="3"/>
       <c r="L198" s="3"/>
       <c r="M198" s="3"/>
@@ -16245,15 +18182,23 @@
       </c>
       <c r="C199" s="3">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="D199" s="3"/>
-      <c r="E199" s="3"/>
-      <c r="F199" s="3"/>
+        <v>42</v>
+      </c>
+      <c r="D199" s="3">
+        <v>4</v>
+      </c>
+      <c r="E199" s="3">
+        <v>11</v>
+      </c>
+      <c r="F199" s="3">
+        <v>20</v>
+      </c>
       <c r="G199" s="3"/>
       <c r="H199" s="3"/>
       <c r="I199" s="3"/>
-      <c r="J199" s="3"/>
+      <c r="J199" s="3">
+        <v>7</v>
+      </c>
       <c r="K199" s="3"/>
       <c r="L199" s="3"/>
       <c r="M199" s="3"/>
@@ -16274,15 +18219,23 @@
       </c>
       <c r="C200" s="3">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="D200" s="3"/>
-      <c r="E200" s="3"/>
-      <c r="F200" s="3"/>
+        <v>92</v>
+      </c>
+      <c r="D200" s="3">
+        <v>9</v>
+      </c>
+      <c r="E200" s="3">
+        <v>24</v>
+      </c>
+      <c r="F200" s="3">
+        <v>14</v>
+      </c>
       <c r="G200" s="3"/>
       <c r="H200" s="3"/>
       <c r="I200" s="3"/>
-      <c r="J200" s="3"/>
+      <c r="J200" s="3">
+        <v>45</v>
+      </c>
       <c r="K200" s="3"/>
       <c r="L200" s="3"/>
       <c r="M200" s="3"/>
@@ -16303,15 +18256,23 @@
       </c>
       <c r="C201" s="3">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="D201" s="3"/>
-      <c r="E201" s="3"/>
-      <c r="F201" s="3"/>
+        <v>47</v>
+      </c>
+      <c r="D201" s="3">
+        <v>6</v>
+      </c>
+      <c r="E201" s="3">
+        <v>18</v>
+      </c>
+      <c r="F201" s="3">
+        <v>13</v>
+      </c>
       <c r="G201" s="3"/>
       <c r="H201" s="3"/>
       <c r="I201" s="3"/>
-      <c r="J201" s="3"/>
+      <c r="J201" s="3">
+        <v>10</v>
+      </c>
       <c r="K201" s="3"/>
       <c r="L201" s="3"/>
       <c r="M201" s="3"/>
@@ -16332,15 +18293,23 @@
       </c>
       <c r="C202" s="3">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="D202" s="3"/>
-      <c r="E202" s="3"/>
-      <c r="F202" s="3"/>
+        <v>53</v>
+      </c>
+      <c r="D202" s="3">
+        <v>5</v>
+      </c>
+      <c r="E202" s="3">
+        <v>24</v>
+      </c>
+      <c r="F202" s="3">
+        <v>15</v>
+      </c>
       <c r="G202" s="3"/>
       <c r="H202" s="3"/>
       <c r="I202" s="3"/>
-      <c r="J202" s="3"/>
+      <c r="J202" s="3">
+        <v>9</v>
+      </c>
       <c r="K202" s="3"/>
       <c r="L202" s="3"/>
       <c r="M202" s="3"/>
@@ -16361,15 +18330,23 @@
       </c>
       <c r="C203" s="3">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="D203" s="3"/>
-      <c r="E203" s="3"/>
+        <v>91</v>
+      </c>
+      <c r="D203" s="3">
+        <v>3</v>
+      </c>
+      <c r="E203" s="3">
+        <v>18</v>
+      </c>
       <c r="F203" s="3"/>
       <c r="G203" s="3"/>
       <c r="H203" s="3"/>
-      <c r="I203" s="3"/>
-      <c r="J203" s="3"/>
+      <c r="I203" s="3">
+        <v>8</v>
+      </c>
+      <c r="J203" s="3">
+        <v>62</v>
+      </c>
       <c r="K203" s="3"/>
       <c r="L203" s="3"/>
       <c r="M203" s="3"/>
@@ -16390,22 +18367,28 @@
       </c>
       <c r="C204" s="3">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>3044</v>
       </c>
       <c r="D204" s="3"/>
       <c r="E204" s="3"/>
       <c r="F204" s="3"/>
       <c r="G204" s="3"/>
       <c r="H204" s="3"/>
-      <c r="I204" s="3"/>
-      <c r="J204" s="3"/>
+      <c r="I204" s="3">
+        <v>5</v>
+      </c>
+      <c r="J204" s="3">
+        <v>239</v>
+      </c>
       <c r="K204" s="3"/>
       <c r="L204" s="3"/>
       <c r="M204" s="3"/>
       <c r="N204" s="3"/>
       <c r="O204" s="3"/>
       <c r="P204" s="3"/>
-      <c r="Q204" s="3"/>
+      <c r="Q204" s="3">
+        <v>2800</v>
+      </c>
       <c r="R204" s="3"/>
       <c r="S204" s="3"/>
       <c r="T204" s="3"/>
@@ -16419,15 +18402,23 @@
       </c>
       <c r="C205" s="3">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>335</v>
       </c>
       <c r="D205" s="3"/>
-      <c r="E205" s="3"/>
-      <c r="F205" s="3"/>
+      <c r="E205" s="3">
+        <v>300</v>
+      </c>
+      <c r="F205" s="3">
+        <v>16</v>
+      </c>
       <c r="G205" s="3"/>
       <c r="H205" s="3"/>
-      <c r="I205" s="3"/>
-      <c r="J205" s="3"/>
+      <c r="I205" s="3">
+        <v>4</v>
+      </c>
+      <c r="J205" s="3">
+        <v>15</v>
+      </c>
       <c r="K205" s="3"/>
       <c r="L205" s="3"/>
       <c r="M205" s="3"/>
@@ -16448,16 +18439,28 @@
       </c>
       <c r="C206" s="3">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="D206" s="3"/>
-      <c r="E206" s="3"/>
-      <c r="F206" s="3"/>
+        <v>205</v>
+      </c>
+      <c r="D206" s="3">
+        <v>5</v>
+      </c>
+      <c r="E206" s="3">
+        <v>15</v>
+      </c>
+      <c r="F206" s="3">
+        <v>13</v>
+      </c>
       <c r="G206" s="3"/>
-      <c r="H206" s="3"/>
-      <c r="I206" s="3"/>
+      <c r="H206" s="3">
+        <v>135</v>
+      </c>
+      <c r="I206" s="3">
+        <v>2</v>
+      </c>
       <c r="J206" s="3"/>
-      <c r="K206" s="3"/>
+      <c r="K206" s="3">
+        <v>35</v>
+      </c>
       <c r="L206" s="3"/>
       <c r="M206" s="3"/>
       <c r="N206" s="3"/>
@@ -16477,11 +18480,17 @@
       </c>
       <c r="C207" s="3">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="D207" s="3"/>
-      <c r="E207" s="3"/>
-      <c r="F207" s="3"/>
+        <v>52</v>
+      </c>
+      <c r="D207" s="3">
+        <v>5</v>
+      </c>
+      <c r="E207" s="3">
+        <v>14</v>
+      </c>
+      <c r="F207" s="3">
+        <v>33</v>
+      </c>
       <c r="G207" s="3"/>
       <c r="H207" s="3"/>
       <c r="I207" s="3"/>
@@ -16506,10 +18515,12 @@
       </c>
       <c r="C208" s="3">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="D208" s="3"/>
-      <c r="E208" s="3"/>
+      <c r="E208" s="3">
+        <v>18</v>
+      </c>
       <c r="F208" s="3"/>
       <c r="G208" s="3"/>
       <c r="H208" s="3"/>
@@ -16535,15 +18546,25 @@
       </c>
       <c r="C209" s="3">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="D209" s="3"/>
-      <c r="E209" s="3"/>
-      <c r="F209" s="3"/>
+        <v>62</v>
+      </c>
+      <c r="D209" s="3">
+        <v>9</v>
+      </c>
+      <c r="E209" s="3">
+        <v>18</v>
+      </c>
+      <c r="F209" s="3">
+        <v>13</v>
+      </c>
       <c r="G209" s="3"/>
       <c r="H209" s="3"/>
-      <c r="I209" s="3"/>
-      <c r="J209" s="3"/>
+      <c r="I209" s="3">
+        <v>10</v>
+      </c>
+      <c r="J209" s="3">
+        <v>12</v>
+      </c>
       <c r="K209" s="3"/>
       <c r="L209" s="3"/>
       <c r="M209" s="3"/>
@@ -16564,14 +18585,22 @@
       </c>
       <c r="C210" s="3">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="D210" s="3"/>
-      <c r="E210" s="3"/>
-      <c r="F210" s="3"/>
+        <v>73</v>
+      </c>
+      <c r="D210" s="3">
+        <v>13</v>
+      </c>
+      <c r="E210" s="3">
+        <v>13</v>
+      </c>
+      <c r="F210" s="3">
+        <v>37</v>
+      </c>
       <c r="G210" s="3"/>
       <c r="H210" s="3"/>
-      <c r="I210" s="3"/>
+      <c r="I210" s="3">
+        <v>10</v>
+      </c>
       <c r="J210" s="3"/>
       <c r="K210" s="3"/>
       <c r="L210" s="3"/>
@@ -16593,14 +18622,20 @@
       </c>
       <c r="C211" s="3">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>7535</v>
       </c>
       <c r="D211" s="3"/>
-      <c r="E211" s="3"/>
-      <c r="F211" s="3"/>
+      <c r="E211" s="3">
+        <v>15</v>
+      </c>
+      <c r="F211" s="3">
+        <v>13</v>
+      </c>
       <c r="G211" s="3"/>
       <c r="H211" s="3"/>
-      <c r="I211" s="3"/>
+      <c r="I211" s="3">
+        <v>23</v>
+      </c>
       <c r="J211" s="3"/>
       <c r="K211" s="3"/>
       <c r="L211" s="3"/>
@@ -16608,7 +18643,9 @@
       <c r="N211" s="3"/>
       <c r="O211" s="3"/>
       <c r="P211" s="3"/>
-      <c r="Q211" s="3"/>
+      <c r="Q211" s="3">
+        <v>7484</v>
+      </c>
       <c r="R211" s="3"/>
       <c r="S211" s="3"/>
       <c r="T211" s="3"/>
@@ -16622,14 +18659,18 @@
       </c>
       <c r="C212" s="3">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>89</v>
       </c>
       <c r="D212" s="3"/>
       <c r="E212" s="3"/>
       <c r="F212" s="3"/>
       <c r="G212" s="3"/>
-      <c r="H212" s="3"/>
-      <c r="I212" s="3"/>
+      <c r="H212" s="3">
+        <v>29</v>
+      </c>
+      <c r="I212" s="3">
+        <v>60</v>
+      </c>
       <c r="J212" s="3"/>
       <c r="K212" s="3"/>
       <c r="L212" s="3"/>
@@ -16651,15 +18692,23 @@
       </c>
       <c r="C213" s="3">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="D213" s="3"/>
-      <c r="E213" s="3"/>
-      <c r="F213" s="3"/>
+        <v>81</v>
+      </c>
+      <c r="D213" s="3">
+        <v>4</v>
+      </c>
+      <c r="E213" s="3">
+        <v>18</v>
+      </c>
+      <c r="F213" s="3">
+        <v>13</v>
+      </c>
       <c r="G213" s="3"/>
       <c r="H213" s="3"/>
       <c r="I213" s="3"/>
-      <c r="J213" s="3"/>
+      <c r="J213" s="3">
+        <v>46</v>
+      </c>
       <c r="K213" s="3"/>
       <c r="L213" s="3"/>
       <c r="M213" s="3"/>
@@ -16680,15 +18729,23 @@
       </c>
       <c r="C214" s="3">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="D214" s="3"/>
-      <c r="E214" s="3"/>
-      <c r="F214" s="3"/>
+        <v>98</v>
+      </c>
+      <c r="D214" s="3">
+        <v>9</v>
+      </c>
+      <c r="E214" s="3">
+        <v>31</v>
+      </c>
+      <c r="F214" s="3">
+        <v>18</v>
+      </c>
       <c r="G214" s="3"/>
       <c r="H214" s="3"/>
       <c r="I214" s="3"/>
-      <c r="J214" s="3"/>
+      <c r="J214" s="3">
+        <v>40</v>
+      </c>
       <c r="K214" s="3"/>
       <c r="L214" s="3"/>
       <c r="M214" s="3"/>
@@ -16709,18 +18766,30 @@
       </c>
       <c r="C215" s="3">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="D215" s="3"/>
-      <c r="E215" s="3"/>
-      <c r="F215" s="3"/>
+        <v>1842</v>
+      </c>
+      <c r="D215" s="3">
+        <v>6</v>
+      </c>
+      <c r="E215" s="3">
+        <v>18</v>
+      </c>
+      <c r="F215" s="3">
+        <v>12</v>
+      </c>
       <c r="G215" s="3"/>
       <c r="H215" s="3"/>
-      <c r="I215" s="3"/>
-      <c r="J215" s="3"/>
+      <c r="I215" s="3">
+        <v>10</v>
+      </c>
+      <c r="J215" s="3">
+        <v>6</v>
+      </c>
       <c r="K215" s="3"/>
       <c r="L215" s="3"/>
-      <c r="M215" s="3"/>
+      <c r="M215" s="3">
+        <v>1790</v>
+      </c>
       <c r="N215" s="3"/>
       <c r="O215" s="3"/>
       <c r="P215" s="3"/>
@@ -16738,14 +18807,20 @@
       </c>
       <c r="C216" s="3">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="D216" s="3"/>
-      <c r="E216" s="3"/>
+        <v>32</v>
+      </c>
+      <c r="D216" s="3">
+        <v>6</v>
+      </c>
+      <c r="E216" s="3">
+        <v>13</v>
+      </c>
       <c r="F216" s="3"/>
       <c r="G216" s="3"/>
       <c r="H216" s="3"/>
-      <c r="I216" s="3"/>
+      <c r="I216" s="3">
+        <v>13</v>
+      </c>
       <c r="J216" s="3"/>
       <c r="K216" s="3"/>
       <c r="L216" s="3"/>
@@ -16999,7 +19074,7 @@
       </c>
       <c r="C225" s="6">
         <f>SUM(C195:C224)</f>
-        <v>0</v>
+        <v>13969</v>
       </c>
       <c r="D225" s="6"/>
       <c r="E225" s="6"/>

--- a/DailyExpense.xlsx
+++ b/DailyExpense.xlsx
@@ -177,7 +177,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L7" authorId="0">
+    <comment ref="M7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -255,7 +255,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P11" authorId="0">
+    <comment ref="Q11" authorId="0">
       <text>
         <r>
           <rPr>
@@ -342,7 +342,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q12" authorId="0">
+    <comment ref="R12" authorId="0">
       <text>
         <r>
           <rPr>
@@ -584,7 +584,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K14" authorId="0">
+    <comment ref="L14" authorId="0">
       <text>
         <r>
           <rPr>
@@ -737,7 +737,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q16" authorId="0">
+    <comment ref="R16" authorId="0">
       <text>
         <r>
           <rPr>
@@ -952,7 +952,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q23" authorId="0">
+    <comment ref="R23" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1016,7 +1016,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K24" authorId="0">
+    <comment ref="L24" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1068,7 +1068,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K26" authorId="0">
+    <comment ref="L26" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1094,7 +1094,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L26" authorId="0">
+    <comment ref="M26" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1302,7 +1302,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L32" authorId="0">
+    <comment ref="M32" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1328,7 +1328,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q32" authorId="0">
+    <comment ref="R32" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1935,7 +1935,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K47" authorId="0">
+    <comment ref="L47" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1987,7 +1987,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L50" authorId="0">
+    <comment ref="M50" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2195,7 +2195,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q54" authorId="0">
+    <comment ref="R54" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2247,7 +2247,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q55" authorId="0">
+    <comment ref="R55" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2624,7 +2624,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K65" authorId="0">
+    <comment ref="L65" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3510,7 +3510,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q87" authorId="0">
+    <comment ref="R87" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3932,7 +3932,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q96" authorId="0">
+    <comment ref="R96" authorId="0">
       <text>
         <r>
           <rPr>
@@ -4728,7 +4728,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q115" authorId="0">
+    <comment ref="R115" authorId="0">
       <text>
         <r>
           <rPr>
@@ -5029,7 +5029,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q118" authorId="0">
+    <comment ref="R118" authorId="0">
       <text>
         <r>
           <rPr>
@@ -5110,7 +5110,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M119" authorId="0">
+    <comment ref="N119" authorId="0">
       <text>
         <r>
           <rPr>
@@ -5269,7 +5269,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K124" authorId="0">
+    <comment ref="L124" authorId="0">
       <text>
         <r>
           <rPr>
@@ -5373,7 +5373,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L125" authorId="0">
+    <comment ref="M125" authorId="0">
       <text>
         <r>
           <rPr>
@@ -5588,7 +5588,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q129" authorId="0">
+    <comment ref="R129" authorId="0">
       <text>
         <r>
           <rPr>
@@ -6004,7 +6004,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K136" authorId="0">
+    <comment ref="L136" authorId="0">
       <text>
         <r>
           <rPr>
@@ -6134,7 +6134,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L139" authorId="0">
+    <comment ref="M139" authorId="0">
       <text>
         <r>
           <rPr>
@@ -6231,7 +6231,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q141" authorId="0">
+    <comment ref="R141" authorId="0">
       <text>
         <r>
           <rPr>
@@ -6283,7 +6283,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q142" authorId="0">
+    <comment ref="R142" authorId="0">
       <text>
         <r>
           <rPr>
@@ -6309,7 +6309,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q143" authorId="0">
+    <comment ref="R143" authorId="0">
       <text>
         <r>
           <rPr>
@@ -6547,7 +6547,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q152" authorId="0">
+    <comment ref="R152" authorId="0">
       <text>
         <r>
           <rPr>
@@ -6683,7 +6683,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q153" authorId="0">
+    <comment ref="R153" authorId="0">
       <text>
         <r>
           <rPr>
@@ -6735,7 +6735,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q154" authorId="0">
+    <comment ref="R154" authorId="0">
       <text>
         <r>
           <rPr>
@@ -8201,7 +8201,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q177" authorId="0">
+    <comment ref="R177" authorId="0">
       <text>
         <r>
           <rPr>
@@ -8595,7 +8595,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q182" authorId="0">
+    <comment ref="R182" authorId="0">
       <text>
         <r>
           <rPr>
@@ -9621,7 +9621,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q204" authorId="0">
+    <comment ref="R204" authorId="0">
       <text>
         <r>
           <rPr>
@@ -9854,7 +9854,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K206" authorId="0">
+    <comment ref="L206" authorId="0">
       <text>
         <r>
           <rPr>
@@ -10014,7 +10014,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q211" authorId="0">
+    <comment ref="R211" authorId="0">
       <text>
         <r>
           <rPr>
@@ -10374,7 +10374,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M215" authorId="0">
+    <comment ref="N215" authorId="0">
       <text>
         <r>
           <rPr>
@@ -10452,6 +10452,2052 @@
             <family val="2"/>
           </rPr>
           <t>2</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G218" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+套套</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> 48
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>艾炙条</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> 19</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J218" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+上网</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">19
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>菊花茶</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> 7</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J219" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+果汁</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">12
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>上网</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>37</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J221" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+按摩</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H224" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+火车票
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H227" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+打车</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">10
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>车票</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>60</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J228" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+按摩</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I229" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+酸奶</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J229" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+上网</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>7</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H230" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+理发</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I230" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+烤肠</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J231" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+上网</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G232" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+买梯子</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I233" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+冰雪皇后</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">24
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>饮料</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>15</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J233" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+上网</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">15
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>可乐</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>4</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H234" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+安装玻璃隔断，师傅水，烟</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> 30</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I234" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+水</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J234" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+上网</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">22
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>气泡水</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>12</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I235" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+请同事喝可乐</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">17
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>冰棍</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>4</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J235" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+按摩</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> 45</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L235" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+参苓健脾胃颗粒</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J236" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+上网</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>5</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I237" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+酸奶</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H240" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+给阿婆买水果</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>81</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J241" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+上网</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">21
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>水</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">27
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>上网</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">16
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>水</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>9</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="R241" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+奥普浴霸安装费</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">260
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>纱窗护栏</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> 3200</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J243" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+上网</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="R243" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+沙发、床、餐桌等尾款</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J244" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+电影</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J245" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+上网</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H246" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+打车</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G247" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+拖把、扫把</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G248" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+泳镜泳裤</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>223</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J248" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+上网</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">20
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>水</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>15</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J249" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+电影</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I250" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+酸奶</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J250" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+上网</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">6
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>水</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>10</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I251" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+薯片、冰棍等</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G252" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+香皂、纸巾、洗面奶</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> 50</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H252" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+充公交卡</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>130</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J252" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+上网</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J253" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+上网</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">23
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>烤肠</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">3
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>水</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>4</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J254" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+上网</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> 21
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>水</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>10</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J255" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+上网</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">16
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>电影</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>54</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G256" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+硫磺皂</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>3</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I256" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+鸡尾酒</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> 6</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H258" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+半年宽带费</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I258" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+酸奶</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I259" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+怡口莲</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">9
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>烤肠</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>3</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L260" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+参苓健脾胃颗粒</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I261" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+冰镇银耳</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J261" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+按摩</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I262" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+奶茶
+菊花茶</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J262" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+电影</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I263" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+鸡尾酒</t>
         </r>
       </text>
     </comment>
@@ -10460,7 +12506,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="20">
   <si>
     <t>日期</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -10536,6 +12582,10 @@
   <si>
     <t>午饭</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>上网</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -10725,7 +12775,14 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -11023,11 +13080,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:W225"/>
+  <dimension ref="B2:X289"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A195" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="V189" sqref="V189"/>
+      <pane ySplit="3" topLeftCell="A205" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L216" sqref="L216"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -11037,13 +13094,13 @@
     <col min="3" max="3" width="10" style="1" customWidth="1"/>
     <col min="4" max="6" width="9" style="1"/>
     <col min="7" max="8" width="10.25" style="1" customWidth="1"/>
-    <col min="9" max="11" width="12.25" style="1" customWidth="1"/>
-    <col min="12" max="15" width="9" style="1"/>
-    <col min="16" max="16" width="13.875" style="1" customWidth="1"/>
-    <col min="17" max="16384" width="9" style="1"/>
+    <col min="9" max="12" width="12.25" style="1" customWidth="1"/>
+    <col min="13" max="16" width="9" style="1"/>
+    <col min="17" max="17" width="13.875" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:23">
+    <row r="2" spans="2:24">
       <c r="B2" s="7" t="s">
         <v>0</v>
       </c>
@@ -11072,8 +13129,9 @@
       <c r="U2" s="10"/>
       <c r="V2" s="10"/>
       <c r="W2" s="10"/>
-    </row>
-    <row r="3" spans="2:23">
+      <c r="X2" s="10"/>
+    </row>
+    <row r="3" spans="2:24">
       <c r="B3" s="8"/>
       <c r="C3" s="12"/>
       <c r="D3" s="2" t="s">
@@ -11098,41 +13156,44 @@
         <v>13</v>
       </c>
       <c r="K3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="M3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="N3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="N3" s="2" t="s">
+      <c r="O3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="O3" s="2" t="s">
+      <c r="P3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="P3" s="2" t="s">
+      <c r="Q3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="Q3" s="2" t="s">
+      <c r="R3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="R3" s="2" t="s">
+      <c r="S3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="S3" s="2"/>
       <c r="T3" s="2"/>
       <c r="U3" s="2"/>
       <c r="V3" s="2"/>
       <c r="W3" s="2"/>
-    </row>
-    <row r="4" spans="2:23">
+      <c r="X3" s="2"/>
+    </row>
+    <row r="4" spans="2:24">
       <c r="B4" s="4">
         <v>42703</v>
       </c>
       <c r="C4" s="3">
-        <f>SUM(D4:CM4)</f>
+        <f>SUM(D4:CN4)</f>
         <v>80</v>
       </c>
       <c r="D4" s="3"/>
@@ -11161,13 +13222,14 @@
       <c r="U4" s="3"/>
       <c r="V4" s="3"/>
       <c r="W4" s="3"/>
-    </row>
-    <row r="5" spans="2:23">
+      <c r="X4" s="3"/>
+    </row>
+    <row r="5" spans="2:24">
       <c r="B5" s="4">
         <v>42704</v>
       </c>
       <c r="C5" s="3">
-        <f>SUM(D5:CM5)</f>
+        <f>SUM(D5:CN5)</f>
         <v>52</v>
       </c>
       <c r="D5" s="3"/>
@@ -11196,8 +13258,9 @@
       <c r="U5" s="3"/>
       <c r="V5" s="3"/>
       <c r="W5" s="3"/>
-    </row>
-    <row r="6" spans="2:23">
+      <c r="X5" s="3"/>
+    </row>
+    <row r="6" spans="2:24">
       <c r="B6" s="5" t="s">
         <v>5</v>
       </c>
@@ -11225,13 +13288,14 @@
       <c r="U6" s="6"/>
       <c r="V6" s="6"/>
       <c r="W6" s="6"/>
-    </row>
-    <row r="7" spans="2:23">
+      <c r="X6" s="6"/>
+    </row>
+    <row r="7" spans="2:24">
       <c r="B7" s="4">
         <v>42705</v>
       </c>
       <c r="C7" s="3">
-        <f t="shared" ref="C7:C37" si="0">SUM(D7:CM7)</f>
+        <f t="shared" ref="C7:C37" si="0">SUM(D7:CN7)</f>
         <v>475</v>
       </c>
       <c r="D7" s="3"/>
@@ -11248,10 +13312,10 @@
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
-      <c r="L7" s="3">
+      <c r="L7" s="3"/>
+      <c r="M7" s="3">
         <v>399</v>
       </c>
-      <c r="M7" s="3"/>
       <c r="N7" s="3"/>
       <c r="O7" s="3"/>
       <c r="P7" s="3"/>
@@ -11262,8 +13326,9 @@
       <c r="U7" s="3"/>
       <c r="V7" s="3"/>
       <c r="W7" s="3"/>
-    </row>
-    <row r="8" spans="2:23">
+      <c r="X7" s="3"/>
+    </row>
+    <row r="8" spans="2:24">
       <c r="B8" s="4">
         <v>42706</v>
       </c>
@@ -11291,8 +13356,9 @@
       <c r="U8" s="3"/>
       <c r="V8" s="3"/>
       <c r="W8" s="3"/>
-    </row>
-    <row r="9" spans="2:23">
+      <c r="X8" s="3"/>
+    </row>
+    <row r="9" spans="2:24">
       <c r="B9" s="4">
         <v>42707</v>
       </c>
@@ -11322,8 +13388,9 @@
       <c r="U9" s="3"/>
       <c r="V9" s="3"/>
       <c r="W9" s="3"/>
-    </row>
-    <row r="10" spans="2:23">
+      <c r="X9" s="3"/>
+    </row>
+    <row r="10" spans="2:24">
       <c r="B10" s="4">
         <v>42708</v>
       </c>
@@ -11351,8 +13418,9 @@
       <c r="U10" s="3"/>
       <c r="V10" s="3"/>
       <c r="W10" s="3"/>
-    </row>
-    <row r="11" spans="2:23">
+      <c r="X10" s="3"/>
+    </row>
+    <row r="11" spans="2:24">
       <c r="B11" s="4">
         <v>42709</v>
       </c>
@@ -11374,24 +13442,25 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-      <c r="N11" s="3">
+      <c r="N11" s="3"/>
+      <c r="O11" s="3">
         <v>2100</v>
       </c>
-      <c r="O11" s="3">
+      <c r="P11" s="3">
         <v>20</v>
       </c>
-      <c r="P11" s="3">
+      <c r="Q11" s="3">
         <v>558</v>
       </c>
-      <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="2:23">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="2:24">
       <c r="B12" s="4">
         <v>42710</v>
       </c>
@@ -11420,17 +13489,18 @@
       <c r="N12" s="3"/>
       <c r="O12" s="3"/>
       <c r="P12" s="3"/>
-      <c r="Q12" s="3">
+      <c r="Q12" s="3"/>
+      <c r="R12" s="3">
         <v>1100</v>
       </c>
-      <c r="R12" s="3"/>
       <c r="S12" s="3"/>
       <c r="T12" s="3"/>
       <c r="U12" s="3"/>
       <c r="V12" s="3"/>
       <c r="W12" s="3"/>
-    </row>
-    <row r="13" spans="2:23">
+      <c r="X12" s="3"/>
+    </row>
+    <row r="13" spans="2:24">
       <c r="B13" s="4">
         <v>42711</v>
       </c>
@@ -11464,8 +13534,9 @@
       <c r="U13" s="3"/>
       <c r="V13" s="3"/>
       <c r="W13" s="3"/>
-    </row>
-    <row r="14" spans="2:23">
+      <c r="X13" s="3"/>
+    </row>
+    <row r="14" spans="2:24">
       <c r="B14" s="4">
         <v>42712</v>
       </c>
@@ -11486,25 +13557,26 @@
       <c r="J14" s="3">
         <v>120</v>
       </c>
-      <c r="K14" s="3">
+      <c r="K14" s="3"/>
+      <c r="L14" s="3">
         <v>28</v>
       </c>
-      <c r="L14" s="3"/>
       <c r="M14" s="3"/>
       <c r="N14" s="3"/>
       <c r="O14" s="3"/>
       <c r="P14" s="3"/>
       <c r="Q14" s="3"/>
-      <c r="R14" s="3">
+      <c r="R14" s="3"/>
+      <c r="S14" s="3">
         <v>4</v>
       </c>
-      <c r="S14" s="3"/>
       <c r="T14" s="3"/>
       <c r="U14" s="3"/>
       <c r="V14" s="3"/>
       <c r="W14" s="3"/>
-    </row>
-    <row r="15" spans="2:23">
+      <c r="X14" s="3"/>
+    </row>
+    <row r="15" spans="2:24">
       <c r="B15" s="4">
         <v>42713</v>
       </c>
@@ -11536,8 +13608,9 @@
       <c r="U15" s="3"/>
       <c r="V15" s="3"/>
       <c r="W15" s="3"/>
-    </row>
-    <row r="16" spans="2:23">
+      <c r="X15" s="3"/>
+    </row>
+    <row r="16" spans="2:24">
       <c r="B16" s="4">
         <v>42714</v>
       </c>
@@ -11566,17 +13639,18 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-      <c r="Q16" s="3">
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3">
         <v>500</v>
       </c>
-      <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="2:23">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="2:24">
       <c r="B17" s="4">
         <v>42715</v>
       </c>
@@ -11610,8 +13684,9 @@
       <c r="U17" s="3"/>
       <c r="V17" s="3"/>
       <c r="W17" s="3"/>
-    </row>
-    <row r="18" spans="2:23">
+      <c r="X17" s="3"/>
+    </row>
+    <row r="18" spans="2:24">
       <c r="B18" s="4">
         <v>42716</v>
       </c>
@@ -11645,8 +13720,9 @@
       <c r="U18" s="3"/>
       <c r="V18" s="3"/>
       <c r="W18" s="3"/>
-    </row>
-    <row r="19" spans="2:23">
+      <c r="X18" s="3"/>
+    </row>
+    <row r="19" spans="2:24">
       <c r="B19" s="4">
         <v>42717</v>
       </c>
@@ -11676,8 +13752,9 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="2:23">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="2:24">
       <c r="B20" s="4">
         <v>42718</v>
       </c>
@@ -11711,8 +13788,9 @@
       <c r="U20" s="3"/>
       <c r="V20" s="3"/>
       <c r="W20" s="3"/>
-    </row>
-    <row r="21" spans="2:23">
+      <c r="X20" s="3"/>
+    </row>
+    <row r="21" spans="2:24">
       <c r="B21" s="4">
         <v>42719</v>
       </c>
@@ -11746,8 +13824,9 @@
       <c r="U21" s="3"/>
       <c r="V21" s="3"/>
       <c r="W21" s="3"/>
-    </row>
-    <row r="22" spans="2:23">
+      <c r="X21" s="3"/>
+    </row>
+    <row r="22" spans="2:24">
       <c r="B22" s="4">
         <v>42720</v>
       </c>
@@ -11781,8 +13860,9 @@
       <c r="U22" s="3"/>
       <c r="V22" s="3"/>
       <c r="W22" s="3"/>
-    </row>
-    <row r="23" spans="2:23">
+      <c r="X22" s="3"/>
+    </row>
+    <row r="23" spans="2:24">
       <c r="B23" s="4">
         <v>42721</v>
       </c>
@@ -11811,17 +13891,18 @@
       <c r="N23" s="3"/>
       <c r="O23" s="3"/>
       <c r="P23" s="3"/>
-      <c r="Q23" s="3">
+      <c r="Q23" s="3"/>
+      <c r="R23" s="3">
         <v>6850</v>
       </c>
-      <c r="R23" s="3"/>
       <c r="S23" s="3"/>
       <c r="T23" s="3"/>
       <c r="U23" s="3"/>
       <c r="V23" s="3"/>
       <c r="W23" s="3"/>
-    </row>
-    <row r="24" spans="2:23">
+      <c r="X23" s="3"/>
+    </row>
+    <row r="24" spans="2:24">
       <c r="B24" s="4">
         <v>42722</v>
       </c>
@@ -11840,10 +13921,10 @@
       <c r="H24" s="3"/>
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
-      <c r="K24" s="3">
+      <c r="K24" s="3"/>
+      <c r="L24" s="3">
         <v>28</v>
       </c>
-      <c r="L24" s="3"/>
       <c r="M24" s="3"/>
       <c r="N24" s="3"/>
       <c r="O24" s="3"/>
@@ -11855,8 +13936,9 @@
       <c r="U24" s="3"/>
       <c r="V24" s="3"/>
       <c r="W24" s="3"/>
-    </row>
-    <row r="25" spans="2:23">
+      <c r="X24" s="3"/>
+    </row>
+    <row r="25" spans="2:24">
       <c r="B25" s="4">
         <v>42723</v>
       </c>
@@ -11892,8 +13974,9 @@
       <c r="U25" s="3"/>
       <c r="V25" s="3"/>
       <c r="W25" s="3"/>
-    </row>
-    <row r="26" spans="2:23">
+      <c r="X25" s="3"/>
+    </row>
+    <row r="26" spans="2:24">
       <c r="B26" s="4">
         <v>42724</v>
       </c>
@@ -11914,13 +13997,13 @@
       <c r="H26" s="3"/>
       <c r="I26" s="3"/>
       <c r="J26" s="3"/>
-      <c r="K26" s="3">
+      <c r="K26" s="3"/>
+      <c r="L26" s="3">
         <v>29</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>78</v>
       </c>
-      <c r="M26" s="3"/>
       <c r="N26" s="3"/>
       <c r="O26" s="3"/>
       <c r="P26" s="3"/>
@@ -11931,8 +14014,9 @@
       <c r="U26" s="3"/>
       <c r="V26" s="3"/>
       <c r="W26" s="3"/>
-    </row>
-    <row r="27" spans="2:23">
+      <c r="X26" s="3"/>
+    </row>
+    <row r="27" spans="2:24">
       <c r="B27" s="4">
         <v>42725</v>
       </c>
@@ -11968,8 +14052,9 @@
       <c r="U27" s="3"/>
       <c r="V27" s="3"/>
       <c r="W27" s="3"/>
-    </row>
-    <row r="28" spans="2:23">
+      <c r="X27" s="3"/>
+    </row>
+    <row r="28" spans="2:24">
       <c r="B28" s="4">
         <v>42726</v>
       </c>
@@ -12005,8 +14090,9 @@
       <c r="U28" s="3"/>
       <c r="V28" s="3"/>
       <c r="W28" s="3"/>
-    </row>
-    <row r="29" spans="2:23">
+      <c r="X28" s="3"/>
+    </row>
+    <row r="29" spans="2:24">
       <c r="B29" s="4">
         <v>42727</v>
       </c>
@@ -12040,8 +14126,9 @@
       <c r="U29" s="3"/>
       <c r="V29" s="3"/>
       <c r="W29" s="3"/>
-    </row>
-    <row r="30" spans="2:23">
+      <c r="X29" s="3"/>
+    </row>
+    <row r="30" spans="2:24">
       <c r="B30" s="4">
         <v>42728</v>
       </c>
@@ -12071,8 +14158,9 @@
       <c r="U30" s="3"/>
       <c r="V30" s="3"/>
       <c r="W30" s="3"/>
-    </row>
-    <row r="31" spans="2:23">
+      <c r="X30" s="3"/>
+    </row>
+    <row r="31" spans="2:24">
       <c r="B31" s="4">
         <v>42729</v>
       </c>
@@ -12108,8 +14196,9 @@
       <c r="U31" s="3"/>
       <c r="V31" s="3"/>
       <c r="W31" s="3"/>
-    </row>
-    <row r="32" spans="2:23">
+      <c r="X31" s="3"/>
+    </row>
+    <row r="32" spans="2:24">
       <c r="B32" s="4">
         <v>42730</v>
       </c>
@@ -12133,24 +14222,25 @@
       <c r="I32" s="3"/>
       <c r="J32" s="3"/>
       <c r="K32" s="3"/>
-      <c r="L32" s="3">
+      <c r="L32" s="3"/>
+      <c r="M32" s="3">
         <v>1811</v>
       </c>
-      <c r="M32" s="3"/>
       <c r="N32" s="3"/>
       <c r="O32" s="3"/>
       <c r="P32" s="3"/>
-      <c r="Q32" s="3">
+      <c r="Q32" s="3"/>
+      <c r="R32" s="3">
         <v>19600</v>
       </c>
-      <c r="R32" s="3"/>
       <c r="S32" s="3"/>
       <c r="T32" s="3"/>
       <c r="U32" s="3"/>
       <c r="V32" s="3"/>
       <c r="W32" s="3"/>
-    </row>
-    <row r="33" spans="2:23">
+      <c r="X32" s="3"/>
+    </row>
+    <row r="33" spans="2:24">
       <c r="B33" s="4">
         <v>42731</v>
       </c>
@@ -12186,8 +14276,9 @@
       <c r="U33" s="3"/>
       <c r="V33" s="3"/>
       <c r="W33" s="3"/>
-    </row>
-    <row r="34" spans="2:23">
+      <c r="X33" s="3"/>
+    </row>
+    <row r="34" spans="2:24">
       <c r="B34" s="4">
         <v>42732</v>
       </c>
@@ -12221,8 +14312,9 @@
       <c r="U34" s="3"/>
       <c r="V34" s="3"/>
       <c r="W34" s="3"/>
-    </row>
-    <row r="35" spans="2:23">
+      <c r="X34" s="3"/>
+    </row>
+    <row r="35" spans="2:24">
       <c r="B35" s="4">
         <v>42733</v>
       </c>
@@ -12258,8 +14350,9 @@
       <c r="U35" s="3"/>
       <c r="V35" s="3"/>
       <c r="W35" s="3"/>
-    </row>
-    <row r="36" spans="2:23">
+      <c r="X35" s="3"/>
+    </row>
+    <row r="36" spans="2:24">
       <c r="B36" s="4">
         <v>42734</v>
       </c>
@@ -12293,8 +14386,9 @@
       <c r="U36" s="3"/>
       <c r="V36" s="3"/>
       <c r="W36" s="3"/>
-    </row>
-    <row r="37" spans="2:23">
+      <c r="X36" s="3"/>
+    </row>
+    <row r="37" spans="2:24">
       <c r="B37" s="4">
         <v>42735</v>
       </c>
@@ -12324,8 +14418,9 @@
       <c r="U37" s="3"/>
       <c r="V37" s="3"/>
       <c r="W37" s="3"/>
-    </row>
-    <row r="38" spans="2:23">
+      <c r="X37" s="3"/>
+    </row>
+    <row r="38" spans="2:24">
       <c r="B38" s="5" t="s">
         <v>5</v>
       </c>
@@ -12353,13 +14448,14 @@
       <c r="U38" s="6"/>
       <c r="V38" s="6"/>
       <c r="W38" s="6"/>
-    </row>
-    <row r="39" spans="2:23">
+      <c r="X38" s="6"/>
+    </row>
+    <row r="39" spans="2:24">
       <c r="B39" s="4">
         <v>42736</v>
       </c>
       <c r="C39" s="3">
-        <f>SUM(D39:CM39)</f>
+        <f>SUM(D39:CN39)</f>
         <v>109</v>
       </c>
       <c r="D39" s="3"/>
@@ -12384,13 +14480,14 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24">
       <c r="B40" s="4">
         <v>42737</v>
       </c>
       <c r="C40" s="3">
-        <f>SUM(D40:CM40)</f>
+        <f>SUM(D40:CN40)</f>
         <v>105</v>
       </c>
       <c r="D40" s="3"/>
@@ -12417,13 +14514,14 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24">
       <c r="B41" s="4">
         <v>42738</v>
       </c>
       <c r="C41" s="3">
-        <f t="shared" ref="C41:C69" si="1">SUM(D41:CM41)</f>
+        <f t="shared" ref="C41:C69" si="1">SUM(D41:CN41)</f>
         <v>24</v>
       </c>
       <c r="D41" s="3">
@@ -12452,8 +14550,9 @@
       <c r="U41" s="3"/>
       <c r="V41" s="3"/>
       <c r="W41" s="3"/>
-    </row>
-    <row r="42" spans="2:23">
+      <c r="X41" s="3"/>
+    </row>
+    <row r="42" spans="2:24">
       <c r="B42" s="4">
         <v>42739</v>
       </c>
@@ -12491,8 +14590,9 @@
       <c r="U42" s="3"/>
       <c r="V42" s="3"/>
       <c r="W42" s="3"/>
-    </row>
-    <row r="43" spans="2:23">
+      <c r="X42" s="3"/>
+    </row>
+    <row r="43" spans="2:24">
       <c r="B43" s="4">
         <v>42740</v>
       </c>
@@ -12524,8 +14624,9 @@
       <c r="U43" s="3"/>
       <c r="V43" s="3"/>
       <c r="W43" s="3"/>
-    </row>
-    <row r="44" spans="2:23">
+      <c r="X43" s="3"/>
+    </row>
+    <row r="44" spans="2:24">
       <c r="B44" s="4">
         <v>42741</v>
       </c>
@@ -12563,8 +14664,9 @@
       <c r="U44" s="3"/>
       <c r="V44" s="3"/>
       <c r="W44" s="3"/>
-    </row>
-    <row r="45" spans="2:23">
+      <c r="X44" s="3"/>
+    </row>
+    <row r="45" spans="2:24">
       <c r="B45" s="4">
         <v>42742</v>
       </c>
@@ -12602,8 +14704,9 @@
       <c r="U45" s="3"/>
       <c r="V45" s="3"/>
       <c r="W45" s="3"/>
-    </row>
-    <row r="46" spans="2:23">
+      <c r="X45" s="3"/>
+    </row>
+    <row r="46" spans="2:24">
       <c r="B46" s="4">
         <v>42743</v>
       </c>
@@ -12629,10 +14732,10 @@
       <c r="K46" s="3"/>
       <c r="L46" s="3"/>
       <c r="M46" s="3"/>
-      <c r="N46" s="3">
+      <c r="N46" s="3"/>
+      <c r="O46" s="3">
         <v>2100</v>
       </c>
-      <c r="O46" s="3"/>
       <c r="P46" s="3"/>
       <c r="Q46" s="3"/>
       <c r="R46" s="3"/>
@@ -12641,8 +14744,9 @@
       <c r="U46" s="3"/>
       <c r="V46" s="3"/>
       <c r="W46" s="3"/>
-    </row>
-    <row r="47" spans="2:23">
+      <c r="X46" s="3"/>
+    </row>
+    <row r="47" spans="2:24">
       <c r="B47" s="4">
         <v>42744</v>
       </c>
@@ -12663,10 +14767,10 @@
       <c r="H47" s="3"/>
       <c r="I47" s="3"/>
       <c r="J47" s="3"/>
-      <c r="K47" s="3">
+      <c r="K47" s="3"/>
+      <c r="L47" s="3">
         <v>28</v>
       </c>
-      <c r="L47" s="3"/>
       <c r="M47" s="3"/>
       <c r="N47" s="3"/>
       <c r="O47" s="3"/>
@@ -12678,8 +14782,9 @@
       <c r="U47" s="3"/>
       <c r="V47" s="3"/>
       <c r="W47" s="3"/>
-    </row>
-    <row r="48" spans="2:23">
+      <c r="X47" s="3"/>
+    </row>
+    <row r="48" spans="2:24">
       <c r="B48" s="4">
         <v>42745</v>
       </c>
@@ -12713,8 +14818,9 @@
       <c r="U48" s="3"/>
       <c r="V48" s="3"/>
       <c r="W48" s="3"/>
-    </row>
-    <row r="49" spans="2:23">
+      <c r="X48" s="3"/>
+    </row>
+    <row r="49" spans="2:24">
       <c r="B49" s="4">
         <v>42746</v>
       </c>
@@ -12748,8 +14854,9 @@
       <c r="U49" s="3"/>
       <c r="V49" s="3"/>
       <c r="W49" s="3"/>
-    </row>
-    <row r="50" spans="2:23">
+      <c r="X49" s="3"/>
+    </row>
+    <row r="50" spans="2:24">
       <c r="B50" s="4">
         <v>42747</v>
       </c>
@@ -12771,10 +14878,10 @@
       <c r="I50" s="3"/>
       <c r="J50" s="3"/>
       <c r="K50" s="3"/>
-      <c r="L50" s="3">
+      <c r="L50" s="3"/>
+      <c r="M50" s="3">
         <v>148</v>
       </c>
-      <c r="M50" s="3"/>
       <c r="N50" s="3"/>
       <c r="O50" s="3"/>
       <c r="P50" s="3"/>
@@ -12785,8 +14892,9 @@
       <c r="U50" s="3"/>
       <c r="V50" s="3"/>
       <c r="W50" s="3"/>
-    </row>
-    <row r="51" spans="2:23">
+      <c r="X50" s="3"/>
+    </row>
+    <row r="51" spans="2:24">
       <c r="B51" s="4">
         <v>42748</v>
       </c>
@@ -12822,13 +14930,14 @@
       <c r="U51" s="3"/>
       <c r="V51" s="3"/>
       <c r="W51" s="3"/>
-    </row>
-    <row r="52" spans="2:23">
+      <c r="X51" s="3"/>
+    </row>
+    <row r="52" spans="2:24">
       <c r="B52" s="4">
         <v>42749</v>
       </c>
       <c r="C52" s="3">
-        <f>SUM(E52:CM52)</f>
+        <f>SUM(E52:CN52)</f>
         <v>121</v>
       </c>
       <c r="D52" s="3"/>
@@ -12859,8 +14968,9 @@
       <c r="U52" s="3"/>
       <c r="V52" s="3"/>
       <c r="W52" s="3"/>
-    </row>
-    <row r="53" spans="2:23">
+      <c r="X52" s="3"/>
+    </row>
+    <row r="53" spans="2:24">
       <c r="B53" s="4">
         <v>42750</v>
       </c>
@@ -12894,8 +15004,9 @@
       <c r="U53" s="3"/>
       <c r="V53" s="3"/>
       <c r="W53" s="3"/>
-    </row>
-    <row r="54" spans="2:23">
+      <c r="X53" s="3"/>
+    </row>
+    <row r="54" spans="2:24">
       <c r="B54" s="4">
         <v>42751</v>
       </c>
@@ -12922,17 +15033,18 @@
       <c r="N54" s="3"/>
       <c r="O54" s="3"/>
       <c r="P54" s="3"/>
-      <c r="Q54" s="3">
+      <c r="Q54" s="3"/>
+      <c r="R54" s="3">
         <v>1238</v>
       </c>
-      <c r="R54" s="3"/>
       <c r="S54" s="3"/>
       <c r="T54" s="3"/>
       <c r="U54" s="3"/>
       <c r="V54" s="3"/>
       <c r="W54" s="3"/>
-    </row>
-    <row r="55" spans="2:23">
+      <c r="X54" s="3"/>
+    </row>
+    <row r="55" spans="2:24">
       <c r="B55" s="4">
         <v>42752</v>
       </c>
@@ -12961,17 +15073,18 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-      <c r="Q55" s="3">
+      <c r="Q55" s="3"/>
+      <c r="R55" s="3">
         <v>1800</v>
       </c>
-      <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="2:23">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="2:24">
       <c r="B56" s="4">
         <v>42753</v>
       </c>
@@ -13005,8 +15118,9 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="2:23">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="2:24">
       <c r="B57" s="4">
         <v>42754</v>
       </c>
@@ -13042,8 +15156,9 @@
       <c r="U57" s="3"/>
       <c r="V57" s="3"/>
       <c r="W57" s="3"/>
-    </row>
-    <row r="58" spans="2:23">
+      <c r="X57" s="3"/>
+    </row>
+    <row r="58" spans="2:24">
       <c r="B58" s="4">
         <v>42755</v>
       </c>
@@ -13077,8 +15192,9 @@
       <c r="U58" s="3"/>
       <c r="V58" s="3"/>
       <c r="W58" s="3"/>
-    </row>
-    <row r="59" spans="2:23">
+      <c r="X58" s="3"/>
+    </row>
+    <row r="59" spans="2:24">
       <c r="B59" s="4">
         <v>42756</v>
       </c>
@@ -13114,8 +15230,9 @@
       <c r="U59" s="3"/>
       <c r="V59" s="3"/>
       <c r="W59" s="3"/>
-    </row>
-    <row r="60" spans="2:23">
+      <c r="X59" s="3"/>
+    </row>
+    <row r="60" spans="2:24">
       <c r="B60" s="4">
         <v>42757</v>
       </c>
@@ -13145,8 +15262,9 @@
       <c r="U60" s="3"/>
       <c r="V60" s="3"/>
       <c r="W60" s="3"/>
-    </row>
-    <row r="61" spans="2:23">
+      <c r="X60" s="3"/>
+    </row>
+    <row r="61" spans="2:24">
       <c r="B61" s="4">
         <v>42758</v>
       </c>
@@ -13180,8 +15298,9 @@
       <c r="U61" s="3"/>
       <c r="V61" s="3"/>
       <c r="W61" s="3"/>
-    </row>
-    <row r="62" spans="2:23">
+      <c r="X61" s="3"/>
+    </row>
+    <row r="62" spans="2:24">
       <c r="B62" s="4">
         <v>42759</v>
       </c>
@@ -13215,8 +15334,9 @@
       <c r="U62" s="3"/>
       <c r="V62" s="3"/>
       <c r="W62" s="3"/>
-    </row>
-    <row r="63" spans="2:23">
+      <c r="X62" s="3"/>
+    </row>
+    <row r="63" spans="2:24">
       <c r="B63" s="4">
         <v>42760</v>
       </c>
@@ -13254,8 +15374,9 @@
       <c r="U63" s="3"/>
       <c r="V63" s="3"/>
       <c r="W63" s="3"/>
-    </row>
-    <row r="64" spans="2:23">
+      <c r="X63" s="3"/>
+    </row>
+    <row r="64" spans="2:24">
       <c r="B64" s="4">
         <v>42761</v>
       </c>
@@ -13293,8 +15414,9 @@
       <c r="U64" s="3"/>
       <c r="V64" s="3"/>
       <c r="W64" s="3"/>
-    </row>
-    <row r="65" spans="2:23">
+      <c r="X64" s="3"/>
+    </row>
+    <row r="65" spans="2:24">
       <c r="B65" s="4">
         <v>42762</v>
       </c>
@@ -13313,10 +15435,10 @@
       </c>
       <c r="I65" s="3"/>
       <c r="J65" s="3"/>
-      <c r="K65" s="3">
+      <c r="K65" s="3"/>
+      <c r="L65" s="3">
         <v>10</v>
       </c>
-      <c r="L65" s="3"/>
       <c r="M65" s="3"/>
       <c r="N65" s="3"/>
       <c r="O65" s="3"/>
@@ -13328,8 +15450,9 @@
       <c r="U65" s="3"/>
       <c r="V65" s="3"/>
       <c r="W65" s="3"/>
-    </row>
-    <row r="66" spans="2:23">
+      <c r="X65" s="3"/>
+    </row>
+    <row r="66" spans="2:24">
       <c r="B66" s="4">
         <v>42763</v>
       </c>
@@ -13361,8 +15484,9 @@
       <c r="U66" s="3"/>
       <c r="V66" s="3"/>
       <c r="W66" s="3"/>
-    </row>
-    <row r="67" spans="2:23">
+      <c r="X66" s="3"/>
+    </row>
+    <row r="67" spans="2:24">
       <c r="B67" s="4">
         <v>42764</v>
       </c>
@@ -13392,8 +15516,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24">
       <c r="B68" s="4">
         <v>42765</v>
       </c>
@@ -13423,8 +15548,9 @@
       <c r="U68" s="3"/>
       <c r="V68" s="3"/>
       <c r="W68" s="3"/>
-    </row>
-    <row r="69" spans="2:23">
+      <c r="X68" s="3"/>
+    </row>
+    <row r="69" spans="2:24">
       <c r="B69" s="4">
         <v>42766</v>
       </c>
@@ -13454,8 +15580,9 @@
       <c r="U69" s="3"/>
       <c r="V69" s="3"/>
       <c r="W69" s="3"/>
-    </row>
-    <row r="70" spans="2:23">
+      <c r="X69" s="3"/>
+    </row>
+    <row r="70" spans="2:24">
       <c r="B70" s="5" t="s">
         <v>5</v>
       </c>
@@ -13483,13 +15610,14 @@
       <c r="U70" s="6"/>
       <c r="V70" s="6"/>
       <c r="W70" s="6"/>
-    </row>
-    <row r="71" spans="2:23">
+      <c r="X70" s="6"/>
+    </row>
+    <row r="71" spans="2:24">
       <c r="B71" s="4">
         <v>42767</v>
       </c>
       <c r="C71" s="3">
-        <f>SUM(D71:CM71)</f>
+        <f>SUM(D71:CN71)</f>
         <v>2104</v>
       </c>
       <c r="D71" s="3"/>
@@ -13504,10 +15632,10 @@
       <c r="K71" s="3"/>
       <c r="L71" s="3"/>
       <c r="M71" s="3"/>
-      <c r="N71" s="3">
+      <c r="N71" s="3"/>
+      <c r="O71" s="3">
         <v>2100</v>
       </c>
-      <c r="O71" s="3"/>
       <c r="P71" s="3"/>
       <c r="Q71" s="3"/>
       <c r="R71" s="3"/>
@@ -13516,13 +15644,14 @@
       <c r="U71" s="3"/>
       <c r="V71" s="3"/>
       <c r="W71" s="3"/>
-    </row>
-    <row r="72" spans="2:23">
+      <c r="X71" s="3"/>
+    </row>
+    <row r="72" spans="2:24">
       <c r="B72" s="4">
         <v>42768</v>
       </c>
       <c r="C72" s="3">
-        <f>SUM(D72:CM72)</f>
+        <f>SUM(D72:CN72)</f>
         <v>386</v>
       </c>
       <c r="D72" s="3"/>
@@ -13551,13 +15680,14 @@
       <c r="U72" s="3"/>
       <c r="V72" s="3"/>
       <c r="W72" s="3"/>
-    </row>
-    <row r="73" spans="2:23">
+      <c r="X72" s="3"/>
+    </row>
+    <row r="73" spans="2:24">
       <c r="B73" s="4">
         <v>42769</v>
       </c>
       <c r="C73" s="3">
-        <f t="shared" ref="C73:C83" si="2">SUM(D73:CM73)</f>
+        <f t="shared" ref="C73:C83" si="2">SUM(D73:CN73)</f>
         <v>137</v>
       </c>
       <c r="D73" s="3">
@@ -13590,8 +15720,9 @@
       <c r="U73" s="3"/>
       <c r="V73" s="3"/>
       <c r="W73" s="3"/>
-    </row>
-    <row r="74" spans="2:23">
+      <c r="X73" s="3"/>
+    </row>
+    <row r="74" spans="2:24">
       <c r="B74" s="4">
         <v>42770</v>
       </c>
@@ -13627,8 +15758,9 @@
       <c r="U74" s="3"/>
       <c r="V74" s="3"/>
       <c r="W74" s="3"/>
-    </row>
-    <row r="75" spans="2:23">
+      <c r="X74" s="3"/>
+    </row>
+    <row r="75" spans="2:24">
       <c r="B75" s="4">
         <v>42771</v>
       </c>
@@ -13664,8 +15796,9 @@
       <c r="U75" s="3"/>
       <c r="V75" s="3"/>
       <c r="W75" s="3"/>
-    </row>
-    <row r="76" spans="2:23">
+      <c r="X75" s="3"/>
+    </row>
+    <row r="76" spans="2:24">
       <c r="B76" s="4">
         <v>42772</v>
       </c>
@@ -13701,8 +15834,9 @@
       <c r="U76" s="3"/>
       <c r="V76" s="3"/>
       <c r="W76" s="3"/>
-    </row>
-    <row r="77" spans="2:23">
+      <c r="X76" s="3"/>
+    </row>
+    <row r="77" spans="2:24">
       <c r="B77" s="4">
         <v>42773</v>
       </c>
@@ -13736,8 +15870,9 @@
       <c r="U77" s="3"/>
       <c r="V77" s="3"/>
       <c r="W77" s="3"/>
-    </row>
-    <row r="78" spans="2:23">
+      <c r="X77" s="3"/>
+    </row>
+    <row r="78" spans="2:24">
       <c r="B78" s="4">
         <v>42774</v>
       </c>
@@ -13773,8 +15908,9 @@
       <c r="U78" s="3"/>
       <c r="V78" s="3"/>
       <c r="W78" s="3"/>
-    </row>
-    <row r="79" spans="2:23">
+      <c r="X78" s="3"/>
+    </row>
+    <row r="79" spans="2:24">
       <c r="B79" s="4">
         <v>42775</v>
       </c>
@@ -13808,8 +15944,9 @@
       <c r="U79" s="3"/>
       <c r="V79" s="3"/>
       <c r="W79" s="3"/>
-    </row>
-    <row r="80" spans="2:23">
+      <c r="X79" s="3"/>
+    </row>
+    <row r="80" spans="2:24">
       <c r="B80" s="4">
         <v>42776</v>
       </c>
@@ -13845,8 +15982,9 @@
       <c r="U80" s="3"/>
       <c r="V80" s="3"/>
       <c r="W80" s="3"/>
-    </row>
-    <row r="81" spans="2:23">
+      <c r="X80" s="3"/>
+    </row>
+    <row r="81" spans="2:24">
       <c r="B81" s="4">
         <v>42777</v>
       </c>
@@ -13880,8 +16018,9 @@
       <c r="U81" s="3"/>
       <c r="V81" s="3"/>
       <c r="W81" s="3"/>
-    </row>
-    <row r="82" spans="2:23">
+      <c r="X81" s="3"/>
+    </row>
+    <row r="82" spans="2:24">
       <c r="B82" s="4">
         <v>42778</v>
       </c>
@@ -13915,8 +16054,9 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="2:23">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="2:24">
       <c r="B83" s="4">
         <v>42779</v>
       </c>
@@ -13952,13 +16092,14 @@
       <c r="U83" s="3"/>
       <c r="V83" s="3"/>
       <c r="W83" s="3"/>
-    </row>
-    <row r="84" spans="2:23">
+      <c r="X83" s="3"/>
+    </row>
+    <row r="84" spans="2:24">
       <c r="B84" s="4">
         <v>42780</v>
       </c>
       <c r="C84" s="3">
-        <f>SUM(E84:CM84)</f>
+        <f>SUM(E84:CN84)</f>
         <v>34</v>
       </c>
       <c r="D84" s="3">
@@ -13987,13 +16128,14 @@
       <c r="U84" s="3"/>
       <c r="V84" s="3"/>
       <c r="W84" s="3"/>
-    </row>
-    <row r="85" spans="2:23">
+      <c r="X84" s="3"/>
+    </row>
+    <row r="85" spans="2:24">
       <c r="B85" s="4">
         <v>42781</v>
       </c>
       <c r="C85" s="3">
-        <f t="shared" ref="C85:C129" si="3">SUM(D85:CM85)</f>
+        <f t="shared" ref="C85:C129" si="3">SUM(D85:CN85)</f>
         <v>31</v>
       </c>
       <c r="D85" s="3">
@@ -14022,8 +16164,9 @@
       <c r="U85" s="3"/>
       <c r="V85" s="3"/>
       <c r="W85" s="3"/>
-    </row>
-    <row r="86" spans="2:23">
+      <c r="X85" s="3"/>
+    </row>
+    <row r="86" spans="2:24">
       <c r="B86" s="4">
         <v>42782</v>
       </c>
@@ -14061,8 +16204,9 @@
       <c r="U86" s="3"/>
       <c r="V86" s="3"/>
       <c r="W86" s="3"/>
-    </row>
-    <row r="87" spans="2:23">
+      <c r="X86" s="3"/>
+    </row>
+    <row r="87" spans="2:24">
       <c r="B87" s="4">
         <v>42783</v>
       </c>
@@ -14093,17 +16237,18 @@
       <c r="N87" s="3"/>
       <c r="O87" s="3"/>
       <c r="P87" s="3"/>
-      <c r="Q87" s="3">
+      <c r="Q87" s="3"/>
+      <c r="R87" s="3">
         <v>150</v>
       </c>
-      <c r="R87" s="3"/>
       <c r="S87" s="3"/>
       <c r="T87" s="3"/>
       <c r="U87" s="3"/>
       <c r="V87" s="3"/>
       <c r="W87" s="3"/>
-    </row>
-    <row r="88" spans="2:23">
+      <c r="X87" s="3"/>
+    </row>
+    <row r="88" spans="2:24">
       <c r="B88" s="4">
         <v>42784</v>
       </c>
@@ -14139,8 +16284,9 @@
       <c r="U88" s="3"/>
       <c r="V88" s="3"/>
       <c r="W88" s="3"/>
-    </row>
-    <row r="89" spans="2:23">
+      <c r="X88" s="3"/>
+    </row>
+    <row r="89" spans="2:24">
       <c r="B89" s="4">
         <v>42785</v>
       </c>
@@ -14178,8 +16324,9 @@
       <c r="U89" s="3"/>
       <c r="V89" s="3"/>
       <c r="W89" s="3"/>
-    </row>
-    <row r="90" spans="2:23">
+      <c r="X89" s="3"/>
+    </row>
+    <row r="90" spans="2:24">
       <c r="B90" s="4">
         <v>42786</v>
       </c>
@@ -14213,8 +16360,9 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="2:23">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="2:24">
       <c r="B91" s="4">
         <v>42787</v>
       </c>
@@ -14250,8 +16398,9 @@
       <c r="U91" s="3"/>
       <c r="V91" s="3"/>
       <c r="W91" s="3"/>
-    </row>
-    <row r="92" spans="2:23">
+      <c r="X91" s="3"/>
+    </row>
+    <row r="92" spans="2:24">
       <c r="B92" s="4">
         <v>42788</v>
       </c>
@@ -14285,8 +16434,9 @@
       <c r="U92" s="3"/>
       <c r="V92" s="3"/>
       <c r="W92" s="3"/>
-    </row>
-    <row r="93" spans="2:23">
+      <c r="X92" s="3"/>
+    </row>
+    <row r="93" spans="2:24">
       <c r="B93" s="4">
         <v>42789</v>
       </c>
@@ -14322,8 +16472,9 @@
       <c r="U93" s="3"/>
       <c r="V93" s="3"/>
       <c r="W93" s="3"/>
-    </row>
-    <row r="94" spans="2:23">
+      <c r="X93" s="3"/>
+    </row>
+    <row r="94" spans="2:24">
       <c r="B94" s="4">
         <v>42790</v>
       </c>
@@ -14357,8 +16508,9 @@
       <c r="U94" s="3"/>
       <c r="V94" s="3"/>
       <c r="W94" s="3"/>
-    </row>
-    <row r="95" spans="2:23">
+      <c r="X94" s="3"/>
+    </row>
+    <row r="95" spans="2:24">
       <c r="B95" s="4">
         <v>42791</v>
       </c>
@@ -14392,8 +16544,9 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="2:23">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="2:24">
       <c r="B96" s="4">
         <v>42792</v>
       </c>
@@ -14422,17 +16575,18 @@
       <c r="N96" s="3"/>
       <c r="O96" s="3"/>
       <c r="P96" s="3"/>
-      <c r="Q96" s="3">
+      <c r="Q96" s="3"/>
+      <c r="R96" s="3">
         <v>7613</v>
       </c>
-      <c r="R96" s="3"/>
       <c r="S96" s="3"/>
       <c r="T96" s="3"/>
       <c r="U96" s="3"/>
       <c r="V96" s="3"/>
       <c r="W96" s="3"/>
-    </row>
-    <row r="97" spans="2:23">
+      <c r="X96" s="3"/>
+    </row>
+    <row r="97" spans="2:24">
       <c r="B97" s="4">
         <v>42793</v>
       </c>
@@ -14468,8 +16622,9 @@
       <c r="U97" s="3"/>
       <c r="V97" s="3"/>
       <c r="W97" s="3"/>
-    </row>
-    <row r="98" spans="2:23">
+      <c r="X97" s="3"/>
+    </row>
+    <row r="98" spans="2:24">
       <c r="B98" s="4">
         <v>42794</v>
       </c>
@@ -14507,8 +16662,9 @@
       <c r="U98" s="3"/>
       <c r="V98" s="3"/>
       <c r="W98" s="3"/>
-    </row>
-    <row r="99" spans="2:23">
+      <c r="X98" s="3"/>
+    </row>
+    <row r="99" spans="2:24">
       <c r="B99" s="5" t="s">
         <v>5</v>
       </c>
@@ -14536,13 +16692,14 @@
       <c r="U99" s="6"/>
       <c r="V99" s="6"/>
       <c r="W99" s="6"/>
-    </row>
-    <row r="100" spans="2:23">
+      <c r="X99" s="6"/>
+    </row>
+    <row r="100" spans="2:24">
       <c r="B100" s="4">
         <v>42795</v>
       </c>
       <c r="C100" s="3">
-        <f>SUM(D100:CM100)</f>
+        <f>SUM(D100:CN100)</f>
         <v>2160</v>
       </c>
       <c r="D100" s="3">
@@ -14563,10 +16720,10 @@
       <c r="K100" s="3"/>
       <c r="L100" s="3"/>
       <c r="M100" s="3"/>
-      <c r="N100" s="3">
+      <c r="N100" s="3"/>
+      <c r="O100" s="3">
         <v>2100</v>
       </c>
-      <c r="O100" s="3"/>
       <c r="P100" s="3"/>
       <c r="Q100" s="3"/>
       <c r="R100" s="3"/>
@@ -14575,8 +16732,9 @@
       <c r="U100" s="3"/>
       <c r="V100" s="3"/>
       <c r="W100" s="3"/>
-    </row>
-    <row r="101" spans="2:23">
+      <c r="X100" s="3"/>
+    </row>
+    <row r="101" spans="2:24">
       <c r="B101" s="4">
         <v>42796</v>
       </c>
@@ -14612,8 +16770,9 @@
       <c r="U101" s="3"/>
       <c r="V101" s="3"/>
       <c r="W101" s="3"/>
-    </row>
-    <row r="102" spans="2:23">
+      <c r="X101" s="3"/>
+    </row>
+    <row r="102" spans="2:24">
       <c r="B102" s="4">
         <v>42797</v>
       </c>
@@ -14651,8 +16810,9 @@
       <c r="U102" s="3"/>
       <c r="V102" s="3"/>
       <c r="W102" s="3"/>
-    </row>
-    <row r="103" spans="2:23">
+      <c r="X102" s="3"/>
+    </row>
+    <row r="103" spans="2:24">
       <c r="B103" s="4">
         <v>42798</v>
       </c>
@@ -14686,8 +16846,9 @@
       <c r="U103" s="3"/>
       <c r="V103" s="3"/>
       <c r="W103" s="3"/>
-    </row>
-    <row r="104" spans="2:23">
+      <c r="X103" s="3"/>
+    </row>
+    <row r="104" spans="2:24">
       <c r="B104" s="4">
         <v>42799</v>
       </c>
@@ -14727,8 +16888,9 @@
       <c r="U104" s="3"/>
       <c r="V104" s="3"/>
       <c r="W104" s="3"/>
-    </row>
-    <row r="105" spans="2:23">
+      <c r="X104" s="3"/>
+    </row>
+    <row r="105" spans="2:24">
       <c r="B105" s="4">
         <v>42800</v>
       </c>
@@ -14762,8 +16924,9 @@
       <c r="U105" s="3"/>
       <c r="V105" s="3"/>
       <c r="W105" s="3"/>
-    </row>
-    <row r="106" spans="2:23">
+      <c r="X105" s="3"/>
+    </row>
+    <row r="106" spans="2:24">
       <c r="B106" s="4">
         <v>42801</v>
       </c>
@@ -14797,8 +16960,9 @@
       <c r="U106" s="3"/>
       <c r="V106" s="3"/>
       <c r="W106" s="3"/>
-    </row>
-    <row r="107" spans="2:23">
+      <c r="X106" s="3"/>
+    </row>
+    <row r="107" spans="2:24">
       <c r="B107" s="4">
         <v>42802</v>
       </c>
@@ -14834,8 +16998,9 @@
       <c r="U107" s="3"/>
       <c r="V107" s="3"/>
       <c r="W107" s="3"/>
-    </row>
-    <row r="108" spans="2:23">
+      <c r="X107" s="3"/>
+    </row>
+    <row r="108" spans="2:24">
       <c r="B108" s="4">
         <v>42803</v>
       </c>
@@ -14871,8 +17036,9 @@
       <c r="U108" s="3"/>
       <c r="V108" s="3"/>
       <c r="W108" s="3"/>
-    </row>
-    <row r="109" spans="2:23">
+      <c r="X108" s="3"/>
+    </row>
+    <row r="109" spans="2:24">
       <c r="B109" s="4">
         <v>42804</v>
       </c>
@@ -14908,8 +17074,9 @@
       <c r="U109" s="3"/>
       <c r="V109" s="3"/>
       <c r="W109" s="3"/>
-    </row>
-    <row r="110" spans="2:23">
+      <c r="X109" s="3"/>
+    </row>
+    <row r="110" spans="2:24">
       <c r="B110" s="4">
         <v>42805</v>
       </c>
@@ -14945,8 +17112,9 @@
       <c r="U110" s="3"/>
       <c r="V110" s="3"/>
       <c r="W110" s="3"/>
-    </row>
-    <row r="111" spans="2:23">
+      <c r="X110" s="3"/>
+    </row>
+    <row r="111" spans="2:24">
       <c r="B111" s="4">
         <v>42806</v>
       </c>
@@ -14984,8 +17152,9 @@
       <c r="U111" s="3"/>
       <c r="V111" s="3"/>
       <c r="W111" s="3"/>
-    </row>
-    <row r="112" spans="2:23">
+      <c r="X111" s="3"/>
+    </row>
+    <row r="112" spans="2:24">
       <c r="B112" s="4">
         <v>42807</v>
       </c>
@@ -15021,8 +17190,9 @@
       <c r="U112" s="3"/>
       <c r="V112" s="3"/>
       <c r="W112" s="3"/>
-    </row>
-    <row r="113" spans="2:23">
+      <c r="X112" s="3"/>
+    </row>
+    <row r="113" spans="2:24">
       <c r="B113" s="4">
         <v>42808</v>
       </c>
@@ -15056,8 +17226,9 @@
       <c r="U113" s="3"/>
       <c r="V113" s="3"/>
       <c r="W113" s="3"/>
-    </row>
-    <row r="114" spans="2:23">
+      <c r="X113" s="3"/>
+    </row>
+    <row r="114" spans="2:24">
       <c r="B114" s="4">
         <v>42809</v>
       </c>
@@ -15091,8 +17262,9 @@
       <c r="U114" s="3"/>
       <c r="V114" s="3"/>
       <c r="W114" s="3"/>
-    </row>
-    <row r="115" spans="2:23">
+      <c r="X114" s="3"/>
+    </row>
+    <row r="115" spans="2:24">
       <c r="B115" s="4">
         <v>42810</v>
       </c>
@@ -15123,17 +17295,18 @@
       <c r="N115" s="3"/>
       <c r="O115" s="3"/>
       <c r="P115" s="3"/>
-      <c r="Q115" s="3">
+      <c r="Q115" s="3"/>
+      <c r="R115" s="3">
         <v>1121</v>
       </c>
-      <c r="R115" s="3"/>
       <c r="S115" s="3"/>
       <c r="T115" s="3"/>
       <c r="U115" s="3"/>
       <c r="V115" s="3"/>
       <c r="W115" s="3"/>
-    </row>
-    <row r="116" spans="2:23">
+      <c r="X115" s="3"/>
+    </row>
+    <row r="116" spans="2:24">
       <c r="B116" s="4">
         <v>42811</v>
       </c>
@@ -15169,8 +17342,9 @@
       <c r="U116" s="3"/>
       <c r="V116" s="3"/>
       <c r="W116" s="3"/>
-    </row>
-    <row r="117" spans="2:23">
+      <c r="X116" s="3"/>
+    </row>
+    <row r="117" spans="2:24">
       <c r="B117" s="4">
         <v>42812</v>
       </c>
@@ -15204,8 +17378,9 @@
       <c r="U117" s="3"/>
       <c r="V117" s="3"/>
       <c r="W117" s="3"/>
-    </row>
-    <row r="118" spans="2:23">
+      <c r="X117" s="3"/>
+    </row>
+    <row r="118" spans="2:24">
       <c r="B118" s="4">
         <v>42813</v>
       </c>
@@ -15236,17 +17411,18 @@
       <c r="N118" s="3"/>
       <c r="O118" s="3"/>
       <c r="P118" s="3"/>
-      <c r="Q118" s="3">
+      <c r="Q118" s="3"/>
+      <c r="R118" s="3">
         <v>5023</v>
       </c>
-      <c r="R118" s="3"/>
       <c r="S118" s="3"/>
       <c r="T118" s="3"/>
       <c r="U118" s="3"/>
       <c r="V118" s="3"/>
       <c r="W118" s="3"/>
-    </row>
-    <row r="119" spans="2:23">
+      <c r="X118" s="3"/>
+    </row>
+    <row r="119" spans="2:24">
       <c r="B119" s="4">
         <v>42814</v>
       </c>
@@ -15271,10 +17447,10 @@
       <c r="J119" s="3"/>
       <c r="K119" s="3"/>
       <c r="L119" s="3"/>
-      <c r="M119" s="3">
+      <c r="M119" s="3"/>
+      <c r="N119" s="3">
         <v>1800</v>
       </c>
-      <c r="N119" s="3"/>
       <c r="O119" s="3"/>
       <c r="P119" s="3"/>
       <c r="Q119" s="3"/>
@@ -15284,8 +17460,9 @@
       <c r="U119" s="3"/>
       <c r="V119" s="3"/>
       <c r="W119" s="3"/>
-    </row>
-    <row r="120" spans="2:23">
+      <c r="X119" s="3"/>
+    </row>
+    <row r="120" spans="2:24">
       <c r="B120" s="4">
         <v>42815</v>
       </c>
@@ -15321,8 +17498,9 @@
       <c r="U120" s="3"/>
       <c r="V120" s="3"/>
       <c r="W120" s="3"/>
-    </row>
-    <row r="121" spans="2:23">
+      <c r="X120" s="3"/>
+    </row>
+    <row r="121" spans="2:24">
       <c r="B121" s="4">
         <v>42816</v>
       </c>
@@ -15356,8 +17534,9 @@
       <c r="U121" s="3"/>
       <c r="V121" s="3"/>
       <c r="W121" s="3"/>
-    </row>
-    <row r="122" spans="2:23">
+      <c r="X121" s="3"/>
+    </row>
+    <row r="122" spans="2:24">
       <c r="B122" s="4">
         <v>42817</v>
       </c>
@@ -15393,8 +17572,9 @@
       <c r="U122" s="3"/>
       <c r="V122" s="3"/>
       <c r="W122" s="3"/>
-    </row>
-    <row r="123" spans="2:23">
+      <c r="X122" s="3"/>
+    </row>
+    <row r="123" spans="2:24">
       <c r="B123" s="4">
         <v>42818</v>
       </c>
@@ -15430,8 +17610,9 @@
       <c r="U123" s="3"/>
       <c r="V123" s="3"/>
       <c r="W123" s="3"/>
-    </row>
-    <row r="124" spans="2:23">
+      <c r="X123" s="3"/>
+    </row>
+    <row r="124" spans="2:24">
       <c r="B124" s="4">
         <v>42819</v>
       </c>
@@ -15448,10 +17629,10 @@
       </c>
       <c r="I124" s="3"/>
       <c r="J124" s="3"/>
-      <c r="K124" s="3">
+      <c r="K124" s="3"/>
+      <c r="L124" s="3">
         <v>35</v>
       </c>
-      <c r="L124" s="3"/>
       <c r="M124" s="3"/>
       <c r="N124" s="3"/>
       <c r="O124" s="3"/>
@@ -15463,8 +17644,9 @@
       <c r="U124" s="3"/>
       <c r="V124" s="3"/>
       <c r="W124" s="3"/>
-    </row>
-    <row r="125" spans="2:23">
+      <c r="X124" s="3"/>
+    </row>
+    <row r="125" spans="2:24">
       <c r="B125" s="4">
         <v>42820</v>
       </c>
@@ -15488,10 +17670,10 @@
         <v>10</v>
       </c>
       <c r="K125" s="3"/>
-      <c r="L125" s="3">
+      <c r="L125" s="3"/>
+      <c r="M125" s="3">
         <v>245</v>
       </c>
-      <c r="M125" s="3"/>
       <c r="N125" s="3"/>
       <c r="O125" s="3"/>
       <c r="P125" s="3"/>
@@ -15502,8 +17684,9 @@
       <c r="U125" s="3"/>
       <c r="V125" s="3"/>
       <c r="W125" s="3"/>
-    </row>
-    <row r="126" spans="2:23">
+      <c r="X125" s="3"/>
+    </row>
+    <row r="126" spans="2:24">
       <c r="B126" s="4">
         <v>42821</v>
       </c>
@@ -15539,8 +17722,9 @@
       <c r="U126" s="3"/>
       <c r="V126" s="3"/>
       <c r="W126" s="3"/>
-    </row>
-    <row r="127" spans="2:23">
+      <c r="X126" s="3"/>
+    </row>
+    <row r="127" spans="2:24">
       <c r="B127" s="4">
         <v>42822</v>
       </c>
@@ -15574,8 +17758,9 @@
       <c r="U127" s="3"/>
       <c r="V127" s="3"/>
       <c r="W127" s="3"/>
-    </row>
-    <row r="128" spans="2:23">
+      <c r="X127" s="3"/>
+    </row>
+    <row r="128" spans="2:24">
       <c r="B128" s="4">
         <v>42823</v>
       </c>
@@ -15611,8 +17796,9 @@
       <c r="U128" s="3"/>
       <c r="V128" s="3"/>
       <c r="W128" s="3"/>
-    </row>
-    <row r="129" spans="2:23">
+      <c r="X128" s="3"/>
+    </row>
+    <row r="129" spans="2:24">
       <c r="B129" s="4">
         <v>42824</v>
       </c>
@@ -15639,22 +17825,23 @@
       <c r="N129" s="3"/>
       <c r="O129" s="3"/>
       <c r="P129" s="3"/>
-      <c r="Q129" s="3">
+      <c r="Q129" s="3"/>
+      <c r="R129" s="3">
         <v>8027</v>
       </c>
-      <c r="R129" s="3"/>
       <c r="S129" s="3"/>
       <c r="T129" s="3"/>
       <c r="U129" s="3"/>
       <c r="V129" s="3"/>
       <c r="W129" s="3"/>
-    </row>
-    <row r="130" spans="2:23">
+      <c r="X129" s="3"/>
+    </row>
+    <row r="130" spans="2:24">
       <c r="B130" s="4">
         <v>42825</v>
       </c>
       <c r="C130" s="3">
-        <f>SUM(D130:CM130)</f>
+        <f>SUM(D130:CN130)</f>
         <v>57</v>
       </c>
       <c r="D130" s="3">
@@ -15687,8 +17874,9 @@
       <c r="U130" s="3"/>
       <c r="V130" s="3"/>
       <c r="W130" s="3"/>
-    </row>
-    <row r="131" spans="2:23">
+      <c r="X130" s="3"/>
+    </row>
+    <row r="131" spans="2:24">
       <c r="B131" s="5" t="s">
         <v>5</v>
       </c>
@@ -15716,13 +17904,14 @@
       <c r="U131" s="6"/>
       <c r="V131" s="6"/>
       <c r="W131" s="6"/>
-    </row>
-    <row r="132" spans="2:23">
+      <c r="X131" s="6"/>
+    </row>
+    <row r="132" spans="2:24">
       <c r="B132" s="4">
         <v>42826</v>
       </c>
       <c r="C132" s="3">
-        <f>SUM(D132:CM132)</f>
+        <f>SUM(D132:CN132)</f>
         <v>2154</v>
       </c>
       <c r="D132" s="3">
@@ -15745,10 +17934,10 @@
       <c r="K132" s="3"/>
       <c r="L132" s="3"/>
       <c r="M132" s="3"/>
-      <c r="N132" s="3">
+      <c r="N132" s="3"/>
+      <c r="O132" s="3">
         <v>2100</v>
       </c>
-      <c r="O132" s="3"/>
       <c r="P132" s="3"/>
       <c r="Q132" s="3"/>
       <c r="R132" s="3"/>
@@ -15757,13 +17946,14 @@
       <c r="U132" s="3"/>
       <c r="V132" s="3"/>
       <c r="W132" s="3"/>
-    </row>
-    <row r="133" spans="2:23">
+      <c r="X132" s="3"/>
+    </row>
+    <row r="133" spans="2:24">
       <c r="B133" s="4">
         <v>42827</v>
       </c>
       <c r="C133" s="3">
-        <f t="shared" ref="C133:C161" si="4">SUM(D133:CM133)</f>
+        <f t="shared" ref="C133:C161" si="4">SUM(D133:CN133)</f>
         <v>139</v>
       </c>
       <c r="D133" s="3"/>
@@ -15790,8 +17980,9 @@
       <c r="U133" s="3"/>
       <c r="V133" s="3"/>
       <c r="W133" s="3"/>
-    </row>
-    <row r="134" spans="2:23">
+      <c r="X133" s="3"/>
+    </row>
+    <row r="134" spans="2:24">
       <c r="B134" s="4">
         <v>42828</v>
       </c>
@@ -15821,8 +18012,9 @@
       <c r="U134" s="3"/>
       <c r="V134" s="3"/>
       <c r="W134" s="3"/>
-    </row>
-    <row r="135" spans="2:23">
+      <c r="X134" s="3"/>
+    </row>
+    <row r="135" spans="2:24">
       <c r="B135" s="4">
         <v>42829</v>
       </c>
@@ -15856,8 +18048,9 @@
       <c r="U135" s="3"/>
       <c r="V135" s="3"/>
       <c r="W135" s="3"/>
-    </row>
-    <row r="136" spans="2:23">
+      <c r="X135" s="3"/>
+    </row>
+    <row r="136" spans="2:24">
       <c r="B136" s="4">
         <v>42830</v>
       </c>
@@ -15882,10 +18075,10 @@
       <c r="J136" s="3">
         <v>40</v>
       </c>
-      <c r="K136" s="3">
+      <c r="K136" s="3"/>
+      <c r="L136" s="3">
         <v>28</v>
       </c>
-      <c r="L136" s="3"/>
       <c r="M136" s="3"/>
       <c r="N136" s="3"/>
       <c r="O136" s="3"/>
@@ -15897,8 +18090,9 @@
       <c r="U136" s="3"/>
       <c r="V136" s="3"/>
       <c r="W136" s="3"/>
-    </row>
-    <row r="137" spans="2:23">
+      <c r="X136" s="3"/>
+    </row>
+    <row r="137" spans="2:24">
       <c r="B137" s="4">
         <v>42831</v>
       </c>
@@ -15934,8 +18128,9 @@
       <c r="U137" s="3"/>
       <c r="V137" s="3"/>
       <c r="W137" s="3"/>
-    </row>
-    <row r="138" spans="2:23">
+      <c r="X137" s="3"/>
+    </row>
+    <row r="138" spans="2:24">
       <c r="B138" s="4">
         <v>42832</v>
       </c>
@@ -15971,8 +18166,9 @@
       <c r="U138" s="3"/>
       <c r="V138" s="3"/>
       <c r="W138" s="3"/>
-    </row>
-    <row r="139" spans="2:23">
+      <c r="X138" s="3"/>
+    </row>
+    <row r="139" spans="2:24">
       <c r="B139" s="4">
         <v>42833</v>
       </c>
@@ -15994,10 +18190,10 @@
         <v>60</v>
       </c>
       <c r="K139" s="3"/>
-      <c r="L139" s="3">
+      <c r="L139" s="3"/>
+      <c r="M139" s="3">
         <v>45</v>
       </c>
-      <c r="M139" s="3"/>
       <c r="N139" s="3"/>
       <c r="O139" s="3"/>
       <c r="P139" s="3"/>
@@ -16008,8 +18204,9 @@
       <c r="U139" s="3"/>
       <c r="V139" s="3"/>
       <c r="W139" s="3"/>
-    </row>
-    <row r="140" spans="2:23">
+      <c r="X139" s="3"/>
+    </row>
+    <row r="140" spans="2:24">
       <c r="B140" s="4">
         <v>42834</v>
       </c>
@@ -16043,8 +18240,9 @@
       <c r="U140" s="3"/>
       <c r="V140" s="3"/>
       <c r="W140" s="3"/>
-    </row>
-    <row r="141" spans="2:23">
+      <c r="X140" s="3"/>
+    </row>
+    <row r="141" spans="2:24">
       <c r="B141" s="4">
         <v>42835</v>
       </c>
@@ -16071,17 +18269,18 @@
       <c r="N141" s="3"/>
       <c r="O141" s="3"/>
       <c r="P141" s="3"/>
-      <c r="Q141" s="3">
+      <c r="Q141" s="3"/>
+      <c r="R141" s="3">
         <v>6102</v>
       </c>
-      <c r="R141" s="3"/>
       <c r="S141" s="3"/>
       <c r="T141" s="3"/>
       <c r="U141" s="3"/>
       <c r="V141" s="3"/>
       <c r="W141" s="3"/>
-    </row>
-    <row r="142" spans="2:23">
+      <c r="X141" s="3"/>
+    </row>
+    <row r="142" spans="2:24">
       <c r="B142" s="4">
         <v>42836</v>
       </c>
@@ -16110,17 +18309,18 @@
       <c r="N142" s="3"/>
       <c r="O142" s="3"/>
       <c r="P142" s="3"/>
-      <c r="Q142" s="3">
+      <c r="Q142" s="3"/>
+      <c r="R142" s="3">
         <v>1521</v>
       </c>
-      <c r="R142" s="3"/>
       <c r="S142" s="3"/>
       <c r="T142" s="3"/>
       <c r="U142" s="3"/>
       <c r="V142" s="3"/>
       <c r="W142" s="3"/>
-    </row>
-    <row r="143" spans="2:23">
+      <c r="X142" s="3"/>
+    </row>
+    <row r="143" spans="2:24">
       <c r="B143" s="4">
         <v>42837</v>
       </c>
@@ -16147,17 +18347,18 @@
       <c r="N143" s="3"/>
       <c r="O143" s="3"/>
       <c r="P143" s="3"/>
-      <c r="Q143" s="3">
+      <c r="Q143" s="3"/>
+      <c r="R143" s="3">
         <v>462</v>
       </c>
-      <c r="R143" s="3"/>
       <c r="S143" s="3"/>
       <c r="T143" s="3"/>
       <c r="U143" s="3"/>
       <c r="V143" s="3"/>
       <c r="W143" s="3"/>
-    </row>
-    <row r="144" spans="2:23">
+      <c r="X143" s="3"/>
+    </row>
+    <row r="144" spans="2:24">
       <c r="B144" s="4">
         <v>42838</v>
       </c>
@@ -16191,8 +18392,9 @@
       <c r="U144" s="3"/>
       <c r="V144" s="3"/>
       <c r="W144" s="3"/>
-    </row>
-    <row r="145" spans="2:23">
+      <c r="X144" s="3"/>
+    </row>
+    <row r="145" spans="2:24">
       <c r="B145" s="4">
         <v>42839</v>
       </c>
@@ -16228,8 +18430,9 @@
       <c r="U145" s="3"/>
       <c r="V145" s="3"/>
       <c r="W145" s="3"/>
-    </row>
-    <row r="146" spans="2:23">
+      <c r="X145" s="3"/>
+    </row>
+    <row r="146" spans="2:24">
       <c r="B146" s="4">
         <v>42840</v>
       </c>
@@ -16263,8 +18466,9 @@
       <c r="U146" s="3"/>
       <c r="V146" s="3"/>
       <c r="W146" s="3"/>
-    </row>
-    <row r="147" spans="2:23">
+      <c r="X146" s="3"/>
+    </row>
+    <row r="147" spans="2:24">
       <c r="B147" s="4">
         <v>42841</v>
       </c>
@@ -16298,8 +18502,9 @@
       <c r="U147" s="3"/>
       <c r="V147" s="3"/>
       <c r="W147" s="3"/>
-    </row>
-    <row r="148" spans="2:23">
+      <c r="X147" s="3"/>
+    </row>
+    <row r="148" spans="2:24">
       <c r="B148" s="4">
         <v>42842</v>
       </c>
@@ -16335,8 +18540,9 @@
       <c r="U148" s="3"/>
       <c r="V148" s="3"/>
       <c r="W148" s="3"/>
-    </row>
-    <row r="149" spans="2:23">
+      <c r="X148" s="3"/>
+    </row>
+    <row r="149" spans="2:24">
       <c r="B149" s="4">
         <v>42843</v>
       </c>
@@ -16370,8 +18576,9 @@
       <c r="U149" s="3"/>
       <c r="V149" s="3"/>
       <c r="W149" s="3"/>
-    </row>
-    <row r="150" spans="2:23">
+      <c r="X149" s="3"/>
+    </row>
+    <row r="150" spans="2:24">
       <c r="B150" s="4">
         <v>42844</v>
       </c>
@@ -16407,8 +18614,9 @@
       <c r="U150" s="3"/>
       <c r="V150" s="3"/>
       <c r="W150" s="3"/>
-    </row>
-    <row r="151" spans="2:23">
+      <c r="X150" s="3"/>
+    </row>
+    <row r="151" spans="2:24">
       <c r="B151" s="4">
         <v>42845</v>
       </c>
@@ -16442,8 +18650,9 @@
       <c r="U151" s="3"/>
       <c r="V151" s="3"/>
       <c r="W151" s="3"/>
-    </row>
-    <row r="152" spans="2:23">
+      <c r="X151" s="3"/>
+    </row>
+    <row r="152" spans="2:24">
       <c r="B152" s="4">
         <v>42846</v>
       </c>
@@ -16472,17 +18681,18 @@
       <c r="N152" s="3"/>
       <c r="O152" s="3"/>
       <c r="P152" s="3"/>
-      <c r="Q152" s="3">
+      <c r="Q152" s="3"/>
+      <c r="R152" s="3">
         <v>4100</v>
       </c>
-      <c r="R152" s="3"/>
       <c r="S152" s="3"/>
       <c r="T152" s="3"/>
       <c r="U152" s="3"/>
       <c r="V152" s="3"/>
       <c r="W152" s="3"/>
-    </row>
-    <row r="153" spans="2:23">
+      <c r="X152" s="3"/>
+    </row>
+    <row r="153" spans="2:24">
       <c r="B153" s="4">
         <v>42847</v>
       </c>
@@ -16511,17 +18721,18 @@
       <c r="N153" s="3"/>
       <c r="O153" s="3"/>
       <c r="P153" s="3"/>
-      <c r="Q153" s="3">
+      <c r="Q153" s="3"/>
+      <c r="R153" s="3">
         <v>5300</v>
       </c>
-      <c r="R153" s="3"/>
       <c r="S153" s="3"/>
       <c r="T153" s="3"/>
       <c r="U153" s="3"/>
       <c r="V153" s="3"/>
       <c r="W153" s="3"/>
-    </row>
-    <row r="154" spans="2:23">
+      <c r="X153" s="3"/>
+    </row>
+    <row r="154" spans="2:24">
       <c r="B154" s="4">
         <v>42848</v>
       </c>
@@ -16548,17 +18759,18 @@
       <c r="N154" s="3"/>
       <c r="O154" s="3"/>
       <c r="P154" s="3"/>
-      <c r="Q154" s="3">
+      <c r="Q154" s="3"/>
+      <c r="R154" s="3">
         <v>530</v>
       </c>
-      <c r="R154" s="3"/>
       <c r="S154" s="3"/>
       <c r="T154" s="3"/>
       <c r="U154" s="3"/>
       <c r="V154" s="3"/>
       <c r="W154" s="3"/>
-    </row>
-    <row r="155" spans="2:23">
+      <c r="X154" s="3"/>
+    </row>
+    <row r="155" spans="2:24">
       <c r="B155" s="4">
         <v>42849</v>
       </c>
@@ -16594,8 +18806,9 @@
       <c r="U155" s="3"/>
       <c r="V155" s="3"/>
       <c r="W155" s="3"/>
-    </row>
-    <row r="156" spans="2:23">
+      <c r="X155" s="3"/>
+    </row>
+    <row r="156" spans="2:24">
       <c r="B156" s="4">
         <v>42850</v>
       </c>
@@ -16631,8 +18844,9 @@
       <c r="U156" s="3"/>
       <c r="V156" s="3"/>
       <c r="W156" s="3"/>
-    </row>
-    <row r="157" spans="2:23">
+      <c r="X156" s="3"/>
+    </row>
+    <row r="157" spans="2:24">
       <c r="B157" s="4">
         <v>42851</v>
       </c>
@@ -16668,8 +18882,9 @@
       <c r="U157" s="3"/>
       <c r="V157" s="3"/>
       <c r="W157" s="3"/>
-    </row>
-    <row r="158" spans="2:23">
+      <c r="X157" s="3"/>
+    </row>
+    <row r="158" spans="2:24">
       <c r="B158" s="4">
         <v>42852</v>
       </c>
@@ -16705,8 +18920,9 @@
       <c r="U158" s="3"/>
       <c r="V158" s="3"/>
       <c r="W158" s="3"/>
-    </row>
-    <row r="159" spans="2:23">
+      <c r="X158" s="3"/>
+    </row>
+    <row r="159" spans="2:24">
       <c r="B159" s="4">
         <v>42853</v>
       </c>
@@ -16746,8 +18962,9 @@
       <c r="U159" s="3"/>
       <c r="V159" s="3"/>
       <c r="W159" s="3"/>
-    </row>
-    <row r="160" spans="2:23">
+      <c r="X159" s="3"/>
+    </row>
+    <row r="160" spans="2:24">
       <c r="B160" s="4">
         <v>42854</v>
       </c>
@@ -16783,8 +19000,9 @@
       <c r="U160" s="3"/>
       <c r="V160" s="3"/>
       <c r="W160" s="3"/>
-    </row>
-    <row r="161" spans="2:23">
+      <c r="X160" s="3"/>
+    </row>
+    <row r="161" spans="2:24">
       <c r="B161" s="4">
         <v>42855</v>
       </c>
@@ -16820,8 +19038,9 @@
       <c r="U161" s="3"/>
       <c r="V161" s="3"/>
       <c r="W161" s="3"/>
-    </row>
-    <row r="162" spans="2:23">
+      <c r="X161" s="3"/>
+    </row>
+    <row r="162" spans="2:24">
       <c r="B162" s="5" t="s">
         <v>5</v>
       </c>
@@ -16849,13 +19068,14 @@
       <c r="U162" s="6"/>
       <c r="V162" s="6"/>
       <c r="W162" s="6"/>
-    </row>
-    <row r="163" spans="2:23">
+      <c r="X162" s="6"/>
+    </row>
+    <row r="163" spans="2:24">
       <c r="B163" s="4">
         <v>42856</v>
       </c>
       <c r="C163" s="3">
-        <f t="shared" ref="C163:C193" si="5">SUM(D163:CM163)</f>
+        <f t="shared" ref="C163:C193" si="5">SUM(D163:CN163)</f>
         <v>2180</v>
       </c>
       <c r="D163" s="3"/>
@@ -16876,10 +19096,10 @@
       <c r="K163" s="3"/>
       <c r="L163" s="3"/>
       <c r="M163" s="3"/>
-      <c r="N163" s="3">
+      <c r="N163" s="3"/>
+      <c r="O163" s="3">
         <v>2100</v>
       </c>
-      <c r="O163" s="3"/>
       <c r="P163" s="3"/>
       <c r="Q163" s="3"/>
       <c r="R163" s="3"/>
@@ -16888,8 +19108,9 @@
       <c r="U163" s="3"/>
       <c r="V163" s="3"/>
       <c r="W163" s="3"/>
-    </row>
-    <row r="164" spans="2:23">
+      <c r="X163" s="3"/>
+    </row>
+    <row r="164" spans="2:24">
       <c r="B164" s="4">
         <v>42857</v>
       </c>
@@ -16927,8 +19148,9 @@
       <c r="U164" s="3"/>
       <c r="V164" s="3"/>
       <c r="W164" s="3"/>
-    </row>
-    <row r="165" spans="2:23">
+      <c r="X164" s="3"/>
+    </row>
+    <row r="165" spans="2:24">
       <c r="B165" s="4">
         <v>42858</v>
       </c>
@@ -16964,8 +19186,9 @@
       <c r="U165" s="3"/>
       <c r="V165" s="3"/>
       <c r="W165" s="3"/>
-    </row>
-    <row r="166" spans="2:23">
+      <c r="X165" s="3"/>
+    </row>
+    <row r="166" spans="2:24">
       <c r="B166" s="4">
         <v>42859</v>
       </c>
@@ -17003,8 +19226,9 @@
       <c r="U166" s="3"/>
       <c r="V166" s="3"/>
       <c r="W166" s="3"/>
-    </row>
-    <row r="167" spans="2:23">
+      <c r="X166" s="3"/>
+    </row>
+    <row r="167" spans="2:24">
       <c r="B167" s="4">
         <v>42860</v>
       </c>
@@ -17042,8 +19266,9 @@
       <c r="U167" s="3"/>
       <c r="V167" s="3"/>
       <c r="W167" s="3"/>
-    </row>
-    <row r="168" spans="2:23">
+      <c r="X167" s="3"/>
+    </row>
+    <row r="168" spans="2:24">
       <c r="B168" s="4">
         <v>42861</v>
       </c>
@@ -17077,8 +19302,9 @@
       <c r="U168" s="3"/>
       <c r="V168" s="3"/>
       <c r="W168" s="3"/>
-    </row>
-    <row r="169" spans="2:23">
+      <c r="X168" s="3"/>
+    </row>
+    <row r="169" spans="2:24">
       <c r="B169" s="4">
         <v>42862</v>
       </c>
@@ -17116,8 +19342,9 @@
       <c r="U169" s="3"/>
       <c r="V169" s="3"/>
       <c r="W169" s="3"/>
-    </row>
-    <row r="170" spans="2:23">
+      <c r="X169" s="3"/>
+    </row>
+    <row r="170" spans="2:24">
       <c r="B170" s="4">
         <v>42863</v>
       </c>
@@ -17151,8 +19378,9 @@
       <c r="U170" s="3"/>
       <c r="V170" s="3"/>
       <c r="W170" s="3"/>
-    </row>
-    <row r="171" spans="2:23">
+      <c r="X170" s="3"/>
+    </row>
+    <row r="171" spans="2:24">
       <c r="B171" s="4">
         <v>42864</v>
       </c>
@@ -17186,8 +19414,9 @@
       <c r="U171" s="3"/>
       <c r="V171" s="3"/>
       <c r="W171" s="3"/>
-    </row>
-    <row r="172" spans="2:23">
+      <c r="X171" s="3"/>
+    </row>
+    <row r="172" spans="2:24">
       <c r="B172" s="4">
         <v>42865</v>
       </c>
@@ -17223,8 +19452,9 @@
       <c r="U172" s="3"/>
       <c r="V172" s="3"/>
       <c r="W172" s="3"/>
-    </row>
-    <row r="173" spans="2:23">
+      <c r="X172" s="3"/>
+    </row>
+    <row r="173" spans="2:24">
       <c r="B173" s="4">
         <v>42866</v>
       </c>
@@ -17260,8 +19490,9 @@
       <c r="U173" s="3"/>
       <c r="V173" s="3"/>
       <c r="W173" s="3"/>
-    </row>
-    <row r="174" spans="2:23">
+      <c r="X173" s="3"/>
+    </row>
+    <row r="174" spans="2:24">
       <c r="B174" s="4">
         <v>42867</v>
       </c>
@@ -17299,8 +19530,9 @@
       <c r="U174" s="3"/>
       <c r="V174" s="3"/>
       <c r="W174" s="3"/>
-    </row>
-    <row r="175" spans="2:23">
+      <c r="X174" s="3"/>
+    </row>
+    <row r="175" spans="2:24">
       <c r="B175" s="4">
         <v>42868</v>
       </c>
@@ -17336,8 +19568,9 @@
       <c r="U175" s="3"/>
       <c r="V175" s="3"/>
       <c r="W175" s="3"/>
-    </row>
-    <row r="176" spans="2:23">
+      <c r="X175" s="3"/>
+    </row>
+    <row r="176" spans="2:24">
       <c r="B176" s="4">
         <v>42869</v>
       </c>
@@ -17373,8 +19606,9 @@
       <c r="U176" s="3"/>
       <c r="V176" s="3"/>
       <c r="W176" s="3"/>
-    </row>
-    <row r="177" spans="2:23">
+      <c r="X176" s="3"/>
+    </row>
+    <row r="177" spans="2:24">
       <c r="B177" s="4">
         <v>42870</v>
       </c>
@@ -17401,17 +19635,18 @@
       <c r="N177" s="3"/>
       <c r="O177" s="3"/>
       <c r="P177" s="3"/>
-      <c r="Q177" s="3">
+      <c r="Q177" s="3"/>
+      <c r="R177" s="3">
         <v>6500</v>
       </c>
-      <c r="R177" s="3"/>
       <c r="S177" s="3"/>
       <c r="T177" s="3"/>
       <c r="U177" s="3"/>
       <c r="V177" s="3"/>
       <c r="W177" s="3"/>
-    </row>
-    <row r="178" spans="2:23">
+      <c r="X177" s="3"/>
+    </row>
+    <row r="178" spans="2:24">
       <c r="B178" s="4">
         <v>42871</v>
       </c>
@@ -17447,8 +19682,9 @@
       <c r="U178" s="3"/>
       <c r="V178" s="3"/>
       <c r="W178" s="3"/>
-    </row>
-    <row r="179" spans="2:23">
+      <c r="X178" s="3"/>
+    </row>
+    <row r="179" spans="2:24">
       <c r="B179" s="4">
         <v>42872</v>
       </c>
@@ -17486,8 +19722,9 @@
       <c r="U179" s="3"/>
       <c r="V179" s="3"/>
       <c r="W179" s="3"/>
-    </row>
-    <row r="180" spans="2:23">
+      <c r="X179" s="3"/>
+    </row>
+    <row r="180" spans="2:24">
       <c r="B180" s="4">
         <v>42873</v>
       </c>
@@ -17523,8 +19760,9 @@
       <c r="U180" s="3"/>
       <c r="V180" s="3"/>
       <c r="W180" s="3"/>
-    </row>
-    <row r="181" spans="2:23">
+      <c r="X180" s="3"/>
+    </row>
+    <row r="181" spans="2:24">
       <c r="B181" s="4">
         <v>42874</v>
       </c>
@@ -17560,8 +19798,9 @@
       <c r="U181" s="3"/>
       <c r="V181" s="3"/>
       <c r="W181" s="3"/>
-    </row>
-    <row r="182" spans="2:23">
+      <c r="X181" s="3"/>
+    </row>
+    <row r="182" spans="2:24">
       <c r="B182" s="4">
         <v>42875</v>
       </c>
@@ -17590,17 +19829,18 @@
       <c r="N182" s="3"/>
       <c r="O182" s="3"/>
       <c r="P182" s="3"/>
-      <c r="Q182" s="3">
+      <c r="Q182" s="3"/>
+      <c r="R182" s="3">
         <v>200</v>
       </c>
-      <c r="R182" s="3"/>
       <c r="S182" s="3"/>
       <c r="T182" s="3"/>
       <c r="U182" s="3"/>
       <c r="V182" s="3"/>
       <c r="W182" s="3"/>
-    </row>
-    <row r="183" spans="2:23">
+      <c r="X182" s="3"/>
+    </row>
+    <row r="183" spans="2:24">
       <c r="B183" s="4">
         <v>42876</v>
       </c>
@@ -17640,8 +19880,9 @@
       <c r="U183" s="3"/>
       <c r="V183" s="3"/>
       <c r="W183" s="3"/>
-    </row>
-    <row r="184" spans="2:23">
+      <c r="X183" s="3"/>
+    </row>
+    <row r="184" spans="2:24">
       <c r="B184" s="4">
         <v>42877</v>
       </c>
@@ -17675,8 +19916,9 @@
       <c r="U184" s="3"/>
       <c r="V184" s="3"/>
       <c r="W184" s="3"/>
-    </row>
-    <row r="185" spans="2:23">
+      <c r="X184" s="3"/>
+    </row>
+    <row r="185" spans="2:24">
       <c r="B185" s="4">
         <v>42878</v>
       </c>
@@ -17712,8 +19954,9 @@
       <c r="U185" s="3"/>
       <c r="V185" s="3"/>
       <c r="W185" s="3"/>
-    </row>
-    <row r="186" spans="2:23">
+      <c r="X185" s="3"/>
+    </row>
+    <row r="186" spans="2:24">
       <c r="B186" s="4">
         <v>42879</v>
       </c>
@@ -17749,8 +19992,9 @@
       <c r="U186" s="3"/>
       <c r="V186" s="3"/>
       <c r="W186" s="3"/>
-    </row>
-    <row r="187" spans="2:23">
+      <c r="X186" s="3"/>
+    </row>
+    <row r="187" spans="2:24">
       <c r="B187" s="4">
         <v>42880</v>
       </c>
@@ -17788,8 +20032,9 @@
       <c r="U187" s="3"/>
       <c r="V187" s="3"/>
       <c r="W187" s="3"/>
-    </row>
-    <row r="188" spans="2:23">
+      <c r="X187" s="3"/>
+    </row>
+    <row r="188" spans="2:24">
       <c r="B188" s="4">
         <v>42881</v>
       </c>
@@ -17829,8 +20074,9 @@
       <c r="U188" s="3"/>
       <c r="V188" s="3"/>
       <c r="W188" s="3"/>
-    </row>
-    <row r="189" spans="2:23">
+      <c r="X188" s="3"/>
+    </row>
+    <row r="189" spans="2:24">
       <c r="B189" s="4">
         <v>42882</v>
       </c>
@@ -17866,8 +20112,9 @@
       <c r="U189" s="3"/>
       <c r="V189" s="3"/>
       <c r="W189" s="3"/>
-    </row>
-    <row r="190" spans="2:23">
+      <c r="X189" s="3"/>
+    </row>
+    <row r="190" spans="2:24">
       <c r="B190" s="4">
         <v>42883</v>
       </c>
@@ -17899,8 +20146,9 @@
       <c r="U190" s="3"/>
       <c r="V190" s="3"/>
       <c r="W190" s="3"/>
-    </row>
-    <row r="191" spans="2:23">
+      <c r="X190" s="3"/>
+    </row>
+    <row r="191" spans="2:24">
       <c r="B191" s="4">
         <v>42884</v>
       </c>
@@ -17928,8 +20176,9 @@
       <c r="U191" s="3"/>
       <c r="V191" s="3"/>
       <c r="W191" s="3"/>
-    </row>
-    <row r="192" spans="2:23">
+      <c r="X191" s="3"/>
+    </row>
+    <row r="192" spans="2:24">
       <c r="B192" s="4">
         <v>42885</v>
       </c>
@@ -17961,8 +20210,9 @@
       <c r="U192" s="3"/>
       <c r="V192" s="3"/>
       <c r="W192" s="3"/>
-    </row>
-    <row r="193" spans="2:23">
+      <c r="X192" s="3"/>
+    </row>
+    <row r="193" spans="2:24">
       <c r="B193" s="4">
         <v>42886</v>
       </c>
@@ -18000,8 +20250,9 @@
       <c r="U193" s="3"/>
       <c r="V193" s="3"/>
       <c r="W193" s="3"/>
-    </row>
-    <row r="194" spans="2:23">
+      <c r="X193" s="3"/>
+    </row>
+    <row r="194" spans="2:24">
       <c r="B194" s="5" t="s">
         <v>5</v>
       </c>
@@ -18029,14 +20280,15 @@
       <c r="U194" s="6"/>
       <c r="V194" s="6"/>
       <c r="W194" s="6"/>
-    </row>
-    <row r="195" spans="2:23">
+      <c r="X194" s="6"/>
+    </row>
+    <row r="195" spans="2:24">
       <c r="B195" s="4">
         <v>42887</v>
       </c>
       <c r="C195" s="3">
-        <f t="shared" ref="C195:C224" si="6">SUM(D195:CM195)</f>
-        <v>28</v>
+        <f t="shared" ref="C195:C259" si="6">SUM(D195:CN195)</f>
+        <v>2128</v>
       </c>
       <c r="D195" s="3">
         <v>7</v>
@@ -18055,7 +20307,9 @@
       <c r="L195" s="3"/>
       <c r="M195" s="3"/>
       <c r="N195" s="3"/>
-      <c r="O195" s="3"/>
+      <c r="O195" s="3">
+        <v>2100</v>
+      </c>
       <c r="P195" s="3"/>
       <c r="Q195" s="3"/>
       <c r="R195" s="3"/>
@@ -18064,8 +20318,9 @@
       <c r="U195" s="3"/>
       <c r="V195" s="3"/>
       <c r="W195" s="3"/>
-    </row>
-    <row r="196" spans="2:23">
+      <c r="X195" s="3"/>
+    </row>
+    <row r="196" spans="2:24">
       <c r="B196" s="4">
         <v>42888</v>
       </c>
@@ -18101,8 +20356,9 @@
       <c r="U196" s="3"/>
       <c r="V196" s="3"/>
       <c r="W196" s="3"/>
-    </row>
-    <row r="197" spans="2:23">
+      <c r="X196" s="3"/>
+    </row>
+    <row r="197" spans="2:24">
       <c r="B197" s="4">
         <v>42889</v>
       </c>
@@ -18138,8 +20394,9 @@
       <c r="U197" s="3"/>
       <c r="V197" s="3"/>
       <c r="W197" s="3"/>
-    </row>
-    <row r="198" spans="2:23">
+      <c r="X197" s="3"/>
+    </row>
+    <row r="198" spans="2:24">
       <c r="B198" s="4">
         <v>42890</v>
       </c>
@@ -18175,8 +20432,9 @@
       <c r="U198" s="3"/>
       <c r="V198" s="3"/>
       <c r="W198" s="3"/>
-    </row>
-    <row r="199" spans="2:23">
+      <c r="X198" s="3"/>
+    </row>
+    <row r="199" spans="2:24">
       <c r="B199" s="4">
         <v>42891</v>
       </c>
@@ -18212,8 +20470,9 @@
       <c r="U199" s="3"/>
       <c r="V199" s="3"/>
       <c r="W199" s="3"/>
-    </row>
-    <row r="200" spans="2:23">
+      <c r="X199" s="3"/>
+    </row>
+    <row r="200" spans="2:24">
       <c r="B200" s="4">
         <v>42892</v>
       </c>
@@ -18249,8 +20508,9 @@
       <c r="U200" s="3"/>
       <c r="V200" s="3"/>
       <c r="W200" s="3"/>
-    </row>
-    <row r="201" spans="2:23">
+      <c r="X200" s="3"/>
+    </row>
+    <row r="201" spans="2:24">
       <c r="B201" s="4">
         <v>42893</v>
       </c>
@@ -18286,8 +20546,9 @@
       <c r="U201" s="3"/>
       <c r="V201" s="3"/>
       <c r="W201" s="3"/>
-    </row>
-    <row r="202" spans="2:23">
+      <c r="X201" s="3"/>
+    </row>
+    <row r="202" spans="2:24">
       <c r="B202" s="4">
         <v>42894</v>
       </c>
@@ -18323,8 +20584,9 @@
       <c r="U202" s="3"/>
       <c r="V202" s="3"/>
       <c r="W202" s="3"/>
-    </row>
-    <row r="203" spans="2:23">
+      <c r="X202" s="3"/>
+    </row>
+    <row r="203" spans="2:24">
       <c r="B203" s="4">
         <v>42895</v>
       </c>
@@ -18360,8 +20622,9 @@
       <c r="U203" s="3"/>
       <c r="V203" s="3"/>
       <c r="W203" s="3"/>
-    </row>
-    <row r="204" spans="2:23">
+      <c r="X203" s="3"/>
+    </row>
+    <row r="204" spans="2:24">
       <c r="B204" s="4">
         <v>42896</v>
       </c>
@@ -18386,17 +20649,18 @@
       <c r="N204" s="3"/>
       <c r="O204" s="3"/>
       <c r="P204" s="3"/>
-      <c r="Q204" s="3">
+      <c r="Q204" s="3"/>
+      <c r="R204" s="3">
         <v>2800</v>
       </c>
-      <c r="R204" s="3"/>
       <c r="S204" s="3"/>
       <c r="T204" s="3"/>
       <c r="U204" s="3"/>
       <c r="V204" s="3"/>
       <c r="W204" s="3"/>
-    </row>
-    <row r="205" spans="2:23">
+      <c r="X204" s="3"/>
+    </row>
+    <row r="205" spans="2:24">
       <c r="B205" s="4">
         <v>42897</v>
       </c>
@@ -18432,8 +20696,9 @@
       <c r="U205" s="3"/>
       <c r="V205" s="3"/>
       <c r="W205" s="3"/>
-    </row>
-    <row r="206" spans="2:23">
+      <c r="X205" s="3"/>
+    </row>
+    <row r="206" spans="2:24">
       <c r="B206" s="4">
         <v>42898</v>
       </c>
@@ -18458,10 +20723,10 @@
         <v>2</v>
       </c>
       <c r="J206" s="3"/>
-      <c r="K206" s="3">
+      <c r="K206" s="3"/>
+      <c r="L206" s="3">
         <v>35</v>
       </c>
-      <c r="L206" s="3"/>
       <c r="M206" s="3"/>
       <c r="N206" s="3"/>
       <c r="O206" s="3"/>
@@ -18473,8 +20738,9 @@
       <c r="U206" s="3"/>
       <c r="V206" s="3"/>
       <c r="W206" s="3"/>
-    </row>
-    <row r="207" spans="2:23">
+      <c r="X206" s="3"/>
+    </row>
+    <row r="207" spans="2:24">
       <c r="B207" s="4">
         <v>42899</v>
       </c>
@@ -18508,8 +20774,9 @@
       <c r="U207" s="3"/>
       <c r="V207" s="3"/>
       <c r="W207" s="3"/>
-    </row>
-    <row r="208" spans="2:23">
+      <c r="X207" s="3"/>
+    </row>
+    <row r="208" spans="2:24">
       <c r="B208" s="4">
         <v>42900</v>
       </c>
@@ -18539,8 +20806,9 @@
       <c r="U208" s="3"/>
       <c r="V208" s="3"/>
       <c r="W208" s="3"/>
-    </row>
-    <row r="209" spans="2:23">
+      <c r="X208" s="3"/>
+    </row>
+    <row r="209" spans="2:24">
       <c r="B209" s="4">
         <v>42901</v>
       </c>
@@ -18578,8 +20846,9 @@
       <c r="U209" s="3"/>
       <c r="V209" s="3"/>
       <c r="W209" s="3"/>
-    </row>
-    <row r="210" spans="2:23">
+      <c r="X209" s="3"/>
+    </row>
+    <row r="210" spans="2:24">
       <c r="B210" s="4">
         <v>42902</v>
       </c>
@@ -18615,8 +20884,9 @@
       <c r="U210" s="3"/>
       <c r="V210" s="3"/>
       <c r="W210" s="3"/>
-    </row>
-    <row r="211" spans="2:23">
+      <c r="X210" s="3"/>
+    </row>
+    <row r="211" spans="2:24">
       <c r="B211" s="4">
         <v>42903</v>
       </c>
@@ -18643,17 +20913,18 @@
       <c r="N211" s="3"/>
       <c r="O211" s="3"/>
       <c r="P211" s="3"/>
-      <c r="Q211" s="3">
+      <c r="Q211" s="3"/>
+      <c r="R211" s="3">
         <v>7484</v>
       </c>
-      <c r="R211" s="3"/>
       <c r="S211" s="3"/>
       <c r="T211" s="3"/>
       <c r="U211" s="3"/>
       <c r="V211" s="3"/>
       <c r="W211" s="3"/>
-    </row>
-    <row r="212" spans="2:23">
+      <c r="X211" s="3"/>
+    </row>
+    <row r="212" spans="2:24">
       <c r="B212" s="4">
         <v>42904</v>
       </c>
@@ -18685,8 +20956,9 @@
       <c r="U212" s="3"/>
       <c r="V212" s="3"/>
       <c r="W212" s="3"/>
-    </row>
-    <row r="213" spans="2:23">
+      <c r="X212" s="3"/>
+    </row>
+    <row r="213" spans="2:24">
       <c r="B213" s="4">
         <v>42905</v>
       </c>
@@ -18722,8 +20994,9 @@
       <c r="U213" s="3"/>
       <c r="V213" s="3"/>
       <c r="W213" s="3"/>
-    </row>
-    <row r="214" spans="2:23">
+      <c r="X213" s="3"/>
+    </row>
+    <row r="214" spans="2:24">
       <c r="B214" s="4">
         <v>42906</v>
       </c>
@@ -18759,8 +21032,9 @@
       <c r="U214" s="3"/>
       <c r="V214" s="3"/>
       <c r="W214" s="3"/>
-    </row>
-    <row r="215" spans="2:23">
+      <c r="X214" s="3"/>
+    </row>
+    <row r="215" spans="2:24">
       <c r="B215" s="4">
         <v>42907</v>
       </c>
@@ -18787,10 +21061,10 @@
       </c>
       <c r="K215" s="3"/>
       <c r="L215" s="3"/>
-      <c r="M215" s="3">
+      <c r="M215" s="3"/>
+      <c r="N215" s="3">
         <v>1790</v>
       </c>
-      <c r="N215" s="3"/>
       <c r="O215" s="3"/>
       <c r="P215" s="3"/>
       <c r="Q215" s="3"/>
@@ -18800,8 +21074,9 @@
       <c r="U215" s="3"/>
       <c r="V215" s="3"/>
       <c r="W215" s="3"/>
-    </row>
-    <row r="216" spans="2:23">
+      <c r="X215" s="3"/>
+    </row>
+    <row r="216" spans="2:24">
       <c r="B216" s="4">
         <v>42908</v>
       </c>
@@ -18835,17 +21110,22 @@
       <c r="U216" s="3"/>
       <c r="V216" s="3"/>
       <c r="W216" s="3"/>
-    </row>
-    <row r="217" spans="2:23">
+      <c r="X216" s="3"/>
+    </row>
+    <row r="217" spans="2:24">
       <c r="B217" s="4">
         <v>42909</v>
       </c>
       <c r="C217" s="3">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="D217" s="3"/>
-      <c r="E217" s="3"/>
+        <v>30</v>
+      </c>
+      <c r="D217" s="3">
+        <v>12</v>
+      </c>
+      <c r="E217" s="3">
+        <v>18</v>
+      </c>
       <c r="F217" s="3"/>
       <c r="G217" s="3"/>
       <c r="H217" s="3"/>
@@ -18864,22 +21144,33 @@
       <c r="U217" s="3"/>
       <c r="V217" s="3"/>
       <c r="W217" s="3"/>
-    </row>
-    <row r="218" spans="2:23">
+      <c r="X217" s="3"/>
+    </row>
+    <row r="218" spans="2:24">
       <c r="B218" s="4">
         <v>42910</v>
       </c>
       <c r="C218" s="3">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="D218" s="3"/>
-      <c r="E218" s="3"/>
-      <c r="F218" s="3"/>
-      <c r="G218" s="3"/>
+        <v>152</v>
+      </c>
+      <c r="D218" s="3">
+        <v>13</v>
+      </c>
+      <c r="E218" s="3">
+        <v>27</v>
+      </c>
+      <c r="F218" s="3">
+        <v>19</v>
+      </c>
+      <c r="G218" s="3">
+        <v>67</v>
+      </c>
       <c r="H218" s="3"/>
       <c r="I218" s="3"/>
-      <c r="J218" s="3"/>
+      <c r="J218" s="3">
+        <v>26</v>
+      </c>
       <c r="K218" s="3"/>
       <c r="L218" s="3"/>
       <c r="M218" s="3"/>
@@ -18893,22 +21184,29 @@
       <c r="U218" s="3"/>
       <c r="V218" s="3"/>
       <c r="W218" s="3"/>
-    </row>
-    <row r="219" spans="2:23">
+      <c r="X218" s="3"/>
+    </row>
+    <row r="219" spans="2:24">
       <c r="B219" s="4">
         <v>42911</v>
       </c>
       <c r="C219" s="3">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="D219" s="3"/>
-      <c r="E219" s="3"/>
+        <v>74</v>
+      </c>
+      <c r="D219" s="3">
+        <v>10</v>
+      </c>
+      <c r="E219" s="3">
+        <v>15</v>
+      </c>
       <c r="F219" s="3"/>
       <c r="G219" s="3"/>
       <c r="H219" s="3"/>
       <c r="I219" s="3"/>
-      <c r="J219" s="3"/>
+      <c r="J219" s="3">
+        <v>49</v>
+      </c>
       <c r="K219" s="3"/>
       <c r="L219" s="3"/>
       <c r="M219" s="3"/>
@@ -18922,18 +21220,25 @@
       <c r="U219" s="3"/>
       <c r="V219" s="3"/>
       <c r="W219" s="3"/>
-    </row>
-    <row r="220" spans="2:23">
+      <c r="X219" s="3"/>
+    </row>
+    <row r="220" spans="2:24">
       <c r="B220" s="4">
         <v>42912</v>
       </c>
       <c r="C220" s="3">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="D220" s="3"/>
-      <c r="E220" s="3"/>
-      <c r="F220" s="3"/>
+        <v>40</v>
+      </c>
+      <c r="D220" s="3">
+        <v>6</v>
+      </c>
+      <c r="E220" s="3">
+        <v>22</v>
+      </c>
+      <c r="F220" s="3">
+        <v>12</v>
+      </c>
       <c r="G220" s="3"/>
       <c r="H220" s="3"/>
       <c r="I220" s="3"/>
@@ -18951,22 +21256,31 @@
       <c r="U220" s="3"/>
       <c r="V220" s="3"/>
       <c r="W220" s="3"/>
-    </row>
-    <row r="221" spans="2:23">
+      <c r="X220" s="3"/>
+    </row>
+    <row r="221" spans="2:24">
       <c r="B221" s="4">
         <v>42913</v>
       </c>
       <c r="C221" s="3">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="D221" s="3"/>
-      <c r="E221" s="3"/>
-      <c r="F221" s="3"/>
+        <v>77</v>
+      </c>
+      <c r="D221" s="3">
+        <v>6</v>
+      </c>
+      <c r="E221" s="3">
+        <v>14</v>
+      </c>
+      <c r="F221" s="3">
+        <v>12</v>
+      </c>
       <c r="G221" s="3"/>
       <c r="H221" s="3"/>
       <c r="I221" s="3"/>
-      <c r="J221" s="3"/>
+      <c r="J221" s="3">
+        <v>45</v>
+      </c>
       <c r="K221" s="3"/>
       <c r="L221" s="3"/>
       <c r="M221" s="3"/>
@@ -18980,18 +21294,25 @@
       <c r="U221" s="3"/>
       <c r="V221" s="3"/>
       <c r="W221" s="3"/>
-    </row>
-    <row r="222" spans="2:23">
+      <c r="X221" s="3"/>
+    </row>
+    <row r="222" spans="2:24">
       <c r="B222" s="4">
         <v>42914</v>
       </c>
       <c r="C222" s="3">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="D222" s="3"/>
-      <c r="E222" s="3"/>
-      <c r="F222" s="3"/>
+        <v>35</v>
+      </c>
+      <c r="D222" s="3">
+        <v>5</v>
+      </c>
+      <c r="E222" s="3">
+        <v>15</v>
+      </c>
+      <c r="F222" s="3">
+        <v>15</v>
+      </c>
       <c r="G222" s="3"/>
       <c r="H222" s="3"/>
       <c r="I222" s="3"/>
@@ -19009,18 +21330,25 @@
       <c r="U222" s="3"/>
       <c r="V222" s="3"/>
       <c r="W222" s="3"/>
-    </row>
-    <row r="223" spans="2:23">
+      <c r="X222" s="3"/>
+    </row>
+    <row r="223" spans="2:24">
       <c r="B223" s="4">
         <v>42915</v>
       </c>
       <c r="C223" s="3">
         <f t="shared" si="6"/>
+        <v>20</v>
+      </c>
+      <c r="D223" s="3">
+        <v>5</v>
+      </c>
+      <c r="E223" s="3">
+        <v>15</v>
+      </c>
+      <c r="F223" s="3">
         <v>0</v>
       </c>
-      <c r="D223" s="3"/>
-      <c r="E223" s="3"/>
-      <c r="F223" s="3"/>
       <c r="G223" s="3"/>
       <c r="H223" s="3"/>
       <c r="I223" s="3"/>
@@ -19038,20 +21366,29 @@
       <c r="U223" s="3"/>
       <c r="V223" s="3"/>
       <c r="W223" s="3"/>
-    </row>
-    <row r="224" spans="2:23">
+      <c r="X223" s="3"/>
+    </row>
+    <row r="224" spans="2:24">
       <c r="B224" s="4">
         <v>42916</v>
       </c>
       <c r="C224" s="3">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="D224" s="3"/>
-      <c r="E224" s="3"/>
-      <c r="F224" s="3"/>
+        <v>128</v>
+      </c>
+      <c r="D224" s="3">
+        <v>7</v>
+      </c>
+      <c r="E224" s="3">
+        <v>25</v>
+      </c>
+      <c r="F224" s="3">
+        <v>46</v>
+      </c>
       <c r="G224" s="3"/>
-      <c r="H224" s="3"/>
+      <c r="H224" s="3">
+        <v>50</v>
+      </c>
       <c r="I224" s="3"/>
       <c r="J224" s="3"/>
       <c r="K224" s="3"/>
@@ -19067,14 +21404,15 @@
       <c r="U224" s="3"/>
       <c r="V224" s="3"/>
       <c r="W224" s="3"/>
-    </row>
-    <row r="225" spans="2:23">
+      <c r="X224" s="3"/>
+    </row>
+    <row r="225" spans="2:24">
       <c r="B225" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C225" s="6">
         <f>SUM(C195:C224)</f>
-        <v>13969</v>
+        <v>16625</v>
       </c>
       <c r="D225" s="6"/>
       <c r="E225" s="6"/>
@@ -19096,16 +21434,2207 @@
       <c r="U225" s="6"/>
       <c r="V225" s="6"/>
       <c r="W225" s="6"/>
+      <c r="X225" s="6"/>
+    </row>
+    <row r="226" spans="2:24">
+      <c r="B226" s="4">
+        <v>42917</v>
+      </c>
+      <c r="C226" s="3">
+        <f t="shared" si="6"/>
+        <v>2118</v>
+      </c>
+      <c r="D226" s="3">
+        <v>18</v>
+      </c>
+      <c r="E226" s="3">
+        <v>0</v>
+      </c>
+      <c r="F226" s="3">
+        <v>0</v>
+      </c>
+      <c r="G226" s="3"/>
+      <c r="H226" s="3"/>
+      <c r="I226" s="3"/>
+      <c r="J226" s="3"/>
+      <c r="K226" s="3"/>
+      <c r="L226" s="3"/>
+      <c r="M226" s="3"/>
+      <c r="N226" s="3"/>
+      <c r="O226" s="3">
+        <v>2100</v>
+      </c>
+      <c r="P226" s="3"/>
+      <c r="Q226" s="3"/>
+      <c r="R226" s="3"/>
+      <c r="S226" s="3"/>
+      <c r="T226" s="3"/>
+      <c r="U226" s="3"/>
+      <c r="V226" s="3"/>
+      <c r="W226" s="3"/>
+      <c r="X226" s="3"/>
+    </row>
+    <row r="227" spans="2:24">
+      <c r="B227" s="4">
+        <v>42918</v>
+      </c>
+      <c r="C227" s="3">
+        <f t="shared" si="6"/>
+        <v>70</v>
+      </c>
+      <c r="D227" s="3"/>
+      <c r="E227" s="3"/>
+      <c r="F227" s="3"/>
+      <c r="G227" s="3"/>
+      <c r="H227" s="3">
+        <v>70</v>
+      </c>
+      <c r="I227" s="3"/>
+      <c r="J227" s="3"/>
+      <c r="K227" s="3"/>
+      <c r="L227" s="3"/>
+      <c r="M227" s="3"/>
+      <c r="N227" s="3"/>
+      <c r="O227" s="3"/>
+      <c r="P227" s="3"/>
+      <c r="Q227" s="3"/>
+      <c r="R227" s="3"/>
+      <c r="S227" s="3"/>
+      <c r="T227" s="3"/>
+      <c r="U227" s="3"/>
+      <c r="V227" s="3"/>
+      <c r="W227" s="3"/>
+      <c r="X227" s="3"/>
+    </row>
+    <row r="228" spans="2:24">
+      <c r="B228" s="4">
+        <v>42919</v>
+      </c>
+      <c r="C228" s="3">
+        <f t="shared" si="6"/>
+        <v>78</v>
+      </c>
+      <c r="D228" s="3">
+        <v>5</v>
+      </c>
+      <c r="E228" s="3">
+        <v>18</v>
+      </c>
+      <c r="F228" s="3">
+        <v>15</v>
+      </c>
+      <c r="G228" s="3"/>
+      <c r="H228" s="3"/>
+      <c r="I228" s="3"/>
+      <c r="J228" s="3">
+        <v>40</v>
+      </c>
+      <c r="K228" s="3"/>
+      <c r="L228" s="3"/>
+      <c r="M228" s="3"/>
+      <c r="N228" s="3"/>
+      <c r="O228" s="3"/>
+      <c r="P228" s="3"/>
+      <c r="Q228" s="3"/>
+      <c r="R228" s="3"/>
+      <c r="S228" s="3"/>
+      <c r="T228" s="3"/>
+      <c r="U228" s="3"/>
+      <c r="V228" s="3"/>
+      <c r="W228" s="3"/>
+      <c r="X228" s="3"/>
+    </row>
+    <row r="229" spans="2:24">
+      <c r="B229" s="4">
+        <v>42920</v>
+      </c>
+      <c r="C229" s="3">
+        <f t="shared" si="6"/>
+        <v>49</v>
+      </c>
+      <c r="D229" s="3">
+        <v>6</v>
+      </c>
+      <c r="E229" s="3">
+        <v>14</v>
+      </c>
+      <c r="F229" s="3">
+        <v>15</v>
+      </c>
+      <c r="G229" s="3"/>
+      <c r="H229" s="3"/>
+      <c r="I229" s="3">
+        <v>7</v>
+      </c>
+      <c r="J229" s="3">
+        <v>7</v>
+      </c>
+      <c r="K229" s="3"/>
+      <c r="L229" s="3"/>
+      <c r="M229" s="3"/>
+      <c r="N229" s="3"/>
+      <c r="O229" s="3"/>
+      <c r="P229" s="3"/>
+      <c r="Q229" s="3"/>
+      <c r="R229" s="3"/>
+      <c r="S229" s="3"/>
+      <c r="T229" s="3"/>
+      <c r="U229" s="3"/>
+      <c r="V229" s="3"/>
+      <c r="W229" s="3"/>
+      <c r="X229" s="3"/>
+    </row>
+    <row r="230" spans="2:24">
+      <c r="B230" s="4">
+        <v>42921</v>
+      </c>
+      <c r="C230" s="3">
+        <f t="shared" si="6"/>
+        <v>85</v>
+      </c>
+      <c r="D230" s="3">
+        <v>4</v>
+      </c>
+      <c r="E230" s="3">
+        <v>13</v>
+      </c>
+      <c r="F230" s="3">
+        <v>30</v>
+      </c>
+      <c r="G230" s="3"/>
+      <c r="H230" s="3">
+        <v>35</v>
+      </c>
+      <c r="I230" s="3">
+        <v>3</v>
+      </c>
+      <c r="J230" s="3"/>
+      <c r="K230" s="3"/>
+      <c r="L230" s="3"/>
+      <c r="M230" s="3"/>
+      <c r="N230" s="3"/>
+      <c r="O230" s="3"/>
+      <c r="P230" s="3"/>
+      <c r="Q230" s="3"/>
+      <c r="R230" s="3"/>
+      <c r="S230" s="3"/>
+      <c r="T230" s="3"/>
+      <c r="U230" s="3"/>
+      <c r="V230" s="3"/>
+      <c r="W230" s="3"/>
+      <c r="X230" s="3"/>
+    </row>
+    <row r="231" spans="2:24">
+      <c r="B231" s="4">
+        <v>42922</v>
+      </c>
+      <c r="C231" s="3">
+        <f t="shared" si="6"/>
+        <v>63</v>
+      </c>
+      <c r="D231" s="3">
+        <v>4</v>
+      </c>
+      <c r="E231" s="3">
+        <v>15</v>
+      </c>
+      <c r="F231" s="3">
+        <v>36</v>
+      </c>
+      <c r="G231" s="3"/>
+      <c r="H231" s="3"/>
+      <c r="I231" s="3"/>
+      <c r="J231" s="3">
+        <v>8</v>
+      </c>
+      <c r="K231" s="3"/>
+      <c r="L231" s="3"/>
+      <c r="M231" s="3"/>
+      <c r="N231" s="3"/>
+      <c r="O231" s="3"/>
+      <c r="P231" s="3"/>
+      <c r="Q231" s="3"/>
+      <c r="R231" s="3"/>
+      <c r="S231" s="3"/>
+      <c r="T231" s="3"/>
+      <c r="U231" s="3"/>
+      <c r="V231" s="3"/>
+      <c r="W231" s="3"/>
+      <c r="X231" s="3"/>
+    </row>
+    <row r="232" spans="2:24">
+      <c r="B232" s="4">
+        <v>42923</v>
+      </c>
+      <c r="C232" s="3">
+        <f t="shared" si="6"/>
+        <v>239</v>
+      </c>
+      <c r="D232" s="3">
+        <v>5</v>
+      </c>
+      <c r="E232" s="3">
+        <v>15</v>
+      </c>
+      <c r="F232" s="3">
+        <v>100</v>
+      </c>
+      <c r="G232" s="3">
+        <v>119</v>
+      </c>
+      <c r="H232" s="3"/>
+      <c r="I232" s="3"/>
+      <c r="J232" s="3"/>
+      <c r="K232" s="3"/>
+      <c r="L232" s="3"/>
+      <c r="M232" s="3"/>
+      <c r="N232" s="3"/>
+      <c r="O232" s="3"/>
+      <c r="P232" s="3"/>
+      <c r="Q232" s="3"/>
+      <c r="R232" s="3"/>
+      <c r="S232" s="3"/>
+      <c r="T232" s="3"/>
+      <c r="U232" s="3"/>
+      <c r="V232" s="3"/>
+      <c r="W232" s="3"/>
+      <c r="X232" s="3"/>
+    </row>
+    <row r="233" spans="2:24">
+      <c r="B233" s="4">
+        <v>42924</v>
+      </c>
+      <c r="C233" s="3">
+        <f t="shared" si="6"/>
+        <v>135</v>
+      </c>
+      <c r="D233" s="3"/>
+      <c r="E233" s="3">
+        <v>60</v>
+      </c>
+      <c r="F233" s="3">
+        <v>17</v>
+      </c>
+      <c r="G233" s="3"/>
+      <c r="H233" s="3"/>
+      <c r="I233" s="3">
+        <v>39</v>
+      </c>
+      <c r="J233" s="3">
+        <v>19</v>
+      </c>
+      <c r="K233" s="3"/>
+      <c r="L233" s="3"/>
+      <c r="M233" s="3"/>
+      <c r="N233" s="3"/>
+      <c r="O233" s="3"/>
+      <c r="P233" s="3"/>
+      <c r="Q233" s="3"/>
+      <c r="R233" s="3"/>
+      <c r="S233" s="3"/>
+      <c r="T233" s="3"/>
+      <c r="U233" s="3"/>
+      <c r="V233" s="3"/>
+      <c r="W233" s="3"/>
+      <c r="X233" s="3"/>
+    </row>
+    <row r="234" spans="2:24">
+      <c r="B234" s="4">
+        <v>42925</v>
+      </c>
+      <c r="C234" s="3">
+        <f t="shared" si="6"/>
+        <v>98</v>
+      </c>
+      <c r="D234" s="3"/>
+      <c r="E234" s="3">
+        <v>20</v>
+      </c>
+      <c r="F234" s="3">
+        <v>45</v>
+      </c>
+      <c r="G234" s="3"/>
+      <c r="H234" s="3">
+        <v>30</v>
+      </c>
+      <c r="I234" s="3">
+        <v>3</v>
+      </c>
+      <c r="J234" s="3"/>
+      <c r="K234" s="3"/>
+      <c r="L234" s="3"/>
+      <c r="M234" s="3"/>
+      <c r="N234" s="3"/>
+      <c r="O234" s="3"/>
+      <c r="P234" s="3"/>
+      <c r="Q234" s="3"/>
+      <c r="R234" s="3"/>
+      <c r="S234" s="3"/>
+      <c r="T234" s="3"/>
+      <c r="U234" s="3"/>
+      <c r="V234" s="3"/>
+      <c r="W234" s="3"/>
+      <c r="X234" s="3"/>
+    </row>
+    <row r="235" spans="2:24">
+      <c r="B235" s="4">
+        <v>42926</v>
+      </c>
+      <c r="C235" s="3">
+        <f t="shared" si="6"/>
+        <v>134</v>
+      </c>
+      <c r="D235" s="3">
+        <v>4</v>
+      </c>
+      <c r="E235" s="3">
+        <v>17</v>
+      </c>
+      <c r="F235" s="3">
+        <v>12</v>
+      </c>
+      <c r="G235" s="3"/>
+      <c r="H235" s="3"/>
+      <c r="I235" s="3">
+        <v>21</v>
+      </c>
+      <c r="J235" s="3">
+        <v>45</v>
+      </c>
+      <c r="K235" s="3"/>
+      <c r="L235" s="3">
+        <v>35</v>
+      </c>
+      <c r="M235" s="3"/>
+      <c r="N235" s="3"/>
+      <c r="O235" s="3"/>
+      <c r="P235" s="3"/>
+      <c r="Q235" s="3"/>
+      <c r="R235" s="3"/>
+      <c r="S235" s="3"/>
+      <c r="T235" s="3"/>
+      <c r="U235" s="3"/>
+      <c r="V235" s="3"/>
+      <c r="W235" s="3"/>
+      <c r="X235" s="3"/>
+    </row>
+    <row r="236" spans="2:24">
+      <c r="B236" s="4">
+        <v>42927</v>
+      </c>
+      <c r="C236" s="3">
+        <f t="shared" si="6"/>
+        <v>50</v>
+      </c>
+      <c r="D236" s="3">
+        <v>5</v>
+      </c>
+      <c r="E236" s="3">
+        <v>24</v>
+      </c>
+      <c r="F236" s="3">
+        <v>16</v>
+      </c>
+      <c r="G236" s="3"/>
+      <c r="H236" s="3"/>
+      <c r="I236" s="3"/>
+      <c r="J236" s="3">
+        <v>5</v>
+      </c>
+      <c r="K236" s="3"/>
+      <c r="L236" s="3"/>
+      <c r="M236" s="3"/>
+      <c r="N236" s="3"/>
+      <c r="O236" s="3"/>
+      <c r="P236" s="3"/>
+      <c r="Q236" s="3"/>
+      <c r="R236" s="3"/>
+      <c r="S236" s="3"/>
+      <c r="T236" s="3"/>
+      <c r="U236" s="3"/>
+      <c r="V236" s="3"/>
+      <c r="W236" s="3"/>
+      <c r="X236" s="3"/>
+    </row>
+    <row r="237" spans="2:24">
+      <c r="B237" s="4">
+        <v>42928</v>
+      </c>
+      <c r="C237" s="3">
+        <f t="shared" si="6"/>
+        <v>47</v>
+      </c>
+      <c r="D237" s="3">
+        <v>9</v>
+      </c>
+      <c r="E237" s="3">
+        <v>17</v>
+      </c>
+      <c r="F237" s="3">
+        <v>13</v>
+      </c>
+      <c r="G237" s="3"/>
+      <c r="H237" s="3"/>
+      <c r="I237" s="3">
+        <v>8</v>
+      </c>
+      <c r="J237" s="3"/>
+      <c r="K237" s="3"/>
+      <c r="L237" s="3"/>
+      <c r="M237" s="3"/>
+      <c r="N237" s="3"/>
+      <c r="O237" s="3"/>
+      <c r="P237" s="3"/>
+      <c r="Q237" s="3"/>
+      <c r="R237" s="3"/>
+      <c r="S237" s="3"/>
+      <c r="T237" s="3"/>
+      <c r="U237" s="3"/>
+      <c r="V237" s="3"/>
+      <c r="W237" s="3"/>
+      <c r="X237" s="3"/>
+    </row>
+    <row r="238" spans="2:24">
+      <c r="B238" s="4">
+        <v>42929</v>
+      </c>
+      <c r="C238" s="3">
+        <f t="shared" si="6"/>
+        <v>26</v>
+      </c>
+      <c r="D238" s="3">
+        <v>6</v>
+      </c>
+      <c r="E238" s="3">
+        <v>20</v>
+      </c>
+      <c r="F238" s="3"/>
+      <c r="G238" s="3"/>
+      <c r="H238" s="3"/>
+      <c r="I238" s="3"/>
+      <c r="J238" s="3"/>
+      <c r="K238" s="3"/>
+      <c r="L238" s="3"/>
+      <c r="M238" s="3"/>
+      <c r="N238" s="3"/>
+      <c r="O238" s="3"/>
+      <c r="P238" s="3"/>
+      <c r="Q238" s="3"/>
+      <c r="R238" s="3"/>
+      <c r="S238" s="3"/>
+      <c r="T238" s="3"/>
+      <c r="U238" s="3"/>
+      <c r="V238" s="3"/>
+      <c r="W238" s="3"/>
+      <c r="X238" s="3"/>
+    </row>
+    <row r="239" spans="2:24">
+      <c r="B239" s="4">
+        <v>42930</v>
+      </c>
+      <c r="C239" s="3">
+        <f t="shared" si="6"/>
+        <v>20</v>
+      </c>
+      <c r="D239" s="3">
+        <v>2</v>
+      </c>
+      <c r="E239" s="3">
+        <v>18</v>
+      </c>
+      <c r="F239" s="3"/>
+      <c r="G239" s="3"/>
+      <c r="H239" s="3"/>
+      <c r="I239" s="3"/>
+      <c r="J239" s="3"/>
+      <c r="K239" s="3"/>
+      <c r="L239" s="3"/>
+      <c r="M239" s="3"/>
+      <c r="N239" s="3"/>
+      <c r="O239" s="3"/>
+      <c r="P239" s="3"/>
+      <c r="Q239" s="3"/>
+      <c r="R239" s="3"/>
+      <c r="S239" s="3"/>
+      <c r="T239" s="3"/>
+      <c r="U239" s="3"/>
+      <c r="V239" s="3"/>
+      <c r="W239" s="3"/>
+      <c r="X239" s="3"/>
+    </row>
+    <row r="240" spans="2:24">
+      <c r="B240" s="4">
+        <v>42931</v>
+      </c>
+      <c r="C240" s="3">
+        <f t="shared" si="6"/>
+        <v>81</v>
+      </c>
+      <c r="D240" s="3"/>
+      <c r="E240" s="3"/>
+      <c r="F240" s="3"/>
+      <c r="G240" s="3"/>
+      <c r="H240" s="3">
+        <v>81</v>
+      </c>
+      <c r="I240" s="3"/>
+      <c r="J240" s="3"/>
+      <c r="K240" s="3"/>
+      <c r="L240" s="3"/>
+      <c r="M240" s="3"/>
+      <c r="N240" s="3"/>
+      <c r="O240" s="3"/>
+      <c r="P240" s="3"/>
+      <c r="Q240" s="3"/>
+      <c r="R240" s="3"/>
+      <c r="S240" s="3"/>
+      <c r="T240" s="3"/>
+      <c r="U240" s="3"/>
+      <c r="V240" s="3"/>
+      <c r="W240" s="3"/>
+      <c r="X240" s="3"/>
+    </row>
+    <row r="241" spans="2:24">
+      <c r="B241" s="4">
+        <v>42932</v>
+      </c>
+      <c r="C241" s="3">
+        <f t="shared" si="6"/>
+        <v>377</v>
+      </c>
+      <c r="D241" s="3"/>
+      <c r="E241" s="3">
+        <v>22</v>
+      </c>
+      <c r="F241" s="3">
+        <v>22</v>
+      </c>
+      <c r="G241" s="3"/>
+      <c r="H241" s="3"/>
+      <c r="I241" s="3"/>
+      <c r="J241" s="3">
+        <v>73</v>
+      </c>
+      <c r="K241" s="3"/>
+      <c r="L241" s="3"/>
+      <c r="M241" s="3"/>
+      <c r="N241" s="3"/>
+      <c r="O241" s="3"/>
+      <c r="P241" s="3"/>
+      <c r="Q241" s="3"/>
+      <c r="R241" s="3">
+        <v>260</v>
+      </c>
+      <c r="S241" s="3"/>
+      <c r="T241" s="3"/>
+      <c r="U241" s="3"/>
+      <c r="V241" s="3"/>
+      <c r="W241" s="3"/>
+      <c r="X241" s="3"/>
+    </row>
+    <row r="242" spans="2:24">
+      <c r="B242" s="4">
+        <v>42933</v>
+      </c>
+      <c r="C242" s="3">
+        <f t="shared" si="6"/>
+        <v>41</v>
+      </c>
+      <c r="D242" s="3"/>
+      <c r="E242" s="3">
+        <v>12</v>
+      </c>
+      <c r="F242" s="3">
+        <v>29</v>
+      </c>
+      <c r="G242" s="3"/>
+      <c r="H242" s="3"/>
+      <c r="I242" s="3"/>
+      <c r="J242" s="3"/>
+      <c r="K242" s="3"/>
+      <c r="L242" s="3"/>
+      <c r="M242" s="3"/>
+      <c r="N242" s="3"/>
+      <c r="O242" s="3"/>
+      <c r="P242" s="3"/>
+      <c r="Q242" s="3"/>
+      <c r="R242" s="3"/>
+      <c r="S242" s="3"/>
+      <c r="T242" s="3"/>
+      <c r="U242" s="3"/>
+      <c r="V242" s="3"/>
+      <c r="W242" s="3"/>
+      <c r="X242" s="3"/>
+    </row>
+    <row r="243" spans="2:24">
+      <c r="B243" s="4">
+        <v>42934</v>
+      </c>
+      <c r="C243" s="3">
+        <f t="shared" si="6"/>
+        <v>9984</v>
+      </c>
+      <c r="D243" s="3"/>
+      <c r="E243" s="3"/>
+      <c r="F243" s="3"/>
+      <c r="G243" s="3"/>
+      <c r="H243" s="3"/>
+      <c r="I243" s="3"/>
+      <c r="J243" s="3">
+        <v>7</v>
+      </c>
+      <c r="K243" s="3"/>
+      <c r="L243" s="3"/>
+      <c r="M243" s="3"/>
+      <c r="N243" s="3"/>
+      <c r="O243" s="3"/>
+      <c r="P243" s="3"/>
+      <c r="Q243" s="3"/>
+      <c r="R243" s="3">
+        <v>9977</v>
+      </c>
+      <c r="S243" s="3"/>
+      <c r="T243" s="3"/>
+      <c r="U243" s="3"/>
+      <c r="V243" s="3"/>
+      <c r="W243" s="3"/>
+      <c r="X243" s="3"/>
+    </row>
+    <row r="244" spans="2:24">
+      <c r="B244" s="4">
+        <v>42935</v>
+      </c>
+      <c r="C244" s="3">
+        <f t="shared" si="6"/>
+        <v>140</v>
+      </c>
+      <c r="D244" s="3">
+        <v>3</v>
+      </c>
+      <c r="E244" s="3">
+        <v>24</v>
+      </c>
+      <c r="F244" s="3">
+        <v>43</v>
+      </c>
+      <c r="G244" s="3"/>
+      <c r="H244" s="3"/>
+      <c r="I244" s="3"/>
+      <c r="J244" s="3">
+        <v>70</v>
+      </c>
+      <c r="K244" s="3"/>
+      <c r="L244" s="3"/>
+      <c r="M244" s="3"/>
+      <c r="N244" s="3"/>
+      <c r="O244" s="3"/>
+      <c r="P244" s="3"/>
+      <c r="Q244" s="3"/>
+      <c r="R244" s="3"/>
+      <c r="S244" s="3"/>
+      <c r="T244" s="3"/>
+      <c r="U244" s="3"/>
+      <c r="V244" s="3"/>
+      <c r="W244" s="3"/>
+      <c r="X244" s="3"/>
+    </row>
+    <row r="245" spans="2:24">
+      <c r="B245" s="4">
+        <v>42936</v>
+      </c>
+      <c r="C245" s="3">
+        <f t="shared" si="6"/>
+        <v>29</v>
+      </c>
+      <c r="D245" s="3"/>
+      <c r="E245" s="3">
+        <v>12</v>
+      </c>
+      <c r="F245" s="3">
+        <v>10</v>
+      </c>
+      <c r="G245" s="3"/>
+      <c r="H245" s="3"/>
+      <c r="I245" s="3"/>
+      <c r="J245" s="3">
+        <v>7</v>
+      </c>
+      <c r="K245" s="3"/>
+      <c r="L245" s="3"/>
+      <c r="M245" s="3"/>
+      <c r="N245" s="3"/>
+      <c r="O245" s="3"/>
+      <c r="P245" s="3"/>
+      <c r="Q245" s="3"/>
+      <c r="R245" s="3"/>
+      <c r="S245" s="3"/>
+      <c r="T245" s="3"/>
+      <c r="U245" s="3"/>
+      <c r="V245" s="3"/>
+      <c r="W245" s="3"/>
+      <c r="X245" s="3"/>
+    </row>
+    <row r="246" spans="2:24">
+      <c r="B246" s="4">
+        <v>42937</v>
+      </c>
+      <c r="C246" s="3">
+        <f t="shared" si="6"/>
+        <v>35</v>
+      </c>
+      <c r="D246" s="3">
+        <v>3</v>
+      </c>
+      <c r="E246" s="3">
+        <v>16</v>
+      </c>
+      <c r="F246" s="3"/>
+      <c r="G246" s="3"/>
+      <c r="H246" s="3">
+        <v>16</v>
+      </c>
+      <c r="I246" s="3"/>
+      <c r="J246" s="3"/>
+      <c r="K246" s="3"/>
+      <c r="L246" s="3"/>
+      <c r="M246" s="3"/>
+      <c r="N246" s="3"/>
+      <c r="O246" s="3"/>
+      <c r="P246" s="3"/>
+      <c r="Q246" s="3"/>
+      <c r="R246" s="3"/>
+      <c r="S246" s="3"/>
+      <c r="T246" s="3"/>
+      <c r="U246" s="3"/>
+      <c r="V246" s="3"/>
+      <c r="W246" s="3"/>
+      <c r="X246" s="3"/>
+    </row>
+    <row r="247" spans="2:24">
+      <c r="B247" s="4">
+        <v>42938</v>
+      </c>
+      <c r="C247" s="3">
+        <f t="shared" si="6"/>
+        <v>130</v>
+      </c>
+      <c r="D247" s="3"/>
+      <c r="E247" s="3"/>
+      <c r="F247" s="3">
+        <v>25</v>
+      </c>
+      <c r="G247" s="3">
+        <v>105</v>
+      </c>
+      <c r="H247" s="3"/>
+      <c r="I247" s="3"/>
+      <c r="J247" s="3"/>
+      <c r="K247" s="3"/>
+      <c r="L247" s="3"/>
+      <c r="M247" s="3"/>
+      <c r="N247" s="3"/>
+      <c r="O247" s="3"/>
+      <c r="P247" s="3"/>
+      <c r="Q247" s="3"/>
+      <c r="R247" s="3"/>
+      <c r="S247" s="3"/>
+      <c r="T247" s="3"/>
+      <c r="U247" s="3"/>
+      <c r="V247" s="3"/>
+      <c r="W247" s="3"/>
+      <c r="X247" s="3"/>
+    </row>
+    <row r="248" spans="2:24">
+      <c r="B248" s="4">
+        <v>42939</v>
+      </c>
+      <c r="C248" s="3">
+        <f t="shared" si="6"/>
+        <v>268</v>
+      </c>
+      <c r="D248" s="3"/>
+      <c r="E248" s="3"/>
+      <c r="F248" s="3"/>
+      <c r="G248" s="3">
+        <v>233</v>
+      </c>
+      <c r="H248" s="3"/>
+      <c r="I248" s="3"/>
+      <c r="J248" s="3">
+        <v>35</v>
+      </c>
+      <c r="K248" s="3"/>
+      <c r="L248" s="3"/>
+      <c r="M248" s="3"/>
+      <c r="N248" s="3"/>
+      <c r="O248" s="3"/>
+      <c r="P248" s="3"/>
+      <c r="Q248" s="3"/>
+      <c r="R248" s="3"/>
+      <c r="S248" s="3"/>
+      <c r="T248" s="3"/>
+      <c r="U248" s="3"/>
+      <c r="V248" s="3"/>
+      <c r="W248" s="3"/>
+      <c r="X248" s="3"/>
+    </row>
+    <row r="249" spans="2:24">
+      <c r="B249" s="4">
+        <v>42940</v>
+      </c>
+      <c r="C249" s="3">
+        <f t="shared" si="6"/>
+        <v>84</v>
+      </c>
+      <c r="D249" s="3"/>
+      <c r="E249" s="3">
+        <v>24</v>
+      </c>
+      <c r="F249" s="3">
+        <v>15</v>
+      </c>
+      <c r="G249" s="3"/>
+      <c r="H249" s="3"/>
+      <c r="I249" s="3"/>
+      <c r="J249" s="3">
+        <v>45</v>
+      </c>
+      <c r="K249" s="3"/>
+      <c r="L249" s="3"/>
+      <c r="M249" s="3"/>
+      <c r="N249" s="3"/>
+      <c r="O249" s="3"/>
+      <c r="P249" s="3"/>
+      <c r="Q249" s="3"/>
+      <c r="R249" s="3"/>
+      <c r="S249" s="3"/>
+      <c r="T249" s="3"/>
+      <c r="U249" s="3"/>
+      <c r="V249" s="3"/>
+      <c r="W249" s="3"/>
+      <c r="X249" s="3"/>
+    </row>
+    <row r="250" spans="2:24">
+      <c r="B250" s="4">
+        <v>42941</v>
+      </c>
+      <c r="C250" s="3">
+        <f t="shared" si="6"/>
+        <v>60</v>
+      </c>
+      <c r="D250" s="3">
+        <v>5</v>
+      </c>
+      <c r="E250" s="3">
+        <v>16</v>
+      </c>
+      <c r="F250" s="3">
+        <v>16</v>
+      </c>
+      <c r="G250" s="3"/>
+      <c r="H250" s="3"/>
+      <c r="I250" s="3">
+        <v>7</v>
+      </c>
+      <c r="J250" s="3">
+        <v>16</v>
+      </c>
+      <c r="K250" s="3"/>
+      <c r="L250" s="3"/>
+      <c r="M250" s="3"/>
+      <c r="N250" s="3"/>
+      <c r="O250" s="3"/>
+      <c r="P250" s="3"/>
+      <c r="Q250" s="3"/>
+      <c r="R250" s="3"/>
+      <c r="S250" s="3"/>
+      <c r="T250" s="3"/>
+      <c r="U250" s="3"/>
+      <c r="V250" s="3"/>
+      <c r="W250" s="3"/>
+      <c r="X250" s="3"/>
+    </row>
+    <row r="251" spans="2:24">
+      <c r="B251" s="4">
+        <v>42942</v>
+      </c>
+      <c r="C251" s="3">
+        <f t="shared" si="6"/>
+        <v>53</v>
+      </c>
+      <c r="D251" s="3">
+        <v>4</v>
+      </c>
+      <c r="E251" s="3">
+        <v>12</v>
+      </c>
+      <c r="F251" s="3">
+        <v>10</v>
+      </c>
+      <c r="G251" s="3"/>
+      <c r="H251" s="3"/>
+      <c r="I251" s="3">
+        <v>27</v>
+      </c>
+      <c r="J251" s="3"/>
+      <c r="K251" s="3"/>
+      <c r="L251" s="3"/>
+      <c r="M251" s="3"/>
+      <c r="N251" s="3"/>
+      <c r="O251" s="3"/>
+      <c r="P251" s="3"/>
+      <c r="Q251" s="3"/>
+      <c r="R251" s="3"/>
+      <c r="S251" s="3"/>
+      <c r="T251" s="3"/>
+      <c r="U251" s="3"/>
+      <c r="V251" s="3"/>
+      <c r="W251" s="3"/>
+      <c r="X251" s="3"/>
+    </row>
+    <row r="252" spans="2:24">
+      <c r="B252" s="4">
+        <v>42943</v>
+      </c>
+      <c r="C252" s="3">
+        <f t="shared" si="6"/>
+        <v>232</v>
+      </c>
+      <c r="D252" s="3">
+        <v>5</v>
+      </c>
+      <c r="E252" s="3">
+        <v>33</v>
+      </c>
+      <c r="F252" s="3">
+        <v>8</v>
+      </c>
+      <c r="G252" s="3">
+        <v>50</v>
+      </c>
+      <c r="H252" s="3">
+        <v>130</v>
+      </c>
+      <c r="I252" s="3"/>
+      <c r="J252" s="3">
+        <v>6</v>
+      </c>
+      <c r="K252" s="3"/>
+      <c r="L252" s="3"/>
+      <c r="M252" s="3"/>
+      <c r="N252" s="3"/>
+      <c r="O252" s="3"/>
+      <c r="P252" s="3"/>
+      <c r="Q252" s="3"/>
+      <c r="R252" s="3"/>
+      <c r="S252" s="3"/>
+      <c r="T252" s="3"/>
+      <c r="U252" s="3"/>
+      <c r="V252" s="3"/>
+      <c r="W252" s="3"/>
+      <c r="X252" s="3"/>
+    </row>
+    <row r="253" spans="2:24">
+      <c r="B253" s="4">
+        <v>42944</v>
+      </c>
+      <c r="C253" s="3">
+        <f t="shared" si="6"/>
+        <v>87</v>
+      </c>
+      <c r="D253" s="3"/>
+      <c r="E253" s="3">
+        <v>17</v>
+      </c>
+      <c r="F253" s="3">
+        <v>40</v>
+      </c>
+      <c r="G253" s="3"/>
+      <c r="H253" s="3"/>
+      <c r="I253" s="3"/>
+      <c r="J253" s="3">
+        <v>30</v>
+      </c>
+      <c r="K253" s="3"/>
+      <c r="L253" s="3"/>
+      <c r="M253" s="3"/>
+      <c r="N253" s="3"/>
+      <c r="O253" s="3"/>
+      <c r="P253" s="3"/>
+      <c r="Q253" s="3"/>
+      <c r="R253" s="3"/>
+      <c r="S253" s="3"/>
+      <c r="T253" s="3"/>
+      <c r="U253" s="3"/>
+      <c r="V253" s="3"/>
+      <c r="W253" s="3"/>
+      <c r="X253" s="3"/>
+    </row>
+    <row r="254" spans="2:24">
+      <c r="B254" s="4">
+        <v>42945</v>
+      </c>
+      <c r="C254" s="3">
+        <f t="shared" si="6"/>
+        <v>57</v>
+      </c>
+      <c r="D254" s="3"/>
+      <c r="E254" s="3"/>
+      <c r="F254" s="3">
+        <v>26</v>
+      </c>
+      <c r="G254" s="3"/>
+      <c r="H254" s="3"/>
+      <c r="I254" s="3"/>
+      <c r="J254" s="3">
+        <v>31</v>
+      </c>
+      <c r="K254" s="3"/>
+      <c r="L254" s="3"/>
+      <c r="M254" s="3"/>
+      <c r="N254" s="3"/>
+      <c r="O254" s="3"/>
+      <c r="P254" s="3"/>
+      <c r="Q254" s="3"/>
+      <c r="R254" s="3"/>
+      <c r="S254" s="3"/>
+      <c r="T254" s="3"/>
+      <c r="U254" s="3"/>
+      <c r="V254" s="3"/>
+      <c r="W254" s="3"/>
+      <c r="X254" s="3"/>
+    </row>
+    <row r="255" spans="2:24">
+      <c r="B255" s="4">
+        <v>42946</v>
+      </c>
+      <c r="C255" s="3">
+        <f t="shared" si="6"/>
+        <v>130</v>
+      </c>
+      <c r="D255" s="3"/>
+      <c r="E255" s="3">
+        <v>33</v>
+      </c>
+      <c r="F255" s="3">
+        <v>27</v>
+      </c>
+      <c r="G255" s="3"/>
+      <c r="H255" s="3"/>
+      <c r="I255" s="3"/>
+      <c r="J255" s="3">
+        <v>70</v>
+      </c>
+      <c r="K255" s="3"/>
+      <c r="L255" s="3"/>
+      <c r="M255" s="3"/>
+      <c r="N255" s="3"/>
+      <c r="O255" s="3"/>
+      <c r="P255" s="3"/>
+      <c r="Q255" s="3"/>
+      <c r="R255" s="3"/>
+      <c r="S255" s="3"/>
+      <c r="T255" s="3"/>
+      <c r="U255" s="3"/>
+      <c r="V255" s="3"/>
+      <c r="W255" s="3"/>
+      <c r="X255" s="3"/>
+    </row>
+    <row r="256" spans="2:24">
+      <c r="B256" s="4">
+        <v>42947</v>
+      </c>
+      <c r="C256" s="3">
+        <f t="shared" si="6"/>
+        <v>39</v>
+      </c>
+      <c r="D256" s="3">
+        <v>3</v>
+      </c>
+      <c r="E256" s="3">
+        <v>12</v>
+      </c>
+      <c r="F256" s="3">
+        <v>15</v>
+      </c>
+      <c r="G256" s="3">
+        <v>3</v>
+      </c>
+      <c r="H256" s="3"/>
+      <c r="I256" s="3">
+        <v>6</v>
+      </c>
+      <c r="J256" s="3"/>
+      <c r="K256" s="3"/>
+      <c r="L256" s="3"/>
+      <c r="M256" s="3"/>
+      <c r="N256" s="3"/>
+      <c r="O256" s="3"/>
+      <c r="P256" s="3"/>
+      <c r="Q256" s="3"/>
+      <c r="R256" s="3"/>
+      <c r="S256" s="3"/>
+      <c r="T256" s="3"/>
+      <c r="U256" s="3"/>
+      <c r="V256" s="3"/>
+      <c r="W256" s="3"/>
+      <c r="X256" s="3"/>
+    </row>
+    <row r="257" spans="2:24">
+      <c r="B257" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C257" s="6">
+        <f>SUM(C226:C256)</f>
+        <v>15039</v>
+      </c>
+      <c r="D257" s="6"/>
+      <c r="E257" s="6"/>
+      <c r="F257" s="6"/>
+      <c r="G257" s="6"/>
+      <c r="H257" s="6"/>
+      <c r="I257" s="6"/>
+      <c r="J257" s="6"/>
+      <c r="K257" s="6"/>
+      <c r="L257" s="6"/>
+      <c r="M257" s="6"/>
+      <c r="N257" s="6"/>
+      <c r="O257" s="6"/>
+      <c r="P257" s="6"/>
+      <c r="Q257" s="6"/>
+      <c r="R257" s="6"/>
+      <c r="S257" s="6"/>
+      <c r="T257" s="6"/>
+      <c r="U257" s="6"/>
+      <c r="V257" s="6"/>
+      <c r="W257" s="6"/>
+      <c r="X257" s="6"/>
+    </row>
+    <row r="258" spans="2:24">
+      <c r="B258" s="4">
+        <v>42948</v>
+      </c>
+      <c r="C258" s="3">
+        <f t="shared" si="6"/>
+        <v>383</v>
+      </c>
+      <c r="D258" s="3">
+        <v>3</v>
+      </c>
+      <c r="E258" s="3">
+        <v>16</v>
+      </c>
+      <c r="F258" s="3">
+        <v>19</v>
+      </c>
+      <c r="G258" s="3"/>
+      <c r="H258" s="3">
+        <v>340</v>
+      </c>
+      <c r="I258" s="3">
+        <v>5</v>
+      </c>
+      <c r="J258" s="3"/>
+      <c r="K258" s="3"/>
+      <c r="L258" s="3"/>
+      <c r="M258" s="3"/>
+      <c r="N258" s="3"/>
+      <c r="O258" s="3"/>
+      <c r="P258" s="3"/>
+      <c r="Q258" s="3"/>
+      <c r="R258" s="3"/>
+      <c r="S258" s="3"/>
+      <c r="T258" s="3"/>
+      <c r="U258" s="3"/>
+      <c r="V258" s="3"/>
+      <c r="W258" s="3"/>
+      <c r="X258" s="3"/>
+    </row>
+    <row r="259" spans="2:24">
+      <c r="B259" s="4">
+        <v>42949</v>
+      </c>
+      <c r="C259" s="3">
+        <f t="shared" si="6"/>
+        <v>50</v>
+      </c>
+      <c r="D259" s="3"/>
+      <c r="E259" s="3">
+        <v>10</v>
+      </c>
+      <c r="F259" s="3">
+        <v>20</v>
+      </c>
+      <c r="G259" s="3"/>
+      <c r="H259" s="3"/>
+      <c r="I259" s="3">
+        <v>12</v>
+      </c>
+      <c r="J259" s="3"/>
+      <c r="K259" s="3">
+        <v>8</v>
+      </c>
+      <c r="L259" s="3"/>
+      <c r="M259" s="3"/>
+      <c r="N259" s="3"/>
+      <c r="O259" s="3"/>
+      <c r="P259" s="3"/>
+      <c r="Q259" s="3"/>
+      <c r="R259" s="3"/>
+      <c r="S259" s="3"/>
+      <c r="T259" s="3"/>
+      <c r="U259" s="3"/>
+      <c r="V259" s="3"/>
+      <c r="W259" s="3"/>
+      <c r="X259" s="3"/>
+    </row>
+    <row r="260" spans="2:24">
+      <c r="B260" s="4">
+        <v>42950</v>
+      </c>
+      <c r="C260" s="3">
+        <f t="shared" ref="C260:C288" si="7">SUM(D260:CN260)</f>
+        <v>74</v>
+      </c>
+      <c r="D260" s="3">
+        <v>2</v>
+      </c>
+      <c r="E260" s="3">
+        <v>14</v>
+      </c>
+      <c r="F260" s="3">
+        <v>12</v>
+      </c>
+      <c r="G260" s="3"/>
+      <c r="H260" s="3"/>
+      <c r="I260" s="3"/>
+      <c r="J260" s="3"/>
+      <c r="K260" s="3">
+        <v>11</v>
+      </c>
+      <c r="L260" s="3">
+        <v>35</v>
+      </c>
+      <c r="M260" s="3"/>
+      <c r="N260" s="3"/>
+      <c r="O260" s="3"/>
+      <c r="P260" s="3"/>
+      <c r="Q260" s="3"/>
+      <c r="R260" s="3"/>
+      <c r="S260" s="3"/>
+      <c r="T260" s="3"/>
+      <c r="U260" s="3"/>
+      <c r="V260" s="3"/>
+      <c r="W260" s="3"/>
+      <c r="X260" s="3"/>
+    </row>
+    <row r="261" spans="2:24">
+      <c r="B261" s="4">
+        <v>42951</v>
+      </c>
+      <c r="C261" s="3">
+        <f t="shared" si="7"/>
+        <v>83</v>
+      </c>
+      <c r="D261" s="3">
+        <v>3</v>
+      </c>
+      <c r="E261" s="3">
+        <v>14</v>
+      </c>
+      <c r="F261" s="3">
+        <v>16</v>
+      </c>
+      <c r="G261" s="3"/>
+      <c r="H261" s="3"/>
+      <c r="I261" s="3">
+        <v>5</v>
+      </c>
+      <c r="J261" s="3">
+        <v>45</v>
+      </c>
+      <c r="K261" s="3"/>
+      <c r="L261" s="3"/>
+      <c r="M261" s="3"/>
+      <c r="N261" s="3"/>
+      <c r="O261" s="3"/>
+      <c r="P261" s="3"/>
+      <c r="Q261" s="3"/>
+      <c r="R261" s="3"/>
+      <c r="S261" s="3"/>
+      <c r="T261" s="3"/>
+      <c r="U261" s="3"/>
+      <c r="V261" s="3"/>
+      <c r="W261" s="3"/>
+      <c r="X261" s="3"/>
+    </row>
+    <row r="262" spans="2:24">
+      <c r="B262" s="4">
+        <v>42952</v>
+      </c>
+      <c r="C262" s="3">
+        <f t="shared" si="7"/>
+        <v>141</v>
+      </c>
+      <c r="D262" s="3"/>
+      <c r="E262" s="3">
+        <v>55</v>
+      </c>
+      <c r="F262" s="3">
+        <v>6</v>
+      </c>
+      <c r="G262" s="3"/>
+      <c r="H262" s="3"/>
+      <c r="I262" s="3">
+        <v>20</v>
+      </c>
+      <c r="J262" s="3">
+        <v>30</v>
+      </c>
+      <c r="K262" s="3">
+        <v>30</v>
+      </c>
+      <c r="L262" s="3"/>
+      <c r="M262" s="3"/>
+      <c r="N262" s="3"/>
+      <c r="O262" s="3"/>
+      <c r="P262" s="3"/>
+      <c r="Q262" s="3"/>
+      <c r="R262" s="3"/>
+      <c r="S262" s="3"/>
+      <c r="T262" s="3"/>
+      <c r="U262" s="3"/>
+      <c r="V262" s="3"/>
+      <c r="W262" s="3"/>
+      <c r="X262" s="3"/>
+    </row>
+    <row r="263" spans="2:24">
+      <c r="B263" s="4">
+        <v>42953</v>
+      </c>
+      <c r="C263" s="3">
+        <f t="shared" si="7"/>
+        <v>117</v>
+      </c>
+      <c r="D263" s="3"/>
+      <c r="E263" s="3">
+        <v>76</v>
+      </c>
+      <c r="F263" s="3">
+        <v>8</v>
+      </c>
+      <c r="G263" s="3"/>
+      <c r="H263" s="3"/>
+      <c r="I263" s="3">
+        <v>10</v>
+      </c>
+      <c r="J263" s="3"/>
+      <c r="K263" s="3">
+        <v>23</v>
+      </c>
+      <c r="L263" s="3"/>
+      <c r="M263" s="3"/>
+      <c r="N263" s="3"/>
+      <c r="O263" s="3"/>
+      <c r="P263" s="3"/>
+      <c r="Q263" s="3"/>
+      <c r="R263" s="3"/>
+      <c r="S263" s="3"/>
+      <c r="T263" s="3"/>
+      <c r="U263" s="3"/>
+      <c r="V263" s="3"/>
+      <c r="W263" s="3"/>
+      <c r="X263" s="3"/>
+    </row>
+    <row r="264" spans="2:24">
+      <c r="B264" s="4">
+        <v>42954</v>
+      </c>
+      <c r="C264" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="D264" s="3"/>
+      <c r="E264" s="3"/>
+      <c r="F264" s="3"/>
+      <c r="G264" s="3"/>
+      <c r="H264" s="3"/>
+      <c r="I264" s="3"/>
+      <c r="J264" s="3"/>
+      <c r="K264" s="3"/>
+      <c r="L264" s="3"/>
+      <c r="M264" s="3"/>
+      <c r="N264" s="3"/>
+      <c r="O264" s="3"/>
+      <c r="P264" s="3"/>
+      <c r="Q264" s="3"/>
+      <c r="R264" s="3"/>
+      <c r="S264" s="3"/>
+      <c r="T264" s="3"/>
+      <c r="U264" s="3"/>
+      <c r="V264" s="3"/>
+      <c r="W264" s="3"/>
+      <c r="X264" s="3"/>
+    </row>
+    <row r="265" spans="2:24">
+      <c r="B265" s="4">
+        <v>42955</v>
+      </c>
+      <c r="C265" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="D265" s="3"/>
+      <c r="E265" s="3"/>
+      <c r="F265" s="3"/>
+      <c r="G265" s="3"/>
+      <c r="H265" s="3"/>
+      <c r="I265" s="3"/>
+      <c r="J265" s="3"/>
+      <c r="K265" s="3"/>
+      <c r="L265" s="3"/>
+      <c r="M265" s="3"/>
+      <c r="N265" s="3"/>
+      <c r="O265" s="3"/>
+      <c r="P265" s="3"/>
+      <c r="Q265" s="3"/>
+      <c r="R265" s="3"/>
+      <c r="S265" s="3"/>
+      <c r="T265" s="3"/>
+      <c r="U265" s="3"/>
+      <c r="V265" s="3"/>
+      <c r="W265" s="3"/>
+      <c r="X265" s="3"/>
+    </row>
+    <row r="266" spans="2:24">
+      <c r="B266" s="4">
+        <v>42956</v>
+      </c>
+      <c r="C266" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="D266" s="3"/>
+      <c r="E266" s="3"/>
+      <c r="F266" s="3"/>
+      <c r="G266" s="3"/>
+      <c r="H266" s="3"/>
+      <c r="I266" s="3"/>
+      <c r="J266" s="3"/>
+      <c r="K266" s="3"/>
+      <c r="L266" s="3"/>
+      <c r="M266" s="3"/>
+      <c r="N266" s="3"/>
+      <c r="O266" s="3"/>
+      <c r="P266" s="3"/>
+      <c r="Q266" s="3"/>
+      <c r="R266" s="3"/>
+      <c r="S266" s="3"/>
+      <c r="T266" s="3"/>
+      <c r="U266" s="3"/>
+      <c r="V266" s="3"/>
+      <c r="W266" s="3"/>
+      <c r="X266" s="3"/>
+    </row>
+    <row r="267" spans="2:24">
+      <c r="B267" s="4">
+        <v>42957</v>
+      </c>
+      <c r="C267" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="D267" s="3"/>
+      <c r="E267" s="3"/>
+      <c r="F267" s="3"/>
+      <c r="G267" s="3"/>
+      <c r="H267" s="3"/>
+      <c r="I267" s="3"/>
+      <c r="J267" s="3"/>
+      <c r="K267" s="3"/>
+      <c r="L267" s="3"/>
+      <c r="M267" s="3"/>
+      <c r="N267" s="3"/>
+      <c r="O267" s="3"/>
+      <c r="P267" s="3"/>
+      <c r="Q267" s="3"/>
+      <c r="R267" s="3"/>
+      <c r="S267" s="3"/>
+      <c r="T267" s="3"/>
+      <c r="U267" s="3"/>
+      <c r="V267" s="3"/>
+      <c r="W267" s="3"/>
+      <c r="X267" s="3"/>
+    </row>
+    <row r="268" spans="2:24">
+      <c r="B268" s="4">
+        <v>42958</v>
+      </c>
+      <c r="C268" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="D268" s="3"/>
+      <c r="E268" s="3"/>
+      <c r="F268" s="3"/>
+      <c r="G268" s="3"/>
+      <c r="H268" s="3"/>
+      <c r="I268" s="3"/>
+      <c r="J268" s="3"/>
+      <c r="K268" s="3"/>
+      <c r="L268" s="3"/>
+      <c r="M268" s="3"/>
+      <c r="N268" s="3"/>
+      <c r="O268" s="3"/>
+      <c r="P268" s="3"/>
+      <c r="Q268" s="3"/>
+      <c r="R268" s="3"/>
+      <c r="S268" s="3"/>
+      <c r="T268" s="3"/>
+      <c r="U268" s="3"/>
+      <c r="V268" s="3"/>
+      <c r="W268" s="3"/>
+      <c r="X268" s="3"/>
+    </row>
+    <row r="269" spans="2:24">
+      <c r="B269" s="4">
+        <v>42959</v>
+      </c>
+      <c r="C269" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="D269" s="3"/>
+      <c r="E269" s="3"/>
+      <c r="F269" s="3"/>
+      <c r="G269" s="3"/>
+      <c r="H269" s="3"/>
+      <c r="I269" s="3"/>
+      <c r="J269" s="3"/>
+      <c r="K269" s="3"/>
+      <c r="L269" s="3"/>
+      <c r="M269" s="3"/>
+      <c r="N269" s="3"/>
+      <c r="O269" s="3"/>
+      <c r="P269" s="3"/>
+      <c r="Q269" s="3"/>
+      <c r="R269" s="3"/>
+      <c r="S269" s="3"/>
+      <c r="T269" s="3"/>
+      <c r="U269" s="3"/>
+      <c r="V269" s="3"/>
+      <c r="W269" s="3"/>
+      <c r="X269" s="3"/>
+    </row>
+    <row r="270" spans="2:24">
+      <c r="B270" s="4">
+        <v>42960</v>
+      </c>
+      <c r="C270" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="D270" s="3"/>
+      <c r="E270" s="3"/>
+      <c r="F270" s="3"/>
+      <c r="G270" s="3"/>
+      <c r="H270" s="3"/>
+      <c r="I270" s="3"/>
+      <c r="J270" s="3"/>
+      <c r="K270" s="3"/>
+      <c r="L270" s="3"/>
+      <c r="M270" s="3"/>
+      <c r="N270" s="3"/>
+      <c r="O270" s="3"/>
+      <c r="P270" s="3"/>
+      <c r="Q270" s="3"/>
+      <c r="R270" s="3"/>
+      <c r="S270" s="3"/>
+      <c r="T270" s="3"/>
+      <c r="U270" s="3"/>
+      <c r="V270" s="3"/>
+      <c r="W270" s="3"/>
+      <c r="X270" s="3"/>
+    </row>
+    <row r="271" spans="2:24">
+      <c r="B271" s="4">
+        <v>42961</v>
+      </c>
+      <c r="C271" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="D271" s="3"/>
+      <c r="E271" s="3"/>
+      <c r="F271" s="3"/>
+      <c r="G271" s="3"/>
+      <c r="H271" s="3"/>
+      <c r="I271" s="3"/>
+      <c r="J271" s="3"/>
+      <c r="K271" s="3"/>
+      <c r="L271" s="3"/>
+      <c r="M271" s="3"/>
+      <c r="N271" s="3"/>
+      <c r="O271" s="3"/>
+      <c r="P271" s="3"/>
+      <c r="Q271" s="3"/>
+      <c r="R271" s="3"/>
+      <c r="S271" s="3"/>
+      <c r="T271" s="3"/>
+      <c r="U271" s="3"/>
+      <c r="V271" s="3"/>
+      <c r="W271" s="3"/>
+      <c r="X271" s="3"/>
+    </row>
+    <row r="272" spans="2:24">
+      <c r="B272" s="4">
+        <v>42962</v>
+      </c>
+      <c r="C272" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="D272" s="3"/>
+      <c r="E272" s="3"/>
+      <c r="F272" s="3"/>
+      <c r="G272" s="3"/>
+      <c r="H272" s="3"/>
+      <c r="I272" s="3"/>
+      <c r="J272" s="3"/>
+      <c r="K272" s="3"/>
+      <c r="L272" s="3"/>
+      <c r="M272" s="3"/>
+      <c r="N272" s="3"/>
+      <c r="O272" s="3"/>
+      <c r="P272" s="3"/>
+      <c r="Q272" s="3"/>
+      <c r="R272" s="3"/>
+      <c r="S272" s="3"/>
+      <c r="T272" s="3"/>
+      <c r="U272" s="3"/>
+      <c r="V272" s="3"/>
+      <c r="W272" s="3"/>
+      <c r="X272" s="3"/>
+    </row>
+    <row r="273" spans="2:24">
+      <c r="B273" s="4">
+        <v>42963</v>
+      </c>
+      <c r="C273" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="D273" s="3"/>
+      <c r="E273" s="3"/>
+      <c r="F273" s="3"/>
+      <c r="G273" s="3"/>
+      <c r="H273" s="3"/>
+      <c r="I273" s="3"/>
+      <c r="J273" s="3"/>
+      <c r="K273" s="3"/>
+      <c r="L273" s="3"/>
+      <c r="M273" s="3"/>
+      <c r="N273" s="3"/>
+      <c r="O273" s="3"/>
+      <c r="P273" s="3"/>
+      <c r="Q273" s="3"/>
+      <c r="R273" s="3"/>
+      <c r="S273" s="3"/>
+      <c r="T273" s="3"/>
+      <c r="U273" s="3"/>
+      <c r="V273" s="3"/>
+      <c r="W273" s="3"/>
+      <c r="X273" s="3"/>
+    </row>
+    <row r="274" spans="2:24">
+      <c r="B274" s="4">
+        <v>42964</v>
+      </c>
+      <c r="C274" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="D274" s="3"/>
+      <c r="E274" s="3"/>
+      <c r="F274" s="3"/>
+      <c r="G274" s="3"/>
+      <c r="H274" s="3"/>
+      <c r="I274" s="3"/>
+      <c r="J274" s="3"/>
+      <c r="K274" s="3"/>
+      <c r="L274" s="3"/>
+      <c r="M274" s="3"/>
+      <c r="N274" s="3"/>
+      <c r="O274" s="3"/>
+      <c r="P274" s="3"/>
+      <c r="Q274" s="3"/>
+      <c r="R274" s="3"/>
+      <c r="S274" s="3"/>
+      <c r="T274" s="3"/>
+      <c r="U274" s="3"/>
+      <c r="V274" s="3"/>
+      <c r="W274" s="3"/>
+      <c r="X274" s="3"/>
+    </row>
+    <row r="275" spans="2:24">
+      <c r="B275" s="4">
+        <v>42965</v>
+      </c>
+      <c r="C275" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="D275" s="3"/>
+      <c r="E275" s="3"/>
+      <c r="F275" s="3"/>
+      <c r="G275" s="3"/>
+      <c r="H275" s="3"/>
+      <c r="I275" s="3"/>
+      <c r="J275" s="3"/>
+      <c r="K275" s="3"/>
+      <c r="L275" s="3"/>
+      <c r="M275" s="3"/>
+      <c r="N275" s="3"/>
+      <c r="O275" s="3"/>
+      <c r="P275" s="3"/>
+      <c r="Q275" s="3"/>
+      <c r="R275" s="3"/>
+      <c r="S275" s="3"/>
+      <c r="T275" s="3"/>
+      <c r="U275" s="3"/>
+      <c r="V275" s="3"/>
+      <c r="W275" s="3"/>
+      <c r="X275" s="3"/>
+    </row>
+    <row r="276" spans="2:24">
+      <c r="B276" s="4">
+        <v>42966</v>
+      </c>
+      <c r="C276" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="D276" s="3"/>
+      <c r="E276" s="3"/>
+      <c r="F276" s="3"/>
+      <c r="G276" s="3"/>
+      <c r="H276" s="3"/>
+      <c r="I276" s="3"/>
+      <c r="J276" s="3"/>
+      <c r="K276" s="3"/>
+      <c r="L276" s="3"/>
+      <c r="M276" s="3"/>
+      <c r="N276" s="3"/>
+      <c r="O276" s="3"/>
+      <c r="P276" s="3"/>
+      <c r="Q276" s="3"/>
+      <c r="R276" s="3"/>
+      <c r="S276" s="3"/>
+      <c r="T276" s="3"/>
+      <c r="U276" s="3"/>
+      <c r="V276" s="3"/>
+      <c r="W276" s="3"/>
+      <c r="X276" s="3"/>
+    </row>
+    <row r="277" spans="2:24">
+      <c r="B277" s="4">
+        <v>42967</v>
+      </c>
+      <c r="C277" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="D277" s="3"/>
+      <c r="E277" s="3"/>
+      <c r="F277" s="3"/>
+      <c r="G277" s="3"/>
+      <c r="H277" s="3"/>
+      <c r="I277" s="3"/>
+      <c r="J277" s="3"/>
+      <c r="K277" s="3"/>
+      <c r="L277" s="3"/>
+      <c r="M277" s="3"/>
+      <c r="N277" s="3"/>
+      <c r="O277" s="3"/>
+      <c r="P277" s="3"/>
+      <c r="Q277" s="3"/>
+      <c r="R277" s="3"/>
+      <c r="S277" s="3"/>
+      <c r="T277" s="3"/>
+      <c r="U277" s="3"/>
+      <c r="V277" s="3"/>
+      <c r="W277" s="3"/>
+      <c r="X277" s="3"/>
+    </row>
+    <row r="278" spans="2:24">
+      <c r="B278" s="4">
+        <v>42968</v>
+      </c>
+      <c r="C278" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="D278" s="3"/>
+      <c r="E278" s="3"/>
+      <c r="F278" s="3"/>
+      <c r="G278" s="3"/>
+      <c r="H278" s="3"/>
+      <c r="I278" s="3"/>
+      <c r="J278" s="3"/>
+      <c r="K278" s="3"/>
+      <c r="L278" s="3"/>
+      <c r="M278" s="3"/>
+      <c r="N278" s="3"/>
+      <c r="O278" s="3"/>
+      <c r="P278" s="3"/>
+      <c r="Q278" s="3"/>
+      <c r="R278" s="3"/>
+      <c r="S278" s="3"/>
+      <c r="T278" s="3"/>
+      <c r="U278" s="3"/>
+      <c r="V278" s="3"/>
+      <c r="W278" s="3"/>
+      <c r="X278" s="3"/>
+    </row>
+    <row r="279" spans="2:24">
+      <c r="B279" s="4">
+        <v>42969</v>
+      </c>
+      <c r="C279" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="D279" s="3"/>
+      <c r="E279" s="3"/>
+      <c r="F279" s="3"/>
+      <c r="G279" s="3"/>
+      <c r="H279" s="3"/>
+      <c r="I279" s="3"/>
+      <c r="J279" s="3"/>
+      <c r="K279" s="3"/>
+      <c r="L279" s="3"/>
+      <c r="M279" s="3"/>
+      <c r="N279" s="3"/>
+      <c r="O279" s="3"/>
+      <c r="P279" s="3"/>
+      <c r="Q279" s="3"/>
+      <c r="R279" s="3"/>
+      <c r="S279" s="3"/>
+      <c r="T279" s="3"/>
+      <c r="U279" s="3"/>
+      <c r="V279" s="3"/>
+      <c r="W279" s="3"/>
+      <c r="X279" s="3"/>
+    </row>
+    <row r="280" spans="2:24">
+      <c r="B280" s="4">
+        <v>42970</v>
+      </c>
+      <c r="C280" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="D280" s="3"/>
+      <c r="E280" s="3"/>
+      <c r="F280" s="3"/>
+      <c r="G280" s="3"/>
+      <c r="H280" s="3"/>
+      <c r="I280" s="3"/>
+      <c r="J280" s="3"/>
+      <c r="K280" s="3"/>
+      <c r="L280" s="3"/>
+      <c r="M280" s="3"/>
+      <c r="N280" s="3"/>
+      <c r="O280" s="3"/>
+      <c r="P280" s="3"/>
+      <c r="Q280" s="3"/>
+      <c r="R280" s="3"/>
+      <c r="S280" s="3"/>
+      <c r="T280" s="3"/>
+      <c r="U280" s="3"/>
+      <c r="V280" s="3"/>
+      <c r="W280" s="3"/>
+      <c r="X280" s="3"/>
+    </row>
+    <row r="281" spans="2:24">
+      <c r="B281" s="4">
+        <v>42971</v>
+      </c>
+      <c r="C281" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="D281" s="3"/>
+      <c r="E281" s="3"/>
+      <c r="F281" s="3"/>
+      <c r="G281" s="3"/>
+      <c r="H281" s="3"/>
+      <c r="I281" s="3"/>
+      <c r="J281" s="3"/>
+      <c r="K281" s="3"/>
+      <c r="L281" s="3"/>
+      <c r="M281" s="3"/>
+      <c r="N281" s="3"/>
+      <c r="O281" s="3"/>
+      <c r="P281" s="3"/>
+      <c r="Q281" s="3"/>
+      <c r="R281" s="3"/>
+      <c r="S281" s="3"/>
+      <c r="T281" s="3"/>
+      <c r="U281" s="3"/>
+      <c r="V281" s="3"/>
+      <c r="W281" s="3"/>
+      <c r="X281" s="3"/>
+    </row>
+    <row r="282" spans="2:24">
+      <c r="B282" s="4">
+        <v>42972</v>
+      </c>
+      <c r="C282" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="D282" s="3"/>
+      <c r="E282" s="3"/>
+      <c r="F282" s="3"/>
+      <c r="G282" s="3"/>
+      <c r="H282" s="3"/>
+      <c r="I282" s="3"/>
+      <c r="J282" s="3"/>
+      <c r="K282" s="3"/>
+      <c r="L282" s="3"/>
+      <c r="M282" s="3"/>
+      <c r="N282" s="3"/>
+      <c r="O282" s="3"/>
+      <c r="P282" s="3"/>
+      <c r="Q282" s="3"/>
+      <c r="R282" s="3"/>
+      <c r="S282" s="3"/>
+      <c r="T282" s="3"/>
+      <c r="U282" s="3"/>
+      <c r="V282" s="3"/>
+      <c r="W282" s="3"/>
+      <c r="X282" s="3"/>
+    </row>
+    <row r="283" spans="2:24">
+      <c r="B283" s="4">
+        <v>42973</v>
+      </c>
+      <c r="C283" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="D283" s="3"/>
+      <c r="E283" s="3"/>
+      <c r="F283" s="3"/>
+      <c r="G283" s="3"/>
+      <c r="H283" s="3"/>
+      <c r="I283" s="3"/>
+      <c r="J283" s="3"/>
+      <c r="K283" s="3"/>
+      <c r="L283" s="3"/>
+      <c r="M283" s="3"/>
+      <c r="N283" s="3"/>
+      <c r="O283" s="3"/>
+      <c r="P283" s="3"/>
+      <c r="Q283" s="3"/>
+      <c r="R283" s="3"/>
+      <c r="S283" s="3"/>
+      <c r="T283" s="3"/>
+      <c r="U283" s="3"/>
+      <c r="V283" s="3"/>
+      <c r="W283" s="3"/>
+      <c r="X283" s="3"/>
+    </row>
+    <row r="284" spans="2:24">
+      <c r="B284" s="4">
+        <v>42974</v>
+      </c>
+      <c r="C284" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="D284" s="3"/>
+      <c r="E284" s="3"/>
+      <c r="F284" s="3"/>
+      <c r="G284" s="3"/>
+      <c r="H284" s="3"/>
+      <c r="I284" s="3"/>
+      <c r="J284" s="3"/>
+      <c r="K284" s="3"/>
+      <c r="L284" s="3"/>
+      <c r="M284" s="3"/>
+      <c r="N284" s="3"/>
+      <c r="O284" s="3"/>
+      <c r="P284" s="3"/>
+      <c r="Q284" s="3"/>
+      <c r="R284" s="3"/>
+      <c r="S284" s="3"/>
+      <c r="T284" s="3"/>
+      <c r="U284" s="3"/>
+      <c r="V284" s="3"/>
+      <c r="W284" s="3"/>
+      <c r="X284" s="3"/>
+    </row>
+    <row r="285" spans="2:24">
+      <c r="B285" s="4">
+        <v>42975</v>
+      </c>
+      <c r="C285" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="D285" s="3"/>
+      <c r="E285" s="3"/>
+      <c r="F285" s="3"/>
+      <c r="G285" s="3"/>
+      <c r="H285" s="3"/>
+      <c r="I285" s="3"/>
+      <c r="J285" s="3"/>
+      <c r="K285" s="3"/>
+      <c r="L285" s="3"/>
+      <c r="M285" s="3"/>
+      <c r="N285" s="3"/>
+      <c r="O285" s="3"/>
+      <c r="P285" s="3"/>
+      <c r="Q285" s="3"/>
+      <c r="R285" s="3"/>
+      <c r="S285" s="3"/>
+      <c r="T285" s="3"/>
+      <c r="U285" s="3"/>
+      <c r="V285" s="3"/>
+      <c r="W285" s="3"/>
+      <c r="X285" s="3"/>
+    </row>
+    <row r="286" spans="2:24">
+      <c r="B286" s="4">
+        <v>42976</v>
+      </c>
+      <c r="C286" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="D286" s="3"/>
+      <c r="E286" s="3"/>
+      <c r="F286" s="3"/>
+      <c r="G286" s="3"/>
+      <c r="H286" s="3"/>
+      <c r="I286" s="3"/>
+      <c r="J286" s="3"/>
+      <c r="K286" s="3"/>
+      <c r="L286" s="3"/>
+      <c r="M286" s="3"/>
+      <c r="N286" s="3"/>
+      <c r="O286" s="3"/>
+      <c r="P286" s="3"/>
+      <c r="Q286" s="3"/>
+      <c r="R286" s="3"/>
+      <c r="S286" s="3"/>
+      <c r="T286" s="3"/>
+      <c r="U286" s="3"/>
+      <c r="V286" s="3"/>
+      <c r="W286" s="3"/>
+      <c r="X286" s="3"/>
+    </row>
+    <row r="287" spans="2:24">
+      <c r="B287" s="4">
+        <v>42977</v>
+      </c>
+      <c r="C287" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="D287" s="3"/>
+      <c r="E287" s="3"/>
+      <c r="F287" s="3"/>
+      <c r="G287" s="3"/>
+      <c r="H287" s="3"/>
+      <c r="I287" s="3"/>
+      <c r="J287" s="3"/>
+      <c r="K287" s="3"/>
+      <c r="L287" s="3"/>
+      <c r="M287" s="3"/>
+      <c r="N287" s="3"/>
+      <c r="O287" s="3"/>
+      <c r="P287" s="3"/>
+      <c r="Q287" s="3"/>
+      <c r="R287" s="3"/>
+      <c r="S287" s="3"/>
+      <c r="T287" s="3"/>
+      <c r="U287" s="3"/>
+      <c r="V287" s="3"/>
+      <c r="W287" s="3"/>
+      <c r="X287" s="3"/>
+    </row>
+    <row r="288" spans="2:24">
+      <c r="B288" s="4">
+        <v>42978</v>
+      </c>
+      <c r="C288" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="D288" s="3"/>
+      <c r="E288" s="3"/>
+      <c r="F288" s="3"/>
+      <c r="G288" s="3"/>
+      <c r="H288" s="3"/>
+      <c r="I288" s="3"/>
+      <c r="J288" s="3"/>
+      <c r="K288" s="3"/>
+      <c r="L288" s="3"/>
+      <c r="M288" s="3"/>
+      <c r="N288" s="3"/>
+      <c r="O288" s="3"/>
+      <c r="P288" s="3"/>
+      <c r="Q288" s="3"/>
+      <c r="R288" s="3"/>
+      <c r="S288" s="3"/>
+      <c r="T288" s="3"/>
+      <c r="U288" s="3"/>
+      <c r="V288" s="3"/>
+      <c r="W288" s="3"/>
+      <c r="X288" s="3"/>
+    </row>
+    <row r="289" spans="2:24">
+      <c r="B289" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C289" s="6">
+        <f>SUM(C258:C288)</f>
+        <v>848</v>
+      </c>
+      <c r="D289" s="6"/>
+      <c r="E289" s="6"/>
+      <c r="F289" s="6"/>
+      <c r="G289" s="6"/>
+      <c r="H289" s="6"/>
+      <c r="I289" s="6"/>
+      <c r="J289" s="6"/>
+      <c r="K289" s="6"/>
+      <c r="L289" s="6"/>
+      <c r="M289" s="6"/>
+      <c r="N289" s="6"/>
+      <c r="O289" s="6"/>
+      <c r="P289" s="6"/>
+      <c r="Q289" s="6"/>
+      <c r="R289" s="6"/>
+      <c r="S289" s="6"/>
+      <c r="T289" s="6"/>
+      <c r="U289" s="6"/>
+      <c r="V289" s="6"/>
+      <c r="W289" s="6"/>
+      <c r="X289" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="B2:B3"/>
-    <mergeCell ref="D2:W2"/>
+    <mergeCell ref="D2:X2"/>
     <mergeCell ref="C2:C3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="D4:W5 D7:W37 D39:W69 D100:W130 D71:W98 D163:W193 D195:W224 D132:W161">
-    <cfRule type="containsBlanks" dxfId="0" priority="18">
+  <conditionalFormatting sqref="D4:X5 D7:X37 D39:X69 D100:X130 D71:X98 D163:X193 D132:X161 D195:X224 D226:X256 D258:X288">
+    <cfRule type="containsBlanks" dxfId="0" priority="20">
       <formula>LEN(TRIM(D4))=0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/DailyExpense.xlsx
+++ b/DailyExpense.xlsx
@@ -12501,12 +12501,4054 @@
         </r>
       </text>
     </comment>
+    <comment ref="I264" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+菊花茶</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>10</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G267" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+牙膏</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>10</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I267" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+水</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">2
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>饼干</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>13</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H269" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+逛超市</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I270" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+菊花茶</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">7
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>冰粉</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>12</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I271" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+饼干</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>40</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J271" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+按摩</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>40</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I274" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+菊花茶</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>10</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I276" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+水</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>8</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J276" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+电影</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>30</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H277" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+充公交卡</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>125</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I277" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+水</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>10</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J277" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+电影</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>37</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I279" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+巧克力，咖啡</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>30</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+水</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>10</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I280" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+星巴克</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>32</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H281" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+火三轮</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I281" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+巧克力</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>21</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H283" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+牛肉</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">50
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>速冻水饺、抄手、菜等</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>73</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J284" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+按摩</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H288" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+理发</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>38</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F290" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+和小二爸妈吃饭</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I290" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+饼干</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>6</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H291" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+打车</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>25</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H292" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+工具箱</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>279</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I292" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+可乐</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>3</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H294" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+手机充值</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">100
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>公交卡充值</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>130</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I296" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+巧克力等</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>37</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G298" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+拖把等</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>225</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I298" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+水</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>13</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J298" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+电影</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>70</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H299" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+打车</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>9</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="R299" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+窗帘定金</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>1000</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G300" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+菜刀、菜板、洗洁精等</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>627</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H300" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+打车</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I300" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+月饼</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>36</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I301" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+水</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>3</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M303" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+FILA</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>外套</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">840
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>包</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">680
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>袜子</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>50</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H305" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+电饭煲</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> 349
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>炒锅</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> 239</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="R305" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+床垫</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> 5897
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>冰箱</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> 2300
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>床垫上楼</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> 100</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G307" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+烧水壶等</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>136</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H307" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+打车</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">50
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>打车</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">50
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>搬家，车费</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">133
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>宽带预存</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>1690</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G308" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+日常用品</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>286</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="R308" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+电视</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>5488</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G309" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+水龙头</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>35</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G310" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+扳手</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>35</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G312" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+电池</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>10</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H312" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+摩拜充值</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>20</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I312" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+奶茶</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>28</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G313" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+蒸锅、铁铲等</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>205</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H313" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+装修</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>门反锁</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>师傅的烟</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>23</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I315" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+饼干、巧克力等</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>34</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="R316" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+窗帘尾款</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>3848</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H319" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+打车</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>60</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I319" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+水</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">10
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>烤肠</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>3</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N323" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+房租加水电</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>697</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G324" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+日用品</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>900</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H324" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+手机充值</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>100</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E325" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+吃饭</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>350</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G325" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+电子秤</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>血压计</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>497</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H325" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+电信宽带充值</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>350</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H326" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+舅舅的樟茶鸭、干兔
+爸妈的牛肉干共</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>350</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J326" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+杜甫草堂门票</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">240
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>小吃</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>80</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="R327" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+柜式空调</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">8800
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>三个壁挂空调</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">8800
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>净水器</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">2988
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>微波炉</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">499
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>豆浆机</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">499
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>挂烫机</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">379
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>去球器</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>49</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H328" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+空调安装</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> 3</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>个接水盘</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">180
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>打孔</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> 120</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I329" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+水</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>22</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I330" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+蛋糕、鲜花饼</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>42</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J333" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+电影</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>70</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G334" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+宜家，台灯、抱枕、衣架等</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>827</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G335" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+睡袍、内裤</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>197</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H335" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+买菜等</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I336" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+牛奶</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>4</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I337" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+饼干</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>42</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H340" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+花</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>35</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I340" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+凉面</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>5</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J340" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+电影</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>120</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G341" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+止逆阀</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">85
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>玻璃胶</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>50</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="R341" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+梳妆台</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>797</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H342" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+打车</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>80</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I342" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+奶茶</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">10
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>威化饼</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>7</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H344" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+气费</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>37</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I346" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+咖啡</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>12</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I347" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+奶茶</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>10</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H349" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+打车</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>50</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H350" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+打车</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>50</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J353" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+电影</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>80</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I354" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+水</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">7
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>饼干</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>26</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G356" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+拖鞋、日用品、菜等</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>500</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H356" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+安装止逆阀</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>50</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J357" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+电影</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>70</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H359" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+买菜</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>9</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H360" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+电信宽带充值</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>500</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I362" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+巧克力</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M362" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+裤子</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>339</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H363" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+打车</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">30
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>火车票</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>50</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H364" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+汽车票</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>54</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J364" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+电影</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>60</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H366" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+小二爸爸生日礼物</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>600</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I367" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+饼干</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>6</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I370" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+水</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>6</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I371" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+水</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>6</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="20">
   <si>
     <t>日期</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -12775,7 +16817,14 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="3">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -13080,11 +17129,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:X289"/>
+  <dimension ref="B2:X415"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A205" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L216" sqref="L216"/>
+      <pane ySplit="3" topLeftCell="A367" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q393" sqref="Q393"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -22616,7 +26665,7 @@
       </c>
       <c r="C258" s="3">
         <f t="shared" si="6"/>
-        <v>383</v>
+        <v>2483</v>
       </c>
       <c r="D258" s="3">
         <v>3</v>
@@ -22639,7 +26688,9 @@
       <c r="L258" s="3"/>
       <c r="M258" s="3"/>
       <c r="N258" s="3"/>
-      <c r="O258" s="3"/>
+      <c r="O258" s="3">
+        <v>2100</v>
+      </c>
       <c r="P258" s="3"/>
       <c r="Q258" s="3"/>
       <c r="R258" s="3"/>
@@ -22693,7 +26744,7 @@
         <v>42950</v>
       </c>
       <c r="C260" s="3">
-        <f t="shared" ref="C260:C288" si="7">SUM(D260:CN260)</f>
+        <f t="shared" ref="C260:C319" si="7">SUM(D260:CN260)</f>
         <v>74</v>
       </c>
       <c r="D260" s="3">
@@ -22852,16 +26903,26 @@
       </c>
       <c r="C264" s="3">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="D264" s="3"/>
-      <c r="E264" s="3"/>
-      <c r="F264" s="3"/>
+        <v>61</v>
+      </c>
+      <c r="D264" s="3">
+        <v>9</v>
+      </c>
+      <c r="E264" s="3">
+        <v>10</v>
+      </c>
+      <c r="F264" s="3">
+        <v>21</v>
+      </c>
       <c r="G264" s="3"/>
       <c r="H264" s="3"/>
-      <c r="I264" s="3"/>
+      <c r="I264" s="3">
+        <v>10</v>
+      </c>
       <c r="J264" s="3"/>
-      <c r="K264" s="3"/>
+      <c r="K264" s="3">
+        <v>11</v>
+      </c>
       <c r="L264" s="3"/>
       <c r="M264" s="3"/>
       <c r="N264" s="3"/>
@@ -22882,16 +26943,24 @@
       </c>
       <c r="C265" s="3">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="D265" s="3"/>
-      <c r="E265" s="3"/>
-      <c r="F265" s="3"/>
+        <v>36</v>
+      </c>
+      <c r="D265" s="3">
+        <v>3</v>
+      </c>
+      <c r="E265" s="3">
+        <v>9</v>
+      </c>
+      <c r="F265" s="3">
+        <v>16</v>
+      </c>
       <c r="G265" s="3"/>
       <c r="H265" s="3"/>
       <c r="I265" s="3"/>
       <c r="J265" s="3"/>
-      <c r="K265" s="3"/>
+      <c r="K265" s="3">
+        <v>8</v>
+      </c>
       <c r="L265" s="3"/>
       <c r="M265" s="3"/>
       <c r="N265" s="3"/>
@@ -22912,11 +26981,17 @@
       </c>
       <c r="C266" s="3">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="D266" s="3"/>
-      <c r="E266" s="3"/>
-      <c r="F266" s="3"/>
+        <v>39</v>
+      </c>
+      <c r="D266" s="3">
+        <v>3</v>
+      </c>
+      <c r="E266" s="3">
+        <v>14</v>
+      </c>
+      <c r="F266" s="3">
+        <v>22</v>
+      </c>
       <c r="G266" s="3"/>
       <c r="H266" s="3"/>
       <c r="I266" s="3"/>
@@ -22942,16 +27017,28 @@
       </c>
       <c r="C267" s="3">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="D267" s="3"/>
-      <c r="E267" s="3"/>
-      <c r="F267" s="3"/>
-      <c r="G267" s="3"/>
+        <v>61</v>
+      </c>
+      <c r="D267" s="3">
+        <v>3</v>
+      </c>
+      <c r="E267" s="3">
+        <v>14</v>
+      </c>
+      <c r="F267" s="3">
+        <v>12</v>
+      </c>
+      <c r="G267" s="3">
+        <v>10</v>
+      </c>
       <c r="H267" s="3"/>
-      <c r="I267" s="3"/>
+      <c r="I267" s="3">
+        <v>15</v>
+      </c>
       <c r="J267" s="3"/>
-      <c r="K267" s="3"/>
+      <c r="K267" s="3">
+        <v>7</v>
+      </c>
       <c r="L267" s="3"/>
       <c r="M267" s="3"/>
       <c r="N267" s="3"/>
@@ -22972,11 +27059,17 @@
       </c>
       <c r="C268" s="3">
         <f t="shared" si="7"/>
+        <v>17</v>
+      </c>
+      <c r="D268" s="3">
+        <v>5</v>
+      </c>
+      <c r="E268" s="3">
+        <v>12</v>
+      </c>
+      <c r="F268" s="3">
         <v>0</v>
       </c>
-      <c r="D268" s="3"/>
-      <c r="E268" s="3"/>
-      <c r="F268" s="3"/>
       <c r="G268" s="3"/>
       <c r="H268" s="3"/>
       <c r="I268" s="3"/>
@@ -23002,16 +27095,26 @@
       </c>
       <c r="C269" s="3">
         <f t="shared" si="7"/>
+        <v>193</v>
+      </c>
+      <c r="D269" s="3">
         <v>0</v>
       </c>
-      <c r="D269" s="3"/>
-      <c r="E269" s="3"/>
-      <c r="F269" s="3"/>
+      <c r="E269" s="3">
+        <v>0</v>
+      </c>
+      <c r="F269" s="3">
+        <v>44</v>
+      </c>
       <c r="G269" s="3"/>
-      <c r="H269" s="3"/>
+      <c r="H269" s="3">
+        <v>136</v>
+      </c>
       <c r="I269" s="3"/>
       <c r="J269" s="3"/>
-      <c r="K269" s="3"/>
+      <c r="K269" s="3">
+        <v>13</v>
+      </c>
       <c r="L269" s="3"/>
       <c r="M269" s="3"/>
       <c r="N269" s="3"/>
@@ -23032,16 +27135,26 @@
       </c>
       <c r="C270" s="3">
         <f t="shared" si="7"/>
+        <v>54</v>
+      </c>
+      <c r="D270" s="3">
         <v>0</v>
       </c>
-      <c r="D270" s="3"/>
-      <c r="E270" s="3"/>
-      <c r="F270" s="3"/>
+      <c r="E270" s="3">
+        <v>11</v>
+      </c>
+      <c r="F270" s="3">
+        <v>0</v>
+      </c>
       <c r="G270" s="3"/>
       <c r="H270" s="3"/>
-      <c r="I270" s="3"/>
+      <c r="I270" s="3">
+        <v>19</v>
+      </c>
       <c r="J270" s="3"/>
-      <c r="K270" s="3"/>
+      <c r="K270" s="3">
+        <v>24</v>
+      </c>
       <c r="L270" s="3"/>
       <c r="M270" s="3"/>
       <c r="N270" s="3"/>
@@ -23062,15 +27175,25 @@
       </c>
       <c r="C271" s="3">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="D271" s="3"/>
-      <c r="E271" s="3"/>
-      <c r="F271" s="3"/>
+        <v>112</v>
+      </c>
+      <c r="D271" s="3">
+        <v>4</v>
+      </c>
+      <c r="E271" s="3">
+        <v>16</v>
+      </c>
+      <c r="F271" s="3">
+        <v>12</v>
+      </c>
       <c r="G271" s="3"/>
       <c r="H271" s="3"/>
-      <c r="I271" s="3"/>
-      <c r="J271" s="3"/>
+      <c r="I271" s="3">
+        <v>40</v>
+      </c>
+      <c r="J271" s="3">
+        <v>40</v>
+      </c>
       <c r="K271" s="3"/>
       <c r="L271" s="3"/>
       <c r="M271" s="3"/>
@@ -23092,11 +27215,17 @@
       </c>
       <c r="C272" s="3">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="D272" s="3"/>
-      <c r="E272" s="3"/>
-      <c r="F272" s="3"/>
+        <v>28</v>
+      </c>
+      <c r="D272" s="3">
+        <v>3</v>
+      </c>
+      <c r="E272" s="3">
+        <v>15</v>
+      </c>
+      <c r="F272" s="3">
+        <v>10</v>
+      </c>
       <c r="G272" s="3"/>
       <c r="H272" s="3"/>
       <c r="I272" s="3"/>
@@ -23122,16 +27251,24 @@
       </c>
       <c r="C273" s="3">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="D273" s="3"/>
-      <c r="E273" s="3"/>
-      <c r="F273" s="3"/>
+        <v>43</v>
+      </c>
+      <c r="D273" s="3">
+        <v>4</v>
+      </c>
+      <c r="E273" s="3">
+        <v>14</v>
+      </c>
+      <c r="F273" s="3">
+        <v>17</v>
+      </c>
       <c r="G273" s="3"/>
       <c r="H273" s="3"/>
       <c r="I273" s="3"/>
       <c r="J273" s="3"/>
-      <c r="K273" s="3"/>
+      <c r="K273" s="3">
+        <v>8</v>
+      </c>
       <c r="L273" s="3"/>
       <c r="M273" s="3"/>
       <c r="N273" s="3"/>
@@ -23152,16 +27289,26 @@
       </c>
       <c r="C274" s="3">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="D274" s="3"/>
-      <c r="E274" s="3"/>
-      <c r="F274" s="3"/>
+        <v>49</v>
+      </c>
+      <c r="D274" s="3">
+        <v>3</v>
+      </c>
+      <c r="E274" s="3">
+        <v>12</v>
+      </c>
+      <c r="F274" s="3">
+        <v>14</v>
+      </c>
       <c r="G274" s="3"/>
       <c r="H274" s="3"/>
-      <c r="I274" s="3"/>
+      <c r="I274" s="3">
+        <v>10</v>
+      </c>
       <c r="J274" s="3"/>
-      <c r="K274" s="3"/>
+      <c r="K274" s="3">
+        <v>10</v>
+      </c>
       <c r="L274" s="3"/>
       <c r="M274" s="3"/>
       <c r="N274" s="3"/>
@@ -23182,16 +27329,24 @@
       </c>
       <c r="C275" s="3">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="D275" s="3"/>
-      <c r="E275" s="3"/>
-      <c r="F275" s="3"/>
+        <v>38</v>
+      </c>
+      <c r="D275" s="3">
+        <v>3</v>
+      </c>
+      <c r="E275" s="3">
+        <v>15</v>
+      </c>
+      <c r="F275" s="3">
+        <v>5</v>
+      </c>
       <c r="G275" s="3"/>
       <c r="H275" s="3"/>
       <c r="I275" s="3"/>
       <c r="J275" s="3"/>
-      <c r="K275" s="3"/>
+      <c r="K275" s="3">
+        <v>15</v>
+      </c>
       <c r="L275" s="3"/>
       <c r="M275" s="3"/>
       <c r="N275" s="3"/>
@@ -23212,16 +27367,28 @@
       </c>
       <c r="C276" s="3">
         <f t="shared" si="7"/>
+        <v>101</v>
+      </c>
+      <c r="D276" s="3">
         <v>0</v>
       </c>
-      <c r="D276" s="3"/>
-      <c r="E276" s="3"/>
-      <c r="F276" s="3"/>
+      <c r="E276" s="3">
+        <v>10</v>
+      </c>
+      <c r="F276" s="3">
+        <v>38</v>
+      </c>
       <c r="G276" s="3"/>
       <c r="H276" s="3"/>
-      <c r="I276" s="3"/>
-      <c r="J276" s="3"/>
-      <c r="K276" s="3"/>
+      <c r="I276" s="3">
+        <v>8</v>
+      </c>
+      <c r="J276" s="3">
+        <v>30</v>
+      </c>
+      <c r="K276" s="3">
+        <v>15</v>
+      </c>
       <c r="L276" s="3"/>
       <c r="M276" s="3"/>
       <c r="N276" s="3"/>
@@ -23242,16 +27409,30 @@
       </c>
       <c r="C277" s="3">
         <f t="shared" si="7"/>
+        <v>244</v>
+      </c>
+      <c r="D277" s="3">
         <v>0</v>
       </c>
-      <c r="D277" s="3"/>
-      <c r="E277" s="3"/>
-      <c r="F277" s="3"/>
+      <c r="E277" s="3">
+        <v>20</v>
+      </c>
+      <c r="F277" s="3">
+        <v>35</v>
+      </c>
       <c r="G277" s="3"/>
-      <c r="H277" s="3"/>
-      <c r="I277" s="3"/>
-      <c r="J277" s="3"/>
-      <c r="K277" s="3"/>
+      <c r="H277" s="3">
+        <v>125</v>
+      </c>
+      <c r="I277" s="3">
+        <v>10</v>
+      </c>
+      <c r="J277" s="3">
+        <v>37</v>
+      </c>
+      <c r="K277" s="3">
+        <v>17</v>
+      </c>
       <c r="L277" s="3"/>
       <c r="M277" s="3"/>
       <c r="N277" s="3"/>
@@ -23272,11 +27453,17 @@
       </c>
       <c r="C278" s="3">
         <f t="shared" si="7"/>
+        <v>31</v>
+      </c>
+      <c r="D278" s="3">
         <v>0</v>
       </c>
-      <c r="D278" s="3"/>
-      <c r="E278" s="3"/>
-      <c r="F278" s="3"/>
+      <c r="E278" s="3">
+        <v>12</v>
+      </c>
+      <c r="F278" s="3">
+        <v>19</v>
+      </c>
       <c r="G278" s="3"/>
       <c r="H278" s="3"/>
       <c r="I278" s="3"/>
@@ -23302,16 +27489,26 @@
       </c>
       <c r="C279" s="3">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="D279" s="3"/>
-      <c r="E279" s="3"/>
-      <c r="F279" s="3"/>
+        <v>79</v>
+      </c>
+      <c r="D279" s="3">
+        <v>3</v>
+      </c>
+      <c r="E279" s="3">
+        <v>12</v>
+      </c>
+      <c r="F279" s="3">
+        <v>14</v>
+      </c>
       <c r="G279" s="3"/>
       <c r="H279" s="3"/>
-      <c r="I279" s="3"/>
+      <c r="I279" s="3">
+        <v>40</v>
+      </c>
       <c r="J279" s="3"/>
-      <c r="K279" s="3"/>
+      <c r="K279" s="3">
+        <v>10</v>
+      </c>
       <c r="L279" s="3"/>
       <c r="M279" s="3"/>
       <c r="N279" s="3"/>
@@ -23332,16 +27529,26 @@
       </c>
       <c r="C280" s="3">
         <f t="shared" si="7"/>
+        <v>59</v>
+      </c>
+      <c r="D280" s="3">
+        <v>3</v>
+      </c>
+      <c r="E280" s="3">
+        <v>14</v>
+      </c>
+      <c r="F280" s="3">
         <v>0</v>
       </c>
-      <c r="D280" s="3"/>
-      <c r="E280" s="3"/>
-      <c r="F280" s="3"/>
       <c r="G280" s="3"/>
       <c r="H280" s="3"/>
-      <c r="I280" s="3"/>
+      <c r="I280" s="3">
+        <v>32</v>
+      </c>
       <c r="J280" s="3"/>
-      <c r="K280" s="3"/>
+      <c r="K280" s="3">
+        <v>10</v>
+      </c>
       <c r="L280" s="3"/>
       <c r="M280" s="3"/>
       <c r="N280" s="3"/>
@@ -23362,16 +27569,28 @@
       </c>
       <c r="C281" s="3">
         <f t="shared" si="7"/>
+        <v>62</v>
+      </c>
+      <c r="D281" s="3">
+        <v>3</v>
+      </c>
+      <c r="E281" s="3">
+        <v>14</v>
+      </c>
+      <c r="F281" s="3">
         <v>0</v>
       </c>
-      <c r="D281" s="3"/>
-      <c r="E281" s="3"/>
-      <c r="F281" s="3"/>
       <c r="G281" s="3"/>
-      <c r="H281" s="3"/>
-      <c r="I281" s="3"/>
+      <c r="H281" s="3">
+        <v>15</v>
+      </c>
+      <c r="I281" s="3">
+        <v>21</v>
+      </c>
       <c r="J281" s="3"/>
-      <c r="K281" s="3"/>
+      <c r="K281" s="3">
+        <v>9</v>
+      </c>
       <c r="L281" s="3"/>
       <c r="M281" s="3"/>
       <c r="N281" s="3"/>
@@ -23392,11 +27611,17 @@
       </c>
       <c r="C282" s="3">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="D282" s="3"/>
-      <c r="E282" s="3"/>
-      <c r="F282" s="3"/>
+        <v>30</v>
+      </c>
+      <c r="D282" s="3">
+        <v>3</v>
+      </c>
+      <c r="E282" s="3">
+        <v>20</v>
+      </c>
+      <c r="F282" s="3">
+        <v>7</v>
+      </c>
       <c r="G282" s="3"/>
       <c r="H282" s="3"/>
       <c r="I282" s="3"/>
@@ -23422,16 +27647,26 @@
       </c>
       <c r="C283" s="3">
         <f t="shared" si="7"/>
+        <v>163</v>
+      </c>
+      <c r="D283" s="3">
         <v>0</v>
       </c>
-      <c r="D283" s="3"/>
-      <c r="E283" s="3"/>
-      <c r="F283" s="3"/>
+      <c r="E283" s="3">
+        <v>25</v>
+      </c>
+      <c r="F283" s="3">
+        <v>0</v>
+      </c>
       <c r="G283" s="3"/>
-      <c r="H283" s="3"/>
+      <c r="H283" s="3">
+        <v>123</v>
+      </c>
       <c r="I283" s="3"/>
       <c r="J283" s="3"/>
-      <c r="K283" s="3"/>
+      <c r="K283" s="3">
+        <v>15</v>
+      </c>
       <c r="L283" s="3"/>
       <c r="M283" s="3"/>
       <c r="N283" s="3"/>
@@ -23452,16 +27687,26 @@
       </c>
       <c r="C284" s="3">
         <f t="shared" si="7"/>
+        <v>138</v>
+      </c>
+      <c r="D284" s="3">
         <v>0</v>
       </c>
-      <c r="D284" s="3"/>
-      <c r="E284" s="3"/>
-      <c r="F284" s="3"/>
+      <c r="E284" s="3">
+        <v>0</v>
+      </c>
+      <c r="F284" s="3">
+        <v>0</v>
+      </c>
       <c r="G284" s="3"/>
       <c r="H284" s="3"/>
       <c r="I284" s="3"/>
-      <c r="J284" s="3"/>
-      <c r="K284" s="3"/>
+      <c r="J284" s="3">
+        <v>116</v>
+      </c>
+      <c r="K284" s="3">
+        <v>22</v>
+      </c>
       <c r="L284" s="3"/>
       <c r="M284" s="3"/>
       <c r="N284" s="3"/>
@@ -23482,11 +27727,17 @@
       </c>
       <c r="C285" s="3">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="D285" s="3"/>
-      <c r="E285" s="3"/>
-      <c r="F285" s="3"/>
+        <v>30</v>
+      </c>
+      <c r="D285" s="3">
+        <v>3</v>
+      </c>
+      <c r="E285" s="3">
+        <v>15</v>
+      </c>
+      <c r="F285" s="3">
+        <v>12</v>
+      </c>
       <c r="G285" s="3"/>
       <c r="H285" s="3"/>
       <c r="I285" s="3"/>
@@ -23512,11 +27763,17 @@
       </c>
       <c r="C286" s="3">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="D286" s="3"/>
-      <c r="E286" s="3"/>
-      <c r="F286" s="3"/>
+        <v>29</v>
+      </c>
+      <c r="D286" s="3">
+        <v>3</v>
+      </c>
+      <c r="E286" s="3">
+        <v>12</v>
+      </c>
+      <c r="F286" s="3">
+        <v>14</v>
+      </c>
       <c r="G286" s="3"/>
       <c r="H286" s="3"/>
       <c r="I286" s="3"/>
@@ -23542,16 +27799,24 @@
       </c>
       <c r="C287" s="3">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="D287" s="3"/>
-      <c r="E287" s="3"/>
-      <c r="F287" s="3"/>
+        <v>48</v>
+      </c>
+      <c r="D287" s="3">
+        <v>3</v>
+      </c>
+      <c r="E287" s="3">
+        <v>18</v>
+      </c>
+      <c r="F287" s="3">
+        <v>14</v>
+      </c>
       <c r="G287" s="3"/>
       <c r="H287" s="3"/>
       <c r="I287" s="3"/>
       <c r="J287" s="3"/>
-      <c r="K287" s="3"/>
+      <c r="K287" s="3">
+        <v>13</v>
+      </c>
       <c r="L287" s="3"/>
       <c r="M287" s="3"/>
       <c r="N287" s="3"/>
@@ -23572,13 +27837,21 @@
       </c>
       <c r="C288" s="3">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="D288" s="3"/>
-      <c r="E288" s="3"/>
-      <c r="F288" s="3"/>
+        <v>73</v>
+      </c>
+      <c r="D288" s="3">
+        <v>3</v>
+      </c>
+      <c r="E288" s="3">
+        <v>16</v>
+      </c>
+      <c r="F288" s="3">
+        <v>16</v>
+      </c>
       <c r="G288" s="3"/>
-      <c r="H288" s="3"/>
+      <c r="H288" s="3">
+        <v>38</v>
+      </c>
       <c r="I288" s="3"/>
       <c r="J288" s="3"/>
       <c r="K288" s="3"/>
@@ -23602,7 +27875,7 @@
       </c>
       <c r="C289" s="6">
         <f>SUM(C258:C288)</f>
-        <v>848</v>
+        <v>4766</v>
       </c>
       <c r="D289" s="6"/>
       <c r="E289" s="6"/>
@@ -23626,6 +27899,4460 @@
       <c r="W289" s="6"/>
       <c r="X289" s="6"/>
     </row>
+    <row r="290" spans="2:24">
+      <c r="B290" s="4">
+        <v>42979</v>
+      </c>
+      <c r="C290" s="3">
+        <f t="shared" si="7"/>
+        <v>2642</v>
+      </c>
+      <c r="D290" s="3">
+        <v>9</v>
+      </c>
+      <c r="E290" s="3">
+        <v>14</v>
+      </c>
+      <c r="F290" s="3">
+        <v>500</v>
+      </c>
+      <c r="G290" s="3"/>
+      <c r="H290" s="3"/>
+      <c r="I290" s="3">
+        <v>6</v>
+      </c>
+      <c r="J290" s="3"/>
+      <c r="K290" s="3">
+        <v>13</v>
+      </c>
+      <c r="L290" s="3"/>
+      <c r="M290" s="3"/>
+      <c r="N290" s="3">
+        <v>2100</v>
+      </c>
+      <c r="O290" s="3"/>
+      <c r="P290" s="3"/>
+      <c r="Q290" s="3"/>
+      <c r="R290" s="3"/>
+      <c r="S290" s="3"/>
+      <c r="T290" s="3"/>
+      <c r="U290" s="3"/>
+      <c r="V290" s="3"/>
+      <c r="W290" s="3"/>
+      <c r="X290" s="3"/>
+    </row>
+    <row r="291" spans="2:24">
+      <c r="B291" s="4">
+        <v>42980</v>
+      </c>
+      <c r="C291" s="3">
+        <f t="shared" si="7"/>
+        <v>37</v>
+      </c>
+      <c r="D291" s="3">
+        <v>12</v>
+      </c>
+      <c r="E291" s="3">
+        <v>0</v>
+      </c>
+      <c r="F291" s="3">
+        <v>0</v>
+      </c>
+      <c r="G291" s="3"/>
+      <c r="H291" s="3">
+        <v>25</v>
+      </c>
+      <c r="I291" s="3"/>
+      <c r="J291" s="3"/>
+      <c r="K291" s="3"/>
+      <c r="L291" s="3"/>
+      <c r="M291" s="3"/>
+      <c r="N291" s="3"/>
+      <c r="O291" s="3"/>
+      <c r="P291" s="3"/>
+      <c r="Q291" s="3"/>
+      <c r="R291" s="3"/>
+      <c r="S291" s="3"/>
+      <c r="T291" s="3"/>
+      <c r="U291" s="3"/>
+      <c r="V291" s="3"/>
+      <c r="W291" s="3"/>
+      <c r="X291" s="3"/>
+    </row>
+    <row r="292" spans="2:24">
+      <c r="B292" s="4">
+        <v>42981</v>
+      </c>
+      <c r="C292" s="3">
+        <f t="shared" si="7"/>
+        <v>290</v>
+      </c>
+      <c r="D292" s="3">
+        <v>0</v>
+      </c>
+      <c r="E292" s="3">
+        <v>0</v>
+      </c>
+      <c r="F292" s="3">
+        <v>0</v>
+      </c>
+      <c r="G292" s="3"/>
+      <c r="H292" s="3">
+        <v>279</v>
+      </c>
+      <c r="I292" s="3">
+        <v>3</v>
+      </c>
+      <c r="J292" s="3"/>
+      <c r="K292" s="3">
+        <v>8</v>
+      </c>
+      <c r="L292" s="3"/>
+      <c r="M292" s="3"/>
+      <c r="N292" s="3"/>
+      <c r="O292" s="3"/>
+      <c r="P292" s="3"/>
+      <c r="Q292" s="3"/>
+      <c r="R292" s="3"/>
+      <c r="S292" s="3"/>
+      <c r="T292" s="3"/>
+      <c r="U292" s="3"/>
+      <c r="V292" s="3"/>
+      <c r="W292" s="3"/>
+      <c r="X292" s="3"/>
+    </row>
+    <row r="293" spans="2:24">
+      <c r="B293" s="4">
+        <v>42982</v>
+      </c>
+      <c r="C293" s="3">
+        <f t="shared" si="7"/>
+        <v>38</v>
+      </c>
+      <c r="D293" s="3">
+        <v>8</v>
+      </c>
+      <c r="E293" s="3">
+        <v>12</v>
+      </c>
+      <c r="F293" s="3">
+        <v>18</v>
+      </c>
+      <c r="G293" s="3"/>
+      <c r="H293" s="3"/>
+      <c r="I293" s="3"/>
+      <c r="J293" s="3"/>
+      <c r="K293" s="3"/>
+      <c r="L293" s="3"/>
+      <c r="M293" s="3"/>
+      <c r="N293" s="3"/>
+      <c r="O293" s="3"/>
+      <c r="P293" s="3"/>
+      <c r="Q293" s="3"/>
+      <c r="R293" s="3"/>
+      <c r="S293" s="3"/>
+      <c r="T293" s="3"/>
+      <c r="U293" s="3"/>
+      <c r="V293" s="3"/>
+      <c r="W293" s="3"/>
+      <c r="X293" s="3"/>
+    </row>
+    <row r="294" spans="2:24">
+      <c r="B294" s="4">
+        <v>42983</v>
+      </c>
+      <c r="C294" s="3">
+        <f t="shared" si="7"/>
+        <v>278</v>
+      </c>
+      <c r="D294" s="3">
+        <v>7</v>
+      </c>
+      <c r="E294" s="3">
+        <v>12</v>
+      </c>
+      <c r="F294" s="3">
+        <v>13</v>
+      </c>
+      <c r="G294" s="3"/>
+      <c r="H294" s="3">
+        <v>230</v>
+      </c>
+      <c r="I294" s="3"/>
+      <c r="J294" s="3"/>
+      <c r="K294" s="3">
+        <v>16</v>
+      </c>
+      <c r="L294" s="3"/>
+      <c r="M294" s="3"/>
+      <c r="N294" s="3"/>
+      <c r="O294" s="3"/>
+      <c r="P294" s="3"/>
+      <c r="Q294" s="3"/>
+      <c r="R294" s="3"/>
+      <c r="S294" s="3"/>
+      <c r="T294" s="3"/>
+      <c r="U294" s="3"/>
+      <c r="V294" s="3"/>
+      <c r="W294" s="3"/>
+      <c r="X294" s="3"/>
+    </row>
+    <row r="295" spans="2:24">
+      <c r="B295" s="4">
+        <v>42984</v>
+      </c>
+      <c r="C295" s="3">
+        <f t="shared" si="7"/>
+        <v>59</v>
+      </c>
+      <c r="D295" s="3">
+        <v>7</v>
+      </c>
+      <c r="E295" s="3">
+        <v>17</v>
+      </c>
+      <c r="F295" s="3">
+        <v>19</v>
+      </c>
+      <c r="G295" s="3"/>
+      <c r="H295" s="3"/>
+      <c r="I295" s="3"/>
+      <c r="J295" s="3"/>
+      <c r="K295" s="3">
+        <v>16</v>
+      </c>
+      <c r="L295" s="3"/>
+      <c r="M295" s="3"/>
+      <c r="N295" s="3"/>
+      <c r="O295" s="3"/>
+      <c r="P295" s="3"/>
+      <c r="Q295" s="3"/>
+      <c r="R295" s="3"/>
+      <c r="S295" s="3"/>
+      <c r="T295" s="3"/>
+      <c r="U295" s="3"/>
+      <c r="V295" s="3"/>
+      <c r="W295" s="3"/>
+      <c r="X295" s="3"/>
+    </row>
+    <row r="296" spans="2:24">
+      <c r="B296" s="4">
+        <v>42985</v>
+      </c>
+      <c r="C296" s="3">
+        <f t="shared" si="7"/>
+        <v>61</v>
+      </c>
+      <c r="D296" s="3">
+        <v>3</v>
+      </c>
+      <c r="E296" s="3">
+        <v>16</v>
+      </c>
+      <c r="F296" s="3">
+        <v>0</v>
+      </c>
+      <c r="G296" s="3"/>
+      <c r="H296" s="3"/>
+      <c r="I296" s="3">
+        <v>37</v>
+      </c>
+      <c r="J296" s="3"/>
+      <c r="K296" s="3">
+        <v>5</v>
+      </c>
+      <c r="L296" s="3"/>
+      <c r="M296" s="3"/>
+      <c r="N296" s="3"/>
+      <c r="O296" s="3"/>
+      <c r="P296" s="3"/>
+      <c r="Q296" s="3"/>
+      <c r="R296" s="3"/>
+      <c r="S296" s="3"/>
+      <c r="T296" s="3"/>
+      <c r="U296" s="3"/>
+      <c r="V296" s="3"/>
+      <c r="W296" s="3"/>
+      <c r="X296" s="3"/>
+    </row>
+    <row r="297" spans="2:24">
+      <c r="B297" s="4">
+        <v>42986</v>
+      </c>
+      <c r="C297" s="3">
+        <f t="shared" si="7"/>
+        <v>44</v>
+      </c>
+      <c r="D297" s="3">
+        <v>0</v>
+      </c>
+      <c r="E297" s="3">
+        <v>16</v>
+      </c>
+      <c r="F297" s="3">
+        <v>28</v>
+      </c>
+      <c r="G297" s="3"/>
+      <c r="H297" s="3"/>
+      <c r="I297" s="3"/>
+      <c r="J297" s="3"/>
+      <c r="K297" s="3"/>
+      <c r="L297" s="3"/>
+      <c r="M297" s="3"/>
+      <c r="N297" s="3"/>
+      <c r="O297" s="3"/>
+      <c r="P297" s="3"/>
+      <c r="Q297" s="3"/>
+      <c r="R297" s="3"/>
+      <c r="S297" s="3"/>
+      <c r="T297" s="3"/>
+      <c r="U297" s="3"/>
+      <c r="V297" s="3"/>
+      <c r="W297" s="3"/>
+      <c r="X297" s="3"/>
+    </row>
+    <row r="298" spans="2:24">
+      <c r="B298" s="4">
+        <v>42987</v>
+      </c>
+      <c r="C298" s="3">
+        <f t="shared" si="7"/>
+        <v>308</v>
+      </c>
+      <c r="D298" s="3">
+        <v>0</v>
+      </c>
+      <c r="E298" s="3">
+        <v>0</v>
+      </c>
+      <c r="F298" s="3">
+        <v>0</v>
+      </c>
+      <c r="G298" s="3">
+        <v>225</v>
+      </c>
+      <c r="H298" s="3"/>
+      <c r="I298" s="3">
+        <v>13</v>
+      </c>
+      <c r="J298" s="3">
+        <v>70</v>
+      </c>
+      <c r="K298" s="3"/>
+      <c r="L298" s="3"/>
+      <c r="M298" s="3"/>
+      <c r="N298" s="3"/>
+      <c r="O298" s="3"/>
+      <c r="P298" s="3"/>
+      <c r="Q298" s="3"/>
+      <c r="R298" s="3"/>
+      <c r="S298" s="3"/>
+      <c r="T298" s="3"/>
+      <c r="U298" s="3"/>
+      <c r="V298" s="3"/>
+      <c r="W298" s="3"/>
+      <c r="X298" s="3"/>
+    </row>
+    <row r="299" spans="2:24">
+      <c r="B299" s="4">
+        <v>42988</v>
+      </c>
+      <c r="C299" s="3">
+        <f t="shared" si="7"/>
+        <v>1226</v>
+      </c>
+      <c r="D299" s="3">
+        <v>0</v>
+      </c>
+      <c r="E299" s="3">
+        <v>0</v>
+      </c>
+      <c r="F299" s="3">
+        <v>217</v>
+      </c>
+      <c r="G299" s="3"/>
+      <c r="H299" s="3">
+        <v>9</v>
+      </c>
+      <c r="I299" s="3"/>
+      <c r="J299" s="3"/>
+      <c r="K299" s="3"/>
+      <c r="L299" s="3"/>
+      <c r="M299" s="3"/>
+      <c r="N299" s="3"/>
+      <c r="O299" s="3"/>
+      <c r="P299" s="3"/>
+      <c r="Q299" s="3"/>
+      <c r="R299" s="3">
+        <v>1000</v>
+      </c>
+      <c r="S299" s="3"/>
+      <c r="T299" s="3"/>
+      <c r="U299" s="3"/>
+      <c r="V299" s="3"/>
+      <c r="W299" s="3"/>
+      <c r="X299" s="3"/>
+    </row>
+    <row r="300" spans="2:24">
+      <c r="B300" s="4">
+        <v>42989</v>
+      </c>
+      <c r="C300" s="3">
+        <f t="shared" si="7"/>
+        <v>737</v>
+      </c>
+      <c r="D300" s="3">
+        <v>5</v>
+      </c>
+      <c r="E300" s="3">
+        <v>13</v>
+      </c>
+      <c r="F300" s="3">
+        <v>44</v>
+      </c>
+      <c r="G300" s="3">
+        <v>627</v>
+      </c>
+      <c r="H300" s="3">
+        <v>12</v>
+      </c>
+      <c r="I300" s="3">
+        <v>36</v>
+      </c>
+      <c r="J300" s="3"/>
+      <c r="K300" s="3"/>
+      <c r="L300" s="3"/>
+      <c r="M300" s="3"/>
+      <c r="N300" s="3"/>
+      <c r="O300" s="3"/>
+      <c r="P300" s="3"/>
+      <c r="Q300" s="3"/>
+      <c r="R300" s="3"/>
+      <c r="S300" s="3"/>
+      <c r="T300" s="3"/>
+      <c r="U300" s="3"/>
+      <c r="V300" s="3"/>
+      <c r="W300" s="3"/>
+      <c r="X300" s="3"/>
+    </row>
+    <row r="301" spans="2:24">
+      <c r="B301" s="4">
+        <v>42990</v>
+      </c>
+      <c r="C301" s="3">
+        <f t="shared" si="7"/>
+        <v>36</v>
+      </c>
+      <c r="D301" s="3">
+        <v>5</v>
+      </c>
+      <c r="E301" s="3">
+        <v>16</v>
+      </c>
+      <c r="F301" s="3">
+        <v>0</v>
+      </c>
+      <c r="G301" s="3"/>
+      <c r="H301" s="3"/>
+      <c r="I301" s="3">
+        <v>3</v>
+      </c>
+      <c r="J301" s="3"/>
+      <c r="K301" s="3">
+        <v>12</v>
+      </c>
+      <c r="L301" s="3"/>
+      <c r="M301" s="3"/>
+      <c r="N301" s="3"/>
+      <c r="O301" s="3"/>
+      <c r="P301" s="3"/>
+      <c r="Q301" s="3"/>
+      <c r="R301" s="3"/>
+      <c r="S301" s="3"/>
+      <c r="T301" s="3"/>
+      <c r="U301" s="3"/>
+      <c r="V301" s="3"/>
+      <c r="W301" s="3"/>
+      <c r="X301" s="3"/>
+    </row>
+    <row r="302" spans="2:24">
+      <c r="B302" s="4">
+        <v>42991</v>
+      </c>
+      <c r="C302" s="3">
+        <f t="shared" si="7"/>
+        <v>19</v>
+      </c>
+      <c r="D302" s="3">
+        <v>3</v>
+      </c>
+      <c r="E302" s="3">
+        <v>16</v>
+      </c>
+      <c r="F302" s="3">
+        <v>0</v>
+      </c>
+      <c r="G302" s="3"/>
+      <c r="H302" s="3"/>
+      <c r="I302" s="3"/>
+      <c r="J302" s="3"/>
+      <c r="K302" s="3"/>
+      <c r="L302" s="3"/>
+      <c r="M302" s="3"/>
+      <c r="N302" s="3"/>
+      <c r="O302" s="3"/>
+      <c r="P302" s="3"/>
+      <c r="Q302" s="3"/>
+      <c r="R302" s="3"/>
+      <c r="S302" s="3"/>
+      <c r="T302" s="3"/>
+      <c r="U302" s="3"/>
+      <c r="V302" s="3"/>
+      <c r="W302" s="3"/>
+      <c r="X302" s="3"/>
+    </row>
+    <row r="303" spans="2:24">
+      <c r="B303" s="4">
+        <v>42992</v>
+      </c>
+      <c r="C303" s="3">
+        <f t="shared" si="7"/>
+        <v>1612</v>
+      </c>
+      <c r="D303" s="3">
+        <v>11</v>
+      </c>
+      <c r="E303" s="3">
+        <v>16</v>
+      </c>
+      <c r="F303" s="3">
+        <v>15</v>
+      </c>
+      <c r="G303" s="3"/>
+      <c r="H303" s="3"/>
+      <c r="I303" s="3"/>
+      <c r="J303" s="3"/>
+      <c r="K303" s="3"/>
+      <c r="L303" s="3"/>
+      <c r="M303" s="3">
+        <v>1570</v>
+      </c>
+      <c r="N303" s="3"/>
+      <c r="O303" s="3"/>
+      <c r="P303" s="3"/>
+      <c r="Q303" s="3"/>
+      <c r="R303" s="3"/>
+      <c r="S303" s="3"/>
+      <c r="T303" s="3"/>
+      <c r="U303" s="3"/>
+      <c r="V303" s="3"/>
+      <c r="W303" s="3"/>
+      <c r="X303" s="3"/>
+    </row>
+    <row r="304" spans="2:24">
+      <c r="B304" s="4">
+        <v>42993</v>
+      </c>
+      <c r="C304" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="D304" s="3">
+        <v>0</v>
+      </c>
+      <c r="E304" s="3">
+        <v>0</v>
+      </c>
+      <c r="F304" s="3">
+        <v>0</v>
+      </c>
+      <c r="G304" s="3"/>
+      <c r="H304" s="3"/>
+      <c r="I304" s="3"/>
+      <c r="J304" s="3"/>
+      <c r="K304" s="3"/>
+      <c r="L304" s="3"/>
+      <c r="M304" s="3"/>
+      <c r="N304" s="3"/>
+      <c r="O304" s="3"/>
+      <c r="P304" s="3"/>
+      <c r="Q304" s="3"/>
+      <c r="R304" s="3"/>
+      <c r="S304" s="3"/>
+      <c r="T304" s="3"/>
+      <c r="U304" s="3"/>
+      <c r="V304" s="3"/>
+      <c r="W304" s="3"/>
+      <c r="X304" s="3"/>
+    </row>
+    <row r="305" spans="2:24">
+      <c r="B305" s="4">
+        <v>42994</v>
+      </c>
+      <c r="C305" s="3">
+        <f t="shared" si="7"/>
+        <v>8910</v>
+      </c>
+      <c r="D305" s="3">
+        <v>0</v>
+      </c>
+      <c r="E305" s="3">
+        <v>0</v>
+      </c>
+      <c r="F305" s="3">
+        <v>25</v>
+      </c>
+      <c r="G305" s="3"/>
+      <c r="H305" s="3">
+        <v>588</v>
+      </c>
+      <c r="I305" s="3"/>
+      <c r="J305" s="3"/>
+      <c r="K305" s="3"/>
+      <c r="L305" s="3"/>
+      <c r="M305" s="3"/>
+      <c r="N305" s="3"/>
+      <c r="O305" s="3"/>
+      <c r="P305" s="3"/>
+      <c r="Q305" s="3"/>
+      <c r="R305" s="3">
+        <v>8297</v>
+      </c>
+      <c r="S305" s="3"/>
+      <c r="T305" s="3"/>
+      <c r="U305" s="3"/>
+      <c r="V305" s="3"/>
+      <c r="W305" s="3"/>
+      <c r="X305" s="3"/>
+    </row>
+    <row r="306" spans="2:24">
+      <c r="B306" s="4">
+        <v>42995</v>
+      </c>
+      <c r="C306" s="3">
+        <f t="shared" si="7"/>
+        <v>62</v>
+      </c>
+      <c r="D306" s="3">
+        <v>0</v>
+      </c>
+      <c r="E306" s="3">
+        <v>18</v>
+      </c>
+      <c r="F306" s="3">
+        <v>44</v>
+      </c>
+      <c r="G306" s="3"/>
+      <c r="H306" s="3"/>
+      <c r="I306" s="3"/>
+      <c r="J306" s="3"/>
+      <c r="K306" s="3"/>
+      <c r="L306" s="3"/>
+      <c r="M306" s="3"/>
+      <c r="N306" s="3"/>
+      <c r="O306" s="3"/>
+      <c r="P306" s="3"/>
+      <c r="Q306" s="3"/>
+      <c r="R306" s="3"/>
+      <c r="S306" s="3"/>
+      <c r="T306" s="3"/>
+      <c r="U306" s="3"/>
+      <c r="V306" s="3"/>
+      <c r="W306" s="3"/>
+      <c r="X306" s="3"/>
+    </row>
+    <row r="307" spans="2:24">
+      <c r="B307" s="4">
+        <v>42996</v>
+      </c>
+      <c r="C307" s="3">
+        <f t="shared" si="7"/>
+        <v>2059</v>
+      </c>
+      <c r="D307" s="3">
+        <v>0</v>
+      </c>
+      <c r="E307" s="3">
+        <v>0</v>
+      </c>
+      <c r="F307" s="3">
+        <v>0</v>
+      </c>
+      <c r="G307" s="3">
+        <v>136</v>
+      </c>
+      <c r="H307" s="3">
+        <v>1923</v>
+      </c>
+      <c r="I307" s="3"/>
+      <c r="J307" s="3"/>
+      <c r="K307" s="3"/>
+      <c r="L307" s="3"/>
+      <c r="M307" s="3"/>
+      <c r="N307" s="3"/>
+      <c r="O307" s="3"/>
+      <c r="P307" s="3"/>
+      <c r="Q307" s="3"/>
+      <c r="R307" s="3"/>
+      <c r="S307" s="3"/>
+      <c r="T307" s="3"/>
+      <c r="U307" s="3"/>
+      <c r="V307" s="3"/>
+      <c r="W307" s="3"/>
+      <c r="X307" s="3"/>
+    </row>
+    <row r="308" spans="2:24">
+      <c r="B308" s="4">
+        <v>42997</v>
+      </c>
+      <c r="C308" s="3">
+        <f t="shared" si="7"/>
+        <v>5791</v>
+      </c>
+      <c r="D308" s="3">
+        <v>5</v>
+      </c>
+      <c r="E308" s="3">
+        <v>12</v>
+      </c>
+      <c r="F308" s="3">
+        <v>0</v>
+      </c>
+      <c r="G308" s="3">
+        <v>286</v>
+      </c>
+      <c r="H308" s="3"/>
+      <c r="I308" s="3"/>
+      <c r="J308" s="3"/>
+      <c r="K308" s="3"/>
+      <c r="L308" s="3"/>
+      <c r="M308" s="3"/>
+      <c r="N308" s="3"/>
+      <c r="O308" s="3"/>
+      <c r="P308" s="3"/>
+      <c r="Q308" s="3"/>
+      <c r="R308" s="3">
+        <v>5488</v>
+      </c>
+      <c r="S308" s="3"/>
+      <c r="T308" s="3"/>
+      <c r="U308" s="3"/>
+      <c r="V308" s="3"/>
+      <c r="W308" s="3"/>
+      <c r="X308" s="3"/>
+    </row>
+    <row r="309" spans="2:24">
+      <c r="B309" s="4">
+        <v>42998</v>
+      </c>
+      <c r="C309" s="3">
+        <f t="shared" si="7"/>
+        <v>47</v>
+      </c>
+      <c r="D309" s="3">
+        <v>0</v>
+      </c>
+      <c r="E309" s="3">
+        <v>12</v>
+      </c>
+      <c r="F309" s="3">
+        <v>0</v>
+      </c>
+      <c r="G309" s="3">
+        <v>35</v>
+      </c>
+      <c r="H309" s="3"/>
+      <c r="I309" s="3"/>
+      <c r="J309" s="3"/>
+      <c r="K309" s="3"/>
+      <c r="L309" s="3"/>
+      <c r="M309" s="3"/>
+      <c r="N309" s="3"/>
+      <c r="O309" s="3"/>
+      <c r="P309" s="3"/>
+      <c r="Q309" s="3"/>
+      <c r="R309" s="3"/>
+      <c r="S309" s="3"/>
+      <c r="T309" s="3"/>
+      <c r="U309" s="3"/>
+      <c r="V309" s="3"/>
+      <c r="W309" s="3"/>
+      <c r="X309" s="3"/>
+    </row>
+    <row r="310" spans="2:24">
+      <c r="B310" s="4">
+        <v>42999</v>
+      </c>
+      <c r="C310" s="3">
+        <f t="shared" si="7"/>
+        <v>41</v>
+      </c>
+      <c r="D310" s="3">
+        <v>6</v>
+      </c>
+      <c r="E310" s="3">
+        <v>0</v>
+      </c>
+      <c r="F310" s="3">
+        <v>0</v>
+      </c>
+      <c r="G310" s="3">
+        <v>35</v>
+      </c>
+      <c r="H310" s="3"/>
+      <c r="I310" s="3"/>
+      <c r="J310" s="3"/>
+      <c r="K310" s="3"/>
+      <c r="L310" s="3"/>
+      <c r="M310" s="3"/>
+      <c r="N310" s="3"/>
+      <c r="O310" s="3"/>
+      <c r="P310" s="3"/>
+      <c r="Q310" s="3"/>
+      <c r="R310" s="3"/>
+      <c r="S310" s="3"/>
+      <c r="T310" s="3"/>
+      <c r="U310" s="3"/>
+      <c r="V310" s="3"/>
+      <c r="W310" s="3"/>
+      <c r="X310" s="3"/>
+    </row>
+    <row r="311" spans="2:24">
+      <c r="B311" s="4">
+        <v>43000</v>
+      </c>
+      <c r="C311" s="3">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+      <c r="D311" s="3">
+        <v>5</v>
+      </c>
+      <c r="E311" s="3">
+        <v>0</v>
+      </c>
+      <c r="F311" s="3">
+        <v>0</v>
+      </c>
+      <c r="G311" s="3"/>
+      <c r="H311" s="3"/>
+      <c r="I311" s="3"/>
+      <c r="J311" s="3"/>
+      <c r="K311" s="3"/>
+      <c r="L311" s="3"/>
+      <c r="M311" s="3"/>
+      <c r="N311" s="3"/>
+      <c r="O311" s="3"/>
+      <c r="P311" s="3"/>
+      <c r="Q311" s="3"/>
+      <c r="R311" s="3"/>
+      <c r="S311" s="3"/>
+      <c r="T311" s="3"/>
+      <c r="U311" s="3"/>
+      <c r="V311" s="3"/>
+      <c r="W311" s="3"/>
+      <c r="X311" s="3"/>
+    </row>
+    <row r="312" spans="2:24">
+      <c r="B312" s="4">
+        <v>43001</v>
+      </c>
+      <c r="C312" s="3">
+        <f t="shared" si="7"/>
+        <v>91</v>
+      </c>
+      <c r="D312" s="3">
+        <v>5</v>
+      </c>
+      <c r="E312" s="3">
+        <v>28</v>
+      </c>
+      <c r="F312" s="3">
+        <v>0</v>
+      </c>
+      <c r="G312" s="3">
+        <v>10</v>
+      </c>
+      <c r="H312" s="3">
+        <v>20</v>
+      </c>
+      <c r="I312" s="3">
+        <v>28</v>
+      </c>
+      <c r="J312" s="3"/>
+      <c r="K312" s="3"/>
+      <c r="L312" s="3"/>
+      <c r="M312" s="3"/>
+      <c r="N312" s="3"/>
+      <c r="O312" s="3"/>
+      <c r="P312" s="3"/>
+      <c r="Q312" s="3"/>
+      <c r="R312" s="3"/>
+      <c r="S312" s="3"/>
+      <c r="T312" s="3"/>
+      <c r="U312" s="3"/>
+      <c r="V312" s="3"/>
+      <c r="W312" s="3"/>
+      <c r="X312" s="3"/>
+    </row>
+    <row r="313" spans="2:24">
+      <c r="B313" s="4">
+        <v>43002</v>
+      </c>
+      <c r="C313" s="3">
+        <f t="shared" si="7"/>
+        <v>248</v>
+      </c>
+      <c r="D313" s="3">
+        <v>5</v>
+      </c>
+      <c r="E313" s="3">
+        <v>15</v>
+      </c>
+      <c r="F313" s="3">
+        <v>0</v>
+      </c>
+      <c r="G313" s="3">
+        <v>205</v>
+      </c>
+      <c r="H313" s="3">
+        <v>23</v>
+      </c>
+      <c r="I313" s="3"/>
+      <c r="J313" s="3"/>
+      <c r="K313" s="3"/>
+      <c r="L313" s="3"/>
+      <c r="M313" s="3"/>
+      <c r="N313" s="3"/>
+      <c r="O313" s="3"/>
+      <c r="P313" s="3"/>
+      <c r="Q313" s="3"/>
+      <c r="R313" s="3"/>
+      <c r="S313" s="3"/>
+      <c r="T313" s="3"/>
+      <c r="U313" s="3"/>
+      <c r="V313" s="3"/>
+      <c r="W313" s="3"/>
+      <c r="X313" s="3"/>
+    </row>
+    <row r="314" spans="2:24">
+      <c r="B314" s="4">
+        <v>43003</v>
+      </c>
+      <c r="C314" s="3">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+      <c r="D314" s="3">
+        <v>0</v>
+      </c>
+      <c r="E314" s="3">
+        <v>10</v>
+      </c>
+      <c r="F314" s="3">
+        <v>0</v>
+      </c>
+      <c r="G314" s="3"/>
+      <c r="H314" s="3"/>
+      <c r="I314" s="3"/>
+      <c r="J314" s="3"/>
+      <c r="K314" s="3"/>
+      <c r="L314" s="3"/>
+      <c r="M314" s="3"/>
+      <c r="N314" s="3"/>
+      <c r="O314" s="3"/>
+      <c r="P314" s="3"/>
+      <c r="Q314" s="3"/>
+      <c r="R314" s="3"/>
+      <c r="S314" s="3"/>
+      <c r="T314" s="3"/>
+      <c r="U314" s="3"/>
+      <c r="V314" s="3"/>
+      <c r="W314" s="3"/>
+      <c r="X314" s="3"/>
+    </row>
+    <row r="315" spans="2:24">
+      <c r="B315" s="4">
+        <v>43004</v>
+      </c>
+      <c r="C315" s="3">
+        <f t="shared" si="7"/>
+        <v>64</v>
+      </c>
+      <c r="D315" s="3">
+        <v>6</v>
+      </c>
+      <c r="E315" s="3">
+        <v>12</v>
+      </c>
+      <c r="F315" s="3">
+        <v>12</v>
+      </c>
+      <c r="G315" s="3"/>
+      <c r="H315" s="3"/>
+      <c r="I315" s="3">
+        <v>34</v>
+      </c>
+      <c r="J315" s="3"/>
+      <c r="K315" s="3"/>
+      <c r="L315" s="3"/>
+      <c r="M315" s="3"/>
+      <c r="N315" s="3"/>
+      <c r="O315" s="3"/>
+      <c r="P315" s="3"/>
+      <c r="Q315" s="3"/>
+      <c r="R315" s="3"/>
+      <c r="S315" s="3"/>
+      <c r="T315" s="3"/>
+      <c r="U315" s="3"/>
+      <c r="V315" s="3"/>
+      <c r="W315" s="3"/>
+      <c r="X315" s="3"/>
+    </row>
+    <row r="316" spans="2:24">
+      <c r="B316" s="4">
+        <v>43005</v>
+      </c>
+      <c r="C316" s="3">
+        <f t="shared" si="7"/>
+        <v>3865</v>
+      </c>
+      <c r="D316" s="3">
+        <v>5</v>
+      </c>
+      <c r="E316" s="3">
+        <v>12</v>
+      </c>
+      <c r="F316" s="3">
+        <v>0</v>
+      </c>
+      <c r="G316" s="3"/>
+      <c r="H316" s="3"/>
+      <c r="I316" s="3"/>
+      <c r="J316" s="3"/>
+      <c r="K316" s="3"/>
+      <c r="L316" s="3"/>
+      <c r="M316" s="3"/>
+      <c r="N316" s="3"/>
+      <c r="O316" s="3"/>
+      <c r="P316" s="3"/>
+      <c r="Q316" s="3"/>
+      <c r="R316" s="3">
+        <v>3848</v>
+      </c>
+      <c r="S316" s="3"/>
+      <c r="T316" s="3"/>
+      <c r="U316" s="3"/>
+      <c r="V316" s="3"/>
+      <c r="W316" s="3"/>
+      <c r="X316" s="3"/>
+    </row>
+    <row r="317" spans="2:24">
+      <c r="B317" s="4">
+        <v>43006</v>
+      </c>
+      <c r="C317" s="3">
+        <f t="shared" si="7"/>
+        <v>18</v>
+      </c>
+      <c r="D317" s="3">
+        <v>6</v>
+      </c>
+      <c r="E317" s="3">
+        <v>12</v>
+      </c>
+      <c r="F317" s="3">
+        <v>0</v>
+      </c>
+      <c r="G317" s="3"/>
+      <c r="H317" s="3"/>
+      <c r="I317" s="3"/>
+      <c r="J317" s="3"/>
+      <c r="K317" s="3"/>
+      <c r="L317" s="3"/>
+      <c r="M317" s="3"/>
+      <c r="N317" s="3"/>
+      <c r="O317" s="3"/>
+      <c r="P317" s="3"/>
+      <c r="Q317" s="3"/>
+      <c r="R317" s="3"/>
+      <c r="S317" s="3"/>
+      <c r="T317" s="3"/>
+      <c r="U317" s="3"/>
+      <c r="V317" s="3"/>
+      <c r="W317" s="3"/>
+      <c r="X317" s="3"/>
+    </row>
+    <row r="318" spans="2:24">
+      <c r="B318" s="4">
+        <v>43007</v>
+      </c>
+      <c r="C318" s="3">
+        <f t="shared" si="7"/>
+        <v>12</v>
+      </c>
+      <c r="D318" s="3">
+        <v>0</v>
+      </c>
+      <c r="E318" s="3">
+        <v>12</v>
+      </c>
+      <c r="F318" s="3">
+        <v>0</v>
+      </c>
+      <c r="G318" s="3"/>
+      <c r="H318" s="3"/>
+      <c r="I318" s="3"/>
+      <c r="J318" s="3"/>
+      <c r="K318" s="3"/>
+      <c r="L318" s="3"/>
+      <c r="M318" s="3"/>
+      <c r="N318" s="3"/>
+      <c r="O318" s="3"/>
+      <c r="P318" s="3"/>
+      <c r="Q318" s="3"/>
+      <c r="R318" s="3"/>
+      <c r="S318" s="3"/>
+      <c r="T318" s="3"/>
+      <c r="U318" s="3"/>
+      <c r="V318" s="3"/>
+      <c r="W318" s="3"/>
+      <c r="X318" s="3"/>
+    </row>
+    <row r="319" spans="2:24">
+      <c r="B319" s="4">
+        <v>43008</v>
+      </c>
+      <c r="C319" s="3">
+        <f t="shared" si="7"/>
+        <v>176</v>
+      </c>
+      <c r="D319" s="3">
+        <v>0</v>
+      </c>
+      <c r="E319" s="3">
+        <v>42</v>
+      </c>
+      <c r="F319" s="3">
+        <v>26</v>
+      </c>
+      <c r="G319" s="3"/>
+      <c r="H319" s="3">
+        <v>60</v>
+      </c>
+      <c r="I319" s="3">
+        <v>13</v>
+      </c>
+      <c r="J319" s="3"/>
+      <c r="K319" s="3">
+        <v>35</v>
+      </c>
+      <c r="L319" s="3"/>
+      <c r="M319" s="3"/>
+      <c r="N319" s="3"/>
+      <c r="O319" s="3"/>
+      <c r="P319" s="3"/>
+      <c r="Q319" s="3"/>
+      <c r="R319" s="3"/>
+      <c r="S319" s="3"/>
+      <c r="T319" s="3"/>
+      <c r="U319" s="3"/>
+      <c r="V319" s="3"/>
+      <c r="W319" s="3"/>
+      <c r="X319" s="3"/>
+    </row>
+    <row r="320" spans="2:24">
+      <c r="B320" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C320" s="6">
+        <f>SUM(C290:C319)</f>
+        <v>28786</v>
+      </c>
+      <c r="D320" s="6"/>
+      <c r="E320" s="6"/>
+      <c r="F320" s="6"/>
+      <c r="G320" s="6"/>
+      <c r="H320" s="6"/>
+      <c r="I320" s="6"/>
+      <c r="J320" s="6"/>
+      <c r="K320" s="6"/>
+      <c r="L320" s="6"/>
+      <c r="M320" s="6"/>
+      <c r="N320" s="6"/>
+      <c r="O320" s="6"/>
+      <c r="P320" s="6"/>
+      <c r="Q320" s="6"/>
+      <c r="R320" s="6"/>
+      <c r="S320" s="6"/>
+      <c r="T320" s="6"/>
+      <c r="U320" s="6"/>
+      <c r="V320" s="6"/>
+      <c r="W320" s="6"/>
+      <c r="X320" s="6"/>
+    </row>
+    <row r="321" spans="2:24">
+      <c r="B321" s="4">
+        <v>43009</v>
+      </c>
+      <c r="C321" s="3">
+        <f t="shared" ref="C321:C352" si="8">SUM(D321:CN321)</f>
+        <v>0</v>
+      </c>
+      <c r="D321" s="3">
+        <v>0</v>
+      </c>
+      <c r="E321" s="3">
+        <v>0</v>
+      </c>
+      <c r="F321" s="3">
+        <v>0</v>
+      </c>
+      <c r="G321" s="3"/>
+      <c r="H321" s="3"/>
+      <c r="I321" s="3"/>
+      <c r="J321" s="3"/>
+      <c r="K321" s="3"/>
+      <c r="L321" s="3"/>
+      <c r="M321" s="3"/>
+      <c r="N321" s="3"/>
+      <c r="O321" s="3"/>
+      <c r="P321" s="3"/>
+      <c r="Q321" s="3"/>
+      <c r="R321" s="3"/>
+      <c r="S321" s="3"/>
+      <c r="T321" s="3"/>
+      <c r="U321" s="3"/>
+      <c r="V321" s="3"/>
+      <c r="W321" s="3"/>
+      <c r="X321" s="3"/>
+    </row>
+    <row r="322" spans="2:24">
+      <c r="B322" s="4">
+        <v>43010</v>
+      </c>
+      <c r="C322" s="3">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="D322" s="3">
+        <v>0</v>
+      </c>
+      <c r="E322" s="3">
+        <v>0</v>
+      </c>
+      <c r="F322" s="3">
+        <v>0</v>
+      </c>
+      <c r="G322" s="3"/>
+      <c r="H322" s="3"/>
+      <c r="I322" s="3"/>
+      <c r="J322" s="3"/>
+      <c r="K322" s="3"/>
+      <c r="L322" s="3"/>
+      <c r="M322" s="3"/>
+      <c r="N322" s="3"/>
+      <c r="O322" s="3"/>
+      <c r="P322" s="3"/>
+      <c r="Q322" s="3"/>
+      <c r="R322" s="3"/>
+      <c r="S322" s="3"/>
+      <c r="T322" s="3"/>
+      <c r="U322" s="3"/>
+      <c r="V322" s="3"/>
+      <c r="W322" s="3"/>
+      <c r="X322" s="3"/>
+    </row>
+    <row r="323" spans="2:24">
+      <c r="B323" s="4">
+        <v>43011</v>
+      </c>
+      <c r="C323" s="3">
+        <f t="shared" si="8"/>
+        <v>697</v>
+      </c>
+      <c r="D323" s="3">
+        <v>0</v>
+      </c>
+      <c r="E323" s="3">
+        <v>0</v>
+      </c>
+      <c r="F323" s="3">
+        <v>0</v>
+      </c>
+      <c r="G323" s="3"/>
+      <c r="H323" s="3"/>
+      <c r="I323" s="3"/>
+      <c r="J323" s="3"/>
+      <c r="K323" s="3"/>
+      <c r="L323" s="3"/>
+      <c r="M323" s="3"/>
+      <c r="N323" s="3">
+        <v>697</v>
+      </c>
+      <c r="O323" s="3"/>
+      <c r="P323" s="3"/>
+      <c r="Q323" s="3"/>
+      <c r="R323" s="3"/>
+      <c r="S323" s="3"/>
+      <c r="T323" s="3"/>
+      <c r="U323" s="3"/>
+      <c r="V323" s="3"/>
+      <c r="W323" s="3"/>
+      <c r="X323" s="3"/>
+    </row>
+    <row r="324" spans="2:24">
+      <c r="B324" s="4">
+        <v>43012</v>
+      </c>
+      <c r="C324" s="3">
+        <f t="shared" si="8"/>
+        <v>1049</v>
+      </c>
+      <c r="D324" s="3">
+        <v>0</v>
+      </c>
+      <c r="E324" s="3">
+        <v>0</v>
+      </c>
+      <c r="F324" s="3">
+        <v>49</v>
+      </c>
+      <c r="G324" s="3">
+        <v>900</v>
+      </c>
+      <c r="H324" s="3">
+        <v>100</v>
+      </c>
+      <c r="I324" s="3"/>
+      <c r="J324" s="3"/>
+      <c r="K324" s="3"/>
+      <c r="L324" s="3"/>
+      <c r="M324" s="3"/>
+      <c r="N324" s="3"/>
+      <c r="O324" s="3"/>
+      <c r="P324" s="3"/>
+      <c r="Q324" s="3"/>
+      <c r="R324" s="3"/>
+      <c r="S324" s="3"/>
+      <c r="T324" s="3"/>
+      <c r="U324" s="3"/>
+      <c r="V324" s="3"/>
+      <c r="W324" s="3"/>
+      <c r="X324" s="3"/>
+    </row>
+    <row r="325" spans="2:24">
+      <c r="B325" s="4">
+        <v>43013</v>
+      </c>
+      <c r="C325" s="3">
+        <f t="shared" si="8"/>
+        <v>1197</v>
+      </c>
+      <c r="D325" s="3">
+        <v>0</v>
+      </c>
+      <c r="E325" s="3">
+        <v>350</v>
+      </c>
+      <c r="F325" s="3">
+        <v>0</v>
+      </c>
+      <c r="G325" s="3">
+        <v>497</v>
+      </c>
+      <c r="H325" s="3">
+        <v>350</v>
+      </c>
+      <c r="I325" s="3"/>
+      <c r="J325" s="3"/>
+      <c r="K325" s="3"/>
+      <c r="L325" s="3"/>
+      <c r="M325" s="3"/>
+      <c r="N325" s="3"/>
+      <c r="O325" s="3"/>
+      <c r="P325" s="3"/>
+      <c r="Q325" s="3"/>
+      <c r="R325" s="3"/>
+      <c r="S325" s="3"/>
+      <c r="T325" s="3"/>
+      <c r="U325" s="3"/>
+      <c r="V325" s="3"/>
+      <c r="W325" s="3"/>
+      <c r="X325" s="3"/>
+    </row>
+    <row r="326" spans="2:24">
+      <c r="B326" s="4">
+        <v>43014</v>
+      </c>
+      <c r="C326" s="3">
+        <f t="shared" si="8"/>
+        <v>685</v>
+      </c>
+      <c r="D326" s="3">
+        <v>0</v>
+      </c>
+      <c r="E326" s="3">
+        <v>0</v>
+      </c>
+      <c r="F326" s="3">
+        <v>15</v>
+      </c>
+      <c r="G326" s="3"/>
+      <c r="H326" s="3">
+        <v>350</v>
+      </c>
+      <c r="I326" s="3"/>
+      <c r="J326" s="3">
+        <v>320</v>
+      </c>
+      <c r="K326" s="3"/>
+      <c r="L326" s="3"/>
+      <c r="M326" s="3"/>
+      <c r="N326" s="3"/>
+      <c r="O326" s="3"/>
+      <c r="P326" s="3"/>
+      <c r="Q326" s="3"/>
+      <c r="R326" s="3"/>
+      <c r="S326" s="3"/>
+      <c r="T326" s="3"/>
+      <c r="U326" s="3"/>
+      <c r="V326" s="3"/>
+      <c r="W326" s="3"/>
+      <c r="X326" s="3"/>
+    </row>
+    <row r="327" spans="2:24">
+      <c r="B327" s="4">
+        <v>43015</v>
+      </c>
+      <c r="C327" s="3">
+        <f t="shared" si="8"/>
+        <v>22014</v>
+      </c>
+      <c r="D327" s="3">
+        <v>0</v>
+      </c>
+      <c r="E327" s="3">
+        <v>0</v>
+      </c>
+      <c r="F327" s="3">
+        <v>0</v>
+      </c>
+      <c r="G327" s="3"/>
+      <c r="H327" s="3"/>
+      <c r="I327" s="3"/>
+      <c r="J327" s="3"/>
+      <c r="K327" s="3"/>
+      <c r="L327" s="3"/>
+      <c r="M327" s="3"/>
+      <c r="N327" s="3"/>
+      <c r="O327" s="3"/>
+      <c r="P327" s="3"/>
+      <c r="Q327" s="3"/>
+      <c r="R327" s="3">
+        <v>22014</v>
+      </c>
+      <c r="S327" s="3"/>
+      <c r="T327" s="3"/>
+      <c r="U327" s="3"/>
+      <c r="V327" s="3"/>
+      <c r="W327" s="3"/>
+      <c r="X327" s="3"/>
+    </row>
+    <row r="328" spans="2:24">
+      <c r="B328" s="4">
+        <v>43016</v>
+      </c>
+      <c r="C328" s="3">
+        <f t="shared" si="8"/>
+        <v>327</v>
+      </c>
+      <c r="D328" s="3">
+        <v>0</v>
+      </c>
+      <c r="E328" s="3">
+        <v>15</v>
+      </c>
+      <c r="F328" s="3">
+        <v>0</v>
+      </c>
+      <c r="G328" s="3"/>
+      <c r="H328" s="3">
+        <v>300</v>
+      </c>
+      <c r="I328" s="3"/>
+      <c r="J328" s="3"/>
+      <c r="K328" s="3">
+        <v>12</v>
+      </c>
+      <c r="L328" s="3"/>
+      <c r="M328" s="3"/>
+      <c r="N328" s="3"/>
+      <c r="O328" s="3"/>
+      <c r="P328" s="3"/>
+      <c r="Q328" s="3"/>
+      <c r="R328" s="3"/>
+      <c r="S328" s="3"/>
+      <c r="T328" s="3"/>
+      <c r="U328" s="3"/>
+      <c r="V328" s="3"/>
+      <c r="W328" s="3"/>
+      <c r="X328" s="3"/>
+    </row>
+    <row r="329" spans="2:24">
+      <c r="B329" s="4">
+        <v>43017</v>
+      </c>
+      <c r="C329" s="3">
+        <f t="shared" si="8"/>
+        <v>140</v>
+      </c>
+      <c r="D329" s="3">
+        <v>0</v>
+      </c>
+      <c r="E329" s="3">
+        <v>8</v>
+      </c>
+      <c r="F329" s="3">
+        <v>37</v>
+      </c>
+      <c r="G329" s="3"/>
+      <c r="H329" s="3"/>
+      <c r="I329" s="3">
+        <v>22</v>
+      </c>
+      <c r="J329" s="3"/>
+      <c r="K329" s="3">
+        <v>73</v>
+      </c>
+      <c r="L329" s="3"/>
+      <c r="M329" s="3"/>
+      <c r="N329" s="3"/>
+      <c r="O329" s="3"/>
+      <c r="P329" s="3"/>
+      <c r="Q329" s="3"/>
+      <c r="R329" s="3"/>
+      <c r="S329" s="3"/>
+      <c r="T329" s="3"/>
+      <c r="U329" s="3"/>
+      <c r="V329" s="3"/>
+      <c r="W329" s="3"/>
+      <c r="X329" s="3"/>
+    </row>
+    <row r="330" spans="2:24">
+      <c r="B330" s="4">
+        <v>43018</v>
+      </c>
+      <c r="C330" s="3">
+        <f t="shared" si="8"/>
+        <v>49</v>
+      </c>
+      <c r="D330" s="3">
+        <v>7</v>
+      </c>
+      <c r="E330" s="3">
+        <v>0</v>
+      </c>
+      <c r="F330" s="3">
+        <v>0</v>
+      </c>
+      <c r="G330" s="3"/>
+      <c r="H330" s="3"/>
+      <c r="I330" s="3">
+        <v>42</v>
+      </c>
+      <c r="J330" s="3"/>
+      <c r="K330" s="3"/>
+      <c r="L330" s="3"/>
+      <c r="M330" s="3"/>
+      <c r="N330" s="3"/>
+      <c r="O330" s="3"/>
+      <c r="P330" s="3"/>
+      <c r="Q330" s="3"/>
+      <c r="R330" s="3"/>
+      <c r="S330" s="3"/>
+      <c r="T330" s="3"/>
+      <c r="U330" s="3"/>
+      <c r="V330" s="3"/>
+      <c r="W330" s="3"/>
+      <c r="X330" s="3"/>
+    </row>
+    <row r="331" spans="2:24">
+      <c r="B331" s="4">
+        <v>43019</v>
+      </c>
+      <c r="C331" s="3">
+        <f t="shared" si="8"/>
+        <v>49</v>
+      </c>
+      <c r="D331" s="3">
+        <v>6</v>
+      </c>
+      <c r="E331" s="3">
+        <v>12</v>
+      </c>
+      <c r="F331" s="3">
+        <v>31</v>
+      </c>
+      <c r="G331" s="3"/>
+      <c r="H331" s="3"/>
+      <c r="I331" s="3"/>
+      <c r="J331" s="3"/>
+      <c r="K331" s="3"/>
+      <c r="L331" s="3"/>
+      <c r="M331" s="3"/>
+      <c r="N331" s="3"/>
+      <c r="O331" s="3"/>
+      <c r="P331" s="3"/>
+      <c r="Q331" s="3"/>
+      <c r="R331" s="3"/>
+      <c r="S331" s="3"/>
+      <c r="T331" s="3"/>
+      <c r="U331" s="3"/>
+      <c r="V331" s="3"/>
+      <c r="W331" s="3"/>
+      <c r="X331" s="3"/>
+    </row>
+    <row r="332" spans="2:24">
+      <c r="B332" s="4">
+        <v>43020</v>
+      </c>
+      <c r="C332" s="3">
+        <f t="shared" si="8"/>
+        <v>14</v>
+      </c>
+      <c r="D332" s="3">
+        <v>5</v>
+      </c>
+      <c r="E332" s="3">
+        <v>9</v>
+      </c>
+      <c r="F332" s="3">
+        <v>0</v>
+      </c>
+      <c r="G332" s="3"/>
+      <c r="H332" s="3"/>
+      <c r="I332" s="3"/>
+      <c r="J332" s="3"/>
+      <c r="K332" s="3"/>
+      <c r="L332" s="3"/>
+      <c r="M332" s="3"/>
+      <c r="N332" s="3"/>
+      <c r="O332" s="3"/>
+      <c r="P332" s="3"/>
+      <c r="Q332" s="3"/>
+      <c r="R332" s="3"/>
+      <c r="S332" s="3"/>
+      <c r="T332" s="3"/>
+      <c r="U332" s="3"/>
+      <c r="V332" s="3"/>
+      <c r="W332" s="3"/>
+      <c r="X332" s="3"/>
+    </row>
+    <row r="333" spans="2:24">
+      <c r="B333" s="4">
+        <v>43021</v>
+      </c>
+      <c r="C333" s="3">
+        <f t="shared" si="8"/>
+        <v>160</v>
+      </c>
+      <c r="D333" s="3">
+        <v>10</v>
+      </c>
+      <c r="E333" s="3">
+        <v>13</v>
+      </c>
+      <c r="F333" s="3">
+        <v>67</v>
+      </c>
+      <c r="G333" s="3"/>
+      <c r="H333" s="3"/>
+      <c r="I333" s="3"/>
+      <c r="J333" s="3">
+        <v>70</v>
+      </c>
+      <c r="K333" s="3"/>
+      <c r="L333" s="3"/>
+      <c r="M333" s="3"/>
+      <c r="N333" s="3"/>
+      <c r="O333" s="3"/>
+      <c r="P333" s="3"/>
+      <c r="Q333" s="3"/>
+      <c r="R333" s="3"/>
+      <c r="S333" s="3"/>
+      <c r="T333" s="3"/>
+      <c r="U333" s="3"/>
+      <c r="V333" s="3"/>
+      <c r="W333" s="3"/>
+      <c r="X333" s="3"/>
+    </row>
+    <row r="334" spans="2:24">
+      <c r="B334" s="4">
+        <v>43022</v>
+      </c>
+      <c r="C334" s="3">
+        <f t="shared" si="8"/>
+        <v>945</v>
+      </c>
+      <c r="D334" s="3">
+        <v>0</v>
+      </c>
+      <c r="E334" s="3">
+        <v>0</v>
+      </c>
+      <c r="F334" s="3">
+        <v>118</v>
+      </c>
+      <c r="G334" s="3">
+        <v>827</v>
+      </c>
+      <c r="H334" s="3"/>
+      <c r="I334" s="3"/>
+      <c r="J334" s="3"/>
+      <c r="K334" s="3"/>
+      <c r="L334" s="3"/>
+      <c r="M334" s="3"/>
+      <c r="N334" s="3"/>
+      <c r="O334" s="3"/>
+      <c r="P334" s="3"/>
+      <c r="Q334" s="3"/>
+      <c r="R334" s="3"/>
+      <c r="S334" s="3"/>
+      <c r="T334" s="3"/>
+      <c r="U334" s="3"/>
+      <c r="V334" s="3"/>
+      <c r="W334" s="3"/>
+      <c r="X334" s="3"/>
+    </row>
+    <row r="335" spans="2:24">
+      <c r="B335" s="4">
+        <v>43023</v>
+      </c>
+      <c r="C335" s="3">
+        <f t="shared" si="8"/>
+        <v>398</v>
+      </c>
+      <c r="D335" s="3">
+        <v>0</v>
+      </c>
+      <c r="E335" s="3">
+        <v>0</v>
+      </c>
+      <c r="F335" s="3">
+        <v>0</v>
+      </c>
+      <c r="G335" s="3">
+        <v>197</v>
+      </c>
+      <c r="H335" s="3">
+        <v>201</v>
+      </c>
+      <c r="I335" s="3"/>
+      <c r="J335" s="3"/>
+      <c r="K335" s="3"/>
+      <c r="L335" s="3"/>
+      <c r="M335" s="3"/>
+      <c r="N335" s="3"/>
+      <c r="O335" s="3"/>
+      <c r="P335" s="3"/>
+      <c r="Q335" s="3"/>
+      <c r="R335" s="3"/>
+      <c r="S335" s="3"/>
+      <c r="T335" s="3"/>
+      <c r="U335" s="3"/>
+      <c r="V335" s="3"/>
+      <c r="W335" s="3"/>
+      <c r="X335" s="3"/>
+    </row>
+    <row r="336" spans="2:24">
+      <c r="B336" s="4">
+        <v>43024</v>
+      </c>
+      <c r="C336" s="3">
+        <f t="shared" si="8"/>
+        <v>20</v>
+      </c>
+      <c r="D336" s="3">
+        <v>0</v>
+      </c>
+      <c r="E336" s="3">
+        <v>0</v>
+      </c>
+      <c r="F336" s="3">
+        <v>16</v>
+      </c>
+      <c r="G336" s="3"/>
+      <c r="H336" s="3"/>
+      <c r="I336" s="3">
+        <v>4</v>
+      </c>
+      <c r="J336" s="3"/>
+      <c r="K336" s="3"/>
+      <c r="L336" s="3"/>
+      <c r="M336" s="3"/>
+      <c r="N336" s="3"/>
+      <c r="O336" s="3"/>
+      <c r="P336" s="3"/>
+      <c r="Q336" s="3"/>
+      <c r="R336" s="3"/>
+      <c r="S336" s="3"/>
+      <c r="T336" s="3"/>
+      <c r="U336" s="3"/>
+      <c r="V336" s="3"/>
+      <c r="W336" s="3"/>
+      <c r="X336" s="3"/>
+    </row>
+    <row r="337" spans="2:24">
+      <c r="B337" s="4">
+        <v>43025</v>
+      </c>
+      <c r="C337" s="3">
+        <f t="shared" si="8"/>
+        <v>68</v>
+      </c>
+      <c r="D337" s="3">
+        <v>4</v>
+      </c>
+      <c r="E337" s="3">
+        <v>0</v>
+      </c>
+      <c r="F337" s="3">
+        <v>22</v>
+      </c>
+      <c r="G337" s="3"/>
+      <c r="H337" s="3"/>
+      <c r="I337" s="3">
+        <v>42</v>
+      </c>
+      <c r="J337" s="3"/>
+      <c r="K337" s="3"/>
+      <c r="L337" s="3"/>
+      <c r="M337" s="3"/>
+      <c r="N337" s="3"/>
+      <c r="O337" s="3"/>
+      <c r="P337" s="3"/>
+      <c r="Q337" s="3"/>
+      <c r="R337" s="3"/>
+      <c r="S337" s="3"/>
+      <c r="T337" s="3"/>
+      <c r="U337" s="3"/>
+      <c r="V337" s="3"/>
+      <c r="W337" s="3"/>
+      <c r="X337" s="3"/>
+    </row>
+    <row r="338" spans="2:24">
+      <c r="B338" s="4">
+        <v>43026</v>
+      </c>
+      <c r="C338" s="3">
+        <f t="shared" si="8"/>
+        <v>17</v>
+      </c>
+      <c r="D338" s="3">
+        <v>0</v>
+      </c>
+      <c r="E338" s="3">
+        <v>17</v>
+      </c>
+      <c r="F338" s="3">
+        <v>0</v>
+      </c>
+      <c r="G338" s="3"/>
+      <c r="H338" s="3"/>
+      <c r="I338" s="3"/>
+      <c r="J338" s="3"/>
+      <c r="K338" s="3"/>
+      <c r="L338" s="3"/>
+      <c r="M338" s="3"/>
+      <c r="N338" s="3"/>
+      <c r="O338" s="3"/>
+      <c r="P338" s="3"/>
+      <c r="Q338" s="3"/>
+      <c r="R338" s="3"/>
+      <c r="S338" s="3"/>
+      <c r="T338" s="3"/>
+      <c r="U338" s="3"/>
+      <c r="V338" s="3"/>
+      <c r="W338" s="3"/>
+      <c r="X338" s="3"/>
+    </row>
+    <row r="339" spans="2:24">
+      <c r="B339" s="4">
+        <v>43027</v>
+      </c>
+      <c r="C339" s="3">
+        <f t="shared" si="8"/>
+        <v>23</v>
+      </c>
+      <c r="D339" s="3">
+        <v>5</v>
+      </c>
+      <c r="E339" s="3">
+        <v>0</v>
+      </c>
+      <c r="F339" s="3">
+        <v>18</v>
+      </c>
+      <c r="G339" s="3"/>
+      <c r="H339" s="3"/>
+      <c r="I339" s="3"/>
+      <c r="J339" s="3"/>
+      <c r="K339" s="3"/>
+      <c r="L339" s="3"/>
+      <c r="M339" s="3"/>
+      <c r="N339" s="3"/>
+      <c r="O339" s="3"/>
+      <c r="P339" s="3"/>
+      <c r="Q339" s="3"/>
+      <c r="R339" s="3"/>
+      <c r="S339" s="3"/>
+      <c r="T339" s="3"/>
+      <c r="U339" s="3"/>
+      <c r="V339" s="3"/>
+      <c r="W339" s="3"/>
+      <c r="X339" s="3"/>
+    </row>
+    <row r="340" spans="2:24">
+      <c r="B340" s="4">
+        <v>43028</v>
+      </c>
+      <c r="C340" s="3">
+        <f t="shared" si="8"/>
+        <v>199</v>
+      </c>
+      <c r="D340" s="3">
+        <v>3</v>
+      </c>
+      <c r="E340" s="3">
+        <v>15</v>
+      </c>
+      <c r="F340" s="3">
+        <v>21</v>
+      </c>
+      <c r="G340" s="3"/>
+      <c r="H340" s="3">
+        <v>35</v>
+      </c>
+      <c r="I340" s="3">
+        <v>5</v>
+      </c>
+      <c r="J340" s="3">
+        <v>120</v>
+      </c>
+      <c r="K340" s="3"/>
+      <c r="L340" s="3"/>
+      <c r="M340" s="3"/>
+      <c r="N340" s="3"/>
+      <c r="O340" s="3"/>
+      <c r="P340" s="3"/>
+      <c r="Q340" s="3"/>
+      <c r="R340" s="3"/>
+      <c r="S340" s="3"/>
+      <c r="T340" s="3"/>
+      <c r="U340" s="3"/>
+      <c r="V340" s="3"/>
+      <c r="W340" s="3"/>
+      <c r="X340" s="3"/>
+    </row>
+    <row r="341" spans="2:24">
+      <c r="B341" s="4">
+        <v>43029</v>
+      </c>
+      <c r="C341" s="3">
+        <f t="shared" si="8"/>
+        <v>1067</v>
+      </c>
+      <c r="D341" s="3">
+        <v>0</v>
+      </c>
+      <c r="E341" s="3">
+        <v>0</v>
+      </c>
+      <c r="F341" s="3">
+        <v>135</v>
+      </c>
+      <c r="G341" s="3">
+        <v>135</v>
+      </c>
+      <c r="H341" s="3"/>
+      <c r="I341" s="3"/>
+      <c r="J341" s="3"/>
+      <c r="K341" s="3"/>
+      <c r="L341" s="3"/>
+      <c r="M341" s="3"/>
+      <c r="N341" s="3"/>
+      <c r="O341" s="3"/>
+      <c r="P341" s="3"/>
+      <c r="Q341" s="3"/>
+      <c r="R341" s="3">
+        <v>797</v>
+      </c>
+      <c r="S341" s="3"/>
+      <c r="T341" s="3"/>
+      <c r="U341" s="3"/>
+      <c r="V341" s="3"/>
+      <c r="W341" s="3"/>
+      <c r="X341" s="3"/>
+    </row>
+    <row r="342" spans="2:24">
+      <c r="B342" s="4">
+        <v>43030</v>
+      </c>
+      <c r="C342" s="3">
+        <f t="shared" si="8"/>
+        <v>137</v>
+      </c>
+      <c r="D342" s="3">
+        <v>0</v>
+      </c>
+      <c r="E342" s="3">
+        <v>0</v>
+      </c>
+      <c r="F342" s="3">
+        <v>0</v>
+      </c>
+      <c r="G342" s="3"/>
+      <c r="H342" s="3">
+        <v>80</v>
+      </c>
+      <c r="I342" s="3">
+        <v>17</v>
+      </c>
+      <c r="J342" s="3"/>
+      <c r="K342" s="3">
+        <v>40</v>
+      </c>
+      <c r="L342" s="3"/>
+      <c r="M342" s="3"/>
+      <c r="N342" s="3"/>
+      <c r="O342" s="3"/>
+      <c r="P342" s="3"/>
+      <c r="Q342" s="3"/>
+      <c r="R342" s="3"/>
+      <c r="S342" s="3"/>
+      <c r="T342" s="3"/>
+      <c r="U342" s="3"/>
+      <c r="V342" s="3"/>
+      <c r="W342" s="3"/>
+      <c r="X342" s="3"/>
+    </row>
+    <row r="343" spans="2:24">
+      <c r="B343" s="4">
+        <v>43031</v>
+      </c>
+      <c r="C343" s="3">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="D343" s="3">
+        <v>0</v>
+      </c>
+      <c r="E343" s="3">
+        <v>0</v>
+      </c>
+      <c r="F343" s="3">
+        <v>0</v>
+      </c>
+      <c r="G343" s="3"/>
+      <c r="H343" s="3"/>
+      <c r="I343" s="3"/>
+      <c r="J343" s="3"/>
+      <c r="K343" s="3"/>
+      <c r="L343" s="3"/>
+      <c r="M343" s="3"/>
+      <c r="N343" s="3"/>
+      <c r="O343" s="3"/>
+      <c r="P343" s="3"/>
+      <c r="Q343" s="3"/>
+      <c r="R343" s="3"/>
+      <c r="S343" s="3"/>
+      <c r="T343" s="3"/>
+      <c r="U343" s="3"/>
+      <c r="V343" s="3"/>
+      <c r="W343" s="3"/>
+      <c r="X343" s="3"/>
+    </row>
+    <row r="344" spans="2:24">
+      <c r="B344" s="4">
+        <v>43032</v>
+      </c>
+      <c r="C344" s="3">
+        <f t="shared" si="8"/>
+        <v>42</v>
+      </c>
+      <c r="D344" s="3">
+        <v>5</v>
+      </c>
+      <c r="E344" s="3">
+        <v>0</v>
+      </c>
+      <c r="F344" s="3">
+        <v>0</v>
+      </c>
+      <c r="G344" s="3"/>
+      <c r="H344" s="3">
+        <v>37</v>
+      </c>
+      <c r="I344" s="3"/>
+      <c r="J344" s="3"/>
+      <c r="K344" s="3"/>
+      <c r="L344" s="3"/>
+      <c r="M344" s="3"/>
+      <c r="N344" s="3"/>
+      <c r="O344" s="3"/>
+      <c r="P344" s="3"/>
+      <c r="Q344" s="3"/>
+      <c r="R344" s="3"/>
+      <c r="S344" s="3"/>
+      <c r="T344" s="3"/>
+      <c r="U344" s="3"/>
+      <c r="V344" s="3"/>
+      <c r="W344" s="3"/>
+      <c r="X344" s="3"/>
+    </row>
+    <row r="345" spans="2:24">
+      <c r="B345" s="4">
+        <v>43033</v>
+      </c>
+      <c r="C345" s="3">
+        <f t="shared" si="8"/>
+        <v>49</v>
+      </c>
+      <c r="D345" s="3">
+        <v>9</v>
+      </c>
+      <c r="E345" s="3">
+        <v>15</v>
+      </c>
+      <c r="F345" s="3">
+        <v>25</v>
+      </c>
+      <c r="G345" s="3"/>
+      <c r="H345" s="3"/>
+      <c r="I345" s="3"/>
+      <c r="J345" s="3"/>
+      <c r="K345" s="3"/>
+      <c r="L345" s="3"/>
+      <c r="M345" s="3"/>
+      <c r="N345" s="3"/>
+      <c r="O345" s="3"/>
+      <c r="P345" s="3"/>
+      <c r="Q345" s="3"/>
+      <c r="R345" s="3"/>
+      <c r="S345" s="3"/>
+      <c r="T345" s="3"/>
+      <c r="U345" s="3"/>
+      <c r="V345" s="3"/>
+      <c r="W345" s="3"/>
+      <c r="X345" s="3"/>
+    </row>
+    <row r="346" spans="2:24">
+      <c r="B346" s="4">
+        <v>43034</v>
+      </c>
+      <c r="C346" s="3">
+        <f t="shared" si="8"/>
+        <v>38</v>
+      </c>
+      <c r="D346" s="3">
+        <v>7</v>
+      </c>
+      <c r="E346" s="3">
+        <v>0</v>
+      </c>
+      <c r="F346" s="3">
+        <v>19</v>
+      </c>
+      <c r="G346" s="3"/>
+      <c r="H346" s="3"/>
+      <c r="I346" s="3">
+        <v>12</v>
+      </c>
+      <c r="J346" s="3"/>
+      <c r="K346" s="3"/>
+      <c r="L346" s="3"/>
+      <c r="M346" s="3"/>
+      <c r="N346" s="3"/>
+      <c r="O346" s="3"/>
+      <c r="P346" s="3"/>
+      <c r="Q346" s="3"/>
+      <c r="R346" s="3"/>
+      <c r="S346" s="3"/>
+      <c r="T346" s="3"/>
+      <c r="U346" s="3"/>
+      <c r="V346" s="3"/>
+      <c r="W346" s="3"/>
+      <c r="X346" s="3"/>
+    </row>
+    <row r="347" spans="2:24">
+      <c r="B347" s="4">
+        <v>43035</v>
+      </c>
+      <c r="C347" s="3">
+        <f t="shared" si="8"/>
+        <v>110</v>
+      </c>
+      <c r="D347" s="3">
+        <v>5</v>
+      </c>
+      <c r="E347" s="3">
+        <v>17</v>
+      </c>
+      <c r="F347" s="3">
+        <v>15</v>
+      </c>
+      <c r="G347" s="3"/>
+      <c r="H347" s="3"/>
+      <c r="I347" s="3">
+        <v>10</v>
+      </c>
+      <c r="J347" s="3"/>
+      <c r="K347" s="3">
+        <v>63</v>
+      </c>
+      <c r="L347" s="3"/>
+      <c r="M347" s="3"/>
+      <c r="N347" s="3"/>
+      <c r="O347" s="3"/>
+      <c r="P347" s="3"/>
+      <c r="Q347" s="3"/>
+      <c r="R347" s="3"/>
+      <c r="S347" s="3"/>
+      <c r="T347" s="3"/>
+      <c r="U347" s="3"/>
+      <c r="V347" s="3"/>
+      <c r="W347" s="3"/>
+      <c r="X347" s="3"/>
+    </row>
+    <row r="348" spans="2:24">
+      <c r="B348" s="4">
+        <v>43036</v>
+      </c>
+      <c r="C348" s="3">
+        <f t="shared" si="8"/>
+        <v>11</v>
+      </c>
+      <c r="D348" s="3">
+        <v>0</v>
+      </c>
+      <c r="E348" s="3">
+        <v>0</v>
+      </c>
+      <c r="F348" s="3">
+        <v>11</v>
+      </c>
+      <c r="G348" s="3"/>
+      <c r="H348" s="3"/>
+      <c r="I348" s="3"/>
+      <c r="J348" s="3"/>
+      <c r="K348" s="3"/>
+      <c r="L348" s="3"/>
+      <c r="M348" s="3"/>
+      <c r="N348" s="3"/>
+      <c r="O348" s="3"/>
+      <c r="P348" s="3"/>
+      <c r="Q348" s="3"/>
+      <c r="R348" s="3"/>
+      <c r="S348" s="3"/>
+      <c r="T348" s="3"/>
+      <c r="U348" s="3"/>
+      <c r="V348" s="3"/>
+      <c r="W348" s="3"/>
+      <c r="X348" s="3"/>
+    </row>
+    <row r="349" spans="2:24">
+      <c r="B349" s="4">
+        <v>43037</v>
+      </c>
+      <c r="C349" s="3">
+        <f t="shared" si="8"/>
+        <v>74</v>
+      </c>
+      <c r="D349" s="3">
+        <v>0</v>
+      </c>
+      <c r="E349" s="3">
+        <v>24</v>
+      </c>
+      <c r="F349" s="3">
+        <v>0</v>
+      </c>
+      <c r="G349" s="3"/>
+      <c r="H349" s="3">
+        <v>50</v>
+      </c>
+      <c r="I349" s="3"/>
+      <c r="J349" s="3"/>
+      <c r="K349" s="3"/>
+      <c r="L349" s="3"/>
+      <c r="M349" s="3"/>
+      <c r="N349" s="3"/>
+      <c r="O349" s="3"/>
+      <c r="P349" s="3"/>
+      <c r="Q349" s="3"/>
+      <c r="R349" s="3"/>
+      <c r="S349" s="3"/>
+      <c r="T349" s="3"/>
+      <c r="U349" s="3"/>
+      <c r="V349" s="3"/>
+      <c r="W349" s="3"/>
+      <c r="X349" s="3"/>
+    </row>
+    <row r="350" spans="2:24">
+      <c r="B350" s="4">
+        <v>43038</v>
+      </c>
+      <c r="C350" s="3">
+        <f t="shared" si="8"/>
+        <v>92</v>
+      </c>
+      <c r="D350" s="3">
+        <v>0</v>
+      </c>
+      <c r="E350" s="3">
+        <v>22</v>
+      </c>
+      <c r="F350" s="3">
+        <v>20</v>
+      </c>
+      <c r="G350" s="3"/>
+      <c r="H350" s="3">
+        <v>50</v>
+      </c>
+      <c r="I350" s="3"/>
+      <c r="J350" s="3"/>
+      <c r="K350" s="3"/>
+      <c r="L350" s="3"/>
+      <c r="M350" s="3"/>
+      <c r="N350" s="3"/>
+      <c r="O350" s="3"/>
+      <c r="P350" s="3"/>
+      <c r="Q350" s="3"/>
+      <c r="R350" s="3"/>
+      <c r="S350" s="3"/>
+      <c r="T350" s="3"/>
+      <c r="U350" s="3"/>
+      <c r="V350" s="3"/>
+      <c r="W350" s="3"/>
+      <c r="X350" s="3"/>
+    </row>
+    <row r="351" spans="2:24">
+      <c r="B351" s="4">
+        <v>43039</v>
+      </c>
+      <c r="C351" s="3">
+        <f t="shared" si="8"/>
+        <v>18</v>
+      </c>
+      <c r="D351" s="3">
+        <v>5</v>
+      </c>
+      <c r="E351" s="3">
+        <v>8</v>
+      </c>
+      <c r="F351" s="3">
+        <v>5</v>
+      </c>
+      <c r="G351" s="3"/>
+      <c r="H351" s="3"/>
+      <c r="I351" s="3"/>
+      <c r="J351" s="3"/>
+      <c r="K351" s="3"/>
+      <c r="L351" s="3"/>
+      <c r="M351" s="3"/>
+      <c r="N351" s="3"/>
+      <c r="O351" s="3"/>
+      <c r="P351" s="3"/>
+      <c r="Q351" s="3"/>
+      <c r="R351" s="3"/>
+      <c r="S351" s="3"/>
+      <c r="T351" s="3"/>
+      <c r="U351" s="3"/>
+      <c r="V351" s="3"/>
+      <c r="W351" s="3"/>
+      <c r="X351" s="3"/>
+    </row>
+    <row r="352" spans="2:24">
+      <c r="B352" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C352" s="6">
+        <f>SUM(C321:C351)</f>
+        <v>29689</v>
+      </c>
+      <c r="D352" s="6"/>
+      <c r="E352" s="6"/>
+      <c r="F352" s="6"/>
+      <c r="G352" s="6"/>
+      <c r="H352" s="6"/>
+      <c r="I352" s="6"/>
+      <c r="J352" s="6"/>
+      <c r="K352" s="6"/>
+      <c r="L352" s="6"/>
+      <c r="M352" s="6"/>
+      <c r="N352" s="6"/>
+      <c r="O352" s="6"/>
+      <c r="P352" s="6"/>
+      <c r="Q352" s="6"/>
+      <c r="R352" s="6"/>
+      <c r="S352" s="6"/>
+      <c r="T352" s="6"/>
+      <c r="U352" s="6"/>
+      <c r="V352" s="6"/>
+      <c r="W352" s="6"/>
+      <c r="X352" s="6"/>
+    </row>
+    <row r="353" spans="2:24">
+      <c r="B353" s="4">
+        <v>43040</v>
+      </c>
+      <c r="C353" s="3">
+        <f t="shared" ref="C353:C382" si="9">SUM(D353:CN353)</f>
+        <v>148</v>
+      </c>
+      <c r="D353" s="3">
+        <v>0</v>
+      </c>
+      <c r="E353" s="3">
+        <v>0</v>
+      </c>
+      <c r="F353" s="3">
+        <v>68</v>
+      </c>
+      <c r="G353" s="3"/>
+      <c r="H353" s="3"/>
+      <c r="I353" s="3"/>
+      <c r="J353" s="3">
+        <v>80</v>
+      </c>
+      <c r="K353" s="3"/>
+      <c r="L353" s="3"/>
+      <c r="M353" s="3"/>
+      <c r="N353" s="3"/>
+      <c r="O353" s="3"/>
+      <c r="P353" s="3"/>
+      <c r="Q353" s="3"/>
+      <c r="R353" s="3"/>
+      <c r="S353" s="3"/>
+      <c r="T353" s="3"/>
+      <c r="U353" s="3"/>
+      <c r="V353" s="3"/>
+      <c r="W353" s="3"/>
+      <c r="X353" s="3"/>
+    </row>
+    <row r="354" spans="2:24">
+      <c r="B354" s="4">
+        <v>43041</v>
+      </c>
+      <c r="C354" s="3">
+        <f t="shared" si="9"/>
+        <v>98</v>
+      </c>
+      <c r="D354" s="3">
+        <v>16</v>
+      </c>
+      <c r="E354" s="3">
+        <v>17</v>
+      </c>
+      <c r="F354" s="3">
+        <v>15</v>
+      </c>
+      <c r="G354" s="3"/>
+      <c r="H354" s="3"/>
+      <c r="I354" s="3">
+        <v>33</v>
+      </c>
+      <c r="J354" s="3"/>
+      <c r="K354" s="3">
+        <v>17</v>
+      </c>
+      <c r="L354" s="3"/>
+      <c r="M354" s="3"/>
+      <c r="N354" s="3"/>
+      <c r="O354" s="3"/>
+      <c r="P354" s="3"/>
+      <c r="Q354" s="3"/>
+      <c r="R354" s="3"/>
+      <c r="S354" s="3"/>
+      <c r="T354" s="3"/>
+      <c r="U354" s="3"/>
+      <c r="V354" s="3"/>
+      <c r="W354" s="3"/>
+      <c r="X354" s="3"/>
+    </row>
+    <row r="355" spans="2:24">
+      <c r="B355" s="4">
+        <v>43042</v>
+      </c>
+      <c r="C355" s="3">
+        <f t="shared" si="9"/>
+        <v>50</v>
+      </c>
+      <c r="D355" s="3">
+        <v>8</v>
+      </c>
+      <c r="E355" s="3">
+        <v>18</v>
+      </c>
+      <c r="F355" s="3">
+        <v>24</v>
+      </c>
+      <c r="G355" s="3"/>
+      <c r="H355" s="3"/>
+      <c r="I355" s="3"/>
+      <c r="J355" s="3"/>
+      <c r="K355" s="3"/>
+      <c r="L355" s="3"/>
+      <c r="M355" s="3"/>
+      <c r="N355" s="3"/>
+      <c r="O355" s="3"/>
+      <c r="P355" s="3"/>
+      <c r="Q355" s="3"/>
+      <c r="R355" s="3"/>
+      <c r="S355" s="3"/>
+      <c r="T355" s="3"/>
+      <c r="U355" s="3"/>
+      <c r="V355" s="3"/>
+      <c r="W355" s="3"/>
+      <c r="X355" s="3"/>
+    </row>
+    <row r="356" spans="2:24">
+      <c r="B356" s="4">
+        <v>43043</v>
+      </c>
+      <c r="C356" s="3">
+        <f t="shared" si="9"/>
+        <v>550</v>
+      </c>
+      <c r="D356" s="3">
+        <v>0</v>
+      </c>
+      <c r="E356" s="3">
+        <v>0</v>
+      </c>
+      <c r="F356" s="3">
+        <v>0</v>
+      </c>
+      <c r="G356" s="3">
+        <v>500</v>
+      </c>
+      <c r="H356" s="3">
+        <v>50</v>
+      </c>
+      <c r="I356" s="3"/>
+      <c r="J356" s="3"/>
+      <c r="K356" s="3"/>
+      <c r="L356" s="3"/>
+      <c r="M356" s="3"/>
+      <c r="N356" s="3"/>
+      <c r="O356" s="3"/>
+      <c r="P356" s="3"/>
+      <c r="Q356" s="3"/>
+      <c r="R356" s="3"/>
+      <c r="S356" s="3"/>
+      <c r="T356" s="3"/>
+      <c r="U356" s="3"/>
+      <c r="V356" s="3"/>
+      <c r="W356" s="3"/>
+      <c r="X356" s="3"/>
+    </row>
+    <row r="357" spans="2:24">
+      <c r="B357" s="4">
+        <v>43044</v>
+      </c>
+      <c r="C357" s="3">
+        <f t="shared" si="9"/>
+        <v>320</v>
+      </c>
+      <c r="D357" s="3">
+        <v>0</v>
+      </c>
+      <c r="E357" s="3">
+        <v>0</v>
+      </c>
+      <c r="F357" s="3">
+        <v>250</v>
+      </c>
+      <c r="G357" s="3"/>
+      <c r="H357" s="3"/>
+      <c r="I357" s="3"/>
+      <c r="J357" s="3">
+        <v>70</v>
+      </c>
+      <c r="K357" s="3"/>
+      <c r="L357" s="3"/>
+      <c r="M357" s="3"/>
+      <c r="N357" s="3"/>
+      <c r="O357" s="3"/>
+      <c r="P357" s="3"/>
+      <c r="Q357" s="3"/>
+      <c r="R357" s="3"/>
+      <c r="S357" s="3"/>
+      <c r="T357" s="3"/>
+      <c r="U357" s="3"/>
+      <c r="V357" s="3"/>
+      <c r="W357" s="3"/>
+      <c r="X357" s="3"/>
+    </row>
+    <row r="358" spans="2:24">
+      <c r="B358" s="4">
+        <v>43045</v>
+      </c>
+      <c r="C358" s="3">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="D358" s="3">
+        <v>0</v>
+      </c>
+      <c r="E358" s="3">
+        <v>10</v>
+      </c>
+      <c r="F358" s="3">
+        <v>0</v>
+      </c>
+      <c r="G358" s="3"/>
+      <c r="H358" s="3"/>
+      <c r="I358" s="3"/>
+      <c r="J358" s="3"/>
+      <c r="K358" s="3"/>
+      <c r="L358" s="3"/>
+      <c r="M358" s="3"/>
+      <c r="N358" s="3"/>
+      <c r="O358" s="3"/>
+      <c r="P358" s="3"/>
+      <c r="Q358" s="3"/>
+      <c r="R358" s="3"/>
+      <c r="S358" s="3"/>
+      <c r="T358" s="3"/>
+      <c r="U358" s="3"/>
+      <c r="V358" s="3"/>
+      <c r="W358" s="3"/>
+      <c r="X358" s="3"/>
+    </row>
+    <row r="359" spans="2:24">
+      <c r="B359" s="4">
+        <v>43046</v>
+      </c>
+      <c r="C359" s="3">
+        <f t="shared" si="9"/>
+        <v>14</v>
+      </c>
+      <c r="D359" s="3">
+        <v>5</v>
+      </c>
+      <c r="E359" s="3">
+        <v>0</v>
+      </c>
+      <c r="F359" s="3">
+        <v>0</v>
+      </c>
+      <c r="G359" s="3"/>
+      <c r="H359" s="3">
+        <v>9</v>
+      </c>
+      <c r="I359" s="3"/>
+      <c r="J359" s="3"/>
+      <c r="K359" s="3"/>
+      <c r="L359" s="3"/>
+      <c r="M359" s="3"/>
+      <c r="N359" s="3"/>
+      <c r="O359" s="3"/>
+      <c r="P359" s="3"/>
+      <c r="Q359" s="3"/>
+      <c r="R359" s="3"/>
+      <c r="S359" s="3"/>
+      <c r="T359" s="3"/>
+      <c r="U359" s="3"/>
+      <c r="V359" s="3"/>
+      <c r="W359" s="3"/>
+      <c r="X359" s="3"/>
+    </row>
+    <row r="360" spans="2:24">
+      <c r="B360" s="4">
+        <v>43047</v>
+      </c>
+      <c r="C360" s="3">
+        <f t="shared" si="9"/>
+        <v>500</v>
+      </c>
+      <c r="D360" s="3">
+        <v>0</v>
+      </c>
+      <c r="E360" s="3">
+        <v>0</v>
+      </c>
+      <c r="F360" s="3">
+        <v>0</v>
+      </c>
+      <c r="G360" s="3"/>
+      <c r="H360" s="3">
+        <v>500</v>
+      </c>
+      <c r="I360" s="3"/>
+      <c r="J360" s="3"/>
+      <c r="K360" s="3"/>
+      <c r="L360" s="3"/>
+      <c r="M360" s="3"/>
+      <c r="N360" s="3"/>
+      <c r="O360" s="3"/>
+      <c r="P360" s="3"/>
+      <c r="Q360" s="3"/>
+      <c r="R360" s="3"/>
+      <c r="S360" s="3"/>
+      <c r="T360" s="3"/>
+      <c r="U360" s="3"/>
+      <c r="V360" s="3"/>
+      <c r="W360" s="3"/>
+      <c r="X360" s="3"/>
+    </row>
+    <row r="361" spans="2:24">
+      <c r="B361" s="4">
+        <v>43048</v>
+      </c>
+      <c r="C361" s="3">
+        <f t="shared" si="9"/>
+        <v>81</v>
+      </c>
+      <c r="D361" s="3">
+        <v>7</v>
+      </c>
+      <c r="E361" s="3">
+        <v>0</v>
+      </c>
+      <c r="F361" s="3">
+        <v>74</v>
+      </c>
+      <c r="G361" s="3"/>
+      <c r="H361" s="3"/>
+      <c r="I361" s="3"/>
+      <c r="J361" s="3"/>
+      <c r="K361" s="3"/>
+      <c r="L361" s="3"/>
+      <c r="M361" s="3"/>
+      <c r="N361" s="3"/>
+      <c r="O361" s="3"/>
+      <c r="P361" s="3"/>
+      <c r="Q361" s="3"/>
+      <c r="R361" s="3"/>
+      <c r="S361" s="3"/>
+      <c r="T361" s="3"/>
+      <c r="U361" s="3"/>
+      <c r="V361" s="3"/>
+      <c r="W361" s="3"/>
+      <c r="X361" s="3"/>
+    </row>
+    <row r="362" spans="2:24">
+      <c r="B362" s="4">
+        <v>43049</v>
+      </c>
+      <c r="C362" s="3">
+        <f t="shared" si="9"/>
+        <v>442</v>
+      </c>
+      <c r="D362" s="3">
+        <v>0</v>
+      </c>
+      <c r="E362" s="3">
+        <v>15</v>
+      </c>
+      <c r="F362" s="3">
+        <v>61</v>
+      </c>
+      <c r="G362" s="3"/>
+      <c r="H362" s="3"/>
+      <c r="I362" s="3">
+        <v>27</v>
+      </c>
+      <c r="J362" s="3"/>
+      <c r="K362" s="3"/>
+      <c r="L362" s="3"/>
+      <c r="M362" s="3">
+        <v>339</v>
+      </c>
+      <c r="N362" s="3"/>
+      <c r="O362" s="3"/>
+      <c r="P362" s="3"/>
+      <c r="Q362" s="3"/>
+      <c r="R362" s="3"/>
+      <c r="S362" s="3"/>
+      <c r="T362" s="3"/>
+      <c r="U362" s="3"/>
+      <c r="V362" s="3"/>
+      <c r="W362" s="3"/>
+      <c r="X362" s="3"/>
+    </row>
+    <row r="363" spans="2:24">
+      <c r="B363" s="4">
+        <v>43050</v>
+      </c>
+      <c r="C363" s="3">
+        <f t="shared" si="9"/>
+        <v>80</v>
+      </c>
+      <c r="D363" s="3">
+        <v>0</v>
+      </c>
+      <c r="E363" s="3">
+        <v>0</v>
+      </c>
+      <c r="F363" s="3">
+        <v>0</v>
+      </c>
+      <c r="G363" s="3"/>
+      <c r="H363" s="3">
+        <v>80</v>
+      </c>
+      <c r="I363" s="3"/>
+      <c r="J363" s="3"/>
+      <c r="K363" s="3"/>
+      <c r="L363" s="3"/>
+      <c r="M363" s="3"/>
+      <c r="N363" s="3"/>
+      <c r="O363" s="3"/>
+      <c r="P363" s="3"/>
+      <c r="Q363" s="3"/>
+      <c r="R363" s="3"/>
+      <c r="S363" s="3"/>
+      <c r="T363" s="3"/>
+      <c r="U363" s="3"/>
+      <c r="V363" s="3"/>
+      <c r="W363" s="3"/>
+      <c r="X363" s="3"/>
+    </row>
+    <row r="364" spans="2:24">
+      <c r="B364" s="4">
+        <v>43051</v>
+      </c>
+      <c r="C364" s="3">
+        <f t="shared" si="9"/>
+        <v>163</v>
+      </c>
+      <c r="D364" s="3">
+        <v>0</v>
+      </c>
+      <c r="E364" s="3">
+        <v>0</v>
+      </c>
+      <c r="F364" s="3">
+        <v>49</v>
+      </c>
+      <c r="G364" s="3"/>
+      <c r="H364" s="3">
+        <v>54</v>
+      </c>
+      <c r="I364" s="3"/>
+      <c r="J364" s="3">
+        <v>60</v>
+      </c>
+      <c r="K364" s="3"/>
+      <c r="L364" s="3"/>
+      <c r="M364" s="3"/>
+      <c r="N364" s="3"/>
+      <c r="O364" s="3"/>
+      <c r="P364" s="3"/>
+      <c r="Q364" s="3"/>
+      <c r="R364" s="3"/>
+      <c r="S364" s="3"/>
+      <c r="T364" s="3"/>
+      <c r="U364" s="3"/>
+      <c r="V364" s="3"/>
+      <c r="W364" s="3"/>
+      <c r="X364" s="3"/>
+    </row>
+    <row r="365" spans="2:24">
+      <c r="B365" s="4">
+        <v>43052</v>
+      </c>
+      <c r="C365" s="3">
+        <f t="shared" si="9"/>
+        <v>55</v>
+      </c>
+      <c r="D365" s="3">
+        <v>6</v>
+      </c>
+      <c r="E365" s="3">
+        <v>17</v>
+      </c>
+      <c r="F365" s="3">
+        <v>16</v>
+      </c>
+      <c r="G365" s="3"/>
+      <c r="H365" s="3"/>
+      <c r="I365" s="3"/>
+      <c r="J365" s="3"/>
+      <c r="K365" s="3">
+        <v>16</v>
+      </c>
+      <c r="L365" s="3"/>
+      <c r="M365" s="3"/>
+      <c r="N365" s="3"/>
+      <c r="O365" s="3"/>
+      <c r="P365" s="3"/>
+      <c r="Q365" s="3"/>
+      <c r="R365" s="3"/>
+      <c r="S365" s="3"/>
+      <c r="T365" s="3"/>
+      <c r="U365" s="3"/>
+      <c r="V365" s="3"/>
+      <c r="W365" s="3"/>
+      <c r="X365" s="3"/>
+    </row>
+    <row r="366" spans="2:24">
+      <c r="B366" s="4">
+        <v>43053</v>
+      </c>
+      <c r="C366" s="3">
+        <f t="shared" si="9"/>
+        <v>636</v>
+      </c>
+      <c r="D366" s="3">
+        <v>5</v>
+      </c>
+      <c r="E366" s="3">
+        <v>13</v>
+      </c>
+      <c r="F366" s="3">
+        <v>18</v>
+      </c>
+      <c r="G366" s="3"/>
+      <c r="H366" s="3">
+        <v>600</v>
+      </c>
+      <c r="I366" s="3"/>
+      <c r="J366" s="3"/>
+      <c r="K366" s="3"/>
+      <c r="L366" s="3"/>
+      <c r="M366" s="3"/>
+      <c r="N366" s="3"/>
+      <c r="O366" s="3"/>
+      <c r="P366" s="3"/>
+      <c r="Q366" s="3"/>
+      <c r="R366" s="3"/>
+      <c r="S366" s="3"/>
+      <c r="T366" s="3"/>
+      <c r="U366" s="3"/>
+      <c r="V366" s="3"/>
+      <c r="W366" s="3"/>
+      <c r="X366" s="3"/>
+    </row>
+    <row r="367" spans="2:24">
+      <c r="B367" s="4">
+        <v>43054</v>
+      </c>
+      <c r="C367" s="3">
+        <f t="shared" si="9"/>
+        <v>78</v>
+      </c>
+      <c r="D367" s="3">
+        <v>6</v>
+      </c>
+      <c r="E367" s="3">
+        <v>6</v>
+      </c>
+      <c r="F367" s="3">
+        <v>60</v>
+      </c>
+      <c r="G367" s="3"/>
+      <c r="H367" s="3"/>
+      <c r="I367" s="3">
+        <v>6</v>
+      </c>
+      <c r="J367" s="3"/>
+      <c r="K367" s="3"/>
+      <c r="L367" s="3"/>
+      <c r="M367" s="3"/>
+      <c r="N367" s="3"/>
+      <c r="O367" s="3"/>
+      <c r="P367" s="3"/>
+      <c r="Q367" s="3"/>
+      <c r="R367" s="3"/>
+      <c r="S367" s="3"/>
+      <c r="T367" s="3"/>
+      <c r="U367" s="3"/>
+      <c r="V367" s="3"/>
+      <c r="W367" s="3"/>
+      <c r="X367" s="3"/>
+    </row>
+    <row r="368" spans="2:24">
+      <c r="B368" s="4">
+        <v>43055</v>
+      </c>
+      <c r="C368" s="3">
+        <f t="shared" si="9"/>
+        <v>41</v>
+      </c>
+      <c r="D368" s="3">
+        <v>5</v>
+      </c>
+      <c r="E368" s="3">
+        <v>12</v>
+      </c>
+      <c r="F368" s="3">
+        <v>24</v>
+      </c>
+      <c r="G368" s="3"/>
+      <c r="H368" s="3"/>
+      <c r="I368" s="3"/>
+      <c r="J368" s="3"/>
+      <c r="K368" s="3"/>
+      <c r="L368" s="3"/>
+      <c r="M368" s="3"/>
+      <c r="N368" s="3"/>
+      <c r="O368" s="3"/>
+      <c r="P368" s="3"/>
+      <c r="Q368" s="3"/>
+      <c r="R368" s="3"/>
+      <c r="S368" s="3"/>
+      <c r="T368" s="3"/>
+      <c r="U368" s="3"/>
+      <c r="V368" s="3"/>
+      <c r="W368" s="3"/>
+      <c r="X368" s="3"/>
+    </row>
+    <row r="369" spans="2:24">
+      <c r="B369" s="4">
+        <v>43056</v>
+      </c>
+      <c r="C369" s="3">
+        <f t="shared" si="9"/>
+        <v>238</v>
+      </c>
+      <c r="D369" s="3">
+        <v>0</v>
+      </c>
+      <c r="E369" s="3">
+        <v>18</v>
+      </c>
+      <c r="F369" s="3">
+        <v>220</v>
+      </c>
+      <c r="G369" s="3"/>
+      <c r="H369" s="3"/>
+      <c r="I369" s="3"/>
+      <c r="J369" s="3"/>
+      <c r="K369" s="3"/>
+      <c r="L369" s="3"/>
+      <c r="M369" s="3"/>
+      <c r="N369" s="3"/>
+      <c r="O369" s="3"/>
+      <c r="P369" s="3"/>
+      <c r="Q369" s="3"/>
+      <c r="R369" s="3"/>
+      <c r="S369" s="3"/>
+      <c r="T369" s="3"/>
+      <c r="U369" s="3"/>
+      <c r="V369" s="3"/>
+      <c r="W369" s="3"/>
+      <c r="X369" s="3"/>
+    </row>
+    <row r="370" spans="2:24">
+      <c r="B370" s="4">
+        <v>43057</v>
+      </c>
+      <c r="C370" s="3">
+        <f t="shared" si="9"/>
+        <v>47</v>
+      </c>
+      <c r="D370" s="3">
+        <v>0</v>
+      </c>
+      <c r="E370" s="3">
+        <v>0</v>
+      </c>
+      <c r="F370" s="3">
+        <v>15</v>
+      </c>
+      <c r="G370" s="3"/>
+      <c r="H370" s="3"/>
+      <c r="I370" s="3">
+        <v>6</v>
+      </c>
+      <c r="J370" s="3"/>
+      <c r="K370" s="3">
+        <v>26</v>
+      </c>
+      <c r="L370" s="3"/>
+      <c r="M370" s="3"/>
+      <c r="N370" s="3"/>
+      <c r="O370" s="3"/>
+      <c r="P370" s="3"/>
+      <c r="Q370" s="3"/>
+      <c r="R370" s="3"/>
+      <c r="S370" s="3"/>
+      <c r="T370" s="3"/>
+      <c r="U370" s="3"/>
+      <c r="V370" s="3"/>
+      <c r="W370" s="3"/>
+      <c r="X370" s="3"/>
+    </row>
+    <row r="371" spans="2:24">
+      <c r="B371" s="4">
+        <v>43058</v>
+      </c>
+      <c r="C371" s="3">
+        <f t="shared" si="9"/>
+        <v>67</v>
+      </c>
+      <c r="D371" s="3">
+        <v>0</v>
+      </c>
+      <c r="E371" s="3">
+        <v>0</v>
+      </c>
+      <c r="F371" s="3">
+        <v>15</v>
+      </c>
+      <c r="G371" s="3"/>
+      <c r="H371" s="3"/>
+      <c r="I371" s="3">
+        <v>6</v>
+      </c>
+      <c r="J371" s="3"/>
+      <c r="K371" s="3">
+        <v>46</v>
+      </c>
+      <c r="L371" s="3"/>
+      <c r="M371" s="3"/>
+      <c r="N371" s="3"/>
+      <c r="O371" s="3"/>
+      <c r="P371" s="3"/>
+      <c r="Q371" s="3"/>
+      <c r="R371" s="3"/>
+      <c r="S371" s="3"/>
+      <c r="T371" s="3"/>
+      <c r="U371" s="3"/>
+      <c r="V371" s="3"/>
+      <c r="W371" s="3"/>
+      <c r="X371" s="3"/>
+    </row>
+    <row r="372" spans="2:24">
+      <c r="B372" s="4">
+        <v>43059</v>
+      </c>
+      <c r="C372" s="3">
+        <f t="shared" si="9"/>
+        <v>16</v>
+      </c>
+      <c r="D372" s="3">
+        <v>0</v>
+      </c>
+      <c r="E372" s="3">
+        <v>0</v>
+      </c>
+      <c r="F372" s="3">
+        <v>16</v>
+      </c>
+      <c r="G372" s="3"/>
+      <c r="H372" s="3"/>
+      <c r="I372" s="3"/>
+      <c r="J372" s="3"/>
+      <c r="K372" s="3"/>
+      <c r="L372" s="3"/>
+      <c r="M372" s="3"/>
+      <c r="N372" s="3"/>
+      <c r="O372" s="3"/>
+      <c r="P372" s="3"/>
+      <c r="Q372" s="3"/>
+      <c r="R372" s="3"/>
+      <c r="S372" s="3"/>
+      <c r="T372" s="3"/>
+      <c r="U372" s="3"/>
+      <c r="V372" s="3"/>
+      <c r="W372" s="3"/>
+      <c r="X372" s="3"/>
+    </row>
+    <row r="373" spans="2:24">
+      <c r="B373" s="4">
+        <v>43060</v>
+      </c>
+      <c r="C373" s="3">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="D373" s="3"/>
+      <c r="E373" s="3"/>
+      <c r="F373" s="3"/>
+      <c r="G373" s="3"/>
+      <c r="H373" s="3"/>
+      <c r="I373" s="3"/>
+      <c r="J373" s="3"/>
+      <c r="K373" s="3"/>
+      <c r="L373" s="3"/>
+      <c r="M373" s="3"/>
+      <c r="N373" s="3"/>
+      <c r="O373" s="3"/>
+      <c r="P373" s="3"/>
+      <c r="Q373" s="3"/>
+      <c r="R373" s="3"/>
+      <c r="S373" s="3"/>
+      <c r="T373" s="3"/>
+      <c r="U373" s="3"/>
+      <c r="V373" s="3"/>
+      <c r="W373" s="3"/>
+      <c r="X373" s="3"/>
+    </row>
+    <row r="374" spans="2:24">
+      <c r="B374" s="4">
+        <v>43061</v>
+      </c>
+      <c r="C374" s="3">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="D374" s="3"/>
+      <c r="E374" s="3"/>
+      <c r="F374" s="3"/>
+      <c r="G374" s="3"/>
+      <c r="H374" s="3"/>
+      <c r="I374" s="3"/>
+      <c r="J374" s="3"/>
+      <c r="K374" s="3"/>
+      <c r="L374" s="3"/>
+      <c r="M374" s="3"/>
+      <c r="N374" s="3"/>
+      <c r="O374" s="3"/>
+      <c r="P374" s="3"/>
+      <c r="Q374" s="3"/>
+      <c r="R374" s="3"/>
+      <c r="S374" s="3"/>
+      <c r="T374" s="3"/>
+      <c r="U374" s="3"/>
+      <c r="V374" s="3"/>
+      <c r="W374" s="3"/>
+      <c r="X374" s="3"/>
+    </row>
+    <row r="375" spans="2:24">
+      <c r="B375" s="4">
+        <v>43062</v>
+      </c>
+      <c r="C375" s="3">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="D375" s="3"/>
+      <c r="E375" s="3"/>
+      <c r="F375" s="3"/>
+      <c r="G375" s="3"/>
+      <c r="H375" s="3"/>
+      <c r="I375" s="3"/>
+      <c r="J375" s="3"/>
+      <c r="K375" s="3"/>
+      <c r="L375" s="3"/>
+      <c r="M375" s="3"/>
+      <c r="N375" s="3"/>
+      <c r="O375" s="3"/>
+      <c r="P375" s="3"/>
+      <c r="Q375" s="3"/>
+      <c r="R375" s="3"/>
+      <c r="S375" s="3"/>
+      <c r="T375" s="3"/>
+      <c r="U375" s="3"/>
+      <c r="V375" s="3"/>
+      <c r="W375" s="3"/>
+      <c r="X375" s="3"/>
+    </row>
+    <row r="376" spans="2:24">
+      <c r="B376" s="4">
+        <v>43063</v>
+      </c>
+      <c r="C376" s="3">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="D376" s="3"/>
+      <c r="E376" s="3"/>
+      <c r="F376" s="3"/>
+      <c r="G376" s="3"/>
+      <c r="H376" s="3"/>
+      <c r="I376" s="3"/>
+      <c r="J376" s="3"/>
+      <c r="K376" s="3"/>
+      <c r="L376" s="3"/>
+      <c r="M376" s="3"/>
+      <c r="N376" s="3"/>
+      <c r="O376" s="3"/>
+      <c r="P376" s="3"/>
+      <c r="Q376" s="3"/>
+      <c r="R376" s="3"/>
+      <c r="S376" s="3"/>
+      <c r="T376" s="3"/>
+      <c r="U376" s="3"/>
+      <c r="V376" s="3"/>
+      <c r="W376" s="3"/>
+      <c r="X376" s="3"/>
+    </row>
+    <row r="377" spans="2:24">
+      <c r="B377" s="4">
+        <v>43064</v>
+      </c>
+      <c r="C377" s="3">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="D377" s="3"/>
+      <c r="E377" s="3"/>
+      <c r="F377" s="3"/>
+      <c r="G377" s="3"/>
+      <c r="H377" s="3"/>
+      <c r="I377" s="3"/>
+      <c r="J377" s="3"/>
+      <c r="K377" s="3"/>
+      <c r="L377" s="3"/>
+      <c r="M377" s="3"/>
+      <c r="N377" s="3"/>
+      <c r="O377" s="3"/>
+      <c r="P377" s="3"/>
+      <c r="Q377" s="3"/>
+      <c r="R377" s="3"/>
+      <c r="S377" s="3"/>
+      <c r="T377" s="3"/>
+      <c r="U377" s="3"/>
+      <c r="V377" s="3"/>
+      <c r="W377" s="3"/>
+      <c r="X377" s="3"/>
+    </row>
+    <row r="378" spans="2:24">
+      <c r="B378" s="4">
+        <v>43065</v>
+      </c>
+      <c r="C378" s="3">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="D378" s="3"/>
+      <c r="E378" s="3"/>
+      <c r="F378" s="3"/>
+      <c r="G378" s="3"/>
+      <c r="H378" s="3"/>
+      <c r="I378" s="3"/>
+      <c r="J378" s="3"/>
+      <c r="K378" s="3"/>
+      <c r="L378" s="3"/>
+      <c r="M378" s="3"/>
+      <c r="N378" s="3"/>
+      <c r="O378" s="3"/>
+      <c r="P378" s="3"/>
+      <c r="Q378" s="3"/>
+      <c r="R378" s="3"/>
+      <c r="S378" s="3"/>
+      <c r="T378" s="3"/>
+      <c r="U378" s="3"/>
+      <c r="V378" s="3"/>
+      <c r="W378" s="3"/>
+      <c r="X378" s="3"/>
+    </row>
+    <row r="379" spans="2:24">
+      <c r="B379" s="4">
+        <v>43066</v>
+      </c>
+      <c r="C379" s="3">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="D379" s="3"/>
+      <c r="E379" s="3"/>
+      <c r="F379" s="3"/>
+      <c r="G379" s="3"/>
+      <c r="H379" s="3"/>
+      <c r="I379" s="3"/>
+      <c r="J379" s="3"/>
+      <c r="K379" s="3"/>
+      <c r="L379" s="3"/>
+      <c r="M379" s="3"/>
+      <c r="N379" s="3"/>
+      <c r="O379" s="3"/>
+      <c r="P379" s="3"/>
+      <c r="Q379" s="3"/>
+      <c r="R379" s="3"/>
+      <c r="S379" s="3"/>
+      <c r="T379" s="3"/>
+      <c r="U379" s="3"/>
+      <c r="V379" s="3"/>
+      <c r="W379" s="3"/>
+      <c r="X379" s="3"/>
+    </row>
+    <row r="380" spans="2:24">
+      <c r="B380" s="4">
+        <v>43067</v>
+      </c>
+      <c r="C380" s="3">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="D380" s="3"/>
+      <c r="E380" s="3"/>
+      <c r="F380" s="3"/>
+      <c r="G380" s="3"/>
+      <c r="H380" s="3"/>
+      <c r="I380" s="3"/>
+      <c r="J380" s="3"/>
+      <c r="K380" s="3"/>
+      <c r="L380" s="3"/>
+      <c r="M380" s="3"/>
+      <c r="N380" s="3"/>
+      <c r="O380" s="3"/>
+      <c r="P380" s="3"/>
+      <c r="Q380" s="3"/>
+      <c r="R380" s="3"/>
+      <c r="S380" s="3"/>
+      <c r="T380" s="3"/>
+      <c r="U380" s="3"/>
+      <c r="V380" s="3"/>
+      <c r="W380" s="3"/>
+      <c r="X380" s="3"/>
+    </row>
+    <row r="381" spans="2:24">
+      <c r="B381" s="4">
+        <v>43068</v>
+      </c>
+      <c r="C381" s="3">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="D381" s="3"/>
+      <c r="E381" s="3"/>
+      <c r="F381" s="3"/>
+      <c r="G381" s="3"/>
+      <c r="H381" s="3"/>
+      <c r="I381" s="3"/>
+      <c r="J381" s="3"/>
+      <c r="K381" s="3"/>
+      <c r="L381" s="3"/>
+      <c r="M381" s="3"/>
+      <c r="N381" s="3"/>
+      <c r="O381" s="3"/>
+      <c r="P381" s="3"/>
+      <c r="Q381" s="3"/>
+      <c r="R381" s="3"/>
+      <c r="S381" s="3"/>
+      <c r="T381" s="3"/>
+      <c r="U381" s="3"/>
+      <c r="V381" s="3"/>
+      <c r="W381" s="3"/>
+      <c r="X381" s="3"/>
+    </row>
+    <row r="382" spans="2:24">
+      <c r="B382" s="4">
+        <v>43069</v>
+      </c>
+      <c r="C382" s="3">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="D382" s="3"/>
+      <c r="E382" s="3"/>
+      <c r="F382" s="3"/>
+      <c r="G382" s="3"/>
+      <c r="H382" s="3"/>
+      <c r="I382" s="3"/>
+      <c r="J382" s="3"/>
+      <c r="K382" s="3"/>
+      <c r="L382" s="3"/>
+      <c r="M382" s="3"/>
+      <c r="N382" s="3"/>
+      <c r="O382" s="3"/>
+      <c r="P382" s="3"/>
+      <c r="Q382" s="3"/>
+      <c r="R382" s="3"/>
+      <c r="S382" s="3"/>
+      <c r="T382" s="3"/>
+      <c r="U382" s="3"/>
+      <c r="V382" s="3"/>
+      <c r="W382" s="3"/>
+      <c r="X382" s="3"/>
+    </row>
+    <row r="383" spans="2:24">
+      <c r="B383" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C383" s="6">
+        <f>SUM(C353:C382)</f>
+        <v>3634</v>
+      </c>
+      <c r="D383" s="6"/>
+      <c r="E383" s="6"/>
+      <c r="F383" s="6"/>
+      <c r="G383" s="6"/>
+      <c r="H383" s="6"/>
+      <c r="I383" s="6"/>
+      <c r="J383" s="6"/>
+      <c r="K383" s="6"/>
+      <c r="L383" s="6"/>
+      <c r="M383" s="6"/>
+      <c r="N383" s="6"/>
+      <c r="O383" s="6"/>
+      <c r="P383" s="6"/>
+      <c r="Q383" s="6"/>
+      <c r="R383" s="6"/>
+      <c r="S383" s="6"/>
+      <c r="T383" s="6"/>
+      <c r="U383" s="6"/>
+      <c r="V383" s="6"/>
+      <c r="W383" s="6"/>
+      <c r="X383" s="6"/>
+    </row>
+    <row r="384" spans="2:24">
+      <c r="B384" s="4">
+        <v>43070</v>
+      </c>
+      <c r="C384" s="3">
+        <f t="shared" ref="C384:C415" si="10">SUM(D384:CN384)</f>
+        <v>0</v>
+      </c>
+      <c r="D384" s="3"/>
+      <c r="E384" s="3"/>
+      <c r="F384" s="3"/>
+      <c r="G384" s="3"/>
+      <c r="H384" s="3"/>
+      <c r="I384" s="3"/>
+      <c r="J384" s="3"/>
+      <c r="K384" s="3"/>
+      <c r="L384" s="3"/>
+      <c r="M384" s="3"/>
+      <c r="N384" s="3"/>
+      <c r="O384" s="3"/>
+      <c r="P384" s="3"/>
+      <c r="Q384" s="3"/>
+      <c r="R384" s="3"/>
+      <c r="S384" s="3"/>
+      <c r="T384" s="3"/>
+      <c r="U384" s="3"/>
+      <c r="V384" s="3"/>
+      <c r="W384" s="3"/>
+      <c r="X384" s="3"/>
+    </row>
+    <row r="385" spans="2:24">
+      <c r="B385" s="4">
+        <v>43071</v>
+      </c>
+      <c r="C385" s="3">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="D385" s="3"/>
+      <c r="E385" s="3"/>
+      <c r="F385" s="3"/>
+      <c r="G385" s="3"/>
+      <c r="H385" s="3"/>
+      <c r="I385" s="3"/>
+      <c r="J385" s="3"/>
+      <c r="K385" s="3"/>
+      <c r="L385" s="3"/>
+      <c r="M385" s="3"/>
+      <c r="N385" s="3"/>
+      <c r="O385" s="3"/>
+      <c r="P385" s="3"/>
+      <c r="Q385" s="3"/>
+      <c r="R385" s="3"/>
+      <c r="S385" s="3"/>
+      <c r="T385" s="3"/>
+      <c r="U385" s="3"/>
+      <c r="V385" s="3"/>
+      <c r="W385" s="3"/>
+      <c r="X385" s="3"/>
+    </row>
+    <row r="386" spans="2:24">
+      <c r="B386" s="4">
+        <v>43072</v>
+      </c>
+      <c r="C386" s="3">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="D386" s="3"/>
+      <c r="E386" s="3"/>
+      <c r="F386" s="3"/>
+      <c r="G386" s="3"/>
+      <c r="H386" s="3"/>
+      <c r="I386" s="3"/>
+      <c r="J386" s="3"/>
+      <c r="K386" s="3"/>
+      <c r="L386" s="3"/>
+      <c r="M386" s="3"/>
+      <c r="N386" s="3"/>
+      <c r="O386" s="3"/>
+      <c r="P386" s="3"/>
+      <c r="Q386" s="3"/>
+      <c r="R386" s="3"/>
+      <c r="S386" s="3"/>
+      <c r="T386" s="3"/>
+      <c r="U386" s="3"/>
+      <c r="V386" s="3"/>
+      <c r="W386" s="3"/>
+      <c r="X386" s="3"/>
+    </row>
+    <row r="387" spans="2:24">
+      <c r="B387" s="4">
+        <v>43073</v>
+      </c>
+      <c r="C387" s="3">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="D387" s="3"/>
+      <c r="E387" s="3"/>
+      <c r="F387" s="3"/>
+      <c r="G387" s="3"/>
+      <c r="H387" s="3"/>
+      <c r="I387" s="3"/>
+      <c r="J387" s="3"/>
+      <c r="K387" s="3"/>
+      <c r="L387" s="3"/>
+      <c r="M387" s="3"/>
+      <c r="N387" s="3"/>
+      <c r="O387" s="3"/>
+      <c r="P387" s="3"/>
+      <c r="Q387" s="3"/>
+      <c r="R387" s="3"/>
+      <c r="S387" s="3"/>
+      <c r="T387" s="3"/>
+      <c r="U387" s="3"/>
+      <c r="V387" s="3"/>
+      <c r="W387" s="3"/>
+      <c r="X387" s="3"/>
+    </row>
+    <row r="388" spans="2:24">
+      <c r="B388" s="4">
+        <v>43074</v>
+      </c>
+      <c r="C388" s="3">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="D388" s="3"/>
+      <c r="E388" s="3"/>
+      <c r="F388" s="3"/>
+      <c r="G388" s="3"/>
+      <c r="H388" s="3"/>
+      <c r="I388" s="3"/>
+      <c r="J388" s="3"/>
+      <c r="K388" s="3"/>
+      <c r="L388" s="3"/>
+      <c r="M388" s="3"/>
+      <c r="N388" s="3"/>
+      <c r="O388" s="3"/>
+      <c r="P388" s="3"/>
+      <c r="Q388" s="3"/>
+      <c r="R388" s="3"/>
+      <c r="S388" s="3"/>
+      <c r="T388" s="3"/>
+      <c r="U388" s="3"/>
+      <c r="V388" s="3"/>
+      <c r="W388" s="3"/>
+      <c r="X388" s="3"/>
+    </row>
+    <row r="389" spans="2:24">
+      <c r="B389" s="4">
+        <v>43075</v>
+      </c>
+      <c r="C389" s="3">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="D389" s="3"/>
+      <c r="E389" s="3"/>
+      <c r="F389" s="3"/>
+      <c r="G389" s="3"/>
+      <c r="H389" s="3"/>
+      <c r="I389" s="3"/>
+      <c r="J389" s="3"/>
+      <c r="K389" s="3"/>
+      <c r="L389" s="3"/>
+      <c r="M389" s="3"/>
+      <c r="N389" s="3"/>
+      <c r="O389" s="3"/>
+      <c r="P389" s="3"/>
+      <c r="Q389" s="3"/>
+      <c r="R389" s="3"/>
+      <c r="S389" s="3"/>
+      <c r="T389" s="3"/>
+      <c r="U389" s="3"/>
+      <c r="V389" s="3"/>
+      <c r="W389" s="3"/>
+      <c r="X389" s="3"/>
+    </row>
+    <row r="390" spans="2:24">
+      <c r="B390" s="4">
+        <v>43076</v>
+      </c>
+      <c r="C390" s="3">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="D390" s="3"/>
+      <c r="E390" s="3"/>
+      <c r="F390" s="3"/>
+      <c r="G390" s="3"/>
+      <c r="H390" s="3"/>
+      <c r="I390" s="3"/>
+      <c r="J390" s="3"/>
+      <c r="K390" s="3"/>
+      <c r="L390" s="3"/>
+      <c r="M390" s="3"/>
+      <c r="N390" s="3"/>
+      <c r="O390" s="3"/>
+      <c r="P390" s="3"/>
+      <c r="Q390" s="3"/>
+      <c r="R390" s="3"/>
+      <c r="S390" s="3"/>
+      <c r="T390" s="3"/>
+      <c r="U390" s="3"/>
+      <c r="V390" s="3"/>
+      <c r="W390" s="3"/>
+      <c r="X390" s="3"/>
+    </row>
+    <row r="391" spans="2:24">
+      <c r="B391" s="4">
+        <v>43077</v>
+      </c>
+      <c r="C391" s="3">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="D391" s="3"/>
+      <c r="E391" s="3"/>
+      <c r="F391" s="3"/>
+      <c r="G391" s="3"/>
+      <c r="H391" s="3"/>
+      <c r="I391" s="3"/>
+      <c r="J391" s="3"/>
+      <c r="K391" s="3"/>
+      <c r="L391" s="3"/>
+      <c r="M391" s="3"/>
+      <c r="N391" s="3"/>
+      <c r="O391" s="3"/>
+      <c r="P391" s="3"/>
+      <c r="Q391" s="3"/>
+      <c r="R391" s="3"/>
+      <c r="S391" s="3"/>
+      <c r="T391" s="3"/>
+      <c r="U391" s="3"/>
+      <c r="V391" s="3"/>
+      <c r="W391" s="3"/>
+      <c r="X391" s="3"/>
+    </row>
+    <row r="392" spans="2:24">
+      <c r="B392" s="4">
+        <v>43078</v>
+      </c>
+      <c r="C392" s="3">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="D392" s="3"/>
+      <c r="E392" s="3"/>
+      <c r="F392" s="3"/>
+      <c r="G392" s="3"/>
+      <c r="H392" s="3"/>
+      <c r="I392" s="3"/>
+      <c r="J392" s="3"/>
+      <c r="K392" s="3"/>
+      <c r="L392" s="3"/>
+      <c r="M392" s="3"/>
+      <c r="N392" s="3"/>
+      <c r="O392" s="3"/>
+      <c r="P392" s="3"/>
+      <c r="Q392" s="3"/>
+      <c r="R392" s="3"/>
+      <c r="S392" s="3"/>
+      <c r="T392" s="3"/>
+      <c r="U392" s="3"/>
+      <c r="V392" s="3"/>
+      <c r="W392" s="3"/>
+      <c r="X392" s="3"/>
+    </row>
+    <row r="393" spans="2:24">
+      <c r="B393" s="4">
+        <v>43079</v>
+      </c>
+      <c r="C393" s="3">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="D393" s="3"/>
+      <c r="E393" s="3"/>
+      <c r="F393" s="3"/>
+      <c r="G393" s="3"/>
+      <c r="H393" s="3"/>
+      <c r="I393" s="3"/>
+      <c r="J393" s="3"/>
+      <c r="K393" s="3"/>
+      <c r="L393" s="3"/>
+      <c r="M393" s="3"/>
+      <c r="N393" s="3"/>
+      <c r="O393" s="3"/>
+      <c r="P393" s="3"/>
+      <c r="Q393" s="3"/>
+      <c r="R393" s="3"/>
+      <c r="S393" s="3"/>
+      <c r="T393" s="3"/>
+      <c r="U393" s="3"/>
+      <c r="V393" s="3"/>
+      <c r="W393" s="3"/>
+      <c r="X393" s="3"/>
+    </row>
+    <row r="394" spans="2:24">
+      <c r="B394" s="4">
+        <v>43080</v>
+      </c>
+      <c r="C394" s="3">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="D394" s="3"/>
+      <c r="E394" s="3"/>
+      <c r="F394" s="3"/>
+      <c r="G394" s="3"/>
+      <c r="H394" s="3"/>
+      <c r="I394" s="3"/>
+      <c r="J394" s="3"/>
+      <c r="K394" s="3"/>
+      <c r="L394" s="3"/>
+      <c r="M394" s="3"/>
+      <c r="N394" s="3"/>
+      <c r="O394" s="3"/>
+      <c r="P394" s="3"/>
+      <c r="Q394" s="3"/>
+      <c r="R394" s="3"/>
+      <c r="S394" s="3"/>
+      <c r="T394" s="3"/>
+      <c r="U394" s="3"/>
+      <c r="V394" s="3"/>
+      <c r="W394" s="3"/>
+      <c r="X394" s="3"/>
+    </row>
+    <row r="395" spans="2:24">
+      <c r="B395" s="4">
+        <v>43081</v>
+      </c>
+      <c r="C395" s="3">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="D395" s="3"/>
+      <c r="E395" s="3"/>
+      <c r="F395" s="3"/>
+      <c r="G395" s="3"/>
+      <c r="H395" s="3"/>
+      <c r="I395" s="3"/>
+      <c r="J395" s="3"/>
+      <c r="K395" s="3"/>
+      <c r="L395" s="3"/>
+      <c r="M395" s="3"/>
+      <c r="N395" s="3"/>
+      <c r="O395" s="3"/>
+      <c r="P395" s="3"/>
+      <c r="Q395" s="3"/>
+      <c r="R395" s="3"/>
+      <c r="S395" s="3"/>
+      <c r="T395" s="3"/>
+      <c r="U395" s="3"/>
+      <c r="V395" s="3"/>
+      <c r="W395" s="3"/>
+      <c r="X395" s="3"/>
+    </row>
+    <row r="396" spans="2:24">
+      <c r="B396" s="4">
+        <v>43082</v>
+      </c>
+      <c r="C396" s="3">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="D396" s="3"/>
+      <c r="E396" s="3"/>
+      <c r="F396" s="3"/>
+      <c r="G396" s="3"/>
+      <c r="H396" s="3"/>
+      <c r="I396" s="3"/>
+      <c r="J396" s="3"/>
+      <c r="K396" s="3"/>
+      <c r="L396" s="3"/>
+      <c r="M396" s="3"/>
+      <c r="N396" s="3"/>
+      <c r="O396" s="3"/>
+      <c r="P396" s="3"/>
+      <c r="Q396" s="3"/>
+      <c r="R396" s="3"/>
+      <c r="S396" s="3"/>
+      <c r="T396" s="3"/>
+      <c r="U396" s="3"/>
+      <c r="V396" s="3"/>
+      <c r="W396" s="3"/>
+      <c r="X396" s="3"/>
+    </row>
+    <row r="397" spans="2:24">
+      <c r="B397" s="4">
+        <v>43083</v>
+      </c>
+      <c r="C397" s="3">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="D397" s="3"/>
+      <c r="E397" s="3"/>
+      <c r="F397" s="3"/>
+      <c r="G397" s="3"/>
+      <c r="H397" s="3"/>
+      <c r="I397" s="3"/>
+      <c r="J397" s="3"/>
+      <c r="K397" s="3"/>
+      <c r="L397" s="3"/>
+      <c r="M397" s="3"/>
+      <c r="N397" s="3"/>
+      <c r="O397" s="3"/>
+      <c r="P397" s="3"/>
+      <c r="Q397" s="3"/>
+      <c r="R397" s="3"/>
+      <c r="S397" s="3"/>
+      <c r="T397" s="3"/>
+      <c r="U397" s="3"/>
+      <c r="V397" s="3"/>
+      <c r="W397" s="3"/>
+      <c r="X397" s="3"/>
+    </row>
+    <row r="398" spans="2:24">
+      <c r="B398" s="4">
+        <v>43084</v>
+      </c>
+      <c r="C398" s="3">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="D398" s="3"/>
+      <c r="E398" s="3"/>
+      <c r="F398" s="3"/>
+      <c r="G398" s="3"/>
+      <c r="H398" s="3"/>
+      <c r="I398" s="3"/>
+      <c r="J398" s="3"/>
+      <c r="K398" s="3"/>
+      <c r="L398" s="3"/>
+      <c r="M398" s="3"/>
+      <c r="N398" s="3"/>
+      <c r="O398" s="3"/>
+      <c r="P398" s="3"/>
+      <c r="Q398" s="3"/>
+      <c r="R398" s="3"/>
+      <c r="S398" s="3"/>
+      <c r="T398" s="3"/>
+      <c r="U398" s="3"/>
+      <c r="V398" s="3"/>
+      <c r="W398" s="3"/>
+      <c r="X398" s="3"/>
+    </row>
+    <row r="399" spans="2:24">
+      <c r="B399" s="4">
+        <v>43085</v>
+      </c>
+      <c r="C399" s="3">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="D399" s="3"/>
+      <c r="E399" s="3"/>
+      <c r="F399" s="3"/>
+      <c r="G399" s="3"/>
+      <c r="H399" s="3"/>
+      <c r="I399" s="3"/>
+      <c r="J399" s="3"/>
+      <c r="K399" s="3"/>
+      <c r="L399" s="3"/>
+      <c r="M399" s="3"/>
+      <c r="N399" s="3"/>
+      <c r="O399" s="3"/>
+      <c r="P399" s="3"/>
+      <c r="Q399" s="3"/>
+      <c r="R399" s="3"/>
+      <c r="S399" s="3"/>
+      <c r="T399" s="3"/>
+      <c r="U399" s="3"/>
+      <c r="V399" s="3"/>
+      <c r="W399" s="3"/>
+      <c r="X399" s="3"/>
+    </row>
+    <row r="400" spans="2:24">
+      <c r="B400" s="4">
+        <v>43086</v>
+      </c>
+      <c r="C400" s="3">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="D400" s="3"/>
+      <c r="E400" s="3"/>
+      <c r="F400" s="3"/>
+      <c r="G400" s="3"/>
+      <c r="H400" s="3"/>
+      <c r="I400" s="3"/>
+      <c r="J400" s="3"/>
+      <c r="K400" s="3"/>
+      <c r="L400" s="3"/>
+      <c r="M400" s="3"/>
+      <c r="N400" s="3"/>
+      <c r="O400" s="3"/>
+      <c r="P400" s="3"/>
+      <c r="Q400" s="3"/>
+      <c r="R400" s="3"/>
+      <c r="S400" s="3"/>
+      <c r="T400" s="3"/>
+      <c r="U400" s="3"/>
+      <c r="V400" s="3"/>
+      <c r="W400" s="3"/>
+      <c r="X400" s="3"/>
+    </row>
+    <row r="401" spans="2:24">
+      <c r="B401" s="4">
+        <v>43087</v>
+      </c>
+      <c r="C401" s="3">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="D401" s="3"/>
+      <c r="E401" s="3"/>
+      <c r="F401" s="3"/>
+      <c r="G401" s="3"/>
+      <c r="H401" s="3"/>
+      <c r="I401" s="3"/>
+      <c r="J401" s="3"/>
+      <c r="K401" s="3"/>
+      <c r="L401" s="3"/>
+      <c r="M401" s="3"/>
+      <c r="N401" s="3"/>
+      <c r="O401" s="3"/>
+      <c r="P401" s="3"/>
+      <c r="Q401" s="3"/>
+      <c r="R401" s="3"/>
+      <c r="S401" s="3"/>
+      <c r="T401" s="3"/>
+      <c r="U401" s="3"/>
+      <c r="V401" s="3"/>
+      <c r="W401" s="3"/>
+      <c r="X401" s="3"/>
+    </row>
+    <row r="402" spans="2:24">
+      <c r="B402" s="4">
+        <v>43088</v>
+      </c>
+      <c r="C402" s="3">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="D402" s="3"/>
+      <c r="E402" s="3"/>
+      <c r="F402" s="3"/>
+      <c r="G402" s="3"/>
+      <c r="H402" s="3"/>
+      <c r="I402" s="3"/>
+      <c r="J402" s="3"/>
+      <c r="K402" s="3"/>
+      <c r="L402" s="3"/>
+      <c r="M402" s="3"/>
+      <c r="N402" s="3"/>
+      <c r="O402" s="3"/>
+      <c r="P402" s="3"/>
+      <c r="Q402" s="3"/>
+      <c r="R402" s="3"/>
+      <c r="S402" s="3"/>
+      <c r="T402" s="3"/>
+      <c r="U402" s="3"/>
+      <c r="V402" s="3"/>
+      <c r="W402" s="3"/>
+      <c r="X402" s="3"/>
+    </row>
+    <row r="403" spans="2:24">
+      <c r="B403" s="4">
+        <v>43089</v>
+      </c>
+      <c r="C403" s="3">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="D403" s="3"/>
+      <c r="E403" s="3"/>
+      <c r="F403" s="3"/>
+      <c r="G403" s="3"/>
+      <c r="H403" s="3"/>
+      <c r="I403" s="3"/>
+      <c r="J403" s="3"/>
+      <c r="K403" s="3"/>
+      <c r="L403" s="3"/>
+      <c r="M403" s="3"/>
+      <c r="N403" s="3"/>
+      <c r="O403" s="3"/>
+      <c r="P403" s="3"/>
+      <c r="Q403" s="3"/>
+      <c r="R403" s="3"/>
+      <c r="S403" s="3"/>
+      <c r="T403" s="3"/>
+      <c r="U403" s="3"/>
+      <c r="V403" s="3"/>
+      <c r="W403" s="3"/>
+      <c r="X403" s="3"/>
+    </row>
+    <row r="404" spans="2:24">
+      <c r="B404" s="4">
+        <v>43090</v>
+      </c>
+      <c r="C404" s="3">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="D404" s="3"/>
+      <c r="E404" s="3"/>
+      <c r="F404" s="3"/>
+      <c r="G404" s="3"/>
+      <c r="H404" s="3"/>
+      <c r="I404" s="3"/>
+      <c r="J404" s="3"/>
+      <c r="K404" s="3"/>
+      <c r="L404" s="3"/>
+      <c r="M404" s="3"/>
+      <c r="N404" s="3"/>
+      <c r="O404" s="3"/>
+      <c r="P404" s="3"/>
+      <c r="Q404" s="3"/>
+      <c r="R404" s="3"/>
+      <c r="S404" s="3"/>
+      <c r="T404" s="3"/>
+      <c r="U404" s="3"/>
+      <c r="V404" s="3"/>
+      <c r="W404" s="3"/>
+      <c r="X404" s="3"/>
+    </row>
+    <row r="405" spans="2:24">
+      <c r="B405" s="4">
+        <v>43091</v>
+      </c>
+      <c r="C405" s="3">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="D405" s="3"/>
+      <c r="E405" s="3"/>
+      <c r="F405" s="3"/>
+      <c r="G405" s="3"/>
+      <c r="H405" s="3"/>
+      <c r="I405" s="3"/>
+      <c r="J405" s="3"/>
+      <c r="K405" s="3"/>
+      <c r="L405" s="3"/>
+      <c r="M405" s="3"/>
+      <c r="N405" s="3"/>
+      <c r="O405" s="3"/>
+      <c r="P405" s="3"/>
+      <c r="Q405" s="3"/>
+      <c r="R405" s="3"/>
+      <c r="S405" s="3"/>
+      <c r="T405" s="3"/>
+      <c r="U405" s="3"/>
+      <c r="V405" s="3"/>
+      <c r="W405" s="3"/>
+      <c r="X405" s="3"/>
+    </row>
+    <row r="406" spans="2:24">
+      <c r="B406" s="4">
+        <v>43092</v>
+      </c>
+      <c r="C406" s="3">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="D406" s="3"/>
+      <c r="E406" s="3"/>
+      <c r="F406" s="3"/>
+      <c r="G406" s="3"/>
+      <c r="H406" s="3"/>
+      <c r="I406" s="3"/>
+      <c r="J406" s="3"/>
+      <c r="K406" s="3"/>
+      <c r="L406" s="3"/>
+      <c r="M406" s="3"/>
+      <c r="N406" s="3"/>
+      <c r="O406" s="3"/>
+      <c r="P406" s="3"/>
+      <c r="Q406" s="3"/>
+      <c r="R406" s="3"/>
+      <c r="S406" s="3"/>
+      <c r="T406" s="3"/>
+      <c r="U406" s="3"/>
+      <c r="V406" s="3"/>
+      <c r="W406" s="3"/>
+      <c r="X406" s="3"/>
+    </row>
+    <row r="407" spans="2:24">
+      <c r="B407" s="4">
+        <v>43093</v>
+      </c>
+      <c r="C407" s="3">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="D407" s="3"/>
+      <c r="E407" s="3"/>
+      <c r="F407" s="3"/>
+      <c r="G407" s="3"/>
+      <c r="H407" s="3"/>
+      <c r="I407" s="3"/>
+      <c r="J407" s="3"/>
+      <c r="K407" s="3"/>
+      <c r="L407" s="3"/>
+      <c r="M407" s="3"/>
+      <c r="N407" s="3"/>
+      <c r="O407" s="3"/>
+      <c r="P407" s="3"/>
+      <c r="Q407" s="3"/>
+      <c r="R407" s="3"/>
+      <c r="S407" s="3"/>
+      <c r="T407" s="3"/>
+      <c r="U407" s="3"/>
+      <c r="V407" s="3"/>
+      <c r="W407" s="3"/>
+      <c r="X407" s="3"/>
+    </row>
+    <row r="408" spans="2:24">
+      <c r="B408" s="4">
+        <v>43094</v>
+      </c>
+      <c r="C408" s="3">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="D408" s="3"/>
+      <c r="E408" s="3"/>
+      <c r="F408" s="3"/>
+      <c r="G408" s="3"/>
+      <c r="H408" s="3"/>
+      <c r="I408" s="3"/>
+      <c r="J408" s="3"/>
+      <c r="K408" s="3"/>
+      <c r="L408" s="3"/>
+      <c r="M408" s="3"/>
+      <c r="N408" s="3"/>
+      <c r="O408" s="3"/>
+      <c r="P408" s="3"/>
+      <c r="Q408" s="3"/>
+      <c r="R408" s="3"/>
+      <c r="S408" s="3"/>
+      <c r="T408" s="3"/>
+      <c r="U408" s="3"/>
+      <c r="V408" s="3"/>
+      <c r="W408" s="3"/>
+      <c r="X408" s="3"/>
+    </row>
+    <row r="409" spans="2:24">
+      <c r="B409" s="4">
+        <v>43095</v>
+      </c>
+      <c r="C409" s="3">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="D409" s="3"/>
+      <c r="E409" s="3"/>
+      <c r="F409" s="3"/>
+      <c r="G409" s="3"/>
+      <c r="H409" s="3"/>
+      <c r="I409" s="3"/>
+      <c r="J409" s="3"/>
+      <c r="K409" s="3"/>
+      <c r="L409" s="3"/>
+      <c r="M409" s="3"/>
+      <c r="N409" s="3"/>
+      <c r="O409" s="3"/>
+      <c r="P409" s="3"/>
+      <c r="Q409" s="3"/>
+      <c r="R409" s="3"/>
+      <c r="S409" s="3"/>
+      <c r="T409" s="3"/>
+      <c r="U409" s="3"/>
+      <c r="V409" s="3"/>
+      <c r="W409" s="3"/>
+      <c r="X409" s="3"/>
+    </row>
+    <row r="410" spans="2:24">
+      <c r="B410" s="4">
+        <v>43096</v>
+      </c>
+      <c r="C410" s="3">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="D410" s="3"/>
+      <c r="E410" s="3"/>
+      <c r="F410" s="3"/>
+      <c r="G410" s="3"/>
+      <c r="H410" s="3"/>
+      <c r="I410" s="3"/>
+      <c r="J410" s="3"/>
+      <c r="K410" s="3"/>
+      <c r="L410" s="3"/>
+      <c r="M410" s="3"/>
+      <c r="N410" s="3"/>
+      <c r="O410" s="3"/>
+      <c r="P410" s="3"/>
+      <c r="Q410" s="3"/>
+      <c r="R410" s="3"/>
+      <c r="S410" s="3"/>
+      <c r="T410" s="3"/>
+      <c r="U410" s="3"/>
+      <c r="V410" s="3"/>
+      <c r="W410" s="3"/>
+      <c r="X410" s="3"/>
+    </row>
+    <row r="411" spans="2:24">
+      <c r="B411" s="4">
+        <v>43097</v>
+      </c>
+      <c r="C411" s="3">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="D411" s="3"/>
+      <c r="E411" s="3"/>
+      <c r="F411" s="3"/>
+      <c r="G411" s="3"/>
+      <c r="H411" s="3"/>
+      <c r="I411" s="3"/>
+      <c r="J411" s="3"/>
+      <c r="K411" s="3"/>
+      <c r="L411" s="3"/>
+      <c r="M411" s="3"/>
+      <c r="N411" s="3"/>
+      <c r="O411" s="3"/>
+      <c r="P411" s="3"/>
+      <c r="Q411" s="3"/>
+      <c r="R411" s="3"/>
+      <c r="S411" s="3"/>
+      <c r="T411" s="3"/>
+      <c r="U411" s="3"/>
+      <c r="V411" s="3"/>
+      <c r="W411" s="3"/>
+      <c r="X411" s="3"/>
+    </row>
+    <row r="412" spans="2:24">
+      <c r="B412" s="4">
+        <v>43098</v>
+      </c>
+      <c r="C412" s="3">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="D412" s="3"/>
+      <c r="E412" s="3"/>
+      <c r="F412" s="3"/>
+      <c r="G412" s="3"/>
+      <c r="H412" s="3"/>
+      <c r="I412" s="3"/>
+      <c r="J412" s="3"/>
+      <c r="K412" s="3"/>
+      <c r="L412" s="3"/>
+      <c r="M412" s="3"/>
+      <c r="N412" s="3"/>
+      <c r="O412" s="3"/>
+      <c r="P412" s="3"/>
+      <c r="Q412" s="3"/>
+      <c r="R412" s="3"/>
+      <c r="S412" s="3"/>
+      <c r="T412" s="3"/>
+      <c r="U412" s="3"/>
+      <c r="V412" s="3"/>
+      <c r="W412" s="3"/>
+      <c r="X412" s="3"/>
+    </row>
+    <row r="413" spans="2:24">
+      <c r="B413" s="4">
+        <v>43099</v>
+      </c>
+      <c r="C413" s="3">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="D413" s="3"/>
+      <c r="E413" s="3"/>
+      <c r="F413" s="3"/>
+      <c r="G413" s="3"/>
+      <c r="H413" s="3"/>
+      <c r="I413" s="3"/>
+      <c r="J413" s="3"/>
+      <c r="K413" s="3"/>
+      <c r="L413" s="3"/>
+      <c r="M413" s="3"/>
+      <c r="N413" s="3"/>
+      <c r="O413" s="3"/>
+      <c r="P413" s="3"/>
+      <c r="Q413" s="3"/>
+      <c r="R413" s="3"/>
+      <c r="S413" s="3"/>
+      <c r="T413" s="3"/>
+      <c r="U413" s="3"/>
+      <c r="V413" s="3"/>
+      <c r="W413" s="3"/>
+      <c r="X413" s="3"/>
+    </row>
+    <row r="414" spans="2:24">
+      <c r="B414" s="4">
+        <v>43100</v>
+      </c>
+      <c r="C414" s="3">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="D414" s="3"/>
+      <c r="E414" s="3"/>
+      <c r="F414" s="3"/>
+      <c r="G414" s="3"/>
+      <c r="H414" s="3"/>
+      <c r="I414" s="3"/>
+      <c r="J414" s="3"/>
+      <c r="K414" s="3"/>
+      <c r="L414" s="3"/>
+      <c r="M414" s="3"/>
+      <c r="N414" s="3"/>
+      <c r="O414" s="3"/>
+      <c r="P414" s="3"/>
+      <c r="Q414" s="3"/>
+      <c r="R414" s="3"/>
+      <c r="S414" s="3"/>
+      <c r="T414" s="3"/>
+      <c r="U414" s="3"/>
+      <c r="V414" s="3"/>
+      <c r="W414" s="3"/>
+      <c r="X414" s="3"/>
+    </row>
+    <row r="415" spans="2:24">
+      <c r="B415" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C415" s="6">
+        <f>SUM(C384:C414)</f>
+        <v>0</v>
+      </c>
+      <c r="D415" s="6"/>
+      <c r="E415" s="6"/>
+      <c r="F415" s="6"/>
+      <c r="G415" s="6"/>
+      <c r="H415" s="6"/>
+      <c r="I415" s="6"/>
+      <c r="J415" s="6"/>
+      <c r="K415" s="6"/>
+      <c r="L415" s="6"/>
+      <c r="M415" s="6"/>
+      <c r="N415" s="6"/>
+      <c r="O415" s="6"/>
+      <c r="P415" s="6"/>
+      <c r="Q415" s="6"/>
+      <c r="R415" s="6"/>
+      <c r="S415" s="6"/>
+      <c r="T415" s="6"/>
+      <c r="U415" s="6"/>
+      <c r="V415" s="6"/>
+      <c r="W415" s="6"/>
+      <c r="X415" s="6"/>
+    </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="B2:B3"/>
@@ -23633,9 +32360,14 @@
     <mergeCell ref="C2:C3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="D4:X5 D7:X37 D39:X69 D100:X130 D71:X98 D163:X193 D132:X161 D195:X224 D226:X256 D258:X288">
-    <cfRule type="containsBlanks" dxfId="0" priority="20">
+  <conditionalFormatting sqref="D4:X5 D7:X37 D39:X69 D100:X130 D71:X98 D163:X193 D132:X161 D195:X224 D226:X256 D258:X288 D290:X319 D321:X351 D353:X382">
+    <cfRule type="containsBlanks" dxfId="2" priority="24">
       <formula>LEN(TRIM(D4))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D384:X414">
+    <cfRule type="containsBlanks" dxfId="1" priority="1">
+      <formula>LEN(TRIM(D384))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DailyExpense.xlsx
+++ b/DailyExpense.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
+    <workbookView xWindow="8835" yWindow="120" windowWidth="19200" windowHeight="11640"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17132,8 +17132,8 @@
   <dimension ref="B2:X415"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A367" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q393" sqref="Q393"/>
+      <pane ySplit="3" topLeftCell="A349" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q370" sqref="Q370"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
